--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14353</v>
+        <v>0.14375</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,17 +584,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.78</v>
+        <v>31.74</v>
       </c>
       <c r="O2" t="n">
-        <v>31780</v>
+        <v>31740</v>
       </c>
       <c r="P2" t="n">
         <v>30.68540181</v>
@@ -606,7 +606,7 @@
         <v>30685.40181</v>
       </c>
       <c r="S2" t="n">
-        <v>1094.59819</v>
+        <v>1054.59819</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4561.3834</v>
+        <v>4562.625</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1599</v>
+        <v>1.1645</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -643,12 +643,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LVMH MOET HENNESSY LOUIS VUI</t>
+          <t>HERMES INTL</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -659,29 +659,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>609.2</v>
+        <v>2113</v>
       </c>
       <c r="O3" t="n">
-        <v>6092</v>
+        <v>6339</v>
       </c>
       <c r="P3" t="n">
-        <v>625.9127999999999</v>
+        <v>2126.0625</v>
       </c>
       <c r="Q3" t="n">
-        <v>625.9127999999999</v>
+        <v>2126.0625</v>
       </c>
       <c r="R3" t="n">
-        <v>6259.128</v>
+        <v>6378.1875</v>
       </c>
       <c r="S3" t="n">
-        <v>-167.128</v>
+        <v>-39.1875</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>7066.110799999999</v>
+        <v>7381.7655</v>
       </c>
     </row>
     <row r="4">
@@ -700,11 +700,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1599</v>
+        <v>0.77833</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -713,17 +713,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -734,29 +734,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="N4" t="n">
-        <v>2190</v>
+        <v>4.905</v>
       </c>
       <c r="O4" t="n">
-        <v>6570</v>
+        <v>24525</v>
       </c>
       <c r="P4" t="n">
-        <v>2126.0625</v>
+        <v>4.54124249</v>
       </c>
       <c r="Q4" t="n">
-        <v>2126.0625</v>
+        <v>4.54124249</v>
       </c>
       <c r="R4" t="n">
-        <v>6378.1875</v>
+        <v>22706.21245</v>
       </c>
       <c r="S4" t="n">
-        <v>191.8125</v>
+        <v>1818.78755</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>7620.543</v>
+        <v>19088.54325</v>
       </c>
     </row>
     <row r="5">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.77579</v>
+        <v>0.77833</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -793,12 +793,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -809,29 +809,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>4.927</v>
+        <v>552.1</v>
       </c>
       <c r="O5" t="n">
-        <v>24635</v>
+        <v>27605</v>
       </c>
       <c r="P5" t="n">
-        <v>4.54124249</v>
+        <v>432.4596912</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.54124249</v>
+        <v>432.4596912</v>
       </c>
       <c r="R5" t="n">
-        <v>22706.21245</v>
+        <v>21622.98456</v>
       </c>
       <c r="S5" t="n">
-        <v>1928.78755</v>
+        <v>5982.01544</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>19111.58665</v>
+        <v>21485.79965</v>
       </c>
     </row>
     <row r="6">
@@ -850,11 +850,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.77579</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -863,17 +863,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>AMAZON.COM INC</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -884,29 +884,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>545.45</v>
+        <v>239.12</v>
       </c>
       <c r="O6" t="n">
-        <v>27272.5</v>
+        <v>23912</v>
       </c>
       <c r="P6" t="n">
-        <v>432.4596912</v>
+        <v>216.590322</v>
       </c>
       <c r="Q6" t="n">
-        <v>432.4596912</v>
+        <v>216.590322</v>
       </c>
       <c r="R6" t="n">
-        <v>21622.98456</v>
+        <v>21659.0322</v>
       </c>
       <c r="S6" t="n">
-        <v>5649.51544</v>
+        <v>2252.9678</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>21157.732775</v>
+        <v>23912</v>
       </c>
     </row>
     <row r="7">
@@ -938,17 +938,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AMAZON.COM INC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -959,29 +959,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>239.12</v>
+        <v>13.26</v>
       </c>
       <c r="O7" t="n">
-        <v>23912</v>
+        <v>1326</v>
       </c>
       <c r="P7" t="n">
-        <v>216.590322</v>
+        <v>12.97</v>
       </c>
       <c r="Q7" t="n">
-        <v>216.590322</v>
+        <v>12.97</v>
       </c>
       <c r="R7" t="n">
-        <v>21659.0322</v>
+        <v>1297</v>
       </c>
       <c r="S7" t="n">
-        <v>2252.9678</v>
+        <v>29</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>23912</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1034,29 +1034,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>13.26</v>
+        <v>54.39</v>
       </c>
       <c r="O8" t="n">
-        <v>1326</v>
+        <v>2719.5</v>
       </c>
       <c r="P8" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="R8" t="n">
-        <v>1297</v>
+        <v>2314.2511</v>
       </c>
       <c r="S8" t="n">
-        <v>29</v>
+        <v>405.2489</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1326</v>
+        <v>2719.5</v>
       </c>
     </row>
     <row r="9">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1109,29 +1109,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>54.39</v>
+        <v>12.09</v>
       </c>
       <c r="O9" t="n">
-        <v>2719.5</v>
+        <v>1209</v>
       </c>
       <c r="P9" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="R9" t="n">
-        <v>2314.2511</v>
+        <v>1249</v>
       </c>
       <c r="S9" t="n">
-        <v>405.2489</v>
+        <v>-40</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2719.5</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="10">
@@ -1163,17 +1163,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1184,29 +1184,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>12.09</v>
+        <v>1444</v>
       </c>
       <c r="O10" t="n">
-        <v>1209</v>
+        <v>14440</v>
       </c>
       <c r="P10" t="n">
-        <v>12.49</v>
+        <v>1476.8770695</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.49</v>
+        <v>1476.8770695</v>
       </c>
       <c r="R10" t="n">
-        <v>1249</v>
+        <v>14768.770695</v>
       </c>
       <c r="S10" t="n">
-        <v>-40</v>
+        <v>-328.770695</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1209</v>
+        <v>14440</v>
       </c>
     </row>
     <row r="11">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>CTEC</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ISHARES CHINA TECH USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1259,29 +1259,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="n">
-        <v>1468</v>
+        <v>5.488</v>
       </c>
       <c r="O11" t="n">
-        <v>14680</v>
+        <v>10976</v>
       </c>
       <c r="P11" t="n">
-        <v>1476.8770695</v>
+        <v>5.5697835</v>
       </c>
       <c r="Q11" t="n">
-        <v>1476.8770695</v>
+        <v>5.5697835</v>
       </c>
       <c r="R11" t="n">
-        <v>14768.770695</v>
+        <v>11139.567</v>
       </c>
       <c r="S11" t="n">
-        <v>-88.770695</v>
+        <v>-163.567</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>14680</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="12">
@@ -1313,17 +1313,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHARES CHINA TECH USD ACC</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1334,29 +1334,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5.473</v>
+        <v>330</v>
       </c>
       <c r="O12" t="n">
-        <v>10946</v>
+        <v>33000</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5697835</v>
+        <v>312.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.5697835</v>
+        <v>312.15</v>
       </c>
       <c r="R12" t="n">
-        <v>11139.567</v>
+        <v>31215</v>
       </c>
       <c r="S12" t="n">
-        <v>-193.567</v>
+        <v>1785</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>10946</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="13">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GRAB</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>GRAB HOLDINGS LTD - CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1409,29 +1409,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>330</v>
+        <v>4.38</v>
       </c>
       <c r="O13" t="n">
-        <v>33000</v>
+        <v>2190</v>
       </c>
       <c r="P13" t="n">
-        <v>312.15</v>
+        <v>5.166</v>
       </c>
       <c r="Q13" t="n">
-        <v>312.15</v>
+        <v>5.166</v>
       </c>
       <c r="R13" t="n">
-        <v>31215</v>
+        <v>2583</v>
       </c>
       <c r="S13" t="n">
-        <v>1785</v>
+        <v>-393</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>33000</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="14">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GRAB HOLDINGS LTD - CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1484,29 +1484,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>4.38</v>
+        <v>9.2675</v>
       </c>
       <c r="O14" t="n">
-        <v>2190</v>
+        <v>9267.5</v>
       </c>
       <c r="P14" t="n">
-        <v>5.166</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.166</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>2583</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-393</v>
+        <v>-157.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2190</v>
+        <v>9267.5</v>
       </c>
     </row>
     <row r="15">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1559,29 +1559,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>9.42</v>
+        <v>25.9392</v>
       </c>
       <c r="O15" t="n">
-        <v>9420</v>
+        <v>9986.59</v>
       </c>
       <c r="P15" t="n">
-        <v>9.424709999999999</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.424709999999999</v>
+        <v>26.012734603</v>
       </c>
       <c r="R15" t="n">
-        <v>9424.709999999999</v>
+        <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>-4.71</v>
+        <v>-28.312822</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>9420</v>
+        <v>9986.59</v>
       </c>
     </row>
     <row r="16">
@@ -1613,17 +1613,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1634,29 +1634,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>385</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>26.1068</v>
+        <v>33.95</v>
       </c>
       <c r="O16" t="n">
-        <v>10051.12</v>
+        <v>1697.5</v>
       </c>
       <c r="P16" t="n">
-        <v>26.012734603</v>
+        <v>36.96000022</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.012734603</v>
+        <v>36.96000022</v>
       </c>
       <c r="R16" t="n">
-        <v>10014.902822</v>
+        <v>1848.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>36.217178</v>
+        <v>-150.500011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>10051.12</v>
+        <v>1697.5</v>
       </c>
     </row>
     <row r="17">
@@ -1688,17 +1688,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1709,29 +1709,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>33.95</v>
+        <v>9.939</v>
       </c>
       <c r="O17" t="n">
-        <v>1697.5</v>
+        <v>9939</v>
       </c>
       <c r="P17" t="n">
-        <v>36.96000022</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.96000022</v>
+        <v>10.2267108</v>
       </c>
       <c r="R17" t="n">
-        <v>1848.000011</v>
+        <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-150.500011</v>
+        <v>-287.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1697.5</v>
+        <v>9939</v>
       </c>
     </row>
     <row r="18">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>LULULEMON ATHLETICA INC</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1784,29 +1784,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>10.127</v>
+        <v>201.87</v>
       </c>
       <c r="O18" t="n">
-        <v>10127</v>
+        <v>8074.8</v>
       </c>
       <c r="P18" t="n">
-        <v>10.2267108</v>
+        <v>186.05813325</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.2267108</v>
+        <v>186.05813325</v>
       </c>
       <c r="R18" t="n">
-        <v>10226.7108</v>
+        <v>7442.32533</v>
       </c>
       <c r="S18" t="n">
-        <v>-99.71080000000001</v>
+        <v>632.4746699999999</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>10127</v>
+        <v>8074.8</v>
       </c>
     </row>
     <row r="19">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LULULEMON ATHLETICA INC</t>
+          <t>MERCADOLIBRE INC</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1859,29 +1859,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>201.87</v>
+        <v>2075.01</v>
       </c>
       <c r="O19" t="n">
-        <v>8074.8</v>
+        <v>2075.01</v>
       </c>
       <c r="P19" t="n">
-        <v>186.05813325</v>
+        <v>2086.200022</v>
       </c>
       <c r="Q19" t="n">
-        <v>186.05813325</v>
+        <v>2086.200022</v>
       </c>
       <c r="R19" t="n">
-        <v>7442.32533</v>
+        <v>2086.200022</v>
       </c>
       <c r="S19" t="n">
-        <v>632.4746699999999</v>
+        <v>-11.190022</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>8074.8</v>
+        <v>2075.01</v>
       </c>
     </row>
     <row r="20">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE INC</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1934,29 +1934,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>2075.01</v>
+        <v>186.23</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.01</v>
+        <v>37246</v>
       </c>
       <c r="P20" t="n">
-        <v>2086.200022</v>
+        <v>185.216422</v>
       </c>
       <c r="Q20" t="n">
-        <v>2086.200022</v>
+        <v>185.216422</v>
       </c>
       <c r="R20" t="n">
-        <v>2086.200022</v>
+        <v>37043.2844</v>
       </c>
       <c r="S20" t="n">
-        <v>-11.190022</v>
+        <v>202.7156</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2075.01</v>
+        <v>37246</v>
       </c>
     </row>
     <row r="21">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2009,29 +2009,29 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>186.23</v>
+        <v>191.09</v>
       </c>
       <c r="O21" t="n">
-        <v>37246</v>
+        <v>19109</v>
       </c>
       <c r="P21" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="R21" t="n">
-        <v>37043.2844</v>
+        <v>20533.57044</v>
       </c>
       <c r="S21" t="n">
-        <v>202.7156</v>
+        <v>-1424.57044</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>37246</v>
+        <v>19109</v>
       </c>
     </row>
     <row r="22">
@@ -2063,17 +2063,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2084,29 +2084,29 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>191.09</v>
+        <v>121.42</v>
       </c>
       <c r="O22" t="n">
-        <v>19109</v>
+        <v>1214.2</v>
       </c>
       <c r="P22" t="n">
-        <v>205.3357044</v>
+        <v>128.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.3357044</v>
+        <v>128.6</v>
       </c>
       <c r="R22" t="n">
-        <v>20533.57044</v>
+        <v>1286</v>
       </c>
       <c r="S22" t="n">
-        <v>-1424.57044</v>
+        <v>-71.8</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>19109</v>
+        <v>1214.2</v>
       </c>
     </row>
     <row r="23">
@@ -2138,17 +2138,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2159,29 +2159,29 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="N23" t="n">
-        <v>121.42</v>
+        <v>172.46</v>
       </c>
       <c r="O23" t="n">
-        <v>1214.2</v>
+        <v>103476</v>
       </c>
       <c r="P23" t="n">
-        <v>128.6</v>
+        <v>170.213547575</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.6</v>
+        <v>170.213547575</v>
       </c>
       <c r="R23" t="n">
-        <v>1286</v>
+        <v>102128.128545</v>
       </c>
       <c r="S23" t="n">
-        <v>-71.8</v>
+        <v>1347.871455</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1214.2</v>
+        <v>103476</v>
       </c>
     </row>
     <row r="24">
@@ -2208,55 +2208,65 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6525</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>173.84</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>104304</v>
+        <v>1900</v>
       </c>
       <c r="P24" t="n">
-        <v>170.213547575</v>
+        <v>31.5284</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.213547575</v>
+        <v>31.5284</v>
       </c>
       <c r="R24" t="n">
-        <v>102128.128545</v>
+        <v>3152.84</v>
       </c>
       <c r="S24" t="n">
-        <v>2175.871455</v>
+        <v>-1252.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2264,7 +2274,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>104304</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="25">
@@ -2288,24 +2298,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>50</v>
       </c>
       <c r="I25" t="n">
-        <v>6525</v>
+        <v>7300</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2314,34 +2324,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1900</v>
+        <v>350</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="R25" t="n">
-        <v>3152.84</v>
+        <v>802.84</v>
       </c>
       <c r="S25" t="n">
-        <v>-1252.84</v>
+        <v>-452.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2349,7 +2359,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1900</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -2368,73 +2378,73 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>AAPL  260130P00250000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>AAPL 30JAN26 250 P</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>7300</v>
+        <v>250</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O26" t="n">
-        <v>350</v>
+        <v>-355</v>
       </c>
       <c r="P26" t="n">
-        <v>8.0284</v>
+        <v>3.0594796</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.0284</v>
+        <v>3.0594796</v>
       </c>
       <c r="R26" t="n">
-        <v>802.84</v>
+        <v>-305.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>-452.84</v>
+        <v>-49.05204</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>350</v>
+        <v>-355</v>
       </c>
     </row>
     <row r="27">
@@ -2463,23 +2473,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AAPL  260130P00250000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AAPL 30JAN26 250 P</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2489,29 +2499,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>2.715</v>
       </c>
       <c r="O27" t="n">
-        <v>-355</v>
+        <v>-271.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3.0594796</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.0594796</v>
+        <v>4.3794796</v>
       </c>
       <c r="R27" t="n">
-        <v>-305.94796</v>
+        <v>-437.94796</v>
       </c>
       <c r="S27" t="n">
-        <v>-49.05204</v>
+        <v>166.44796</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2519,7 +2529,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>-355</v>
+        <v>-271.5</v>
       </c>
     </row>
     <row r="28">
@@ -2543,60 +2553,60 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.715</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>-271.5</v>
+        <v>-550</v>
       </c>
       <c r="P28" t="n">
-        <v>4.3794796</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.3794796</v>
+        <v>5.4294796</v>
       </c>
       <c r="R28" t="n">
-        <v>-437.94796</v>
+        <v>-542.94796</v>
       </c>
       <c r="S28" t="n">
-        <v>166.44796</v>
+        <v>-7.05204</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2604,7 +2614,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>-271.5</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="29">
@@ -2628,24 +2638,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2654,34 +2664,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>6.975</v>
       </c>
       <c r="O29" t="n">
-        <v>-550</v>
+        <v>-697.5</v>
       </c>
       <c r="P29" t="n">
-        <v>5.4294796</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.4294796</v>
+        <v>7.2294546</v>
       </c>
       <c r="R29" t="n">
-        <v>-542.94796</v>
+        <v>-722.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.05204</v>
+        <v>25.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2689,7 +2699,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>-550</v>
+        <v>-697.5</v>
       </c>
     </row>
     <row r="30">
@@ -2713,24 +2723,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2739,34 +2749,34 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>6.975</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
-        <v>-697.5</v>
+        <v>-365</v>
       </c>
       <c r="P30" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R30" t="n">
-        <v>-722.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S30" t="n">
-        <v>25.44546</v>
+        <v>199.94546</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2774,7 +2784,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>-697.5</v>
+        <v>-365</v>
       </c>
     </row>
     <row r="31">
@@ -2798,60 +2808,60 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.65</v>
+        <v>2.185</v>
       </c>
       <c r="O31" t="n">
-        <v>-365</v>
+        <v>-218.5</v>
       </c>
       <c r="P31" t="n">
-        <v>5.6494546</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.6494546</v>
+        <v>2.4194546</v>
       </c>
       <c r="R31" t="n">
-        <v>-564.94546</v>
+        <v>-241.94546</v>
       </c>
       <c r="S31" t="n">
-        <v>199.94546</v>
+        <v>23.44546</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2859,7 +2869,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>-365</v>
+        <v>-218.5</v>
       </c>
     </row>
     <row r="32">
@@ -2883,60 +2893,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.185</v>
+        <v>1.78</v>
       </c>
       <c r="O32" t="n">
-        <v>-218.5</v>
+        <v>-356</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4194546</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4194546</v>
+        <v>2.1886796</v>
       </c>
       <c r="R32" t="n">
-        <v>-241.94546</v>
+        <v>-437.73592</v>
       </c>
       <c r="S32" t="n">
-        <v>23.44546</v>
+        <v>81.73591999999999</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2944,7 +2954,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>-218.5</v>
+        <v>-356</v>
       </c>
     </row>
     <row r="33">
@@ -2973,12 +2983,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>ORCL  260123C00195000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>ORCL 23JAN26 195 C</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2989,7 +2999,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2999,29 +3009,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.78</v>
+        <v>2.755</v>
       </c>
       <c r="O33" t="n">
-        <v>-356</v>
+        <v>-275.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1886796</v>
+        <v>1.7325796</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1886796</v>
+        <v>1.7325796</v>
       </c>
       <c r="R33" t="n">
-        <v>-437.73592</v>
+        <v>-173.25796</v>
       </c>
       <c r="S33" t="n">
-        <v>81.73591999999999</v>
+        <v>-102.24204</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3029,7 +3039,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>-356</v>
+        <v>-275.5</v>
       </c>
     </row>
     <row r="34">
@@ -3048,65 +3058,65 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ORCL  260123C00195000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ORCL 23JAN26 195 C</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I34" t="n">
-        <v>195</v>
+        <v>6625</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>2.755</v>
+        <v>26.25</v>
       </c>
       <c r="O34" t="n">
-        <v>-275.5</v>
+        <v>-2625</v>
       </c>
       <c r="P34" t="n">
-        <v>1.7325796</v>
+        <v>42.2216</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7325796</v>
+        <v>42.2216</v>
       </c>
       <c r="R34" t="n">
-        <v>-173.25796</v>
+        <v>-4222.16</v>
       </c>
       <c r="S34" t="n">
-        <v>-102.24204</v>
+        <v>1597.16</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3114,7 +3124,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>-275.5</v>
+        <v>-2625</v>
       </c>
     </row>
     <row r="35">
@@ -3138,24 +3148,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>50</v>
       </c>
       <c r="I35" t="n">
-        <v>6625</v>
+        <v>7200</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3164,34 +3174,34 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>26.25</v>
+        <v>12.25</v>
       </c>
       <c r="O35" t="n">
-        <v>-2625</v>
+        <v>-1225</v>
       </c>
       <c r="P35" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="R35" t="n">
-        <v>-4222.16</v>
+        <v>-1897.16</v>
       </c>
       <c r="S35" t="n">
-        <v>1597.16</v>
+        <v>672.16</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3199,91 +3209,6 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>-2625</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>50</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-1225</v>
-      </c>
-      <c r="P36" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S36" t="n">
-        <v>672.16</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
         <v>-1225</v>
       </c>
     </row>
@@ -3425,7 +3350,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.1599</v>
+        <v>1.1645</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3455,17 +3380,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>47.82</v>
+        <v>46.44</v>
       </c>
       <c r="O2" t="n">
-        <v>47820</v>
+        <v>46440</v>
       </c>
       <c r="P2" t="n">
         <v>43.01</v>
@@ -3477,7 +3402,7 @@
         <v>43010</v>
       </c>
       <c r="S2" t="n">
-        <v>4810</v>
+        <v>3430</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3485,7 +3410,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>55466.418</v>
+        <v>54079.38</v>
       </c>
     </row>
     <row r="3">
@@ -3500,7 +3425,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1599</v>
+        <v>1.1645</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3530,29 +3455,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>609.2</v>
+        <v>582.8</v>
       </c>
       <c r="O3" t="n">
-        <v>6092</v>
+        <v>2914</v>
       </c>
       <c r="P3" t="n">
-        <v>624.2</v>
+        <v>624.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>624.2</v>
+        <v>624.1</v>
       </c>
       <c r="R3" t="n">
-        <v>6242</v>
+        <v>3120.5</v>
       </c>
       <c r="S3" t="n">
-        <v>-150</v>
+        <v>-206.5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3560,7 +3485,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>7066.110799999999</v>
+        <v>3393.353</v>
       </c>
     </row>
     <row r="4">
@@ -3575,7 +3500,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1599</v>
+        <v>1.1645</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3605,17 +3530,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2190</v>
+        <v>2113</v>
       </c>
       <c r="O4" t="n">
-        <v>6570</v>
+        <v>6339</v>
       </c>
       <c r="P4" t="n">
         <v>2127.063</v>
@@ -3627,7 +3552,7 @@
         <v>6381.189</v>
       </c>
       <c r="S4" t="n">
-        <v>188.811</v>
+        <v>-42.189</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3635,7 +3560,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>7620.543</v>
+        <v>7381.7655</v>
       </c>
     </row>
     <row r="5">
@@ -3650,7 +3575,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1599</v>
+        <v>1.1645</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3680,17 +3605,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>149.9</v>
+        <v>148.04</v>
       </c>
       <c r="O5" t="n">
-        <v>59960</v>
+        <v>59216</v>
       </c>
       <c r="P5" t="n">
         <v>146.3403336</v>
@@ -3702,7 +3627,7 @@
         <v>58536.13344</v>
       </c>
       <c r="S5" t="n">
-        <v>1423.86656</v>
+        <v>679.86656</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3710,7 +3635,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>69547.60399999999</v>
+        <v>68957.03200000001</v>
       </c>
     </row>
     <row r="6">
@@ -3725,7 +3650,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.77579</v>
+        <v>0.77833</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3755,17 +3680,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>10000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.927</v>
+        <v>4.905</v>
       </c>
       <c r="O6" t="n">
-        <v>49270</v>
+        <v>49050</v>
       </c>
       <c r="P6" t="n">
         <v>3.81181816</v>
@@ -3777,7 +3702,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S6" t="n">
-        <v>11151.8184</v>
+        <v>10931.8184</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3785,7 +3710,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>38223.1733</v>
+        <v>38177.0865</v>
       </c>
     </row>
     <row r="7">
@@ -3800,7 +3725,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.77579</v>
+        <v>0.77833</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3830,17 +3755,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>545.45</v>
+        <v>552.1</v>
       </c>
       <c r="O7" t="n">
-        <v>5454.5</v>
+        <v>5521</v>
       </c>
       <c r="P7" t="n">
         <v>544.755456</v>
@@ -3852,7 +3777,7 @@
         <v>5447.55456</v>
       </c>
       <c r="S7" t="n">
-        <v>6.94544</v>
+        <v>73.44544</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3860,7 +3785,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>4231.546555</v>
+        <v>4297.15993</v>
       </c>
     </row>
     <row r="8">
@@ -3905,7 +3830,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3980,17 +3905,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>1468</v>
+        <v>1444</v>
       </c>
       <c r="O9" t="n">
-        <v>22020</v>
+        <v>21660</v>
       </c>
       <c r="P9" t="n">
         <v>1461.150733333</v>
@@ -4002,7 +3927,7 @@
         <v>21917.261</v>
       </c>
       <c r="S9" t="n">
-        <v>102.739</v>
+        <v>-257.261</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4010,7 +3935,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>22020</v>
+        <v>21660</v>
       </c>
     </row>
     <row r="10">
@@ -4055,17 +3980,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>3000</v>
       </c>
       <c r="N10" t="n">
-        <v>5.473</v>
+        <v>5.488</v>
       </c>
       <c r="O10" t="n">
-        <v>16419</v>
+        <v>16464</v>
       </c>
       <c r="P10" t="n">
         <v>5.552814967</v>
@@ -4077,7 +4002,7 @@
         <v>16658.4449</v>
       </c>
       <c r="S10" t="n">
-        <v>-239.4449</v>
+        <v>-194.4449</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4085,7 +4010,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>16419</v>
+        <v>16464</v>
       </c>
     </row>
     <row r="11">
@@ -4130,17 +4055,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1000</v>
       </c>
       <c r="N11" t="n">
-        <v>9.42</v>
+        <v>9.2675</v>
       </c>
       <c r="O11" t="n">
-        <v>9420</v>
+        <v>9267.5</v>
       </c>
       <c r="P11" t="n">
         <v>9.405900600000001</v>
@@ -4152,7 +4077,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S11" t="n">
-        <v>14.0994</v>
+        <v>-138.4006</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4160,7 +4085,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9420</v>
+        <v>9267.5</v>
       </c>
     </row>
     <row r="12">
@@ -4205,7 +4130,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -4280,17 +4205,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>385</v>
       </c>
       <c r="N13" t="n">
-        <v>26.1068</v>
+        <v>25.9392</v>
       </c>
       <c r="O13" t="n">
-        <v>10051.12</v>
+        <v>9986.59</v>
       </c>
       <c r="P13" t="n">
         <v>25.997158151</v>
@@ -4302,7 +4227,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S13" t="n">
-        <v>42.214112</v>
+        <v>-22.315888</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4310,7 +4235,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>10051.12</v>
+        <v>9986.59</v>
       </c>
     </row>
     <row r="14">
@@ -4355,7 +4280,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -4430,17 +4355,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>10.127</v>
+        <v>9.939</v>
       </c>
       <c r="O15" t="n">
-        <v>10127</v>
+        <v>9939</v>
       </c>
       <c r="P15" t="n">
         <v>10.229112</v>
@@ -4452,7 +4377,7 @@
         <v>10229.112</v>
       </c>
       <c r="S15" t="n">
-        <v>-102.112</v>
+        <v>-290.112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4460,7 +4385,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>10127</v>
+        <v>9939</v>
       </c>
     </row>
     <row r="16">
@@ -4505,17 +4430,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>800</v>
       </c>
       <c r="N16" t="n">
-        <v>173.84</v>
+        <v>172.46</v>
       </c>
       <c r="O16" t="n">
-        <v>139072</v>
+        <v>137968</v>
       </c>
       <c r="P16" t="n">
         <v>170.683661681</v>
@@ -4527,7 +4452,7 @@
         <v>136546.929345</v>
       </c>
       <c r="S16" t="n">
-        <v>2525.070655</v>
+        <v>1421.070655</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4535,7 +4460,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>139072</v>
+        <v>137968</v>
       </c>
     </row>
     <row r="17">
@@ -4590,7 +4515,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -4675,7 +4600,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -4760,7 +4685,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -4845,7 +4770,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -4927,11 +4852,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-20 10:55:19</t>
+          <t>2026-01-20 23:31:44</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>19</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14375</v>
+        <v>0.14369</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,17 +584,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.74</v>
+        <v>31.66</v>
       </c>
       <c r="O2" t="n">
-        <v>31740</v>
+        <v>31660</v>
       </c>
       <c r="P2" t="n">
         <v>30.68540181</v>
@@ -606,7 +606,7 @@
         <v>30685.40181</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.59819</v>
+        <v>974.59819</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4562.625</v>
+        <v>4549.2254</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1645</v>
+        <v>1.1686</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -659,17 +659,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2113</v>
+        <v>2098</v>
       </c>
       <c r="O3" t="n">
-        <v>6339</v>
+        <v>6294</v>
       </c>
       <c r="P3" t="n">
         <v>2126.0625</v>
@@ -681,7 +681,7 @@
         <v>6378.1875</v>
       </c>
       <c r="S3" t="n">
-        <v>-39.1875</v>
+        <v>-84.1875</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>7381.7655</v>
+        <v>7355.1684</v>
       </c>
     </row>
     <row r="4">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.77833</v>
+        <v>0.77847</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -734,17 +734,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>5000</v>
       </c>
       <c r="N4" t="n">
-        <v>4.905</v>
+        <v>4.888</v>
       </c>
       <c r="O4" t="n">
-        <v>24525</v>
+        <v>24440</v>
       </c>
       <c r="P4" t="n">
         <v>4.54124249</v>
@@ -756,7 +756,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S4" t="n">
-        <v>1818.78755</v>
+        <v>1733.78755</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>19088.54325</v>
+        <v>19025.8068</v>
       </c>
     </row>
     <row r="5">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.77833</v>
+        <v>0.77847</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -809,17 +809,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>552.1</v>
+        <v>574.1</v>
       </c>
       <c r="O5" t="n">
-        <v>27605</v>
+        <v>28705</v>
       </c>
       <c r="P5" t="n">
         <v>432.4596912</v>
@@ -831,7 +831,7 @@
         <v>21622.98456</v>
       </c>
       <c r="S5" t="n">
-        <v>5982.01544</v>
+        <v>7082.01544</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>21485.79965</v>
+        <v>22345.98135</v>
       </c>
     </row>
     <row r="6">
@@ -884,17 +884,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>239.12</v>
+        <v>231.31</v>
       </c>
       <c r="O6" t="n">
-        <v>23912</v>
+        <v>23131</v>
       </c>
       <c r="P6" t="n">
         <v>216.590322</v>
@@ -906,7 +906,7 @@
         <v>21659.0322</v>
       </c>
       <c r="S6" t="n">
-        <v>2252.9678</v>
+        <v>1471.9678</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>23912</v>
+        <v>23131</v>
       </c>
     </row>
     <row r="7">
@@ -959,17 +959,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>13.26</v>
+        <v>12.49</v>
       </c>
       <c r="O7" t="n">
-        <v>1326</v>
+        <v>1249</v>
       </c>
       <c r="P7" t="n">
         <v>12.97</v>
@@ -981,7 +981,7 @@
         <v>1297</v>
       </c>
       <c r="S7" t="n">
-        <v>29</v>
+        <v>-48</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1326</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="8">
@@ -1034,17 +1034,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>54.39</v>
+        <v>56.44</v>
       </c>
       <c r="O8" t="n">
-        <v>2719.5</v>
+        <v>2822</v>
       </c>
       <c r="P8" t="n">
         <v>46.285022</v>
@@ -1056,7 +1056,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S8" t="n">
-        <v>405.2489</v>
+        <v>507.7489</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2719.5</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="9">
@@ -1109,17 +1109,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12.09</v>
+        <v>11.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="P9" t="n">
         <v>12.49</v>
@@ -1131,7 +1131,7 @@
         <v>1249</v>
       </c>
       <c r="S9" t="n">
-        <v>-40</v>
+        <v>-59</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10">
@@ -1184,17 +1184,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>1444</v>
+        <v>1448.2</v>
       </c>
       <c r="O10" t="n">
-        <v>14440</v>
+        <v>14482</v>
       </c>
       <c r="P10" t="n">
         <v>1476.8770695</v>
@@ -1206,7 +1206,7 @@
         <v>14768.770695</v>
       </c>
       <c r="S10" t="n">
-        <v>-328.770695</v>
+        <v>-286.770695</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>14440</v>
+        <v>14482</v>
       </c>
     </row>
     <row r="11">
@@ -1259,17 +1259,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>2000</v>
       </c>
       <c r="N11" t="n">
-        <v>5.488</v>
+        <v>5.481</v>
       </c>
       <c r="O11" t="n">
-        <v>10976</v>
+        <v>10962</v>
       </c>
       <c r="P11" t="n">
         <v>5.5697835</v>
@@ -1281,7 +1281,7 @@
         <v>11139.567</v>
       </c>
       <c r="S11" t="n">
-        <v>-163.567</v>
+        <v>-177.567</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>10976</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="12">
@@ -1334,17 +1334,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>330</v>
+        <v>328.38</v>
       </c>
       <c r="O12" t="n">
-        <v>33000</v>
+        <v>32838</v>
       </c>
       <c r="P12" t="n">
         <v>312.15</v>
@@ -1356,7 +1356,7 @@
         <v>31215</v>
       </c>
       <c r="S12" t="n">
-        <v>1785</v>
+        <v>1623</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>33000</v>
+        <v>32838</v>
       </c>
     </row>
     <row r="13">
@@ -1409,17 +1409,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="P13" t="n">
         <v>5.166</v>
@@ -1431,7 +1431,7 @@
         <v>2583</v>
       </c>
       <c r="S13" t="n">
-        <v>-393</v>
+        <v>-383</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2190</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14">
@@ -1484,17 +1484,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.2675</v>
+        <v>9.43</v>
       </c>
       <c r="O14" t="n">
-        <v>9267.5</v>
+        <v>9430</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1506,7 +1506,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-157.21</v>
+        <v>5.29</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>9267.5</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="15">
@@ -1559,17 +1559,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>25.9392</v>
+        <v>26.0432</v>
       </c>
       <c r="O15" t="n">
-        <v>9986.59</v>
+        <v>10026.63</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1581,7 +1581,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>-28.312822</v>
+        <v>11.727178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>9986.59</v>
+        <v>10026.63</v>
       </c>
     </row>
     <row r="16">
@@ -1634,17 +1634,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>33.95</v>
+        <v>33.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.5</v>
+        <v>1662.5</v>
       </c>
       <c r="P16" t="n">
         <v>36.96000022</v>
@@ -1656,7 +1656,7 @@
         <v>1848.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-150.500011</v>
+        <v>-185.500011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1697.5</v>
+        <v>1662.5</v>
       </c>
     </row>
     <row r="17">
@@ -1709,17 +1709,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.939</v>
+        <v>9.952</v>
       </c>
       <c r="O17" t="n">
-        <v>9939</v>
+        <v>9952</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1731,7 +1731,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-287.7108</v>
+        <v>-274.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>9939</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="18">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LULULEMON ATHLETICA INC</t>
+          <t>MERCADOLIBRE INC</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1784,29 +1784,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>201.87</v>
+        <v>2057.77</v>
       </c>
       <c r="O18" t="n">
-        <v>8074.8</v>
+        <v>2057.77</v>
       </c>
       <c r="P18" t="n">
-        <v>186.05813325</v>
+        <v>2086.200022</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.05813325</v>
+        <v>2086.200022</v>
       </c>
       <c r="R18" t="n">
-        <v>7442.32533</v>
+        <v>2086.200022</v>
       </c>
       <c r="S18" t="n">
-        <v>632.4746699999999</v>
+        <v>-28.430022</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>8074.8</v>
+        <v>2057.77</v>
       </c>
     </row>
     <row r="19">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE INC</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1859,29 +1859,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>2075.01</v>
+        <v>183.32</v>
       </c>
       <c r="O19" t="n">
-        <v>2075.01</v>
+        <v>36664</v>
       </c>
       <c r="P19" t="n">
-        <v>2086.200022</v>
+        <v>185.216422</v>
       </c>
       <c r="Q19" t="n">
-        <v>2086.200022</v>
+        <v>185.216422</v>
       </c>
       <c r="R19" t="n">
-        <v>2086.200022</v>
+        <v>37043.2844</v>
       </c>
       <c r="S19" t="n">
-        <v>-11.190022</v>
+        <v>-379.2844</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2075.01</v>
+        <v>36664</v>
       </c>
     </row>
     <row r="20">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1934,29 +1934,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>186.23</v>
+        <v>173.88</v>
       </c>
       <c r="O20" t="n">
-        <v>37246</v>
+        <v>17388</v>
       </c>
       <c r="P20" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="R20" t="n">
-        <v>37043.2844</v>
+        <v>20533.57044</v>
       </c>
       <c r="S20" t="n">
-        <v>202.7156</v>
+        <v>-3145.57044</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>37246</v>
+        <v>17388</v>
       </c>
     </row>
     <row r="21">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2009,29 +2009,29 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>191.09</v>
+        <v>121.13</v>
       </c>
       <c r="O21" t="n">
-        <v>19109</v>
+        <v>1211.3</v>
       </c>
       <c r="P21" t="n">
-        <v>205.3357044</v>
+        <v>128.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.3357044</v>
+        <v>128.6</v>
       </c>
       <c r="R21" t="n">
-        <v>20533.57044</v>
+        <v>1286</v>
       </c>
       <c r="S21" t="n">
-        <v>-1424.57044</v>
+        <v>-74.7</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>19109</v>
+        <v>1211.3</v>
       </c>
     </row>
     <row r="22">
@@ -2063,17 +2063,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2084,29 +2084,29 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="N22" t="n">
-        <v>121.42</v>
+        <v>172.18</v>
       </c>
       <c r="O22" t="n">
-        <v>1214.2</v>
+        <v>103308</v>
       </c>
       <c r="P22" t="n">
-        <v>128.6</v>
+        <v>170.213547575</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.6</v>
+        <v>170.213547575</v>
       </c>
       <c r="R22" t="n">
-        <v>1286</v>
+        <v>102128.128545</v>
       </c>
       <c r="S22" t="n">
-        <v>-71.8</v>
+        <v>1179.871455</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1214.2</v>
+        <v>103308</v>
       </c>
     </row>
     <row r="23">
@@ -2133,55 +2133,65 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>QQQ   260220P00605000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>QQQ 20FEB26 605 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>605</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>172.46</v>
+        <v>8.945</v>
       </c>
       <c r="O23" t="n">
-        <v>103476</v>
+        <v>894.5</v>
       </c>
       <c r="P23" t="n">
-        <v>170.213547575</v>
+        <v>11.0485875</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.213547575</v>
+        <v>11.0485875</v>
       </c>
       <c r="R23" t="n">
-        <v>102128.128545</v>
+        <v>1104.85875</v>
       </c>
       <c r="S23" t="n">
-        <v>1347.871455</v>
+        <v>-210.35875</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2189,7 +2199,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>103476</v>
+        <v>894.5</v>
       </c>
     </row>
     <row r="24">
@@ -2244,17 +2254,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>19</v>
+        <v>22.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1900</v>
+        <v>2250</v>
       </c>
       <c r="P24" t="n">
         <v>31.5284</v>
@@ -2266,7 +2276,7 @@
         <v>3152.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-1252.84</v>
+        <v>-902.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2274,7 +2284,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1900</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="25">
@@ -2329,17 +2339,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O25" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="P25" t="n">
         <v>8.0284</v>
@@ -2351,7 +2361,7 @@
         <v>802.84</v>
       </c>
       <c r="S25" t="n">
-        <v>-452.84</v>
+        <v>-652.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2359,7 +2369,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
@@ -2388,23 +2398,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AAPL  260130P00250000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AAPL 30JAN26 250 P</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2414,29 +2424,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>-355</v>
+        <v>-420</v>
       </c>
       <c r="P26" t="n">
-        <v>3.0594796</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.0594796</v>
+        <v>4.3794796</v>
       </c>
       <c r="R26" t="n">
-        <v>-305.94796</v>
+        <v>-437.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>-49.05204</v>
+        <v>17.94796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2444,7 +2454,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>-355</v>
+        <v>-420</v>
       </c>
     </row>
     <row r="27">
@@ -2468,60 +2478,60 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.715</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>-271.5</v>
+        <v>-335</v>
       </c>
       <c r="P27" t="n">
-        <v>4.3794796</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.3794796</v>
+        <v>5.4294796</v>
       </c>
       <c r="R27" t="n">
-        <v>-437.94796</v>
+        <v>-542.94796</v>
       </c>
       <c r="S27" t="n">
-        <v>166.44796</v>
+        <v>207.94796</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2529,7 +2539,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>-271.5</v>
+        <v>-335</v>
       </c>
     </row>
     <row r="28">
@@ -2553,24 +2563,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2579,34 +2589,34 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>7.225</v>
       </c>
       <c r="O28" t="n">
-        <v>-550</v>
+        <v>-722.5</v>
       </c>
       <c r="P28" t="n">
-        <v>5.4294796</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.4294796</v>
+        <v>7.2294546</v>
       </c>
       <c r="R28" t="n">
-        <v>-542.94796</v>
+        <v>-722.94546</v>
       </c>
       <c r="S28" t="n">
-        <v>-7.05204</v>
+        <v>0.44546</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2614,7 +2624,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>-550</v>
+        <v>-722.5</v>
       </c>
     </row>
     <row r="29">
@@ -2638,24 +2648,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2664,34 +2674,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.975</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>-697.5</v>
+        <v>-305</v>
       </c>
       <c r="P29" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R29" t="n">
-        <v>-722.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>25.44546</v>
+        <v>259.94546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2699,7 +2709,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>-697.5</v>
+        <v>-305</v>
       </c>
     </row>
     <row r="30">
@@ -2723,60 +2733,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>4.5529</v>
       </c>
       <c r="O30" t="n">
-        <v>-365</v>
+        <v>-455.29</v>
       </c>
       <c r="P30" t="n">
-        <v>5.6494546</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.6494546</v>
+        <v>2.4194546</v>
       </c>
       <c r="R30" t="n">
-        <v>-564.94546</v>
+        <v>-241.94546</v>
       </c>
       <c r="S30" t="n">
-        <v>199.94546</v>
+        <v>-213.34454</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2784,7 +2794,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>-365</v>
+        <v>-455.29</v>
       </c>
     </row>
     <row r="31">
@@ -2808,60 +2818,60 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>2.185</v>
+        <v>0.82</v>
       </c>
       <c r="O31" t="n">
-        <v>-218.5</v>
+        <v>-164</v>
       </c>
       <c r="P31" t="n">
-        <v>2.4194546</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4194546</v>
+        <v>2.1886796</v>
       </c>
       <c r="R31" t="n">
-        <v>-241.94546</v>
+        <v>-437.73592</v>
       </c>
       <c r="S31" t="n">
-        <v>23.44546</v>
+        <v>273.73592</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2869,7 +2879,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>-218.5</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="32">
@@ -2898,23 +2908,23 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2924,29 +2934,29 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="O32" t="n">
-        <v>-356</v>
+        <v>-220</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1886796</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1886796</v>
+        <v>2.3894796</v>
       </c>
       <c r="R32" t="n">
-        <v>-437.73592</v>
+        <v>-238.94796</v>
       </c>
       <c r="S32" t="n">
-        <v>81.73591999999999</v>
+        <v>18.94796</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2954,7 +2964,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>-356</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="33">
@@ -2978,60 +2988,60 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ORCL  260123C00195000</t>
+          <t>QQQ   260220P00570000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ORCL 23JAN26 195 C</t>
+          <t>QQQ 20FEB26 570 P</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>195</v>
+        <v>570</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.755</v>
+        <v>2.995</v>
       </c>
       <c r="O33" t="n">
-        <v>-275.5</v>
+        <v>-299.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.7325796</v>
+        <v>3.8813796</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7325796</v>
+        <v>3.8813796</v>
       </c>
       <c r="R33" t="n">
-        <v>-173.25796</v>
+        <v>-388.13796</v>
       </c>
       <c r="S33" t="n">
-        <v>-102.24204</v>
+        <v>88.63796000000001</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3039,7 +3049,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>-275.5</v>
+        <v>-299.5</v>
       </c>
     </row>
     <row r="34">
@@ -3094,17 +3104,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>26.25</v>
+        <v>32.5</v>
       </c>
       <c r="O34" t="n">
-        <v>-2625</v>
+        <v>-3250</v>
       </c>
       <c r="P34" t="n">
         <v>42.2216</v>
@@ -3116,7 +3126,7 @@
         <v>-4222.16</v>
       </c>
       <c r="S34" t="n">
-        <v>1597.16</v>
+        <v>972.16</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3124,7 +3134,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>-2625</v>
+        <v>-3250</v>
       </c>
     </row>
     <row r="35">
@@ -3179,17 +3189,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>12.25</v>
+        <v>5.3</v>
       </c>
       <c r="O35" t="n">
-        <v>-1225</v>
+        <v>-530</v>
       </c>
       <c r="P35" t="n">
         <v>18.9716</v>
@@ -3201,7 +3211,7 @@
         <v>-1897.16</v>
       </c>
       <c r="S35" t="n">
-        <v>672.16</v>
+        <v>1367.16</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3209,7 +3219,76 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>-1225</v>
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cash Balance (Total USD)</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>112212.482841557</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>112212.482841557</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>112212.482841557</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3350,7 +3429,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.1645</v>
+        <v>1.1686</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3380,17 +3459,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>46.44</v>
+        <v>46</v>
       </c>
       <c r="O2" t="n">
-        <v>46440</v>
+        <v>46000</v>
       </c>
       <c r="P2" t="n">
         <v>43.01</v>
@@ -3402,7 +3481,7 @@
         <v>43010</v>
       </c>
       <c r="S2" t="n">
-        <v>3430</v>
+        <v>2990</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3410,7 +3489,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>54079.38</v>
+        <v>53755.60000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3425,7 +3504,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1645</v>
+        <v>1.1686</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3455,17 +3534,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>582.8</v>
+        <v>585.2</v>
       </c>
       <c r="O3" t="n">
-        <v>2914</v>
+        <v>2926</v>
       </c>
       <c r="P3" t="n">
         <v>624.1</v>
@@ -3477,7 +3556,7 @@
         <v>3120.5</v>
       </c>
       <c r="S3" t="n">
-        <v>-206.5</v>
+        <v>-194.5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3485,7 +3564,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>3393.353</v>
+        <v>3419.3236</v>
       </c>
     </row>
     <row r="4">
@@ -3500,7 +3579,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1645</v>
+        <v>1.1686</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3530,17 +3609,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2113</v>
+        <v>2098</v>
       </c>
       <c r="O4" t="n">
-        <v>6339</v>
+        <v>6294</v>
       </c>
       <c r="P4" t="n">
         <v>2127.063</v>
@@ -3552,7 +3631,7 @@
         <v>6381.189</v>
       </c>
       <c r="S4" t="n">
-        <v>-42.189</v>
+        <v>-87.18899999999999</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3560,7 +3639,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>7381.7655</v>
+        <v>7355.1684</v>
       </c>
     </row>
     <row r="5">
@@ -3575,7 +3654,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1645</v>
+        <v>1.1686</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3605,17 +3684,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>148.04</v>
+        <v>147</v>
       </c>
       <c r="O5" t="n">
-        <v>59216</v>
+        <v>58800</v>
       </c>
       <c r="P5" t="n">
         <v>146.3403336</v>
@@ -3627,7 +3706,7 @@
         <v>58536.13344</v>
       </c>
       <c r="S5" t="n">
-        <v>679.86656</v>
+        <v>263.86656</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3635,7 +3714,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>68957.03200000001</v>
+        <v>68713.68000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3650,7 +3729,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.77833</v>
+        <v>0.77847</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3680,17 +3759,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>10000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.905</v>
+        <v>4.888</v>
       </c>
       <c r="O6" t="n">
-        <v>49050</v>
+        <v>48880</v>
       </c>
       <c r="P6" t="n">
         <v>3.81181816</v>
@@ -3702,7 +3781,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S6" t="n">
-        <v>10931.8184</v>
+        <v>10761.8184</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3710,7 +3789,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>38177.0865</v>
+        <v>38051.6136</v>
       </c>
     </row>
     <row r="7">
@@ -3725,7 +3804,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.77833</v>
+        <v>0.77847</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3755,17 +3834,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>552.1</v>
+        <v>574.1</v>
       </c>
       <c r="O7" t="n">
-        <v>5521</v>
+        <v>5741</v>
       </c>
       <c r="P7" t="n">
         <v>544.755456</v>
@@ -3777,7 +3856,7 @@
         <v>5447.55456</v>
       </c>
       <c r="S7" t="n">
-        <v>73.44544</v>
+        <v>293.44544</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3785,7 +3864,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>4297.15993</v>
+        <v>4469.19627</v>
       </c>
     </row>
     <row r="8">
@@ -3830,17 +3909,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>13.26</v>
+        <v>12.49</v>
       </c>
       <c r="O8" t="n">
-        <v>2652</v>
+        <v>2498</v>
       </c>
       <c r="P8" t="n">
         <v>12.7</v>
@@ -3852,7 +3931,7 @@
         <v>2540</v>
       </c>
       <c r="S8" t="n">
-        <v>112</v>
+        <v>-42</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3860,7 +3939,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2652</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="9">
@@ -3905,17 +3984,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>1444</v>
+        <v>1448.2</v>
       </c>
       <c r="O9" t="n">
-        <v>21660</v>
+        <v>21723</v>
       </c>
       <c r="P9" t="n">
         <v>1461.150733333</v>
@@ -3927,7 +4006,7 @@
         <v>21917.261</v>
       </c>
       <c r="S9" t="n">
-        <v>-257.261</v>
+        <v>-194.261</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3935,7 +4014,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>21660</v>
+        <v>21723</v>
       </c>
     </row>
     <row r="10">
@@ -3980,17 +4059,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>3000</v>
       </c>
       <c r="N10" t="n">
-        <v>5.488</v>
+        <v>5.481</v>
       </c>
       <c r="O10" t="n">
-        <v>16464</v>
+        <v>16443</v>
       </c>
       <c r="P10" t="n">
         <v>5.552814967</v>
@@ -4002,7 +4081,7 @@
         <v>16658.4449</v>
       </c>
       <c r="S10" t="n">
-        <v>-194.4449</v>
+        <v>-215.4449</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4010,7 +4089,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>16464</v>
+        <v>16443</v>
       </c>
     </row>
     <row r="11">
@@ -4055,17 +4134,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1000</v>
       </c>
       <c r="N11" t="n">
-        <v>9.2675</v>
+        <v>9.43</v>
       </c>
       <c r="O11" t="n">
-        <v>9267.5</v>
+        <v>9430</v>
       </c>
       <c r="P11" t="n">
         <v>9.405900600000001</v>
@@ -4077,7 +4156,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S11" t="n">
-        <v>-138.4006</v>
+        <v>24.0994</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4085,7 +4164,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>9267.5</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="12">
@@ -4130,17 +4209,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>16.8448</v>
       </c>
       <c r="N12" t="n">
-        <v>73.36</v>
+        <v>75.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1235.73</v>
+        <v>1276.84</v>
       </c>
       <c r="P12" t="n">
         <v>20.721325216</v>
@@ -4152,7 +4231,7 @@
         <v>349.046579</v>
       </c>
       <c r="S12" t="n">
-        <v>886.683421</v>
+        <v>927.793421</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4160,7 +4239,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1235.73</v>
+        <v>1276.84</v>
       </c>
     </row>
     <row r="13">
@@ -4205,17 +4284,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>385</v>
       </c>
       <c r="N13" t="n">
-        <v>25.9392</v>
+        <v>26.0432</v>
       </c>
       <c r="O13" t="n">
-        <v>9986.59</v>
+        <v>10026.63</v>
       </c>
       <c r="P13" t="n">
         <v>25.997158151</v>
@@ -4227,7 +4306,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S13" t="n">
-        <v>-22.315888</v>
+        <v>17.724112</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4235,7 +4314,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>9986.59</v>
+        <v>10026.63</v>
       </c>
     </row>
     <row r="14">
@@ -4280,17 +4359,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>312.47</v>
+        <v>302.04</v>
       </c>
       <c r="O14" t="n">
-        <v>31247</v>
+        <v>30204</v>
       </c>
       <c r="P14" t="n">
         <v>314.1727</v>
@@ -4302,7 +4381,7 @@
         <v>31417.27</v>
       </c>
       <c r="S14" t="n">
-        <v>-170.27</v>
+        <v>-1213.27</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4310,7 +4389,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>31247</v>
+        <v>30204</v>
       </c>
     </row>
     <row r="15">
@@ -4355,17 +4434,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>9.939</v>
+        <v>9.952</v>
       </c>
       <c r="O15" t="n">
-        <v>9939</v>
+        <v>9952</v>
       </c>
       <c r="P15" t="n">
         <v>10.229112</v>
@@ -4377,7 +4456,7 @@
         <v>10229.112</v>
       </c>
       <c r="S15" t="n">
-        <v>-290.112</v>
+        <v>-277.112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4385,7 +4464,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>9939</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="16">
@@ -4430,17 +4509,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>800</v>
       </c>
       <c r="N16" t="n">
-        <v>172.46</v>
+        <v>172.18</v>
       </c>
       <c r="O16" t="n">
-        <v>137968</v>
+        <v>137744</v>
       </c>
       <c r="P16" t="n">
         <v>170.683661681</v>
@@ -4452,7 +4531,7 @@
         <v>136546.929345</v>
       </c>
       <c r="S16" t="n">
-        <v>1421.070655</v>
+        <v>1197.070655</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4460,7 +4539,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>137968</v>
+        <v>137744</v>
       </c>
     </row>
     <row r="17">
@@ -4489,23 +4568,23 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AAPL  260130P00250000</t>
+          <t>QQQ   260220P00605000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AAPL 30JAN26 250 P</t>
+          <t>QQQ 20FEB26 605 P</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4515,37 +4594,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>8.945</v>
       </c>
       <c r="O17" t="n">
-        <v>-355</v>
+        <v>894.5</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7394796</v>
+        <v>10.9285875</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.7394796</v>
+        <v>10.9285875</v>
       </c>
       <c r="R17" t="n">
-        <v>-373.94796</v>
+        <v>1092.85875</v>
       </c>
       <c r="S17" t="n">
-        <v>18.94796</v>
+        <v>-198.35875</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>-355</v>
+        <v>894.5</v>
       </c>
     </row>
     <row r="18">
@@ -4600,17 +4679,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>-1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="O18" t="n">
-        <v>-136</v>
+        <v>-116</v>
       </c>
       <c r="P18" t="n">
         <v>7.2294796</v>
@@ -4622,7 +4701,7 @@
         <v>-722.94796</v>
       </c>
       <c r="S18" t="n">
-        <v>586.94796</v>
+        <v>606.94796</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4630,7 +4709,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>-136</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="19">
@@ -4654,60 +4733,60 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JPM   260130C00325000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>JPM 30JAN26 325 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>-1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.12</v>
+        <v>7.925</v>
       </c>
       <c r="O19" t="n">
-        <v>-112</v>
+        <v>-792.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3994796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3994796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R19" t="n">
-        <v>-239.94796</v>
+        <v>-872.94796</v>
       </c>
       <c r="S19" t="n">
-        <v>127.94796</v>
+        <v>80.44795999999999</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4715,7 +4794,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>-112</v>
+        <v>-792.5</v>
       </c>
     </row>
     <row r="20">
@@ -4739,24 +4818,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>QQQ   260130P00608000</t>
+          <t>JPM   260130C00325000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>QQQ 30JAN26 608 P</t>
+          <t>JPM 30JAN26 325 C</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>608</v>
+        <v>325</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -4765,42 +4844,281 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>4.055</v>
+        <v>0.1325</v>
       </c>
       <c r="O20" t="n">
-        <v>-405.5</v>
+        <v>-13.25</v>
       </c>
       <c r="P20" t="n">
+        <v>2.3994796</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.3994796</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-239.94796</v>
+      </c>
+      <c r="S20" t="n">
+        <v>226.69796</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>-13.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>QQQ   260130P00608000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>QQQ 30JAN26 608 P</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>608</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-479</v>
+      </c>
+      <c r="P21" t="n">
         <v>6.0594796</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>6.0594796</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>-605.94796</v>
       </c>
-      <c r="S20" t="n">
-        <v>200.44796</v>
-      </c>
-      <c r="T20" t="inlineStr">
+      <c r="S21" t="n">
+        <v>126.94796</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>-405.5</v>
+      <c r="U21" t="n">
+        <v>-479</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>QQQ   260220P00570000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>QQQ 20FEB26 570 P</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>570</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-299.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.8261796</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.8261796</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-382.61796</v>
+      </c>
+      <c r="S22" t="n">
+        <v>83.11796</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>-299.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cash Balance (Total USD)</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>136534.613674778</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>136534.613674778</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>136534.613674778</v>
       </c>
     </row>
   </sheetData>
@@ -4852,14 +5170,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-20 23:31:44</t>
+          <t>2026-01-22 13:00:28</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5170,7 +5170,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-22 13:00:28</t>
+          <t>2026-01-23 11:52:55</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PositionsHK" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PositionsAL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadata" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +539,11 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>ListingExchange</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>PositionValueUSD</t>
         </is>
       </c>
@@ -554,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14369</v>
+        <v>0.14391</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.66</v>
+        <v>31.56</v>
       </c>
       <c r="O2" t="n">
-        <v>31660</v>
+        <v>31560</v>
       </c>
       <c r="P2" t="n">
         <v>30.68540181</v>
@@ -606,15 +612,20 @@
         <v>30685.40181</v>
       </c>
       <c r="S2" t="n">
-        <v>974.59819</v>
+        <v>874.59819</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>4549.2254</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SEHK</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>4541.7996</v>
       </c>
     </row>
     <row r="3">
@@ -629,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1686</v>
+        <v>1.1828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -659,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2098</v>
+        <v>2130</v>
       </c>
       <c r="O3" t="n">
-        <v>6294</v>
+        <v>6390</v>
       </c>
       <c r="P3" t="n">
         <v>2126.0625</v>
@@ -681,15 +692,20 @@
         <v>6378.1875</v>
       </c>
       <c r="S3" t="n">
-        <v>-84.1875</v>
+        <v>11.8125</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>7355.1684</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>SBF</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>7558.092000000001</v>
       </c>
     </row>
     <row r="4">
@@ -704,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.77847</v>
+        <v>0.7861900000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -734,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>5000</v>
       </c>
       <c r="N4" t="n">
-        <v>4.888</v>
+        <v>4.97</v>
       </c>
       <c r="O4" t="n">
-        <v>24440</v>
+        <v>24850</v>
       </c>
       <c r="P4" t="n">
         <v>4.54124249</v>
@@ -756,15 +772,20 @@
         <v>22706.21245</v>
       </c>
       <c r="S4" t="n">
-        <v>1733.78755</v>
+        <v>2143.78755</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>19025.8068</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>SGX</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>19536.8215</v>
       </c>
     </row>
     <row r="5">
@@ -779,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.77847</v>
+        <v>0.7861900000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -809,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>574.1</v>
+        <v>577.5</v>
       </c>
       <c r="O5" t="n">
-        <v>28705</v>
+        <v>28875</v>
       </c>
       <c r="P5" t="n">
         <v>432.4596912</v>
@@ -831,15 +852,20 @@
         <v>21622.98456</v>
       </c>
       <c r="S5" t="n">
-        <v>7082.01544</v>
+        <v>7252.01544</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>22345.98135</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>SGX</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>22701.23625</v>
       </c>
     </row>
     <row r="6">
@@ -884,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>231.31</v>
+        <v>239.16</v>
       </c>
       <c r="O6" t="n">
-        <v>23131</v>
+        <v>23916</v>
       </c>
       <c r="P6" t="n">
         <v>216.590322</v>
@@ -906,15 +932,20 @@
         <v>21659.0322</v>
       </c>
       <c r="S6" t="n">
-        <v>1471.9678</v>
+        <v>2256.9678</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>23131</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>23916</v>
       </c>
     </row>
     <row r="7">
@@ -959,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="P7" t="n">
         <v>12.97</v>
@@ -981,15 +1012,20 @@
         <v>1297</v>
       </c>
       <c r="S7" t="n">
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>1249</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ARCA</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>1240</v>
       </c>
     </row>
     <row r="8">
@@ -1034,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>56.44</v>
+        <v>55.94</v>
       </c>
       <c r="O8" t="n">
-        <v>2822</v>
+        <v>2797</v>
       </c>
       <c r="P8" t="n">
         <v>46.285022</v>
@@ -1056,15 +1092,20 @@
         <v>2314.2511</v>
       </c>
       <c r="S8" t="n">
-        <v>507.7489</v>
+        <v>482.7489</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>2822</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>2797</v>
       </c>
     </row>
     <row r="9">
@@ -1109,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>11.9</v>
+        <v>12.27</v>
       </c>
       <c r="O9" t="n">
-        <v>1190</v>
+        <v>1227</v>
       </c>
       <c r="P9" t="n">
         <v>12.49</v>
@@ -1131,15 +1172,20 @@
         <v>1249</v>
       </c>
       <c r="S9" t="n">
-        <v>-59</v>
+        <v>-22</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>1190</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>1227</v>
       </c>
     </row>
     <row r="10">
@@ -1184,37 +1230,42 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>1448.2</v>
+        <v>1470.8</v>
       </c>
       <c r="O10" t="n">
-        <v>14482</v>
+        <v>22062</v>
       </c>
       <c r="P10" t="n">
-        <v>1476.8770695</v>
+        <v>1472.214713</v>
       </c>
       <c r="Q10" t="n">
-        <v>1476.8770695</v>
+        <v>1472.214713</v>
       </c>
       <c r="R10" t="n">
-        <v>14768.770695</v>
+        <v>22083.220695</v>
       </c>
       <c r="S10" t="n">
-        <v>-286.770695</v>
+        <v>-21.220695</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>14482</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>EBS</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>22062</v>
       </c>
     </row>
     <row r="11">
@@ -1259,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>2000</v>
       </c>
       <c r="N11" t="n">
-        <v>5.481</v>
+        <v>5.526</v>
       </c>
       <c r="O11" t="n">
-        <v>10962</v>
+        <v>11052</v>
       </c>
       <c r="P11" t="n">
         <v>5.5697835</v>
@@ -1281,15 +1332,20 @@
         <v>11139.567</v>
       </c>
       <c r="S11" t="n">
-        <v>-177.567</v>
+        <v>-87.56699999999999</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>10962</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>EBS</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>11052</v>
       </c>
     </row>
     <row r="12">
@@ -1334,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>328.38</v>
+        <v>327.93</v>
       </c>
       <c r="O12" t="n">
-        <v>32838</v>
+        <v>32793</v>
       </c>
       <c r="P12" t="n">
         <v>312.15</v>
@@ -1356,15 +1412,20 @@
         <v>31215</v>
       </c>
       <c r="S12" t="n">
-        <v>1623</v>
+        <v>1578</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>32838</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>32793</v>
       </c>
     </row>
     <row r="13">
@@ -1409,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.58</v>
       </c>
       <c r="O13" t="n">
-        <v>2200</v>
+        <v>2290</v>
       </c>
       <c r="P13" t="n">
         <v>5.166</v>
@@ -1431,15 +1492,20 @@
         <v>2583</v>
       </c>
       <c r="S13" t="n">
-        <v>-383</v>
+        <v>-293</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>2200</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>2290</v>
       </c>
     </row>
     <row r="14">
@@ -1484,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.43</v>
+        <v>9.494999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9430</v>
+        <v>9495</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1506,15 +1572,20 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>5.29</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>9430</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>9495</v>
       </c>
     </row>
     <row r="15">
@@ -1559,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>26.0432</v>
+        <v>27.0092</v>
       </c>
       <c r="O15" t="n">
-        <v>10026.63</v>
+        <v>10398.54</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1581,15 +1652,20 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>11.727178</v>
+        <v>383.637178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>10026.63</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>AEB</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>10398.54</v>
       </c>
     </row>
     <row r="16">
@@ -1634,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>33.25</v>
+        <v>33.42</v>
       </c>
       <c r="O16" t="n">
-        <v>1662.5</v>
+        <v>1671</v>
       </c>
       <c r="P16" t="n">
         <v>36.96000022</v>
@@ -1656,15 +1732,20 @@
         <v>1848.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-185.500011</v>
+        <v>-177.000011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>1662.5</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>PINK</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>1671</v>
       </c>
     </row>
     <row r="17">
@@ -1709,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.952</v>
+        <v>10.02</v>
       </c>
       <c r="O17" t="n">
-        <v>9952</v>
+        <v>10020</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1731,15 +1812,20 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-274.7108</v>
+        <v>-206.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U17" t="n">
-        <v>9952</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>10020</v>
       </c>
     </row>
     <row r="18">
@@ -1784,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2057.77</v>
+        <v>2137.29</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.77</v>
+        <v>2137.29</v>
       </c>
       <c r="P18" t="n">
         <v>2086.200022</v>
@@ -1806,15 +1892,20 @@
         <v>2086.200022</v>
       </c>
       <c r="S18" t="n">
-        <v>-28.430022</v>
+        <v>51.089978</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>2057.77</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>2137.29</v>
       </c>
     </row>
     <row r="19">
@@ -1859,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>183.32</v>
+        <v>187.67</v>
       </c>
       <c r="O19" t="n">
-        <v>36664</v>
+        <v>37534</v>
       </c>
       <c r="P19" t="n">
         <v>185.216422</v>
@@ -1881,15 +1972,20 @@
         <v>37043.2844</v>
       </c>
       <c r="S19" t="n">
-        <v>-379.2844</v>
+        <v>490.7156</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>36664</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>37534</v>
       </c>
     </row>
     <row r="20">
@@ -1934,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>173.88</v>
+        <v>177.16</v>
       </c>
       <c r="O20" t="n">
-        <v>17388</v>
+        <v>17716</v>
       </c>
       <c r="P20" t="n">
         <v>205.3357044</v>
@@ -1956,15 +2052,20 @@
         <v>20533.57044</v>
       </c>
       <c r="S20" t="n">
-        <v>-3145.57044</v>
+        <v>-2817.57044</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>17388</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>17716</v>
       </c>
     </row>
     <row r="21">
@@ -2009,17 +2110,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>121.13</v>
+        <v>124.78</v>
       </c>
       <c r="O21" t="n">
-        <v>1211.3</v>
+        <v>1247.8</v>
       </c>
       <c r="P21" t="n">
         <v>128.6</v>
@@ -2031,15 +2132,20 @@
         <v>1286</v>
       </c>
       <c r="S21" t="n">
-        <v>-74.7</v>
+        <v>-38.2</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>1211.3</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>1247.8</v>
       </c>
     </row>
     <row r="22">
@@ -2084,17 +2190,17 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>600</v>
       </c>
       <c r="N22" t="n">
-        <v>172.18</v>
+        <v>173.74</v>
       </c>
       <c r="O22" t="n">
-        <v>103308</v>
+        <v>104244</v>
       </c>
       <c r="P22" t="n">
         <v>170.213547575</v>
@@ -2106,15 +2212,20 @@
         <v>102128.128545</v>
       </c>
       <c r="S22" t="n">
-        <v>1179.871455</v>
+        <v>2115.871455</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U22" t="n">
-        <v>103308</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>104244</v>
       </c>
     </row>
     <row r="23">
@@ -2143,23 +2254,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QQQ   260220P00605000</t>
+          <t>JPM   260206P00320000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 605 P</t>
+          <t>JPM 06FEB26 320 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>605</v>
+        <v>320</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2169,37 +2280,42 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>8.945</v>
+        <v>22.3276</v>
       </c>
       <c r="O23" t="n">
-        <v>894.5</v>
+        <v>2232.76</v>
       </c>
       <c r="P23" t="n">
-        <v>11.0485875</v>
+        <v>21.7804875</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.0485875</v>
+        <v>21.7804875</v>
       </c>
       <c r="R23" t="n">
-        <v>1104.85875</v>
+        <v>2178.04875</v>
       </c>
       <c r="S23" t="n">
-        <v>-210.35875</v>
+        <v>54.71125</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U23" t="n">
-        <v>894.5</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>2232.76</v>
       </c>
     </row>
     <row r="24">
@@ -2218,7 +2334,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2228,23 +2344,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>QQQ   260220P00605000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>QQQ 20FEB26 605 P</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>6525</v>
+        <v>605</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2254,37 +2370,42 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>22.5</v>
+        <v>6.34</v>
       </c>
       <c r="O24" t="n">
-        <v>2250</v>
+        <v>634</v>
       </c>
       <c r="P24" t="n">
-        <v>31.5284</v>
+        <v>11.0485875</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.5284</v>
+        <v>11.0485875</v>
       </c>
       <c r="R24" t="n">
-        <v>3152.84</v>
+        <v>1104.85875</v>
       </c>
       <c r="S24" t="n">
-        <v>-902.84</v>
+        <v>-470.85875</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U24" t="n">
-        <v>2250</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>634</v>
       </c>
     </row>
     <row r="25">
@@ -2308,24 +2429,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>50</v>
       </c>
       <c r="I25" t="n">
-        <v>7300</v>
+        <v>6525</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2334,42 +2455,47 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.5</v>
+        <v>13.75</v>
       </c>
       <c r="O25" t="n">
-        <v>150</v>
+        <v>1375</v>
       </c>
       <c r="P25" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="R25" t="n">
-        <v>802.84</v>
+        <v>3152.84</v>
       </c>
       <c r="S25" t="n">
-        <v>-652.84</v>
+        <v>-1777.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U25" t="n">
-        <v>150</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>1375</v>
       </c>
     </row>
     <row r="26">
@@ -2388,73 +2514,78 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7300</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
         <v>100</v>
       </c>
-      <c r="I26" t="n">
-        <v>215</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-420</v>
-      </c>
       <c r="P26" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="R26" t="n">
-        <v>-437.94796</v>
+        <v>802.84</v>
       </c>
       <c r="S26" t="n">
-        <v>17.94796</v>
+        <v>-702.84</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
-        <v>-420</v>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2478,68 +2609,73 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>2.605</v>
       </c>
       <c r="O27" t="n">
-        <v>-335</v>
+        <v>-260.5</v>
       </c>
       <c r="P27" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="R27" t="n">
-        <v>-542.94796</v>
+        <v>-437.94796</v>
       </c>
       <c r="S27" t="n">
-        <v>207.94796</v>
+        <v>177.44796</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U27" t="n">
-        <v>-335</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>-260.5</v>
       </c>
     </row>
     <row r="28">
@@ -2563,24 +2699,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2589,42 +2725,47 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>7.225</v>
+        <v>5.4994</v>
       </c>
       <c r="O28" t="n">
-        <v>-722.5</v>
+        <v>-549.9400000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="R28" t="n">
-        <v>-722.94546</v>
+        <v>-542.94796</v>
       </c>
       <c r="S28" t="n">
-        <v>0.44546</v>
+        <v>-6.99204</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U28" t="n">
-        <v>-722.5</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>-549.9400000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2648,24 +2789,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2674,42 +2815,47 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>6.975</v>
       </c>
       <c r="O29" t="n">
-        <v>-305</v>
+        <v>-697.5</v>
       </c>
       <c r="P29" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R29" t="n">
-        <v>-564.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>259.94546</v>
+        <v>25.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U29" t="n">
-        <v>-305</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>-697.5</v>
       </c>
     </row>
     <row r="30">
@@ -2733,68 +2879,73 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>4.5529</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="n">
-        <v>-455.29</v>
+        <v>-278</v>
       </c>
       <c r="P30" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R30" t="n">
-        <v>-241.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S30" t="n">
-        <v>-213.34454</v>
+        <v>286.94546</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U30" t="n">
-        <v>-455.29</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>-278</v>
       </c>
     </row>
     <row r="31">
@@ -2818,68 +2969,73 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.82</v>
+        <v>6.0792</v>
       </c>
       <c r="O31" t="n">
-        <v>-164</v>
+        <v>-607.92</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="R31" t="n">
-        <v>-437.73592</v>
+        <v>-241.94546</v>
       </c>
       <c r="S31" t="n">
-        <v>273.73592</v>
+        <v>-365.97454</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U31" t="n">
-        <v>-164</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>-607.92</v>
       </c>
     </row>
     <row r="32">
@@ -2908,23 +3064,23 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2934,37 +3090,42 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.2</v>
+        <v>1.115</v>
       </c>
       <c r="O32" t="n">
-        <v>-220</v>
+        <v>-223</v>
       </c>
       <c r="P32" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="R32" t="n">
-        <v>-238.94796</v>
+        <v>-437.73592</v>
       </c>
       <c r="S32" t="n">
-        <v>18.94796</v>
+        <v>214.73592</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U32" t="n">
-        <v>-220</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-223</v>
       </c>
     </row>
     <row r="33">
@@ -2988,24 +3149,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>QQQ   260220P00570000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 570 P</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3014,42 +3175,47 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.995</v>
+        <v>2.365</v>
       </c>
       <c r="O33" t="n">
-        <v>-299.5</v>
+        <v>-236.5</v>
       </c>
       <c r="P33" t="n">
-        <v>3.8813796</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.8813796</v>
+        <v>2.3894796</v>
       </c>
       <c r="R33" t="n">
-        <v>-388.13796</v>
+        <v>-238.94796</v>
       </c>
       <c r="S33" t="n">
-        <v>88.63796000000001</v>
+        <v>2.44796</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U33" t="n">
-        <v>-299.5</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>-236.5</v>
       </c>
     </row>
     <row r="34">
@@ -3068,7 +3234,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3078,23 +3244,23 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>QQQ   260220P00570000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>QQQ 20FEB26 570 P</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>6625</v>
+        <v>570</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3104,37 +3270,42 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>32.5</v>
+        <v>1.895</v>
       </c>
       <c r="O34" t="n">
-        <v>-3250</v>
+        <v>-189.5</v>
       </c>
       <c r="P34" t="n">
-        <v>42.2216</v>
+        <v>3.8813796</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.2216</v>
+        <v>3.8813796</v>
       </c>
       <c r="R34" t="n">
-        <v>-4222.16</v>
+        <v>-388.13796</v>
       </c>
       <c r="S34" t="n">
-        <v>972.16</v>
+        <v>198.63796</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U34" t="n">
-        <v>-3250</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>-189.5</v>
       </c>
     </row>
     <row r="35">
@@ -3158,24 +3329,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>50</v>
       </c>
       <c r="I35" t="n">
-        <v>7200</v>
+        <v>6625</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3184,42 +3355,47 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>5.3</v>
+        <v>20.75</v>
       </c>
       <c r="O35" t="n">
-        <v>-530</v>
+        <v>-2075</v>
       </c>
       <c r="P35" t="n">
-        <v>18.9716</v>
+        <v>42.2216</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.9716</v>
+        <v>42.2216</v>
       </c>
       <c r="R35" t="n">
-        <v>-1897.16</v>
+        <v>-4222.16</v>
       </c>
       <c r="S35" t="n">
-        <v>1367.16</v>
+        <v>2147.16</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U35" t="n">
-        <v>-530</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>-2075</v>
       </c>
     </row>
     <row r="36">
@@ -3238,57 +3414,78 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cash Balance (Total USD)</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>112212.482841557</v>
+        <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>112212.482841557</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+        <v>-440</v>
+      </c>
+      <c r="P36" t="n">
+        <v>18.9716</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>18.9716</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-1897.16</v>
+      </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1457.16</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>112212.482841557</v>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>-440</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3413,6 +3610,11 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>ListingExchange</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>PositionValueUSD</t>
         </is>
       </c>
@@ -3429,7 +3631,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.1686</v>
+        <v>1.1828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3459,7 +3661,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -3488,8 +3690,13 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>53755.60000000001</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>IBIS</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>54408.8</v>
       </c>
     </row>
     <row r="3">
@@ -3504,7 +3711,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1686</v>
+        <v>1.1828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3534,17 +3741,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>585.2</v>
+        <v>591.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2926</v>
+        <v>2957</v>
       </c>
       <c r="P3" t="n">
         <v>624.1</v>
@@ -3556,15 +3763,20 @@
         <v>3120.5</v>
       </c>
       <c r="S3" t="n">
-        <v>-194.5</v>
+        <v>-163.5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>3419.3236</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>SBF</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>3497.5396</v>
       </c>
     </row>
     <row r="4">
@@ -3579,7 +3791,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1686</v>
+        <v>1.1828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3609,17 +3821,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2098</v>
+        <v>2130</v>
       </c>
       <c r="O4" t="n">
-        <v>6294</v>
+        <v>6390</v>
       </c>
       <c r="P4" t="n">
         <v>2127.063</v>
@@ -3631,15 +3843,20 @@
         <v>6381.189</v>
       </c>
       <c r="S4" t="n">
-        <v>-87.18899999999999</v>
+        <v>8.811</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>7355.1684</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>SBF</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>7558.092000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3654,7 +3871,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1686</v>
+        <v>1.1828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3684,17 +3901,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>147</v>
+        <v>147.72</v>
       </c>
       <c r="O5" t="n">
-        <v>58800</v>
+        <v>59088</v>
       </c>
       <c r="P5" t="n">
         <v>146.3403336</v>
@@ -3706,15 +3923,20 @@
         <v>58536.13344</v>
       </c>
       <c r="S5" t="n">
-        <v>263.86656</v>
+        <v>551.86656</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>68713.68000000001</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>IBIS2</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>69889.2864</v>
       </c>
     </row>
     <row r="6">
@@ -3729,7 +3951,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.77847</v>
+        <v>0.7861900000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3759,17 +3981,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>10000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.888</v>
+        <v>4.97</v>
       </c>
       <c r="O6" t="n">
-        <v>48880</v>
+        <v>49700</v>
       </c>
       <c r="P6" t="n">
         <v>3.81181816</v>
@@ -3781,15 +4003,20 @@
         <v>38118.1816</v>
       </c>
       <c r="S6" t="n">
-        <v>10761.8184</v>
+        <v>11581.8184</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>38051.6136</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>SGX</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>39073.643</v>
       </c>
     </row>
     <row r="7">
@@ -3804,7 +4031,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.77847</v>
+        <v>0.7861900000000001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3834,17 +4061,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>574.1</v>
+        <v>577.5</v>
       </c>
       <c r="O7" t="n">
-        <v>5741</v>
+        <v>5775</v>
       </c>
       <c r="P7" t="n">
         <v>544.755456</v>
@@ -3856,15 +4083,20 @@
         <v>5447.55456</v>
       </c>
       <c r="S7" t="n">
-        <v>293.44544</v>
+        <v>327.44544</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>4469.19627</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>SGX</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>4540.24725</v>
       </c>
     </row>
     <row r="8">
@@ -3909,17 +4141,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="O8" t="n">
-        <v>2498</v>
+        <v>2480</v>
       </c>
       <c r="P8" t="n">
         <v>12.7</v>
@@ -3931,15 +4163,20 @@
         <v>2540</v>
       </c>
       <c r="S8" t="n">
-        <v>-42</v>
+        <v>-60</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>2498</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ARCA</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>2480</v>
       </c>
     </row>
     <row r="9">
@@ -3984,17 +4221,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>1448.2</v>
+        <v>1470.8</v>
       </c>
       <c r="O9" t="n">
-        <v>21723</v>
+        <v>22062</v>
       </c>
       <c r="P9" t="n">
         <v>1461.150733333</v>
@@ -4006,15 +4243,20 @@
         <v>21917.261</v>
       </c>
       <c r="S9" t="n">
-        <v>-194.261</v>
+        <v>144.739</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>21723</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>EBS</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>22062</v>
       </c>
     </row>
     <row r="10">
@@ -4059,17 +4301,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>3000</v>
       </c>
       <c r="N10" t="n">
-        <v>5.481</v>
+        <v>5.526</v>
       </c>
       <c r="O10" t="n">
-        <v>16443</v>
+        <v>16578</v>
       </c>
       <c r="P10" t="n">
         <v>5.552814967</v>
@@ -4081,15 +4323,20 @@
         <v>16658.4449</v>
       </c>
       <c r="S10" t="n">
-        <v>-215.4449</v>
+        <v>-80.4449</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>16443</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>EBS</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>16578</v>
       </c>
     </row>
     <row r="11">
@@ -4113,17 +4360,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4134,37 +4381,42 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>9.43</v>
+        <v>327.93</v>
       </c>
       <c r="O11" t="n">
-        <v>9430</v>
+        <v>32793</v>
       </c>
       <c r="P11" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="R11" t="n">
-        <v>9405.900600000001</v>
+        <v>33187.755</v>
       </c>
       <c r="S11" t="n">
-        <v>24.0994</v>
+        <v>-394.755</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>9430</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>32793</v>
       </c>
     </row>
     <row r="12">
@@ -4188,17 +4440,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4209,37 +4461,42 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16.8448</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>75.8</v>
+        <v>9.494999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>1276.84</v>
+        <v>9495</v>
       </c>
       <c r="P12" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R12" t="n">
-        <v>349.046579</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S12" t="n">
-        <v>927.793421</v>
+        <v>89.0994</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>1276.84</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>9495</v>
       </c>
     </row>
     <row r="13">
@@ -4263,17 +4520,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4284,37 +4541,42 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>385</v>
+        <v>16.8448</v>
       </c>
       <c r="N13" t="n">
-        <v>26.0432</v>
+        <v>77.58</v>
       </c>
       <c r="O13" t="n">
-        <v>10026.63</v>
+        <v>1306.82</v>
       </c>
       <c r="P13" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="R13" t="n">
-        <v>10008.905888</v>
+        <v>349.046579</v>
       </c>
       <c r="S13" t="n">
-        <v>17.724112</v>
+        <v>957.773421</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>10026.63</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>1306.82</v>
       </c>
     </row>
     <row r="14">
@@ -4338,17 +4600,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4359,37 +4621,42 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>302.04</v>
+        <v>27.0092</v>
       </c>
       <c r="O14" t="n">
-        <v>30204</v>
+        <v>10398.54</v>
       </c>
       <c r="P14" t="n">
-        <v>314.1727</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q14" t="n">
-        <v>314.1727</v>
+        <v>25.997158151</v>
       </c>
       <c r="R14" t="n">
-        <v>31417.27</v>
+        <v>10008.905888</v>
       </c>
       <c r="S14" t="n">
-        <v>-1213.27</v>
+        <v>389.634112</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>30204</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>AEB</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>10398.54</v>
       </c>
     </row>
     <row r="15">
@@ -4413,17 +4680,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4434,37 +4701,42 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>9.952</v>
+        <v>297.72</v>
       </c>
       <c r="O15" t="n">
-        <v>9952</v>
+        <v>29772</v>
       </c>
       <c r="P15" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="R15" t="n">
-        <v>10229.112</v>
+        <v>29802</v>
       </c>
       <c r="S15" t="n">
-        <v>-277.112</v>
+        <v>-30</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>9952</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>29772</v>
       </c>
     </row>
     <row r="16">
@@ -4493,12 +4765,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4509,37 +4781,42 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="n">
-        <v>172.18</v>
+        <v>10.02</v>
       </c>
       <c r="O16" t="n">
-        <v>137744</v>
+        <v>10020</v>
       </c>
       <c r="P16" t="n">
-        <v>170.683661681</v>
+        <v>10.229112</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.683661681</v>
+        <v>10.229112</v>
       </c>
       <c r="R16" t="n">
-        <v>136546.929345</v>
+        <v>10229.112</v>
       </c>
       <c r="S16" t="n">
-        <v>1197.070655</v>
+        <v>-209.112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>137744</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>10020</v>
       </c>
     </row>
     <row r="17">
@@ -4558,73 +4835,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>QQQ   260220P00605000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 605 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>605</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="N17" t="n">
-        <v>8.945</v>
+        <v>173.74</v>
       </c>
       <c r="O17" t="n">
-        <v>894.5</v>
+        <v>138992</v>
       </c>
       <c r="P17" t="n">
-        <v>10.9285875</v>
+        <v>170.683661681</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.9285875</v>
+        <v>170.683661681</v>
       </c>
       <c r="R17" t="n">
-        <v>1092.85875</v>
+        <v>136546.929345</v>
       </c>
       <c r="S17" t="n">
-        <v>-198.35875</v>
+        <v>2445.070655</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="U17" t="n">
-        <v>894.5</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>LSEETF</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>138992</v>
       </c>
     </row>
     <row r="18">
@@ -4653,23 +4925,23 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GOOGL 260130P00310000</t>
+          <t>QQQ   260220P00605000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GOOGL 30JAN26 310 P</t>
+          <t>QQQ 20FEB26 605 P</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>310</v>
+        <v>605</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4679,37 +4951,42 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.16</v>
+        <v>6.34</v>
       </c>
       <c r="O18" t="n">
-        <v>-116</v>
+        <v>634</v>
       </c>
       <c r="P18" t="n">
-        <v>7.2294796</v>
+        <v>10.9285875</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.2294796</v>
+        <v>10.9285875</v>
       </c>
       <c r="R18" t="n">
-        <v>-722.94796</v>
+        <v>1092.85875</v>
       </c>
       <c r="S18" t="n">
-        <v>606.94796</v>
+        <v>-458.85875</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
-        <v>-116</v>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>634</v>
       </c>
     </row>
     <row r="19">
@@ -4733,68 +5010,73 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>-1</v>
       </c>
       <c r="N19" t="n">
-        <v>7.925</v>
+        <v>8.275</v>
       </c>
       <c r="O19" t="n">
-        <v>-792.5</v>
+        <v>-827.5</v>
       </c>
       <c r="P19" t="n">
-        <v>8.729479599999999</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.729479599999999</v>
+        <v>10.0494796</v>
       </c>
       <c r="R19" t="n">
-        <v>-872.94796</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S19" t="n">
-        <v>80.44795999999999</v>
+        <v>177.44796</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>-792.5</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>-827.5</v>
       </c>
     </row>
     <row r="20">
@@ -4818,68 +5100,73 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>JPM   260130C00325000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>JPM 30JAN26 325 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1325</v>
+        <v>7.675</v>
       </c>
       <c r="O20" t="n">
-        <v>-13.25</v>
+        <v>-767.5</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3994796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3994796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R20" t="n">
-        <v>-239.94796</v>
+        <v>-872.94796</v>
       </c>
       <c r="S20" t="n">
-        <v>226.69796</v>
+        <v>105.44796</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>-13.25</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>-767.5</v>
       </c>
     </row>
     <row r="21">
@@ -4908,23 +5195,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>QQQ   260130P00608000</t>
+          <t>JPM   260206P00287500</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>QQQ 30JAN26 608 P</t>
+          <t>JPM 06FEB26 287.5 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>608</v>
+        <v>287.5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4934,37 +5221,42 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>4.79</v>
+        <v>1.695</v>
       </c>
       <c r="O21" t="n">
-        <v>-479</v>
+        <v>-169.5</v>
       </c>
       <c r="P21" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="R21" t="n">
-        <v>-605.94796</v>
+        <v>-170.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>126.94796</v>
+        <v>1.44796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>-479</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>-169.5</v>
       </c>
     </row>
     <row r="22">
@@ -4988,68 +5280,73 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QQQ   260220P00570000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 570 P</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>570</v>
+        <v>315</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.995</v>
+        <v>0.585</v>
       </c>
       <c r="O22" t="n">
-        <v>-299.5</v>
+        <v>-58.5</v>
       </c>
       <c r="P22" t="n">
-        <v>3.8261796</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.8261796</v>
+        <v>2.0294546</v>
       </c>
       <c r="R22" t="n">
-        <v>-382.61796</v>
+        <v>-202.94546</v>
       </c>
       <c r="S22" t="n">
-        <v>83.11796</v>
+        <v>144.44546</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U22" t="n">
-        <v>-299.5</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>-58.5</v>
       </c>
     </row>
     <row r="23">
@@ -5068,57 +5365,168 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>QQQ   260130P00608000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>QQQ 30JAN26 608 P</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>608</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-210.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-605.94796</v>
+      </c>
+      <c r="S23" t="n">
+        <v>395.44796</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>-210.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Cash Balance (Total USD)</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>136534.613674778</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>136534.613674778</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="U23" t="n">
-        <v>136534.613674778</v>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>QQQ   260220P00570000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>QQQ 20FEB26 570 P</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>570</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-189.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.8261796</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.8261796</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-382.61796</v>
+      </c>
+      <c r="S24" t="n">
+        <v>193.11796</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>-189.5</v>
       </c>
     </row>
   </sheetData>
@@ -5127,6 +5535,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Positions Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cash Balance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Account Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$344,962.48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$103,358.02</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$448,320.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$451,275.97</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$105,735.07</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$557,011.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$796,238.45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$209,093.09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$1,005,331.54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5170,14 +5691,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-23 11:52:55</t>
+          <t>2026-01-25 19:12:00</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-25 19:12:00</t>
+          <t>2026-01-26 01:05:49</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05:49</t>
+          <t>2026-01-26 02:12:41</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$103,358.02</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$448,320.50</t>
+          <t>$344,962.48</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$105,735.07</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$557,011.04</t>
+          <t>$451,275.97</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$209,093.09</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,005,331.54</t>
+          <t>$796,238.45</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 02:12:41</t>
+          <t>2026-01-26 02:16:58</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 02:16:58</t>
+          <t>2026-01-26 03:09:26</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 03:09:26</t>
+          <t>2026-01-26 03:31:59</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 03:31:59</t>
+          <t>2026-01-26 03:46:15</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$103,358.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$344,962.48</t>
+          <t>$448,320.50</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$103,358.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$796,238.45</t>
+          <t>$899,596.47</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 03:46:15</t>
+          <t>2026-01-26 04:00:05</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$103,358.02</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$448,320.50</t>
+          <t>$344,962.48</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$105,735.07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$451,275.97</t>
+          <t>$557,011.04</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$103,358.02</t>
+          <t>$105,735.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$899,596.47</t>
+          <t>$901,973.52</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 04:00:05</t>
+          <t>2026-01-26 04:05:28</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$103,358.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$344,962.48</t>
+          <t>$448,320.50</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$105,735.07</t>
+          <t>$209,093.09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$901,973.52</t>
+          <t>$1,005,331.54</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 04:05:28</t>
+          <t>2026-01-26 04:09:02</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14391</v>
+        <v>0.1439</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.56</v>
+        <v>31.66</v>
       </c>
       <c r="O2" t="n">
-        <v>31560</v>
+        <v>31660</v>
       </c>
       <c r="P2" t="n">
         <v>30.68540181</v>
@@ -612,7 +612,7 @@
         <v>30685.40181</v>
       </c>
       <c r="S2" t="n">
-        <v>874.59819</v>
+        <v>974.59819</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4541.7996</v>
+        <v>4555.874</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1828</v>
+        <v>1.188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="O3" t="n">
-        <v>6390</v>
+        <v>6420</v>
       </c>
       <c r="P3" t="n">
         <v>2126.0625</v>
@@ -692,7 +692,7 @@
         <v>6378.1875</v>
       </c>
       <c r="S3" t="n">
-        <v>11.8125</v>
+        <v>41.8125</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7558.092000000001</v>
+        <v>7626.96</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7861900000000001</v>
+        <v>0.78757</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>5000</v>
       </c>
       <c r="N4" t="n">
-        <v>4.97</v>
+        <v>4.941</v>
       </c>
       <c r="O4" t="n">
-        <v>24850</v>
+        <v>24705</v>
       </c>
       <c r="P4" t="n">
         <v>4.54124249</v>
@@ -772,7 +772,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S4" t="n">
-        <v>2143.78755</v>
+        <v>1998.78755</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>19536.8215</v>
+        <v>19456.91685</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7861900000000001</v>
+        <v>0.78757</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>577.5</v>
+        <v>593.8</v>
       </c>
       <c r="O5" t="n">
-        <v>28875</v>
+        <v>29690</v>
       </c>
       <c r="P5" t="n">
         <v>432.4596912</v>
@@ -852,7 +852,7 @@
         <v>21622.98456</v>
       </c>
       <c r="S5" t="n">
-        <v>7252.01544</v>
+        <v>8067.01544</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>22701.23625</v>
+        <v>23382.9533</v>
       </c>
     </row>
     <row r="6">
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>239.16</v>
+        <v>238.42</v>
       </c>
       <c r="O6" t="n">
-        <v>23916</v>
+        <v>23842</v>
       </c>
       <c r="P6" t="n">
         <v>216.590322</v>
@@ -932,7 +932,7 @@
         <v>21659.0322</v>
       </c>
       <c r="S6" t="n">
-        <v>2256.9678</v>
+        <v>2182.9678</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>23916</v>
+        <v>23842</v>
       </c>
     </row>
     <row r="7">
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>12.4</v>
+        <v>12.14</v>
       </c>
       <c r="O7" t="n">
-        <v>1240</v>
+        <v>1214</v>
       </c>
       <c r="P7" t="n">
         <v>12.97</v>
@@ -1012,7 +1012,7 @@
         <v>1297</v>
       </c>
       <c r="S7" t="n">
-        <v>-57</v>
+        <v>-83</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1240</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="8">
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>55.94</v>
+        <v>54.54</v>
       </c>
       <c r="O8" t="n">
-        <v>2797</v>
+        <v>2727</v>
       </c>
       <c r="P8" t="n">
         <v>46.285022</v>
@@ -1092,7 +1092,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S8" t="n">
-        <v>482.7489</v>
+        <v>412.7489</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2797</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12.27</v>
+        <v>12.19</v>
       </c>
       <c r="O9" t="n">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="P9" t="n">
         <v>12.49</v>
@@ -1172,7 +1172,7 @@
         <v>1249</v>
       </c>
       <c r="S9" t="n">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>1470.8</v>
+        <v>1478.4</v>
       </c>
       <c r="O10" t="n">
-        <v>22062</v>
+        <v>22176</v>
       </c>
       <c r="P10" t="n">
         <v>1472.214713</v>
@@ -1252,7 +1252,7 @@
         <v>22083.220695</v>
       </c>
       <c r="S10" t="n">
-        <v>-21.220695</v>
+        <v>92.77930499999999</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>22062</v>
+        <v>22176</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>2000</v>
       </c>
       <c r="N11" t="n">
-        <v>5.526</v>
+        <v>5.477</v>
       </c>
       <c r="O11" t="n">
-        <v>11052</v>
+        <v>10954</v>
       </c>
       <c r="P11" t="n">
         <v>5.5697835</v>
@@ -1332,7 +1332,7 @@
         <v>11139.567</v>
       </c>
       <c r="S11" t="n">
-        <v>-87.56699999999999</v>
+        <v>-185.567</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>11052</v>
+        <v>10954</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>327.93</v>
+        <v>333.26</v>
       </c>
       <c r="O12" t="n">
-        <v>32793</v>
+        <v>33326</v>
       </c>
       <c r="P12" t="n">
         <v>312.15</v>
@@ -1412,7 +1412,7 @@
         <v>31215</v>
       </c>
       <c r="S12" t="n">
-        <v>1578</v>
+        <v>2111</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>32793</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="O13" t="n">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="P13" t="n">
         <v>5.166</v>
@@ -1492,7 +1492,7 @@
         <v>2583</v>
       </c>
       <c r="S13" t="n">
-        <v>-293</v>
+        <v>-303</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2290</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.494999999999999</v>
+        <v>9.5425</v>
       </c>
       <c r="O14" t="n">
-        <v>9495</v>
+        <v>9542.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>70.29000000000001</v>
+        <v>117.79</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9495</v>
+        <v>9542.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0092</v>
+        <v>26.9498</v>
       </c>
       <c r="O15" t="n">
-        <v>10398.54</v>
+        <v>10375.67</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>383.637178</v>
+        <v>360.767178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10398.54</v>
+        <v>10375.67</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>33.42</v>
+        <v>33.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="P16" t="n">
         <v>36.96000022</v>
@@ -1732,7 +1732,7 @@
         <v>1848.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-177.000011</v>
+        <v>-197.000011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1671</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>10.02</v>
+        <v>10.112</v>
       </c>
       <c r="O17" t="n">
-        <v>10020</v>
+        <v>10112</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-206.7108</v>
+        <v>-114.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10020</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2137.29</v>
+        <v>2212.62</v>
       </c>
       <c r="O18" t="n">
-        <v>2137.29</v>
+        <v>2212.62</v>
       </c>
       <c r="P18" t="n">
         <v>2086.200022</v>
@@ -1892,7 +1892,7 @@
         <v>2086.200022</v>
       </c>
       <c r="S18" t="n">
-        <v>51.089978</v>
+        <v>126.419978</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2137.29</v>
+        <v>2212.62</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>187.67</v>
+        <v>186.47</v>
       </c>
       <c r="O19" t="n">
-        <v>37534</v>
+        <v>37294</v>
       </c>
       <c r="P19" t="n">
         <v>185.216422</v>
@@ -1972,7 +1972,7 @@
         <v>37043.2844</v>
       </c>
       <c r="S19" t="n">
-        <v>490.7156</v>
+        <v>250.7156</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>37534</v>
+        <v>37294</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>177.16</v>
+        <v>182.44</v>
       </c>
       <c r="O20" t="n">
-        <v>17716</v>
+        <v>18244</v>
       </c>
       <c r="P20" t="n">
         <v>205.3357044</v>
@@ -2052,7 +2052,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S20" t="n">
-        <v>-2817.57044</v>
+        <v>-2289.57044</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>17716</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="21">
@@ -2110,17 +2110,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>124.78</v>
+        <v>125.93</v>
       </c>
       <c r="O21" t="n">
-        <v>1247.8</v>
+        <v>1259.3</v>
       </c>
       <c r="P21" t="n">
         <v>128.6</v>
@@ -2132,7 +2132,7 @@
         <v>1286</v>
       </c>
       <c r="S21" t="n">
-        <v>-38.2</v>
+        <v>-26.7</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1247.8</v>
+        <v>1259.3</v>
       </c>
     </row>
     <row r="22">
@@ -2190,17 +2190,17 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>600</v>
       </c>
       <c r="N22" t="n">
-        <v>173.74</v>
+        <v>174.92</v>
       </c>
       <c r="O22" t="n">
-        <v>104244</v>
+        <v>104952</v>
       </c>
       <c r="P22" t="n">
         <v>170.213547575</v>
@@ -2212,7 +2212,7 @@
         <v>102128.128545</v>
       </c>
       <c r="S22" t="n">
-        <v>2115.871455</v>
+        <v>2823.871455</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>104244</v>
+        <v>104952</v>
       </c>
     </row>
     <row r="23">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>22.3276</v>
+        <v>19.0452</v>
       </c>
       <c r="O23" t="n">
-        <v>2232.76</v>
+        <v>1904.52</v>
       </c>
       <c r="P23" t="n">
         <v>21.7804875</v>
@@ -2302,7 +2302,7 @@
         <v>2178.04875</v>
       </c>
       <c r="S23" t="n">
-        <v>54.71125</v>
+        <v>-273.52875</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>2232.76</v>
+        <v>1904.52</v>
       </c>
     </row>
     <row r="24">
@@ -2344,23 +2344,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   260220P00605000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 605 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2370,29 +2370,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>6.34</v>
+        <v>24.0063</v>
       </c>
       <c r="O24" t="n">
-        <v>634</v>
+        <v>4801.26</v>
       </c>
       <c r="P24" t="n">
-        <v>11.0485875</v>
+        <v>23.4605</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.0485875</v>
+        <v>23.4605</v>
       </c>
       <c r="R24" t="n">
-        <v>1104.85875</v>
+        <v>4692.1</v>
       </c>
       <c r="S24" t="n">
-        <v>-470.85875</v>
+        <v>109.16</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>634</v>
+        <v>4801.26</v>
       </c>
     </row>
     <row r="25">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2434,23 +2434,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>6525</v>
+        <v>620</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2460,29 +2460,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>13.75</v>
+        <v>20.38</v>
       </c>
       <c r="O25" t="n">
-        <v>1375</v>
+        <v>4076</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="R25" t="n">
-        <v>3152.84</v>
+        <v>4027.4975</v>
       </c>
       <c r="S25" t="n">
-        <v>-1777.84</v>
+        <v>48.5025</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2491,11 +2491,11 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>1375</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="26">
@@ -2519,24 +2519,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>50</v>
       </c>
       <c r="I26" t="n">
-        <v>7300</v>
+        <v>6525</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2545,34 +2545,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="P26" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="R26" t="n">
-        <v>802.84</v>
+        <v>3152.84</v>
       </c>
       <c r="S26" t="n">
-        <v>-702.84</v>
+        <v>-2182.84</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27">
@@ -2604,78 +2604,78 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I27" t="n">
-        <v>215</v>
+        <v>7300</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.605</v>
+        <v>1.3</v>
       </c>
       <c r="O27" t="n">
-        <v>-260.5</v>
+        <v>130</v>
       </c>
       <c r="P27" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="R27" t="n">
-        <v>-437.94796</v>
+        <v>802.84</v>
       </c>
       <c r="S27" t="n">
-        <v>177.44796</v>
+        <v>-672.84</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-260.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -2699,60 +2699,60 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>5.4994</v>
+        <v>2.815</v>
       </c>
       <c r="O28" t="n">
-        <v>-549.9400000000001</v>
+        <v>-281.5</v>
       </c>
       <c r="P28" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="R28" t="n">
-        <v>-542.94796</v>
+        <v>-437.94796</v>
       </c>
       <c r="S28" t="n">
-        <v>-6.99204</v>
+        <v>156.44796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-549.9400000000001</v>
+        <v>-281.5</v>
       </c>
     </row>
     <row r="29">
@@ -2789,24 +2789,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2815,34 +2815,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.975</v>
+        <v>5.225</v>
       </c>
       <c r="O29" t="n">
-        <v>-697.5</v>
+        <v>-522.5</v>
       </c>
       <c r="P29" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="R29" t="n">
-        <v>-722.94546</v>
+        <v>-542.94796</v>
       </c>
       <c r="S29" t="n">
-        <v>25.44546</v>
+        <v>20.44796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-697.5</v>
+        <v>-522.5</v>
       </c>
     </row>
     <row r="30">
@@ -2879,24 +2879,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2905,34 +2905,34 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>5.575</v>
       </c>
       <c r="O30" t="n">
-        <v>-278</v>
+        <v>-557.5</v>
       </c>
       <c r="P30" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R30" t="n">
-        <v>-564.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S30" t="n">
-        <v>286.94546</v>
+        <v>165.44546</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-278</v>
+        <v>-557.5</v>
       </c>
     </row>
     <row r="31">
@@ -2969,60 +2969,60 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>6.0792</v>
+        <v>3.3977</v>
       </c>
       <c r="O31" t="n">
-        <v>-607.92</v>
+        <v>-339.77</v>
       </c>
       <c r="P31" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R31" t="n">
-        <v>-241.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S31" t="n">
-        <v>-365.97454</v>
+        <v>225.17546</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-607.92</v>
+        <v>-339.77</v>
       </c>
     </row>
     <row r="32">
@@ -3059,60 +3059,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.115</v>
+        <v>4.05</v>
       </c>
       <c r="O32" t="n">
-        <v>-223</v>
+        <v>-405</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="R32" t="n">
-        <v>-437.73592</v>
+        <v>-241.94546</v>
       </c>
       <c r="S32" t="n">
-        <v>214.73592</v>
+        <v>-163.05454</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-223</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="33">
@@ -3154,23 +3154,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3180,29 +3180,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>2.365</v>
+        <v>0.495</v>
       </c>
       <c r="O33" t="n">
-        <v>-236.5</v>
+        <v>-99</v>
       </c>
       <c r="P33" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="R33" t="n">
-        <v>-238.94796</v>
+        <v>-437.73592</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44796</v>
+        <v>338.73592</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-236.5</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="34">
@@ -3239,24 +3239,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>QQQ   260220P00570000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 570 P</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3265,34 +3265,34 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.895</v>
+        <v>3.4252</v>
       </c>
       <c r="O34" t="n">
-        <v>-189.5</v>
+        <v>-342.52</v>
       </c>
       <c r="P34" t="n">
-        <v>3.8813796</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.8813796</v>
+        <v>2.3894796</v>
       </c>
       <c r="R34" t="n">
-        <v>-388.13796</v>
+        <v>-238.94796</v>
       </c>
       <c r="S34" t="n">
-        <v>198.63796</v>
+        <v>-103.57204</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-189.5</v>
+        <v>-342.52</v>
       </c>
     </row>
     <row r="35">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3334,23 +3334,23 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>6625</v>
+        <v>425</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3360,29 +3360,29 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>20.75</v>
+        <v>6.5924</v>
       </c>
       <c r="O35" t="n">
-        <v>-2075</v>
+        <v>-1318.48</v>
       </c>
       <c r="P35" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="R35" t="n">
-        <v>-4222.16</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S35" t="n">
-        <v>2147.16</v>
+        <v>-45.58658</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>-2075</v>
+        <v>-1318.48</v>
       </c>
     </row>
     <row r="36">
@@ -3414,78 +3414,258 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>7200</v>
+        <v>505</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>7.525</v>
       </c>
       <c r="O36" t="n">
-        <v>-440</v>
+        <v>-1505</v>
       </c>
       <c r="P36" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-1470.97592</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-34.02408</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>-1505</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>EW2G6 P6625</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 6625 P</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6625</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1475</v>
+      </c>
+      <c r="P37" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-4222.16</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2747.16</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>-1475</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>EW2G6 C7200</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 7200 C</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>50</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-585</v>
+      </c>
+      <c r="P38" t="n">
         <v>18.9716</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q38" t="n">
         <v>18.9716</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R38" t="n">
         <v>-1897.16</v>
       </c>
-      <c r="S36" t="n">
-        <v>1457.16</v>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="S38" t="n">
+        <v>1312.16</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>CME</t>
         </is>
       </c>
-      <c r="V36" t="n">
-        <v>-440</v>
+      <c r="V38" t="n">
+        <v>-585</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3627,11 +3807,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CNH</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.1828</v>
+        <v>0.1439</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3640,17 +3820,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DHL</t>
+          <t>82846</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DHL GROUP</t>
+          <t>ISHARES CORE CSI 300 ETF</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3661,29 +3841,29 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>46</v>
+        <v>31.66</v>
       </c>
       <c r="O2" t="n">
-        <v>46000</v>
+        <v>31660</v>
       </c>
       <c r="P2" t="n">
-        <v>43.01</v>
+        <v>31.76629659</v>
       </c>
       <c r="Q2" t="n">
-        <v>43.01</v>
+        <v>31.76629659</v>
       </c>
       <c r="R2" t="n">
-        <v>43010</v>
+        <v>31766.29659</v>
       </c>
       <c r="S2" t="n">
-        <v>2990</v>
+        <v>-106.29659</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3692,11 +3872,11 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>IBIS</t>
+          <t>SEHK</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>54408.8</v>
+        <v>4555.874</v>
       </c>
     </row>
     <row r="3">
@@ -3711,7 +3891,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1828</v>
+        <v>1.188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3725,12 +3905,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>DHL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LVMH MOET HENNESSY LOUIS VUI</t>
+          <t>DHL GROUP</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3741,29 +3921,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4</v>
+        <v>46.32</v>
       </c>
       <c r="O3" t="n">
-        <v>2957</v>
+        <v>46320</v>
       </c>
       <c r="P3" t="n">
-        <v>624.1</v>
+        <v>43.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>624.1</v>
+        <v>43.01</v>
       </c>
       <c r="R3" t="n">
-        <v>3120.5</v>
+        <v>43010</v>
       </c>
       <c r="S3" t="n">
-        <v>-163.5</v>
+        <v>3310</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3772,11 +3952,11 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>IBIS</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3497.5396</v>
+        <v>55028.16</v>
       </c>
     </row>
     <row r="4">
@@ -3791,7 +3971,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.1828</v>
+        <v>1.188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3805,12 +3985,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>LVMH MOET HENNESSY LOUIS VUI</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3821,29 +4001,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>2130</v>
+        <v>588</v>
       </c>
       <c r="O4" t="n">
-        <v>6390</v>
+        <v>2940</v>
       </c>
       <c r="P4" t="n">
-        <v>2127.063</v>
+        <v>624.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2127.063</v>
+        <v>624.1</v>
       </c>
       <c r="R4" t="n">
-        <v>6381.189</v>
+        <v>3120.5</v>
       </c>
       <c r="S4" t="n">
-        <v>8.811</v>
+        <v>-180.5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3856,7 +4036,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7558.092000000001</v>
+        <v>3492.72</v>
       </c>
     </row>
     <row r="5">
@@ -3871,7 +4051,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.1828</v>
+        <v>1.188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3880,17 +4060,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VWCE</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>HERMES INTL</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3901,29 +4081,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>147.72</v>
+        <v>2140</v>
       </c>
       <c r="O5" t="n">
-        <v>59088</v>
+        <v>6420</v>
       </c>
       <c r="P5" t="n">
-        <v>146.3403336</v>
+        <v>2127.063</v>
       </c>
       <c r="Q5" t="n">
-        <v>146.3403336</v>
+        <v>2127.063</v>
       </c>
       <c r="R5" t="n">
-        <v>58536.13344</v>
+        <v>6381.189</v>
       </c>
       <c r="S5" t="n">
-        <v>551.86656</v>
+        <v>38.811</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3932,11 +4112,11 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>IBIS2</t>
+          <t>SBF</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>69889.2864</v>
+        <v>7626.96</v>
       </c>
     </row>
     <row r="6">
@@ -3947,11 +4127,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7861900000000001</v>
+        <v>1.188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3965,12 +4145,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>VWCE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3981,29 +4161,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>4.97</v>
+        <v>147.24</v>
       </c>
       <c r="O6" t="n">
-        <v>49700</v>
+        <v>58896</v>
       </c>
       <c r="P6" t="n">
-        <v>3.81181816</v>
+        <v>146.3403336</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.81181816</v>
+        <v>146.3403336</v>
       </c>
       <c r="R6" t="n">
-        <v>38118.1816</v>
+        <v>58536.13344</v>
       </c>
       <c r="S6" t="n">
-        <v>11581.8184</v>
+        <v>359.86656</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -4012,11 +4192,11 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>IBIS2</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>39073.643</v>
+        <v>69968.448</v>
       </c>
     </row>
     <row r="7">
@@ -4031,7 +4211,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7861900000000001</v>
+        <v>0.78757</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4045,12 +4225,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4061,29 +4241,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="n">
-        <v>577.5</v>
+        <v>4.941</v>
       </c>
       <c r="O7" t="n">
-        <v>5775</v>
+        <v>49410</v>
       </c>
       <c r="P7" t="n">
-        <v>544.755456</v>
+        <v>3.81181816</v>
       </c>
       <c r="Q7" t="n">
-        <v>544.755456</v>
+        <v>3.81181816</v>
       </c>
       <c r="R7" t="n">
-        <v>5447.55456</v>
+        <v>38118.1816</v>
       </c>
       <c r="S7" t="n">
-        <v>327.44544</v>
+        <v>11291.8184</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4096,7 +4276,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4540.24725</v>
+        <v>38913.8337</v>
       </c>
     </row>
     <row r="8">
@@ -4107,11 +4287,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.78757</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4125,12 +4305,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4141,29 +4321,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>12.4</v>
+        <v>593.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2480</v>
+        <v>5938</v>
       </c>
       <c r="P8" t="n">
-        <v>12.7</v>
+        <v>544.755456</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.7</v>
+        <v>544.755456</v>
       </c>
       <c r="R8" t="n">
-        <v>2540</v>
+        <v>5447.55456</v>
       </c>
       <c r="S8" t="n">
-        <v>-60</v>
+        <v>490.44544</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4172,11 +4352,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2480</v>
+        <v>4676.59066</v>
       </c>
     </row>
     <row r="9">
@@ -4205,12 +4385,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4221,29 +4401,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>1470.8</v>
+        <v>12.14</v>
       </c>
       <c r="O9" t="n">
-        <v>22062</v>
+        <v>2428</v>
       </c>
       <c r="P9" t="n">
-        <v>1461.150733333</v>
+        <v>12.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1461.150733333</v>
+        <v>12.7</v>
       </c>
       <c r="R9" t="n">
-        <v>21917.261</v>
+        <v>2540</v>
       </c>
       <c r="S9" t="n">
-        <v>144.739</v>
+        <v>-112</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4252,11 +4432,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>22062</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="10">
@@ -4285,12 +4465,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISHARES CHINA TECH USD ACC</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4301,29 +4481,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>5.526</v>
+        <v>1478.4</v>
       </c>
       <c r="O10" t="n">
-        <v>16578</v>
+        <v>22176</v>
       </c>
       <c r="P10" t="n">
-        <v>5.552814967</v>
+        <v>1461.150733333</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.552814967</v>
+        <v>1461.150733333</v>
       </c>
       <c r="R10" t="n">
-        <v>16658.4449</v>
+        <v>21917.261</v>
       </c>
       <c r="S10" t="n">
-        <v>-80.4449</v>
+        <v>258.739</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4336,7 +4516,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>16578</v>
+        <v>22176</v>
       </c>
     </row>
     <row r="11">
@@ -4360,17 +4540,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CTEC</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES CHINA TECH USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4381,29 +4561,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="N11" t="n">
-        <v>327.93</v>
+        <v>5.477</v>
       </c>
       <c r="O11" t="n">
-        <v>32793</v>
+        <v>16431</v>
       </c>
       <c r="P11" t="n">
-        <v>331.87755</v>
+        <v>5.552814967</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.87755</v>
+        <v>5.552814967</v>
       </c>
       <c r="R11" t="n">
-        <v>33187.755</v>
+        <v>16658.4449</v>
       </c>
       <c r="S11" t="n">
-        <v>-394.755</v>
+        <v>-227.4449</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4412,11 +4592,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>32793</v>
+        <v>16431</v>
       </c>
     </row>
     <row r="12">
@@ -4440,17 +4620,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4461,29 +4641,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>9.494999999999999</v>
+        <v>333.26</v>
       </c>
       <c r="O12" t="n">
-        <v>9495</v>
+        <v>33326</v>
       </c>
       <c r="P12" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="R12" t="n">
-        <v>9405.900600000001</v>
+        <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>89.0994</v>
+        <v>138.245</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4492,11 +4672,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9495</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="13">
@@ -4520,17 +4700,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4541,29 +4721,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16.8448</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>77.58</v>
+        <v>9.5425</v>
       </c>
       <c r="O13" t="n">
-        <v>1306.82</v>
+        <v>9542.5</v>
       </c>
       <c r="P13" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R13" t="n">
-        <v>349.046579</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>957.773421</v>
+        <v>136.5994</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4572,11 +4752,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1306.82</v>
+        <v>9542.5</v>
       </c>
     </row>
     <row r="14">
@@ -4600,17 +4780,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4621,29 +4801,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>385</v>
+        <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>27.0092</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>10398.54</v>
+        <v>1269.26</v>
       </c>
       <c r="P14" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="R14" t="n">
-        <v>10008.905888</v>
+        <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>389.634112</v>
+        <v>920.213421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4652,11 +4832,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>10398.54</v>
+        <v>1269.26</v>
       </c>
     </row>
     <row r="15">
@@ -4680,17 +4860,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4701,29 +4881,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>297.72</v>
+        <v>26.9498</v>
       </c>
       <c r="O15" t="n">
-        <v>29772</v>
+        <v>10375.67</v>
       </c>
       <c r="P15" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="R15" t="n">
-        <v>29802</v>
+        <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>-30</v>
+        <v>366.764112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4732,11 +4912,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>29772</v>
+        <v>10375.67</v>
       </c>
     </row>
     <row r="16">
@@ -4760,17 +4940,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4781,29 +4961,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>10.02</v>
+        <v>301.04</v>
       </c>
       <c r="O16" t="n">
-        <v>10020</v>
+        <v>30104</v>
       </c>
       <c r="P16" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="R16" t="n">
-        <v>10229.112</v>
+        <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>-209.112</v>
+        <v>302</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4812,11 +4992,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10020</v>
+        <v>30104</v>
       </c>
     </row>
     <row r="17">
@@ -4845,12 +5025,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4861,29 +5041,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>173.74</v>
+        <v>10.112</v>
       </c>
       <c r="O17" t="n">
-        <v>138992</v>
+        <v>10112</v>
       </c>
       <c r="P17" t="n">
-        <v>170.683661681</v>
+        <v>10.229112</v>
       </c>
       <c r="Q17" t="n">
-        <v>170.683661681</v>
+        <v>10.229112</v>
       </c>
       <c r="R17" t="n">
-        <v>136546.929345</v>
+        <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>2445.070655</v>
+        <v>-117.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4896,7 +5076,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>138992</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="18">
@@ -4915,65 +5095,55 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>QQQ   260220P00605000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 605 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>605</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="N18" t="n">
-        <v>6.34</v>
+        <v>174.92</v>
       </c>
       <c r="O18" t="n">
-        <v>634</v>
+        <v>139936</v>
       </c>
       <c r="P18" t="n">
-        <v>10.9285875</v>
+        <v>170.683661681</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.9285875</v>
+        <v>170.683661681</v>
       </c>
       <c r="R18" t="n">
-        <v>1092.85875</v>
+        <v>136546.929345</v>
       </c>
       <c r="S18" t="n">
-        <v>-458.85875</v>
+        <v>3389.070655</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4982,11 +5152,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>634</v>
+        <v>139936</v>
       </c>
     </row>
     <row r="19">
@@ -5010,64 +5180,64 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>335</v>
+        <v>560</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>8.275</v>
+        <v>24.0063</v>
       </c>
       <c r="O19" t="n">
-        <v>-827.5</v>
+        <v>4801.26</v>
       </c>
       <c r="P19" t="n">
-        <v>10.0494796</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.0494796</v>
+        <v>23.5270125</v>
       </c>
       <c r="R19" t="n">
-        <v>-1004.94796</v>
+        <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>177.44796</v>
+        <v>95.8575</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -5076,7 +5246,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>-827.5</v>
+        <v>4801.26</v>
       </c>
     </row>
     <row r="20">
@@ -5105,23 +5275,23 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>315</v>
+        <v>620</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5131,33 +5301,33 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>7.675</v>
+        <v>20.38</v>
       </c>
       <c r="O20" t="n">
-        <v>-767.5</v>
+        <v>4076</v>
       </c>
       <c r="P20" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="R20" t="n">
-        <v>-872.94796</v>
+        <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>105.44796</v>
+        <v>48.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -5166,7 +5336,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>-767.5</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="21">
@@ -5190,24 +5360,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>JPM   260206P00287500</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 287.5 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>287.5</v>
+        <v>335</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -5216,34 +5386,34 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>1.695</v>
+        <v>10.425</v>
       </c>
       <c r="O21" t="n">
-        <v>-169.5</v>
+        <v>-1042.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7094796</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7094796</v>
+        <v>10.0494796</v>
       </c>
       <c r="R21" t="n">
-        <v>-170.94796</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44796</v>
+        <v>-37.55204</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5256,7 +5426,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-169.5</v>
+        <v>-1042.5</v>
       </c>
     </row>
     <row r="22">
@@ -5280,17 +5450,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -5301,39 +5471,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.585</v>
+        <v>6.0749</v>
       </c>
       <c r="O22" t="n">
-        <v>-58.5</v>
+        <v>-607.49</v>
       </c>
       <c r="P22" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R22" t="n">
-        <v>-202.94546</v>
+        <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>144.44546</v>
+        <v>265.45796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5346,7 +5516,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-58.5</v>
+        <v>-607.49</v>
       </c>
     </row>
     <row r="23">
@@ -5375,23 +5545,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QQQ   260130P00608000</t>
+          <t>JPM   260206P00287500</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>QQQ 30JAN26 608 P</t>
+          <t>JPM 06FEB26 287.5 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>608</v>
+        <v>287.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5401,29 +5571,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.105</v>
+        <v>0.915</v>
       </c>
       <c r="O23" t="n">
-        <v>-210.5</v>
+        <v>-91.5</v>
       </c>
       <c r="P23" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="R23" t="n">
-        <v>-605.94796</v>
+        <v>-170.94796</v>
       </c>
       <c r="S23" t="n">
-        <v>395.44796</v>
+        <v>79.44795999999999</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5436,7 +5606,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-210.5</v>
+        <v>-91.5</v>
       </c>
     </row>
     <row r="24">
@@ -5460,60 +5630,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   260220P00570000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 20FEB26 570 P</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>570</v>
+        <v>315</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.895</v>
+        <v>0.6214</v>
       </c>
       <c r="O24" t="n">
-        <v>-189.5</v>
+        <v>-62.14</v>
       </c>
       <c r="P24" t="n">
-        <v>3.8261796</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.8261796</v>
+        <v>2.0294546</v>
       </c>
       <c r="R24" t="n">
-        <v>-382.61796</v>
+        <v>-202.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>193.11796</v>
+        <v>140.80546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5526,7 +5696,277 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-189.5</v>
+        <v>-62.14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>QQQ   260130P00608000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>QQQ 30JAN26 608 P</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>608</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-107.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-605.94796</v>
+      </c>
+      <c r="S25" t="n">
+        <v>498.34796</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>-107.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>QQQ   261218P00425000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>QQQ 18DEC26 425 P</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>425</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.5924</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-1318.48</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1278.59092</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-39.88908</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>-1318.48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>505</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-1505</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7.3496796</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7.3496796</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-1469.93592</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-35.06408</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>-1505</v>
       </c>
     </row>
   </sheetData>
@@ -5578,17 +6018,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$344,962.48</t>
+          <t>$352,854.30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$103,358.02</t>
+          <t>$97,846.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$448,320.50</t>
+          <t>$450,700.86</t>
         </is>
       </c>
     </row>
@@ -5600,17 +6040,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$451,275.97</t>
+          <t>$464,105.57</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$105,735.07</t>
+          <t>$95,704.10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$557,011.04</t>
+          <t>$559,809.66</t>
         </is>
       </c>
     </row>
@@ -5628,17 +6068,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$796,238.45</t>
+          <t>$816,959.87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$209,093.09</t>
+          <t>$193,550.65</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,005,331.54</t>
+          <t>$1,010,510.52</t>
         </is>
       </c>
     </row>
@@ -5691,14 +6131,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26 04:09:02</t>
+          <t>2026-01-27 23:46:58</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1439</v>
+        <v>0.14423</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.66</v>
+        <v>31.54</v>
       </c>
       <c r="O2" t="n">
-        <v>31660</v>
+        <v>31540</v>
       </c>
       <c r="P2" t="n">
         <v>30.68540181</v>
@@ -612,7 +612,7 @@
         <v>30685.40181</v>
       </c>
       <c r="S2" t="n">
-        <v>974.59819</v>
+        <v>854.59819</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4555.874</v>
+        <v>4549.0142</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.188</v>
+        <v>1.2041</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="O3" t="n">
-        <v>6420</v>
+        <v>6390</v>
       </c>
       <c r="P3" t="n">
         <v>2126.0625</v>
@@ -692,7 +692,7 @@
         <v>6378.1875</v>
       </c>
       <c r="S3" t="n">
-        <v>41.8125</v>
+        <v>11.8125</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7626.96</v>
+        <v>7694.199</v>
       </c>
     </row>
     <row r="4">
@@ -716,11 +716,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.78757</v>
+        <v>1.2041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -734,12 +734,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>VWCE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -750,29 +750,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>4.941</v>
+        <v>147.16</v>
       </c>
       <c r="O4" t="n">
-        <v>24705</v>
+        <v>44148</v>
       </c>
       <c r="P4" t="n">
-        <v>4.54124249</v>
+        <v>147.19356</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.54124249</v>
+        <v>147.19356</v>
       </c>
       <c r="R4" t="n">
-        <v>22706.21245</v>
+        <v>44158.068</v>
       </c>
       <c r="S4" t="n">
-        <v>1998.78755</v>
+        <v>-10.068</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -781,11 +781,11 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>IBIS2</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>19456.91685</v>
+        <v>53158.60679999999</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.78757</v>
+        <v>0.79383</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -814,12 +814,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -830,29 +830,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="n">
-        <v>593.8</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>29690</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>432.4596912</v>
+        <v>4.54124249</v>
       </c>
       <c r="Q5" t="n">
-        <v>432.4596912</v>
+        <v>4.54124249</v>
       </c>
       <c r="R5" t="n">
-        <v>21622.98456</v>
+        <v>22706.21245</v>
       </c>
       <c r="S5" t="n">
-        <v>8067.01544</v>
+        <v>2293.78755</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>23382.9533</v>
+        <v>19845.75</v>
       </c>
     </row>
     <row r="6">
@@ -876,11 +876,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.79383</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -889,17 +889,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AMAZON.COM INC</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -910,29 +910,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>238.42</v>
+        <v>593.1</v>
       </c>
       <c r="O6" t="n">
-        <v>23842</v>
+        <v>29655</v>
       </c>
       <c r="P6" t="n">
-        <v>216.590322</v>
+        <v>432.4596912</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.590322</v>
+        <v>432.4596912</v>
       </c>
       <c r="R6" t="n">
-        <v>21659.0322</v>
+        <v>21622.98456</v>
       </c>
       <c r="S6" t="n">
-        <v>2182.9678</v>
+        <v>8032.01544</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -941,11 +941,11 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>23842</v>
+        <v>23541.02865</v>
       </c>
     </row>
     <row r="7">
@@ -969,17 +969,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>AMAZON.COM INC</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -990,29 +990,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>12.14</v>
+        <v>244.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1214</v>
+        <v>24468</v>
       </c>
       <c r="P7" t="n">
-        <v>12.97</v>
+        <v>216.590322</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.97</v>
+        <v>216.590322</v>
       </c>
       <c r="R7" t="n">
-        <v>1297</v>
+        <v>21659.0322</v>
       </c>
       <c r="S7" t="n">
-        <v>-83</v>
+        <v>2808.9678</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1214</v>
+        <v>24468</v>
       </c>
     </row>
     <row r="8">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>54.54</v>
+        <v>12.38</v>
       </c>
       <c r="O8" t="n">
-        <v>2727</v>
+        <v>1238</v>
       </c>
       <c r="P8" t="n">
-        <v>46.285022</v>
+        <v>12.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>46.285022</v>
+        <v>12.97</v>
       </c>
       <c r="R8" t="n">
-        <v>2314.2511</v>
+        <v>1297</v>
       </c>
       <c r="S8" t="n">
-        <v>412.7489</v>
+        <v>-59</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2727</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="9">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>12.19</v>
+        <v>55.51</v>
       </c>
       <c r="O9" t="n">
-        <v>1219</v>
+        <v>2775.5</v>
       </c>
       <c r="P9" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="R9" t="n">
-        <v>1249</v>
+        <v>2314.2511</v>
       </c>
       <c r="S9" t="n">
-        <v>-30</v>
+        <v>461.2489</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1219</v>
+        <v>2775.5</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>1478.4</v>
+        <v>12.18</v>
       </c>
       <c r="O10" t="n">
-        <v>22176</v>
+        <v>1218</v>
       </c>
       <c r="P10" t="n">
-        <v>1472.214713</v>
+        <v>12.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>1472.214713</v>
+        <v>12.49</v>
       </c>
       <c r="R10" t="n">
-        <v>22083.220695</v>
+        <v>1249</v>
       </c>
       <c r="S10" t="n">
-        <v>92.77930499999999</v>
+        <v>-31</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1261,11 +1261,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>22176</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES CHINA TECH USD ACC</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>5.477</v>
+        <v>1488.8</v>
       </c>
       <c r="O11" t="n">
-        <v>10954</v>
+        <v>29776</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5697835</v>
+        <v>1475.46103475</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.5697835</v>
+        <v>1475.46103475</v>
       </c>
       <c r="R11" t="n">
-        <v>11139.567</v>
+        <v>29509.220695</v>
       </c>
       <c r="S11" t="n">
-        <v>-185.567</v>
+        <v>266.779305</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>10954</v>
+        <v>29776</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CTEC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES CHINA TECH USD ACC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="n">
-        <v>333.26</v>
+        <v>5.519</v>
       </c>
       <c r="O12" t="n">
-        <v>33326</v>
+        <v>11038</v>
       </c>
       <c r="P12" t="n">
-        <v>312.15</v>
+        <v>5.5697835</v>
       </c>
       <c r="Q12" t="n">
-        <v>312.15</v>
+        <v>5.5697835</v>
       </c>
       <c r="R12" t="n">
-        <v>31215</v>
+        <v>11139.567</v>
       </c>
       <c r="S12" t="n">
-        <v>2111</v>
+        <v>-101.567</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33326</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="13">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>GRAB HOLDINGS LTD - CL A</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>4.56</v>
+        <v>334.55</v>
       </c>
       <c r="O13" t="n">
-        <v>2280</v>
+        <v>33455</v>
       </c>
       <c r="P13" t="n">
-        <v>5.166</v>
+        <v>312.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.166</v>
+        <v>312.15</v>
       </c>
       <c r="R13" t="n">
-        <v>2583</v>
+        <v>31215</v>
       </c>
       <c r="S13" t="n">
-        <v>-303</v>
+        <v>2240</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2280</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GRAB</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>GRAB HOLDINGS LTD - CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5425</v>
+        <v>4.69</v>
       </c>
       <c r="O14" t="n">
-        <v>9542.5</v>
+        <v>2345</v>
       </c>
       <c r="P14" t="n">
-        <v>9.424709999999999</v>
+        <v>5.166</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.424709999999999</v>
+        <v>5.166</v>
       </c>
       <c r="R14" t="n">
-        <v>9424.709999999999</v>
+        <v>2583</v>
       </c>
       <c r="S14" t="n">
-        <v>117.79</v>
+        <v>-238</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9542.5</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="15">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>26.9498</v>
+        <v>9.5975</v>
       </c>
       <c r="O15" t="n">
-        <v>10375.67</v>
+        <v>9597.5</v>
       </c>
       <c r="P15" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>10014.902822</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>360.767178</v>
+        <v>172.79</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10375.67</v>
+        <v>9597.5</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>33.02</v>
+        <v>27.3476</v>
       </c>
       <c r="O16" t="n">
-        <v>1651</v>
+        <v>10528.83</v>
       </c>
       <c r="P16" t="n">
-        <v>36.96000022</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.96000022</v>
+        <v>26.012734603</v>
       </c>
       <c r="R16" t="n">
-        <v>1848.000011</v>
+        <v>10014.902822</v>
       </c>
       <c r="S16" t="n">
-        <v>-197.000011</v>
+        <v>513.927178</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1651</v>
+        <v>10528.83</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>10.112</v>
+        <v>32.35</v>
       </c>
       <c r="O17" t="n">
-        <v>10112</v>
+        <v>1617.5</v>
       </c>
       <c r="P17" t="n">
-        <v>10.2267108</v>
+        <v>36.96000022</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.2267108</v>
+        <v>36.96000022</v>
       </c>
       <c r="R17" t="n">
-        <v>10226.7108</v>
+        <v>1848.000011</v>
       </c>
       <c r="S17" t="n">
-        <v>-114.7108</v>
+        <v>-230.500011</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10112</v>
+        <v>1617.5</v>
       </c>
     </row>
     <row r="18">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE INC</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>2212.62</v>
+        <v>10.182</v>
       </c>
       <c r="O18" t="n">
-        <v>2212.62</v>
+        <v>10182</v>
       </c>
       <c r="P18" t="n">
-        <v>2086.200022</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q18" t="n">
-        <v>2086.200022</v>
+        <v>10.2267108</v>
       </c>
       <c r="R18" t="n">
-        <v>2086.200022</v>
+        <v>10226.7108</v>
       </c>
       <c r="S18" t="n">
-        <v>126.419978</v>
+        <v>-44.7108</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2212.62</v>
+        <v>10182</v>
       </c>
     </row>
     <row r="19">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>MERCADOLIBRE INC</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>186.47</v>
+        <v>2295</v>
       </c>
       <c r="O19" t="n">
-        <v>37294</v>
+        <v>2295</v>
       </c>
       <c r="P19" t="n">
-        <v>185.216422</v>
+        <v>2086.200022</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.216422</v>
+        <v>2086.200022</v>
       </c>
       <c r="R19" t="n">
-        <v>37043.2844</v>
+        <v>2086.200022</v>
       </c>
       <c r="S19" t="n">
-        <v>250.7156</v>
+        <v>208.799978</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>37294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="20">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>182.44</v>
+        <v>188.52</v>
       </c>
       <c r="O20" t="n">
-        <v>18244</v>
+        <v>37704</v>
       </c>
       <c r="P20" t="n">
-        <v>205.3357044</v>
+        <v>185.216422</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.3357044</v>
+        <v>185.216422</v>
       </c>
       <c r="R20" t="n">
-        <v>20533.57044</v>
+        <v>37043.2844</v>
       </c>
       <c r="S20" t="n">
-        <v>-2289.57044</v>
+        <v>660.7156</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>18244</v>
+        <v>37704</v>
       </c>
     </row>
     <row r="21">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2110,29 +2110,29 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>125.93</v>
+        <v>174.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1259.3</v>
+        <v>17490</v>
       </c>
       <c r="P21" t="n">
-        <v>128.6</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.6</v>
+        <v>205.3357044</v>
       </c>
       <c r="R21" t="n">
-        <v>1286</v>
+        <v>20533.57044</v>
       </c>
       <c r="S21" t="n">
-        <v>-26.7</v>
+        <v>-3043.57044</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1259.3</v>
+        <v>17490</v>
       </c>
     </row>
     <row r="22">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2190,29 +2190,29 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>174.92</v>
+        <v>127.11</v>
       </c>
       <c r="O22" t="n">
-        <v>104952</v>
+        <v>1271.1</v>
       </c>
       <c r="P22" t="n">
-        <v>170.213547575</v>
+        <v>128.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>170.213547575</v>
+        <v>128.6</v>
       </c>
       <c r="R22" t="n">
-        <v>102128.128545</v>
+        <v>1286</v>
       </c>
       <c r="S22" t="n">
-        <v>2823.871455</v>
+        <v>-14.9</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2221,11 +2221,11 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>104952</v>
+        <v>1271.1</v>
       </c>
     </row>
     <row r="23">
@@ -2244,65 +2244,55 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JPM   260206P00320000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 320 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>320</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>19.0452</v>
+        <v>176.28</v>
       </c>
       <c r="O23" t="n">
-        <v>1904.52</v>
+        <v>52884</v>
       </c>
       <c r="P23" t="n">
-        <v>21.7804875</v>
+        <v>171.3697087</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.7804875</v>
+        <v>171.3697087</v>
       </c>
       <c r="R23" t="n">
-        <v>2178.04875</v>
+        <v>51410.91261</v>
       </c>
       <c r="S23" t="n">
-        <v>-273.52875</v>
+        <v>1473.08739</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2311,11 +2301,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>1904.52</v>
+        <v>52884</v>
       </c>
     </row>
     <row r="24">
@@ -2344,23 +2334,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>JPM   260206P00320000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>JPM 06FEB26 320 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2370,29 +2360,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>24.0063</v>
+        <v>19.7458</v>
       </c>
       <c r="O24" t="n">
-        <v>4801.26</v>
+        <v>1974.58</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4605</v>
+        <v>21.7804875</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.4605</v>
+        <v>21.7804875</v>
       </c>
       <c r="R24" t="n">
-        <v>4692.1</v>
+        <v>2178.04875</v>
       </c>
       <c r="S24" t="n">
-        <v>109.16</v>
+        <v>-203.46875</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2405,7 +2395,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>4801.26</v>
+        <v>1974.58</v>
       </c>
     </row>
     <row r="25">
@@ -2434,19 +2424,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2460,29 +2450,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>20.38</v>
+        <v>23.3733</v>
       </c>
       <c r="O25" t="n">
-        <v>4076</v>
+        <v>4674.66</v>
       </c>
       <c r="P25" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="R25" t="n">
-        <v>4027.4975</v>
+        <v>4692.1</v>
       </c>
       <c r="S25" t="n">
-        <v>48.5025</v>
+        <v>-17.44</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2495,7 +2485,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>4076</v>
+        <v>4674.66</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2504,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2524,23 +2514,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>6525</v>
+        <v>620</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2550,29 +2540,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>9.699999999999999</v>
+        <v>20.16</v>
       </c>
       <c r="O26" t="n">
-        <v>970</v>
+        <v>4032</v>
       </c>
       <c r="P26" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="R26" t="n">
-        <v>3152.84</v>
+        <v>4027.4975</v>
       </c>
       <c r="S26" t="n">
-        <v>-2182.84</v>
+        <v>4.5025</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2581,11 +2571,11 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>970</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="27">
@@ -2609,24 +2599,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>50</v>
       </c>
       <c r="I27" t="n">
-        <v>7300</v>
+        <v>6525</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2635,34 +2625,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.3</v>
+        <v>8.25</v>
       </c>
       <c r="O27" t="n">
-        <v>130</v>
+        <v>825</v>
       </c>
       <c r="P27" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="R27" t="n">
-        <v>802.84</v>
+        <v>3152.84</v>
       </c>
       <c r="S27" t="n">
-        <v>-672.84</v>
+        <v>-2327.84</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2675,7 +2665,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>130</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28">
@@ -2694,78 +2684,78 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I28" t="n">
-        <v>215</v>
+        <v>7300</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>2.815</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>-281.5</v>
+        <v>175</v>
       </c>
       <c r="P28" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.3794796</v>
+        <v>8.0284</v>
       </c>
       <c r="R28" t="n">
-        <v>-437.94796</v>
+        <v>802.84</v>
       </c>
       <c r="S28" t="n">
-        <v>156.44796</v>
+        <v>-627.84</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-281.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
@@ -2789,60 +2779,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>5.225</v>
+        <v>2.025</v>
       </c>
       <c r="O29" t="n">
-        <v>-522.5</v>
+        <v>-202.5</v>
       </c>
       <c r="P29" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.4294796</v>
+        <v>4.3794796</v>
       </c>
       <c r="R29" t="n">
-        <v>-542.94796</v>
+        <v>-437.94796</v>
       </c>
       <c r="S29" t="n">
-        <v>20.44796</v>
+        <v>235.44796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2855,7 +2845,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-522.5</v>
+        <v>-202.5</v>
       </c>
     </row>
     <row r="30">
@@ -2879,24 +2869,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2905,34 +2895,34 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>5.575</v>
+        <v>7.75</v>
       </c>
       <c r="O30" t="n">
-        <v>-557.5</v>
+        <v>-775</v>
       </c>
       <c r="P30" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.2294546</v>
+        <v>5.4294796</v>
       </c>
       <c r="R30" t="n">
-        <v>-722.94546</v>
+        <v>-542.94796</v>
       </c>
       <c r="S30" t="n">
-        <v>165.44546</v>
+        <v>-232.05204</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2945,7 +2935,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-557.5</v>
+        <v>-775</v>
       </c>
     </row>
     <row r="31">
@@ -2969,24 +2959,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2995,34 +2985,34 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3977</v>
+        <v>5.325</v>
       </c>
       <c r="O31" t="n">
-        <v>-339.77</v>
+        <v>-532.5</v>
       </c>
       <c r="P31" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R31" t="n">
-        <v>-564.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S31" t="n">
-        <v>225.17546</v>
+        <v>190.44546</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3035,7 +3025,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-339.77</v>
+        <v>-532.5</v>
       </c>
     </row>
     <row r="32">
@@ -3059,60 +3049,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
-        <v>-405</v>
+        <v>-390</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4194546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R32" t="n">
-        <v>-241.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S32" t="n">
-        <v>-163.05454</v>
+        <v>174.94546</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3125,7 +3115,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-405</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="33">
@@ -3149,60 +3139,60 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>0.495</v>
+        <v>4.225</v>
       </c>
       <c r="O33" t="n">
-        <v>-99</v>
+        <v>-422.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1886796</v>
+        <v>2.4194546</v>
       </c>
       <c r="R33" t="n">
-        <v>-437.73592</v>
+        <v>-241.94546</v>
       </c>
       <c r="S33" t="n">
-        <v>338.73592</v>
+        <v>-180.55454</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3215,7 +3205,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-99</v>
+        <v>-422.5</v>
       </c>
     </row>
     <row r="34">
@@ -3244,23 +3234,23 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3270,29 +3260,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>3.4252</v>
+        <v>0.635</v>
       </c>
       <c r="O34" t="n">
-        <v>-342.52</v>
+        <v>-127</v>
       </c>
       <c r="P34" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.3894796</v>
+        <v>2.1886796</v>
       </c>
       <c r="R34" t="n">
-        <v>-238.94796</v>
+        <v>-437.73592</v>
       </c>
       <c r="S34" t="n">
-        <v>-103.57204</v>
+        <v>310.73592</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3305,7 +3295,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-342.52</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="35">
@@ -3329,60 +3319,60 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N35" t="n">
-        <v>6.5924</v>
+        <v>2.0703</v>
       </c>
       <c r="O35" t="n">
-        <v>-1318.48</v>
+        <v>-207.03</v>
       </c>
       <c r="P35" t="n">
-        <v>6.3644671</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.3644671</v>
+        <v>2.3894796</v>
       </c>
       <c r="R35" t="n">
-        <v>-1272.89342</v>
+        <v>-238.94796</v>
       </c>
       <c r="S35" t="n">
-        <v>-45.58658</v>
+        <v>31.91796</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3395,7 +3385,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>-1318.48</v>
+        <v>-207.03</v>
       </c>
     </row>
     <row r="36">
@@ -3424,19 +3414,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3450,29 +3440,29 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>7.525</v>
+        <v>6.4668</v>
       </c>
       <c r="O36" t="n">
-        <v>-1505</v>
+        <v>-1293.36</v>
       </c>
       <c r="P36" t="n">
-        <v>7.3548796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.3548796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R36" t="n">
-        <v>-1470.97592</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S36" t="n">
-        <v>-34.02408</v>
+        <v>-20.46658</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3485,7 +3475,7 @@
         </is>
       </c>
       <c r="V36" t="n">
-        <v>-1505</v>
+        <v>-1293.36</v>
       </c>
     </row>
     <row r="37">
@@ -3504,7 +3494,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3514,23 +3504,23 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>6625</v>
+        <v>505</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3540,29 +3530,29 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>-2</v>
       </c>
       <c r="N37" t="n">
-        <v>14.75</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
-        <v>-1475</v>
+        <v>-1500</v>
       </c>
       <c r="P37" t="n">
-        <v>42.2216</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.2216</v>
+        <v>7.3548796</v>
       </c>
       <c r="R37" t="n">
-        <v>-4222.16</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S37" t="n">
-        <v>2747.16</v>
+        <v>-29.02408</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3571,11 +3561,11 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>-1475</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="38">
@@ -3599,24 +3589,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>50</v>
       </c>
       <c r="I38" t="n">
-        <v>7200</v>
+        <v>6625</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3625,47 +3615,137 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>-2</v>
       </c>
       <c r="N38" t="n">
-        <v>5.85</v>
+        <v>12.25</v>
       </c>
       <c r="O38" t="n">
-        <v>-585</v>
+        <v>-1225</v>
       </c>
       <c r="P38" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-4222.16</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2997.16</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>-1225</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>EW2G6 C7200</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 7200 C</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>50</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-790</v>
+      </c>
+      <c r="P39" t="n">
         <v>18.9716</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q39" t="n">
         <v>18.9716</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R39" t="n">
         <v>-1897.16</v>
       </c>
-      <c r="S38" t="n">
-        <v>1312.16</v>
-      </c>
-      <c r="T38" t="inlineStr">
+      <c r="S39" t="n">
+        <v>1107.16</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>CME</t>
         </is>
       </c>
-      <c r="V38" t="n">
-        <v>-585</v>
+      <c r="V39" t="n">
+        <v>-790</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3891,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1439</v>
+        <v>0.14423</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3841,17 +3921,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
       </c>
       <c r="N2" t="n">
-        <v>31.66</v>
+        <v>31.54</v>
       </c>
       <c r="O2" t="n">
-        <v>31660</v>
+        <v>31540</v>
       </c>
       <c r="P2" t="n">
         <v>31.76629659</v>
@@ -3863,7 +3943,7 @@
         <v>31766.29659</v>
       </c>
       <c r="S2" t="n">
-        <v>-106.29659</v>
+        <v>-226.29659</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3876,7 +3956,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4555.874</v>
+        <v>4549.0142</v>
       </c>
     </row>
     <row r="3">
@@ -3891,7 +3971,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.188</v>
+        <v>1.2041</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3921,17 +4001,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>1000</v>
       </c>
       <c r="N3" t="n">
-        <v>46.32</v>
+        <v>47.03</v>
       </c>
       <c r="O3" t="n">
-        <v>46320</v>
+        <v>47030</v>
       </c>
       <c r="P3" t="n">
         <v>43.01</v>
@@ -3943,7 +4023,7 @@
         <v>43010</v>
       </c>
       <c r="S3" t="n">
-        <v>3310</v>
+        <v>4020</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3956,7 +4036,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>55028.16</v>
+        <v>56628.823</v>
       </c>
     </row>
     <row r="4">
@@ -3971,7 +4051,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.188</v>
+        <v>1.2041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4001,17 +4081,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>588</v>
+        <v>589.3</v>
       </c>
       <c r="O4" t="n">
-        <v>2940</v>
+        <v>2946.5</v>
       </c>
       <c r="P4" t="n">
         <v>624.1</v>
@@ -4023,7 +4103,7 @@
         <v>3120.5</v>
       </c>
       <c r="S4" t="n">
-        <v>-180.5</v>
+        <v>-174</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -4036,7 +4116,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3492.72</v>
+        <v>3547.88065</v>
       </c>
     </row>
     <row r="5">
@@ -4051,7 +4131,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.188</v>
+        <v>1.2041</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4081,17 +4161,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="O5" t="n">
-        <v>6420</v>
+        <v>6390</v>
       </c>
       <c r="P5" t="n">
         <v>2127.063</v>
@@ -4103,7 +4183,7 @@
         <v>6381.189</v>
       </c>
       <c r="S5" t="n">
-        <v>38.811</v>
+        <v>8.811</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -4116,7 +4196,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7626.96</v>
+        <v>7694.199</v>
       </c>
     </row>
     <row r="6">
@@ -4131,7 +4211,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.188</v>
+        <v>1.2041</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4161,17 +4241,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>147.24</v>
+        <v>147.16</v>
       </c>
       <c r="O6" t="n">
-        <v>58896</v>
+        <v>58864</v>
       </c>
       <c r="P6" t="n">
         <v>146.3403336</v>
@@ -4183,7 +4263,7 @@
         <v>58536.13344</v>
       </c>
       <c r="S6" t="n">
-        <v>359.86656</v>
+        <v>327.86656</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -4196,7 +4276,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>69968.448</v>
+        <v>70878.1424</v>
       </c>
     </row>
     <row r="7">
@@ -4211,7 +4291,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78757</v>
+        <v>0.79383</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4241,17 +4321,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>10000</v>
       </c>
       <c r="N7" t="n">
-        <v>4.941</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>49410</v>
+        <v>50000</v>
       </c>
       <c r="P7" t="n">
         <v>3.81181816</v>
@@ -4263,7 +4343,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S7" t="n">
-        <v>11291.8184</v>
+        <v>11881.8184</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4276,7 +4356,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>38913.8337</v>
+        <v>39691.5</v>
       </c>
     </row>
     <row r="8">
@@ -4291,7 +4371,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78757</v>
+        <v>0.79383</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4321,29 +4401,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>593.8</v>
+        <v>593.1</v>
       </c>
       <c r="O8" t="n">
-        <v>5938</v>
+        <v>11862</v>
       </c>
       <c r="P8" t="n">
-        <v>544.755456</v>
+        <v>568.985228</v>
       </c>
       <c r="Q8" t="n">
-        <v>544.755456</v>
+        <v>568.985228</v>
       </c>
       <c r="R8" t="n">
-        <v>5447.55456</v>
+        <v>11379.70456</v>
       </c>
       <c r="S8" t="n">
-        <v>490.44544</v>
+        <v>482.29544</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4356,7 +4436,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4676.59066</v>
+        <v>9416.411460000001</v>
       </c>
     </row>
     <row r="9">
@@ -4401,17 +4481,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>12.14</v>
+        <v>12.38</v>
       </c>
       <c r="O9" t="n">
-        <v>2428</v>
+        <v>2476</v>
       </c>
       <c r="P9" t="n">
         <v>12.7</v>
@@ -4423,7 +4503,7 @@
         <v>2540</v>
       </c>
       <c r="S9" t="n">
-        <v>-112</v>
+        <v>-64</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4436,7 +4516,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2428</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="10">
@@ -4481,29 +4561,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>1478.4</v>
+        <v>1488.8</v>
       </c>
       <c r="O10" t="n">
-        <v>22176</v>
+        <v>29776</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.150733333</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q10" t="n">
-        <v>1461.150733333</v>
+        <v>1467.02705</v>
       </c>
       <c r="R10" t="n">
-        <v>21917.261</v>
+        <v>29340.541</v>
       </c>
       <c r="S10" t="n">
-        <v>258.739</v>
+        <v>435.459</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4516,7 +4596,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>22176</v>
+        <v>29776</v>
       </c>
     </row>
     <row r="11">
@@ -4561,17 +4641,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>3000</v>
       </c>
       <c r="N11" t="n">
-        <v>5.477</v>
+        <v>5.519</v>
       </c>
       <c r="O11" t="n">
-        <v>16431</v>
+        <v>16557</v>
       </c>
       <c r="P11" t="n">
         <v>5.552814967</v>
@@ -4583,7 +4663,7 @@
         <v>16658.4449</v>
       </c>
       <c r="S11" t="n">
-        <v>-227.4449</v>
+        <v>-101.4449</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4596,7 +4676,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>16431</v>
+        <v>16557</v>
       </c>
     </row>
     <row r="12">
@@ -4641,17 +4721,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>333.26</v>
+        <v>334.55</v>
       </c>
       <c r="O12" t="n">
-        <v>33326</v>
+        <v>33455</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4663,7 +4743,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>138.245</v>
+        <v>267.245</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4676,7 +4756,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33326</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="13">
@@ -4721,17 +4801,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5425</v>
+        <v>9.5975</v>
       </c>
       <c r="O13" t="n">
-        <v>9542.5</v>
+        <v>9597.5</v>
       </c>
       <c r="P13" t="n">
         <v>9.405900600000001</v>
@@ -4743,7 +4823,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>136.5994</v>
+        <v>191.5994</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4756,7 +4836,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9542.5</v>
+        <v>9597.5</v>
       </c>
     </row>
     <row r="14">
@@ -4801,17 +4881,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>75.34999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="O14" t="n">
-        <v>1269.26</v>
+        <v>1271.45</v>
       </c>
       <c r="P14" t="n">
         <v>20.721325216</v>
@@ -4823,7 +4903,7 @@
         <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>920.213421</v>
+        <v>922.403421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4836,7 +4916,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1269.26</v>
+        <v>1271.45</v>
       </c>
     </row>
     <row r="15">
@@ -4881,17 +4961,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>26.9498</v>
+        <v>27.3476</v>
       </c>
       <c r="O15" t="n">
-        <v>10375.67</v>
+        <v>10528.83</v>
       </c>
       <c r="P15" t="n">
         <v>25.997158151</v>
@@ -4903,7 +4983,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>366.764112</v>
+        <v>519.924112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4916,7 +4996,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10375.67</v>
+        <v>10528.83</v>
       </c>
     </row>
     <row r="16">
@@ -4961,17 +5041,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>301.04</v>
+        <v>300.31</v>
       </c>
       <c r="O16" t="n">
-        <v>30104</v>
+        <v>30031</v>
       </c>
       <c r="P16" t="n">
         <v>298.02</v>
@@ -4983,7 +5063,7 @@
         <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4996,7 +5076,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>30104</v>
+        <v>30031</v>
       </c>
     </row>
     <row r="17">
@@ -5041,17 +5121,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>10.112</v>
+        <v>10.182</v>
       </c>
       <c r="O17" t="n">
-        <v>10112</v>
+        <v>10182</v>
       </c>
       <c r="P17" t="n">
         <v>10.229112</v>
@@ -5063,7 +5143,7 @@
         <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>-117.112</v>
+        <v>-47.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -5076,7 +5156,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10112</v>
+        <v>10182</v>
       </c>
     </row>
     <row r="18">
@@ -5121,17 +5201,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>800</v>
       </c>
       <c r="N18" t="n">
-        <v>174.92</v>
+        <v>176.28</v>
       </c>
       <c r="O18" t="n">
-        <v>139936</v>
+        <v>141024</v>
       </c>
       <c r="P18" t="n">
         <v>170.683661681</v>
@@ -5143,7 +5223,7 @@
         <v>136546.929345</v>
       </c>
       <c r="S18" t="n">
-        <v>3389.070655</v>
+        <v>4477.070655</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -5156,7 +5236,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>139936</v>
+        <v>141024</v>
       </c>
     </row>
     <row r="19">
@@ -5211,17 +5291,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>24.0063</v>
+        <v>23.3733</v>
       </c>
       <c r="O19" t="n">
-        <v>4801.26</v>
+        <v>4674.66</v>
       </c>
       <c r="P19" t="n">
         <v>23.5270125</v>
@@ -5233,7 +5313,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>95.8575</v>
+        <v>-30.7425</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -5246,7 +5326,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4801.26</v>
+        <v>4674.66</v>
       </c>
     </row>
     <row r="20">
@@ -5301,17 +5381,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>20.38</v>
+        <v>20.16</v>
       </c>
       <c r="O20" t="n">
-        <v>4076</v>
+        <v>4032</v>
       </c>
       <c r="P20" t="n">
         <v>20.1350875</v>
@@ -5323,7 +5403,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>48.9825</v>
+        <v>4.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -5336,7 +5416,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4076</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="21">
@@ -5391,17 +5471,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>10.425</v>
+        <v>11.1491</v>
       </c>
       <c r="O21" t="n">
-        <v>-1042.5</v>
+        <v>-1114.91</v>
       </c>
       <c r="P21" t="n">
         <v>10.0494796</v>
@@ -5413,7 +5493,7 @@
         <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>-37.55204</v>
+        <v>-109.96204</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5426,7 +5506,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-1042.5</v>
+        <v>-1114.91</v>
       </c>
     </row>
     <row r="22">
@@ -5481,17 +5561,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>6.0749</v>
+        <v>5.75</v>
       </c>
       <c r="O22" t="n">
-        <v>-607.49</v>
+        <v>-575</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5503,7 +5583,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>265.45796</v>
+        <v>297.94796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5516,7 +5596,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-607.49</v>
+        <v>-575</v>
       </c>
     </row>
     <row r="23">
@@ -5571,17 +5651,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.915</v>
+        <v>0.8905</v>
       </c>
       <c r="O23" t="n">
-        <v>-91.5</v>
+        <v>-89.05</v>
       </c>
       <c r="P23" t="n">
         <v>1.7094796</v>
@@ -5593,7 +5673,7 @@
         <v>-170.94796</v>
       </c>
       <c r="S23" t="n">
-        <v>79.44795999999999</v>
+        <v>81.89796</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5606,7 +5686,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-91.5</v>
+        <v>-89.05</v>
       </c>
     </row>
     <row r="24">
@@ -5661,17 +5741,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6214</v>
+        <v>0.525</v>
       </c>
       <c r="O24" t="n">
-        <v>-62.14</v>
+        <v>-52.5</v>
       </c>
       <c r="P24" t="n">
         <v>2.0294546</v>
@@ -5683,7 +5763,7 @@
         <v>-202.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>140.80546</v>
+        <v>150.44546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5696,7 +5776,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-62.14</v>
+        <v>-52.5</v>
       </c>
     </row>
     <row r="25">
@@ -5751,17 +5831,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.076</v>
+        <v>0.555</v>
       </c>
       <c r="O25" t="n">
-        <v>-107.6</v>
+        <v>-55.5</v>
       </c>
       <c r="P25" t="n">
         <v>6.0594796</v>
@@ -5773,7 +5853,7 @@
         <v>-605.94796</v>
       </c>
       <c r="S25" t="n">
-        <v>498.34796</v>
+        <v>550.44796</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5786,7 +5866,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-107.6</v>
+        <v>-55.5</v>
       </c>
     </row>
     <row r="26">
@@ -5841,17 +5921,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5924</v>
+        <v>6.4668</v>
       </c>
       <c r="O26" t="n">
-        <v>-1318.48</v>
+        <v>-1293.36</v>
       </c>
       <c r="P26" t="n">
         <v>6.3929546</v>
@@ -5863,7 +5943,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-39.88908</v>
+        <v>-14.76908</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5876,7 +5956,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-1318.48</v>
+        <v>-1293.36</v>
       </c>
     </row>
     <row r="27">
@@ -5931,17 +6011,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.525</v>
+        <v>7.5</v>
       </c>
       <c r="O27" t="n">
-        <v>-1505</v>
+        <v>-1500</v>
       </c>
       <c r="P27" t="n">
         <v>7.3496796</v>
@@ -5953,7 +6033,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S27" t="n">
-        <v>-35.06408</v>
+        <v>-30.06408</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5966,7 +6046,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1505</v>
+        <v>-1500</v>
       </c>
     </row>
   </sheetData>
@@ -6018,17 +6098,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$352,854.30</t>
+          <t>$362,888.38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$97,846.56</t>
+          <t>$90,815.73</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$450,700.86</t>
+          <t>$453,704.10</t>
         </is>
       </c>
     </row>
@@ -6040,17 +6120,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$464,105.57</t>
+          <t>$481,331.09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$95,704.10</t>
+          <t>$84,276.87</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$559,809.66</t>
+          <t>$565,607.96</t>
         </is>
       </c>
     </row>
@@ -6068,17 +6148,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$816,959.87</t>
+          <t>$844,219.47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$193,550.65</t>
+          <t>$175,092.59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,010,510.52</t>
+          <t>$1,019,312.06</t>
         </is>
       </c>
     </row>
@@ -6131,11 +6211,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-27 23:46:58</t>
+          <t>2026-01-28 23:50:44</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
         <v>26</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,11 +556,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CNH</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14423</v>
+        <v>1.3015</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -574,12 +574,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>82846</t>
+          <t>EQCH</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ISHARES CORE CSI 300 ETF</t>
+          <t>INVESCO NASDAQ 100 CHF HDG</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -590,29 +590,29 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>31.54</v>
+        <v>417.4</v>
       </c>
       <c r="O2" t="n">
-        <v>31540</v>
+        <v>16696</v>
       </c>
       <c r="P2" t="n">
-        <v>30.68540181</v>
+        <v>419.45012025</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.68540181</v>
+        <v>419.45012025</v>
       </c>
       <c r="R2" t="n">
-        <v>30685.40181</v>
+        <v>16778.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>854.59819</v>
+        <v>-82.00481000000001</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -621,11 +621,11 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SEHK</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4549.0142</v>
+        <v>21729.844</v>
       </c>
     </row>
     <row r="3">
@@ -636,11 +636,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2041</v>
+        <v>1.3015</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -649,17 +649,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>UBS ETF W UCITS HCHF ACC</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -670,29 +670,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>2130</v>
+        <v>3.5615</v>
       </c>
       <c r="O3" t="n">
-        <v>6390</v>
+        <v>16026.75</v>
       </c>
       <c r="P3" t="n">
-        <v>2126.0625</v>
+        <v>3.58108965</v>
       </c>
       <c r="Q3" t="n">
-        <v>2126.0625</v>
+        <v>3.58108965</v>
       </c>
       <c r="R3" t="n">
-        <v>6378.1875</v>
+        <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>11.8125</v>
+        <v>-88.153425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7694.199</v>
+        <v>20858.815125</v>
       </c>
     </row>
     <row r="4">
@@ -716,11 +716,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2041</v>
+        <v>1.3015</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -734,12 +734,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VWCE</t>
+          <t>XMME</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>X MSCI EM 1C</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -750,29 +750,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>147.16</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>44148</v>
+        <v>9664.5</v>
       </c>
       <c r="P4" t="n">
-        <v>147.19356</v>
+        <v>64.678533333</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.19356</v>
+        <v>64.678533333</v>
       </c>
       <c r="R4" t="n">
-        <v>44158.068</v>
+        <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-10.068</v>
+        <v>-37.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -781,11 +781,11 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>IBIS2</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>53158.60679999999</v>
+        <v>12578.34675</v>
       </c>
     </row>
     <row r="5">
@@ -796,11 +796,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>CNH</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.79383</v>
+        <v>0.14402</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -814,12 +814,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>82846</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>ISHARES CORE CSI 300 ETF</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -830,29 +830,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>63360</v>
       </c>
       <c r="P5" t="n">
-        <v>4.54124249</v>
+        <v>31.16579949</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.54124249</v>
+        <v>31.16579949</v>
       </c>
       <c r="R5" t="n">
-        <v>22706.21245</v>
+        <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>2293.78755</v>
+        <v>1028.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -861,11 +861,11 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>SEHK</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>19845.75</v>
+        <v>9125.1072</v>
       </c>
     </row>
     <row r="6">
@@ -876,11 +876,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.79383</v>
+        <v>1.1954</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -894,12 +894,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>CBUK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>ISHARES CHINA TECH USD ACC</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -910,29 +910,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>593.1</v>
+        <v>4.6375</v>
       </c>
       <c r="O6" t="n">
-        <v>29655</v>
+        <v>18550</v>
       </c>
       <c r="P6" t="n">
-        <v>432.4596912</v>
+        <v>4.66216992</v>
       </c>
       <c r="Q6" t="n">
-        <v>432.4596912</v>
+        <v>4.66216992</v>
       </c>
       <c r="R6" t="n">
-        <v>21622.98456</v>
+        <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>8032.01544</v>
+        <v>-98.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -941,11 +941,11 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>IBIS2</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>23541.02865</v>
+        <v>22174.67</v>
       </c>
     </row>
     <row r="7">
@@ -956,11 +956,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.1954</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -974,12 +974,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AMAZON.COM INC</t>
+          <t>HERMES INTL</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -990,29 +990,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>244.68</v>
+        <v>2050</v>
       </c>
       <c r="O7" t="n">
-        <v>24468</v>
+        <v>6150</v>
       </c>
       <c r="P7" t="n">
-        <v>216.590322</v>
+        <v>2126.0625</v>
       </c>
       <c r="Q7" t="n">
-        <v>216.590322</v>
+        <v>2126.0625</v>
       </c>
       <c r="R7" t="n">
-        <v>21659.0322</v>
+        <v>6378.1875</v>
       </c>
       <c r="S7" t="n">
-        <v>2808.9678</v>
+        <v>-228.1875</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>SBF</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>24468</v>
+        <v>7351.71</v>
       </c>
     </row>
     <row r="8">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="N8" t="n">
-        <v>12.38</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1238</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>12.97</v>
+        <v>4.54124249</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.97</v>
+        <v>4.54124249</v>
       </c>
       <c r="R8" t="n">
-        <v>1297</v>
+        <v>22706.21245</v>
       </c>
       <c r="S8" t="n">
-        <v>-59</v>
+        <v>2293.78755</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1238</v>
+        <v>19804.75</v>
       </c>
     </row>
     <row r="9">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51</v>
+        <v>613.2</v>
       </c>
       <c r="O9" t="n">
-        <v>2775.5</v>
+        <v>30660</v>
       </c>
       <c r="P9" t="n">
-        <v>46.285022</v>
+        <v>432.4596912</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.285022</v>
+        <v>432.4596912</v>
       </c>
       <c r="R9" t="n">
-        <v>2314.2511</v>
+        <v>21622.98456</v>
       </c>
       <c r="S9" t="n">
-        <v>461.2489</v>
+        <v>9037.015439999999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2775.5</v>
+        <v>24288.5454</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>AMAZON.COM INC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>12.18</v>
+        <v>243.01</v>
       </c>
       <c r="O10" t="n">
-        <v>1218</v>
+        <v>24301</v>
       </c>
       <c r="P10" t="n">
-        <v>12.49</v>
+        <v>216.590322</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.49</v>
+        <v>216.590322</v>
       </c>
       <c r="R10" t="n">
-        <v>1249</v>
+        <v>21659.0322</v>
       </c>
       <c r="S10" t="n">
-        <v>-31</v>
+        <v>2641.9678</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1218</v>
+        <v>24301</v>
       </c>
     </row>
     <row r="11">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>1488.8</v>
+        <v>12.34</v>
       </c>
       <c r="O11" t="n">
-        <v>29776</v>
+        <v>1234</v>
       </c>
       <c r="P11" t="n">
-        <v>1475.46103475</v>
+        <v>12.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1475.46103475</v>
+        <v>12.97</v>
       </c>
       <c r="R11" t="n">
-        <v>29509.220695</v>
+        <v>1297</v>
       </c>
       <c r="S11" t="n">
-        <v>266.779305</v>
+        <v>-63</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>29776</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHARES CHINA TECH USD ACC</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>5.519</v>
+        <v>53.91</v>
       </c>
       <c r="O12" t="n">
-        <v>11038</v>
+        <v>2695.5</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5697835</v>
+        <v>46.285022</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.5697835</v>
+        <v>46.285022</v>
       </c>
       <c r="R12" t="n">
-        <v>11139.567</v>
+        <v>2314.2511</v>
       </c>
       <c r="S12" t="n">
-        <v>-101.567</v>
+        <v>381.2489</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>11038</v>
+        <v>2695.5</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>334.55</v>
+        <v>11.98</v>
       </c>
       <c r="O13" t="n">
-        <v>33455</v>
+        <v>1198</v>
       </c>
       <c r="P13" t="n">
-        <v>312.15</v>
+        <v>12.49</v>
       </c>
       <c r="Q13" t="n">
-        <v>312.15</v>
+        <v>12.49</v>
       </c>
       <c r="R13" t="n">
-        <v>31215</v>
+        <v>1249</v>
       </c>
       <c r="S13" t="n">
-        <v>2240</v>
+        <v>-51</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>33455</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GRAB HOLDINGS LTD - CL A</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>4.69</v>
+        <v>1492.8</v>
       </c>
       <c r="O14" t="n">
-        <v>2345</v>
+        <v>22392</v>
       </c>
       <c r="P14" t="n">
-        <v>5.166</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.166</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R14" t="n">
-        <v>2583</v>
+        <v>22124.835347</v>
       </c>
       <c r="S14" t="n">
-        <v>-238</v>
+        <v>267.164653</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2345</v>
+        <v>22392</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5975</v>
+        <v>336.01</v>
       </c>
       <c r="O15" t="n">
-        <v>9597.5</v>
+        <v>33601</v>
       </c>
       <c r="P15" t="n">
-        <v>9.424709999999999</v>
+        <v>312.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.424709999999999</v>
+        <v>312.15</v>
       </c>
       <c r="R15" t="n">
-        <v>9424.709999999999</v>
+        <v>31215</v>
       </c>
       <c r="S15" t="n">
-        <v>172.79</v>
+        <v>2386</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9597.5</v>
+        <v>33601</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>GRAB</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>GRAB HOLDINGS LTD - CL A</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>385</v>
+        <v>500</v>
       </c>
       <c r="N16" t="n">
-        <v>27.3476</v>
+        <v>4.53</v>
       </c>
       <c r="O16" t="n">
-        <v>10528.83</v>
+        <v>2265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.012734603</v>
+        <v>5.166</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.012734603</v>
+        <v>5.166</v>
       </c>
       <c r="R16" t="n">
-        <v>10014.902822</v>
+        <v>2583</v>
       </c>
       <c r="S16" t="n">
-        <v>513.927178</v>
+        <v>-318</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10528.83</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>32.35</v>
+        <v>9.4275</v>
       </c>
       <c r="O17" t="n">
-        <v>1617.5</v>
+        <v>9427.5</v>
       </c>
       <c r="P17" t="n">
-        <v>36.96000022</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.96000022</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>1848.000011</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>-230.500011</v>
+        <v>2.79</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1617.5</v>
+        <v>9427.5</v>
       </c>
     </row>
     <row r="18">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N18" t="n">
-        <v>10.182</v>
+        <v>27.7505</v>
       </c>
       <c r="O18" t="n">
-        <v>10182</v>
+        <v>10683.94</v>
       </c>
       <c r="P18" t="n">
-        <v>10.2267108</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.2267108</v>
+        <v>26.012734603</v>
       </c>
       <c r="R18" t="n">
-        <v>10226.7108</v>
+        <v>10014.902822</v>
       </c>
       <c r="S18" t="n">
-        <v>-44.7108</v>
+        <v>669.037178</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>10182</v>
+        <v>10683.94</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE INC</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>2295</v>
+        <v>32.25</v>
       </c>
       <c r="O19" t="n">
-        <v>2295</v>
+        <v>1612.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2086.200022</v>
+        <v>36.96000022</v>
       </c>
       <c r="Q19" t="n">
-        <v>2086.200022</v>
+        <v>36.96000022</v>
       </c>
       <c r="R19" t="n">
-        <v>2086.200022</v>
+        <v>1848.000011</v>
       </c>
       <c r="S19" t="n">
-        <v>208.799978</v>
+        <v>-235.500011</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1981,11 +1981,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2295</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N20" t="n">
-        <v>188.52</v>
+        <v>10.176</v>
       </c>
       <c r="O20" t="n">
-        <v>37704</v>
+        <v>10176</v>
       </c>
       <c r="P20" t="n">
-        <v>185.216422</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.216422</v>
+        <v>10.2267108</v>
       </c>
       <c r="R20" t="n">
-        <v>37043.2844</v>
+        <v>10226.7108</v>
       </c>
       <c r="S20" t="n">
-        <v>660.7156</v>
+        <v>-50.7108</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>37704</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="21">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>MERCADOLIBRE INC</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2110,29 +2110,29 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>174.9</v>
+        <v>2268.6</v>
       </c>
       <c r="O21" t="n">
-        <v>17490</v>
+        <v>2268.6</v>
       </c>
       <c r="P21" t="n">
-        <v>205.3357044</v>
+        <v>2086.200022</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.3357044</v>
+        <v>2086.200022</v>
       </c>
       <c r="R21" t="n">
-        <v>20533.57044</v>
+        <v>2086.200022</v>
       </c>
       <c r="S21" t="n">
-        <v>-3043.57044</v>
+        <v>182.399978</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>17490</v>
+        <v>2268.6</v>
       </c>
     </row>
     <row r="22">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2190,29 +2190,29 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>127.11</v>
+        <v>191.52</v>
       </c>
       <c r="O22" t="n">
-        <v>1271.1</v>
+        <v>38304</v>
       </c>
       <c r="P22" t="n">
-        <v>128.6</v>
+        <v>185.216422</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.6</v>
+        <v>185.216422</v>
       </c>
       <c r="R22" t="n">
-        <v>1286</v>
+        <v>37043.2844</v>
       </c>
       <c r="S22" t="n">
-        <v>-14.9</v>
+        <v>1260.7156</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2221,11 +2221,11 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>1271.1</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="23">
@@ -2249,17 +2249,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2270,29 +2270,29 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>176.28</v>
+        <v>172.8</v>
       </c>
       <c r="O23" t="n">
-        <v>52884</v>
+        <v>17280</v>
       </c>
       <c r="P23" t="n">
-        <v>171.3697087</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.3697087</v>
+        <v>205.3357044</v>
       </c>
       <c r="R23" t="n">
-        <v>51410.91261</v>
+        <v>20533.57044</v>
       </c>
       <c r="S23" t="n">
-        <v>1473.08739</v>
+        <v>-3253.57044</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>52884</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="24">
@@ -2324,65 +2324,55 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>JPM   260206P00320000</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 320 P</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>320</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>19.7458</v>
+        <v>126.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.58</v>
+        <v>1265.5</v>
       </c>
       <c r="P24" t="n">
-        <v>21.7804875</v>
+        <v>128.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.7804875</v>
+        <v>128.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2178.04875</v>
+        <v>1286</v>
       </c>
       <c r="S24" t="n">
-        <v>-203.46875</v>
+        <v>-20.5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2391,11 +2381,11 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>1974.58</v>
+        <v>1265.5</v>
       </c>
     </row>
     <row r="25">
@@ -2414,65 +2404,55 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>560</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>23.3733</v>
+        <v>175.78</v>
       </c>
       <c r="O25" t="n">
-        <v>4674.66</v>
+        <v>35156</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="R25" t="n">
-        <v>4692.1</v>
+        <v>34348.38561</v>
       </c>
       <c r="S25" t="n">
-        <v>-17.44</v>
+        <v>807.61439</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2481,11 +2461,11 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>4674.66</v>
+        <v>35156</v>
       </c>
     </row>
     <row r="26">
@@ -2514,23 +2494,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>JPM   260206P00320000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>JPM 06FEB26 320 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>620</v>
+        <v>320</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2540,29 +2520,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>20.16</v>
+        <v>19.3117</v>
       </c>
       <c r="O26" t="n">
-        <v>4032</v>
+        <v>1931.17</v>
       </c>
       <c r="P26" t="n">
-        <v>20.1374875</v>
+        <v>21.7804875</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.1374875</v>
+        <v>21.7804875</v>
       </c>
       <c r="R26" t="n">
-        <v>4027.4975</v>
+        <v>2178.04875</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5025</v>
+        <v>-246.87875</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2575,7 +2555,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>4032</v>
+        <v>1931.17</v>
       </c>
     </row>
     <row r="27">
@@ -2594,7 +2574,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2604,23 +2584,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>6525</v>
+        <v>560</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2630,29 +2610,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.25</v>
+        <v>23.5686</v>
       </c>
       <c r="O27" t="n">
-        <v>825</v>
+        <v>4713.72</v>
       </c>
       <c r="P27" t="n">
-        <v>31.5284</v>
+        <v>23.4605</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.5284</v>
+        <v>23.4605</v>
       </c>
       <c r="R27" t="n">
-        <v>3152.84</v>
+        <v>4692.1</v>
       </c>
       <c r="S27" t="n">
-        <v>-2327.84</v>
+        <v>21.62</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2661,11 +2641,11 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>825</v>
+        <v>4713.72</v>
       </c>
     </row>
     <row r="28">
@@ -2684,65 +2664,65 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>7300</v>
+        <v>620</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>20.345</v>
       </c>
       <c r="O28" t="n">
-        <v>175</v>
+        <v>4069</v>
       </c>
       <c r="P28" t="n">
-        <v>8.0284</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.0284</v>
+        <v>20.1374875</v>
       </c>
       <c r="R28" t="n">
-        <v>802.84</v>
+        <v>4027.4975</v>
       </c>
       <c r="S28" t="n">
-        <v>-627.84</v>
+        <v>41.5025</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2751,11 +2731,11 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>175</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="29">
@@ -2774,7 +2754,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2784,23 +2764,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I29" t="n">
-        <v>215</v>
+        <v>6525</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2810,42 +2790,42 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.025</v>
+        <v>7.85</v>
       </c>
       <c r="O29" t="n">
-        <v>-202.5</v>
+        <v>785</v>
       </c>
       <c r="P29" t="n">
-        <v>4.3794796</v>
+        <v>31.5284</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.3794796</v>
+        <v>31.5284</v>
       </c>
       <c r="R29" t="n">
-        <v>-437.94796</v>
+        <v>3152.84</v>
       </c>
       <c r="S29" t="n">
-        <v>235.44796</v>
+        <v>-2367.84</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-202.5</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30">
@@ -2864,7 +2844,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2874,23 +2854,23 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>255</v>
+        <v>7300</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2900,42 +2880,42 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.75</v>
+        <v>1.45</v>
       </c>
       <c r="O30" t="n">
-        <v>-775</v>
+        <v>145</v>
       </c>
       <c r="P30" t="n">
-        <v>5.4294796</v>
+        <v>8.0284</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.4294796</v>
+        <v>8.0284</v>
       </c>
       <c r="R30" t="n">
-        <v>-542.94796</v>
+        <v>802.84</v>
       </c>
       <c r="S30" t="n">
-        <v>-232.05204</v>
+        <v>-657.84</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-775</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -2964,23 +2944,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>AMZN  260220P00215000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>AMZN 20FEB26 215 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2990,29 +2970,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>5.325</v>
+        <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>-532.5</v>
+        <v>-205</v>
       </c>
       <c r="P31" t="n">
-        <v>7.2294546</v>
+        <v>4.3794796</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.2294546</v>
+        <v>4.3794796</v>
       </c>
       <c r="R31" t="n">
-        <v>-722.94546</v>
+        <v>-437.94796</v>
       </c>
       <c r="S31" t="n">
-        <v>190.44546</v>
+        <v>232.94796</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3025,7 +3005,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-532.5</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="32">
@@ -3054,19 +3034,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>AMZN  260227C00255000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>AMZN 27FEB26 255 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3080,29 +3060,29 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>6.775</v>
       </c>
       <c r="O32" t="n">
-        <v>-390</v>
+        <v>-677.5</v>
       </c>
       <c r="P32" t="n">
-        <v>5.6494546</v>
+        <v>5.4294796</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.6494546</v>
+        <v>5.4294796</v>
       </c>
       <c r="R32" t="n">
-        <v>-564.94546</v>
+        <v>-542.94796</v>
       </c>
       <c r="S32" t="n">
-        <v>174.94546</v>
+        <v>-134.55204</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3115,7 +3095,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-390</v>
+        <v>-677.5</v>
       </c>
     </row>
     <row r="33">
@@ -3144,23 +3124,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>JPM   260206P00300000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 300 P</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3170,29 +3150,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>4.225</v>
+        <v>4.725</v>
       </c>
       <c r="O33" t="n">
-        <v>-422.5</v>
+        <v>-472.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.4194546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4194546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R33" t="n">
-        <v>-241.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S33" t="n">
-        <v>-180.55454</v>
+        <v>250.44546</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3205,7 +3185,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-422.5</v>
+        <v>-472.5</v>
       </c>
     </row>
     <row r="34">
@@ -3234,23 +3214,23 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3260,29 +3240,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>0.635</v>
+        <v>3.975</v>
       </c>
       <c r="O34" t="n">
-        <v>-127</v>
+        <v>-397.5</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1886796</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1886796</v>
+        <v>5.6494546</v>
       </c>
       <c r="R34" t="n">
-        <v>-437.73592</v>
+        <v>-564.94546</v>
       </c>
       <c r="S34" t="n">
-        <v>310.73592</v>
+        <v>167.44546</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3295,7 +3275,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-127</v>
+        <v>-397.5</v>
       </c>
     </row>
     <row r="35">
@@ -3319,60 +3299,60 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>JPM   260206P00300000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>JPM 06FEB26 300 P</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.0703</v>
+        <v>3.775</v>
       </c>
       <c r="O35" t="n">
-        <v>-207.03</v>
+        <v>-377.5</v>
       </c>
       <c r="P35" t="n">
-        <v>2.3894796</v>
+        <v>2.4194546</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.3894796</v>
+        <v>2.4194546</v>
       </c>
       <c r="R35" t="n">
-        <v>-238.94796</v>
+        <v>-241.94546</v>
       </c>
       <c r="S35" t="n">
-        <v>31.91796</v>
+        <v>-135.55454</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3385,7 +3365,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>-207.03</v>
+        <v>-377.5</v>
       </c>
     </row>
     <row r="36">
@@ -3409,60 +3389,60 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>6.4668</v>
+        <v>1.215</v>
       </c>
       <c r="O36" t="n">
-        <v>-1293.36</v>
+        <v>-243</v>
       </c>
       <c r="P36" t="n">
-        <v>6.3644671</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.3644671</v>
+        <v>2.1886796</v>
       </c>
       <c r="R36" t="n">
-        <v>-1272.89342</v>
+        <v>-437.73592</v>
       </c>
       <c r="S36" t="n">
-        <v>-20.46658</v>
+        <v>194.73592</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3475,7 +3455,7 @@
         </is>
       </c>
       <c r="V36" t="n">
-        <v>-1293.36</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="37">
@@ -3499,60 +3479,60 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>505</v>
+        <v>200</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>1.9784</v>
       </c>
       <c r="O37" t="n">
-        <v>-1500</v>
+        <v>-197.84</v>
       </c>
       <c r="P37" t="n">
-        <v>7.3548796</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.3548796</v>
+        <v>2.3894796</v>
       </c>
       <c r="R37" t="n">
-        <v>-1470.97592</v>
+        <v>-238.94796</v>
       </c>
       <c r="S37" t="n">
-        <v>-29.02408</v>
+        <v>41.10796</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3565,7 +3545,7 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>-1500</v>
+        <v>-197.84</v>
       </c>
     </row>
     <row r="38">
@@ -3584,7 +3564,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3594,23 +3574,23 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>6625</v>
+        <v>425</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3620,29 +3600,29 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>-2</v>
       </c>
       <c r="N38" t="n">
-        <v>12.25</v>
+        <v>6.4111</v>
       </c>
       <c r="O38" t="n">
-        <v>-1225</v>
+        <v>-1282.22</v>
       </c>
       <c r="P38" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q38" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="R38" t="n">
-        <v>-4222.16</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S38" t="n">
-        <v>2997.16</v>
+        <v>-9.32658</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3651,11 +3631,11 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>-1225</v>
+        <v>-1282.22</v>
       </c>
     </row>
     <row r="39">
@@ -3674,78 +3654,258 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>7200</v>
+        <v>505</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>-2</v>
       </c>
       <c r="N39" t="n">
-        <v>7.9</v>
+        <v>7.58</v>
       </c>
       <c r="O39" t="n">
-        <v>-790</v>
+        <v>-1516</v>
       </c>
       <c r="P39" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1470.97592</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-45.02408</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>-1516</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>EW2G6 P6625</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 6625 P</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>50</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6625</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1175</v>
+      </c>
+      <c r="P40" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-4222.16</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3047.16</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>-1175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>EW2G6 C7200</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 7200 C</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>50</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-710</v>
+      </c>
+      <c r="P41" t="n">
         <v>18.9716</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q41" t="n">
         <v>18.9716</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R41" t="n">
         <v>-1897.16</v>
       </c>
-      <c r="S39" t="n">
-        <v>1107.16</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="S41" t="n">
+        <v>1187.16</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>CME</t>
         </is>
       </c>
-      <c r="V39" t="n">
-        <v>-790</v>
+      <c r="V41" t="n">
+        <v>-710</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +3919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3887,11 +4047,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CNH</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.14423</v>
+        <v>1.3015</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3905,12 +4065,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>82846</t>
+          <t>EQCH</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ISHARES CORE CSI 300 ETF</t>
+          <t>INVESCO NASDAQ 100 CHF HDG</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3921,29 +4081,29 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>31.54</v>
+        <v>417.4</v>
       </c>
       <c r="O2" t="n">
-        <v>31540</v>
+        <v>20870</v>
       </c>
       <c r="P2" t="n">
-        <v>31.76629659</v>
+        <v>419.6591247</v>
       </c>
       <c r="Q2" t="n">
-        <v>31.76629659</v>
+        <v>419.6591247</v>
       </c>
       <c r="R2" t="n">
-        <v>31766.29659</v>
+        <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-226.29659</v>
+        <v>-112.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3952,11 +4112,11 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SEHK</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4549.0142</v>
+        <v>27162.305</v>
       </c>
     </row>
     <row r="3">
@@ -3967,11 +4127,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2041</v>
+        <v>1.3015</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3980,17 +4140,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DHL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DHL GROUP</t>
+          <t>UBS ETF W UCITS HCHF ACC</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4001,29 +4161,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>47.03</v>
+        <v>3.5615</v>
       </c>
       <c r="O3" t="n">
-        <v>47030</v>
+        <v>19588.25</v>
       </c>
       <c r="P3" t="n">
-        <v>43.01</v>
+        <v>3.57708765</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.01</v>
+        <v>3.57708765</v>
       </c>
       <c r="R3" t="n">
-        <v>43010</v>
+        <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>4020</v>
+        <v>-85.73207499999999</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -4032,11 +4192,11 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>IBIS</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>56628.823</v>
+        <v>25494.107375</v>
       </c>
     </row>
     <row r="4">
@@ -4047,11 +4207,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2041</v>
+        <v>1.3015</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4060,17 +4220,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>XMME</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>LVMH MOET HENNESSY LOUIS VUI</t>
+          <t>X MSCI EM 1C</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4081,29 +4241,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>589.3</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>2946.5</v>
+        <v>12886</v>
       </c>
       <c r="P4" t="n">
-        <v>624.1</v>
+        <v>64.6234956</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.1</v>
+        <v>64.6234956</v>
       </c>
       <c r="R4" t="n">
-        <v>3120.5</v>
+        <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-174</v>
+        <v>-38.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -4112,11 +4272,11 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3547.88065</v>
+        <v>16771.129</v>
       </c>
     </row>
     <row r="5">
@@ -4127,11 +4287,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CNH</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.2041</v>
+        <v>0.14402</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4140,17 +4300,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>82846</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>ISHARES CORE CSI 300 ETF</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4161,29 +4321,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>2130</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>6390</v>
+        <v>63360</v>
       </c>
       <c r="P5" t="n">
-        <v>2127.063</v>
+        <v>31.696238595</v>
       </c>
       <c r="Q5" t="n">
-        <v>2127.063</v>
+        <v>31.696238595</v>
       </c>
       <c r="R5" t="n">
-        <v>6381.189</v>
+        <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>8.811</v>
+        <v>-32.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -4192,11 +4352,11 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>SEHK</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7694.199</v>
+        <v>9125.1072</v>
       </c>
     </row>
     <row r="6">
@@ -4211,7 +4371,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.2041</v>
+        <v>1.1954</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4225,12 +4385,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VWCE</t>
+          <t>CBUK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ISHARES CHINA TECH USD ACC</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4241,29 +4401,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>147.16</v>
+        <v>4.6375</v>
       </c>
       <c r="O6" t="n">
-        <v>58864</v>
+        <v>18550</v>
       </c>
       <c r="P6" t="n">
-        <v>146.3403336</v>
+        <v>4.65882825</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.3403336</v>
+        <v>4.65882825</v>
       </c>
       <c r="R6" t="n">
-        <v>58536.13344</v>
+        <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>327.86656</v>
+        <v>-85.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -4276,7 +4436,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>70878.1424</v>
+        <v>22174.67</v>
       </c>
     </row>
     <row r="7">
@@ -4287,11 +4447,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79383</v>
+        <v>1.1954</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4300,17 +4460,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>DHL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>DHL GROUP</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -4321,29 +4481,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>46.4</v>
       </c>
       <c r="O7" t="n">
-        <v>50000</v>
+        <v>46400</v>
       </c>
       <c r="P7" t="n">
-        <v>3.81181816</v>
+        <v>43.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.81181816</v>
+        <v>43.01</v>
       </c>
       <c r="R7" t="n">
-        <v>38118.1816</v>
+        <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>11881.8184</v>
+        <v>3390</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4352,11 +4512,11 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>IBIS</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>39691.5</v>
+        <v>55466.56</v>
       </c>
     </row>
     <row r="8">
@@ -4367,11 +4527,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79383</v>
+        <v>1.1954</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4380,17 +4540,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>LVMH MOET HENNESSY LOUIS VUI</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4401,29 +4561,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>593.1</v>
+        <v>542.8</v>
       </c>
       <c r="O8" t="n">
-        <v>11862</v>
+        <v>2714</v>
       </c>
       <c r="P8" t="n">
-        <v>568.985228</v>
+        <v>624.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>568.985228</v>
+        <v>624.1</v>
       </c>
       <c r="R8" t="n">
-        <v>11379.70456</v>
+        <v>3120.5</v>
       </c>
       <c r="S8" t="n">
-        <v>482.29544</v>
+        <v>-406.5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4432,11 +4592,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>SBF</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9416.411460000001</v>
+        <v>3244.3156</v>
       </c>
     </row>
     <row r="9">
@@ -4447,11 +4607,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>1.1954</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4460,17 +4620,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>HERMES INTL</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4481,29 +4641,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>12.38</v>
+        <v>2050</v>
       </c>
       <c r="O9" t="n">
-        <v>2476</v>
+        <v>6150</v>
       </c>
       <c r="P9" t="n">
-        <v>12.7</v>
+        <v>2127.063</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.7</v>
+        <v>2127.063</v>
       </c>
       <c r="R9" t="n">
-        <v>2540</v>
+        <v>6381.189</v>
       </c>
       <c r="S9" t="n">
-        <v>-64</v>
+        <v>-231.189</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4512,11 +4672,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SBF</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2476</v>
+        <v>7351.71</v>
       </c>
     </row>
     <row r="10">
@@ -4527,11 +4687,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4545,12 +4705,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4561,29 +4721,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="n">
-        <v>1488.8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>29776</v>
+        <v>50000</v>
       </c>
       <c r="P10" t="n">
-        <v>1467.02705</v>
+        <v>3.81181816</v>
       </c>
       <c r="Q10" t="n">
-        <v>1467.02705</v>
+        <v>3.81181816</v>
       </c>
       <c r="R10" t="n">
-        <v>29340.541</v>
+        <v>38118.1816</v>
       </c>
       <c r="S10" t="n">
-        <v>435.459</v>
+        <v>11881.8184</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4592,11 +4752,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>29776</v>
+        <v>39609.5</v>
       </c>
     </row>
     <row r="11">
@@ -4607,11 +4767,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -4625,12 +4785,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CTEC</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES CHINA TECH USD ACC</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4641,29 +4801,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>5.519</v>
+        <v>613.2</v>
       </c>
       <c r="O11" t="n">
-        <v>16557</v>
+        <v>30660</v>
       </c>
       <c r="P11" t="n">
-        <v>5.552814967</v>
+        <v>593.7864108799999</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.552814967</v>
+        <v>593.7864108799999</v>
       </c>
       <c r="R11" t="n">
-        <v>16658.4449</v>
+        <v>29689.320544</v>
       </c>
       <c r="S11" t="n">
-        <v>-101.4449</v>
+        <v>970.679456</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4672,11 +4832,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>16557</v>
+        <v>24288.5454</v>
       </c>
     </row>
     <row r="12">
@@ -4700,17 +4860,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4721,29 +4881,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>334.55</v>
+        <v>12.34</v>
       </c>
       <c r="O12" t="n">
-        <v>33455</v>
+        <v>2468</v>
       </c>
       <c r="P12" t="n">
-        <v>331.87755</v>
+        <v>12.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>331.87755</v>
+        <v>12.7</v>
       </c>
       <c r="R12" t="n">
-        <v>33187.755</v>
+        <v>2540</v>
       </c>
       <c r="S12" t="n">
-        <v>267.245</v>
+        <v>-72</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4752,11 +4912,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33455</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="13">
@@ -4785,12 +4945,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4801,29 +4961,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5975</v>
+        <v>1492.8</v>
       </c>
       <c r="O13" t="n">
-        <v>9597.5</v>
+        <v>29856</v>
       </c>
       <c r="P13" t="n">
-        <v>9.405900600000001</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.405900600000001</v>
+        <v>1467.02705</v>
       </c>
       <c r="R13" t="n">
-        <v>9405.900600000001</v>
+        <v>29340.541</v>
       </c>
       <c r="S13" t="n">
-        <v>191.5994</v>
+        <v>515.4589999999999</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4832,11 +4992,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9597.5</v>
+        <v>29856</v>
       </c>
     </row>
     <row r="14">
@@ -4865,12 +5025,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4881,29 +5041,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16.8448</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>75.48</v>
+        <v>336.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.45</v>
+        <v>33601</v>
       </c>
       <c r="P14" t="n">
-        <v>20.721325216</v>
+        <v>331.87755</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.721325216</v>
+        <v>331.87755</v>
       </c>
       <c r="R14" t="n">
-        <v>349.046579</v>
+        <v>33187.755</v>
       </c>
       <c r="S14" t="n">
-        <v>922.403421</v>
+        <v>413.245</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4916,7 +5076,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1271.45</v>
+        <v>33601</v>
       </c>
     </row>
     <row r="15">
@@ -4945,12 +5105,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4961,29 +5121,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>27.3476</v>
+        <v>9.4275</v>
       </c>
       <c r="O15" t="n">
-        <v>10528.83</v>
+        <v>9427.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.997158151</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.997158151</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R15" t="n">
-        <v>10008.905888</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S15" t="n">
-        <v>519.924112</v>
+        <v>21.5994</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4992,11 +5152,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10528.83</v>
+        <v>9427.5</v>
       </c>
     </row>
     <row r="16">
@@ -5025,12 +5185,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5041,29 +5201,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>16.8448</v>
       </c>
       <c r="N16" t="n">
-        <v>300.31</v>
+        <v>75.45</v>
       </c>
       <c r="O16" t="n">
-        <v>30031</v>
+        <v>1270.94</v>
       </c>
       <c r="P16" t="n">
-        <v>298.02</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.02</v>
+        <v>20.721325216</v>
       </c>
       <c r="R16" t="n">
-        <v>29802</v>
+        <v>349.046579</v>
       </c>
       <c r="S16" t="n">
-        <v>229</v>
+        <v>921.893421</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -5072,11 +5232,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>30031</v>
+        <v>1270.94</v>
       </c>
     </row>
     <row r="17">
@@ -5105,12 +5265,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -5121,29 +5281,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N17" t="n">
-        <v>10.182</v>
+        <v>27.7505</v>
       </c>
       <c r="O17" t="n">
-        <v>10182</v>
+        <v>10683.94</v>
       </c>
       <c r="P17" t="n">
-        <v>10.229112</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.229112</v>
+        <v>25.997158151</v>
       </c>
       <c r="R17" t="n">
-        <v>10229.112</v>
+        <v>10008.905888</v>
       </c>
       <c r="S17" t="n">
-        <v>-47.112</v>
+        <v>675.0341120000001</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -5152,11 +5312,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10182</v>
+        <v>10683.94</v>
       </c>
     </row>
     <row r="18">
@@ -5180,17 +5340,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -5201,29 +5361,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>176.28</v>
+        <v>300.77</v>
       </c>
       <c r="O18" t="n">
-        <v>141024</v>
+        <v>30077</v>
       </c>
       <c r="P18" t="n">
-        <v>170.683661681</v>
+        <v>298.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.683661681</v>
+        <v>298.02</v>
       </c>
       <c r="R18" t="n">
-        <v>136546.929345</v>
+        <v>29802</v>
       </c>
       <c r="S18" t="n">
-        <v>4477.070655</v>
+        <v>275</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -5232,11 +5392,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>141024</v>
+        <v>30077</v>
       </c>
     </row>
     <row r="19">
@@ -5255,65 +5415,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>560</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="N19" t="n">
-        <v>23.3733</v>
+        <v>10.176</v>
       </c>
       <c r="O19" t="n">
-        <v>4674.66</v>
+        <v>10176</v>
       </c>
       <c r="P19" t="n">
-        <v>23.5270125</v>
+        <v>10.229112</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.5270125</v>
+        <v>10.229112</v>
       </c>
       <c r="R19" t="n">
-        <v>4705.4025</v>
+        <v>10229.112</v>
       </c>
       <c r="S19" t="n">
-        <v>-30.7425</v>
+        <v>-53.112</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -5322,11 +5472,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4674.66</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="20">
@@ -5345,65 +5495,55 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>620</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>20.16</v>
+        <v>175.78</v>
       </c>
       <c r="O20" t="n">
-        <v>4032</v>
+        <v>52734</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1350875</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.1350875</v>
+        <v>172.7421946</v>
       </c>
       <c r="R20" t="n">
-        <v>4027.0175</v>
+        <v>51822.65838</v>
       </c>
       <c r="S20" t="n">
-        <v>4.9825</v>
+        <v>911.34162</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -5412,11 +5552,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4032</v>
+        <v>52734</v>
       </c>
     </row>
     <row r="21">
@@ -5440,64 +5580,64 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>335</v>
+        <v>560</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>11.1491</v>
+        <v>23.5686</v>
       </c>
       <c r="O21" t="n">
-        <v>-1114.91</v>
+        <v>4713.72</v>
       </c>
       <c r="P21" t="n">
-        <v>10.0494796</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.0494796</v>
+        <v>23.5270125</v>
       </c>
       <c r="R21" t="n">
-        <v>-1004.94796</v>
+        <v>4705.4025</v>
       </c>
       <c r="S21" t="n">
-        <v>-109.96204</v>
+        <v>8.317500000000001</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -5506,7 +5646,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-1114.91</v>
+        <v>4713.72</v>
       </c>
     </row>
     <row r="22">
@@ -5535,23 +5675,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>315</v>
+        <v>620</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5561,33 +5701,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>5.75</v>
+        <v>20.345</v>
       </c>
       <c r="O22" t="n">
-        <v>-575</v>
+        <v>4069</v>
       </c>
       <c r="P22" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="R22" t="n">
-        <v>-872.94796</v>
+        <v>4027.0175</v>
       </c>
       <c r="S22" t="n">
-        <v>297.94796</v>
+        <v>41.9825</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5596,7 +5736,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-575</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="23">
@@ -5620,24 +5760,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JPM   260206P00287500</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 287.5 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>287.5</v>
+        <v>335</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -5646,34 +5786,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8905</v>
+        <v>11.55</v>
       </c>
       <c r="O23" t="n">
-        <v>-89.05</v>
+        <v>-1155</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7094796</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7094796</v>
+        <v>10.0494796</v>
       </c>
       <c r="R23" t="n">
-        <v>-170.94796</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S23" t="n">
-        <v>81.89796</v>
+        <v>-150.05204</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5686,7 +5826,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-89.05</v>
+        <v>-1155</v>
       </c>
     </row>
     <row r="24">
@@ -5710,17 +5850,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -5731,39 +5871,39 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.525</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>-52.5</v>
+        <v>-510</v>
       </c>
       <c r="P24" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R24" t="n">
-        <v>-202.94546</v>
+        <v>-872.94796</v>
       </c>
       <c r="S24" t="n">
-        <v>150.44546</v>
+        <v>362.94796</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5776,7 +5916,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-52.5</v>
+        <v>-510</v>
       </c>
     </row>
     <row r="25">
@@ -5805,23 +5945,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>QQQ   260130P00608000</t>
+          <t>JPM   260206P00287500</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>QQQ 30JAN26 608 P</t>
+          <t>JPM 06FEB26 287.5 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>608</v>
+        <v>287.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5831,29 +5971,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.555</v>
+        <v>0.77</v>
       </c>
       <c r="O25" t="n">
-        <v>-55.5</v>
+        <v>-77</v>
       </c>
       <c r="P25" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.0594796</v>
+        <v>1.7094796</v>
       </c>
       <c r="R25" t="n">
-        <v>-605.94796</v>
+        <v>-170.94796</v>
       </c>
       <c r="S25" t="n">
-        <v>550.44796</v>
+        <v>93.94795999999999</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5866,7 +6006,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-55.5</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="26">
@@ -5890,60 +6030,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4668</v>
+        <v>0.485</v>
       </c>
       <c r="O26" t="n">
-        <v>-1293.36</v>
+        <v>-48.5</v>
       </c>
       <c r="P26" t="n">
-        <v>6.3929546</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.3929546</v>
+        <v>2.0294546</v>
       </c>
       <c r="R26" t="n">
-        <v>-1278.59092</v>
+        <v>-202.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>-14.76908</v>
+        <v>154.44546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5956,7 +6096,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-1293.36</v>
+        <v>-48.5</v>
       </c>
     </row>
     <row r="27">
@@ -5985,68 +6125,248 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>QQQ   260130P00608000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>QQQ 30JAN26 608 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
+        <v>608</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-27.75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6.0594796</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-605.94796</v>
+      </c>
+      <c r="S27" t="n">
+        <v>578.19796</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>-27.75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>QQQ   261218P00425000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>QQQ 18DEC26 425 P</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>425</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.4111</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-1282.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-1278.59092</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-3.62908</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>-1282.22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
         <v>505</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>2026-12-18</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>-2</v>
       </c>
-      <c r="N27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="N29" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-1516</v>
+      </c>
+      <c r="P29" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q29" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R29" t="n">
         <v>-1469.93592</v>
       </c>
-      <c r="S27" t="n">
-        <v>-30.06408</v>
-      </c>
-      <c r="T27" t="inlineStr">
+      <c r="S29" t="n">
+        <v>-46.06408</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V27" t="n">
-        <v>-1500</v>
+      <c r="V29" t="n">
+        <v>-1516</v>
       </c>
     </row>
   </sheetData>
@@ -6098,17 +6418,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$362,888.38</t>
+          <t>$356,162.16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$90,815.73</t>
+          <t>$97,618.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$453,704.10</t>
+          <t>$453,780.66</t>
         </is>
       </c>
     </row>
@@ -6120,17 +6440,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$481,331.09</t>
+          <t>$415,148.58</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$84,276.87</t>
+          <t>$148,327.30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$565,607.96</t>
+          <t>$563,475.88</t>
         </is>
       </c>
     </row>
@@ -6148,17 +6468,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$844,219.47</t>
+          <t>$771,310.74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$175,092.59</t>
+          <t>$245,945.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,019,312.06</t>
+          <t>$1,017,256.55</t>
         </is>
       </c>
     </row>
@@ -6211,14 +6531,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-28 23:50:44</t>
+          <t>2026-01-29 23:51:03</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>417.4</v>
+        <v>410.05</v>
       </c>
       <c r="O2" t="n">
-        <v>16696</v>
+        <v>16402</v>
       </c>
       <c r="P2" t="n">
         <v>419.45012025</v>
@@ -612,7 +612,7 @@
         <v>16778.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-82.00481000000001</v>
+        <v>-376.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>21729.844</v>
+        <v>21460.3768</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5615</v>
+        <v>3.5335</v>
       </c>
       <c r="O3" t="n">
-        <v>16026.75</v>
+        <v>15900.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-88.153425</v>
+        <v>-214.153425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20858.815125</v>
+        <v>20804.5413</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.43000000000001</v>
+        <v>63.64</v>
       </c>
       <c r="O4" t="n">
-        <v>9664.5</v>
+        <v>9546</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-37.28</v>
+        <v>-155.78</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12578.34675</v>
+        <v>12489.9864</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14402</v>
+        <v>0.14399</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.68</v>
+        <v>31.92</v>
       </c>
       <c r="O5" t="n">
-        <v>63360</v>
+        <v>63840</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>1028.40102</v>
+        <v>1508.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9125.1072</v>
+        <v>9192.321600000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1954</v>
+        <v>1.1971</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6375</v>
+        <v>4.5805</v>
       </c>
       <c r="O6" t="n">
-        <v>18550</v>
+        <v>18322</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-98.67968</v>
+        <v>-326.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>22174.67</v>
+        <v>21933.2662</v>
       </c>
     </row>
     <row r="7">
@@ -956,11 +956,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1954</v>
+        <v>0.79082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -969,17 +969,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -990,29 +990,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>2050</v>
+        <v>5.019</v>
       </c>
       <c r="O7" t="n">
-        <v>6150</v>
+        <v>25095</v>
       </c>
       <c r="P7" t="n">
-        <v>2126.0625</v>
+        <v>4.54124249</v>
       </c>
       <c r="Q7" t="n">
-        <v>2126.0625</v>
+        <v>4.54124249</v>
       </c>
       <c r="R7" t="n">
-        <v>6378.1875</v>
+        <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>-228.1875</v>
+        <v>2388.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7351.71</v>
+        <v>19845.6279</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>640.2</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>32010</v>
       </c>
       <c r="P8" t="n">
-        <v>4.54124249</v>
+        <v>432.4596912</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.54124249</v>
+        <v>432.4596912</v>
       </c>
       <c r="R8" t="n">
-        <v>22706.21245</v>
+        <v>21622.98456</v>
       </c>
       <c r="S8" t="n">
-        <v>2293.78755</v>
+        <v>10387.01544</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>19804.75</v>
+        <v>25314.1482</v>
       </c>
     </row>
     <row r="9">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7921899999999999</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2</v>
+        <v>11.66</v>
       </c>
       <c r="O9" t="n">
-        <v>30660</v>
+        <v>1166</v>
       </c>
       <c r="P9" t="n">
-        <v>432.4596912</v>
+        <v>12.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>432.4596912</v>
+        <v>12.97</v>
       </c>
       <c r="R9" t="n">
-        <v>21622.98456</v>
+        <v>1297</v>
       </c>
       <c r="S9" t="n">
-        <v>9037.015439999999</v>
+        <v>-131</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>24288.5454</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="10">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>AMAZON.COM INC</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>243.01</v>
+        <v>53.37</v>
       </c>
       <c r="O10" t="n">
-        <v>24301</v>
+        <v>2668.5</v>
       </c>
       <c r="P10" t="n">
-        <v>216.590322</v>
+        <v>46.285022</v>
       </c>
       <c r="Q10" t="n">
-        <v>216.590322</v>
+        <v>46.285022</v>
       </c>
       <c r="R10" t="n">
-        <v>21659.0322</v>
+        <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>2641.9678</v>
+        <v>354.2489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>24301</v>
+        <v>2668.5</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>12.34</v>
+        <v>12.06</v>
       </c>
       <c r="O11" t="n">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="P11" t="n">
-        <v>12.97</v>
+        <v>12.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.97</v>
+        <v>12.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1297</v>
+        <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-63</v>
+        <v>-43</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1234</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>53.91</v>
+        <v>1466.4</v>
       </c>
       <c r="O12" t="n">
-        <v>2695.5</v>
+        <v>21996</v>
       </c>
       <c r="P12" t="n">
-        <v>46.285022</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.285022</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R12" t="n">
-        <v>2314.2511</v>
+        <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>381.2489</v>
+        <v>-128.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2695.5</v>
+        <v>21996</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>11.98</v>
+        <v>338.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1198</v>
+        <v>33825</v>
       </c>
       <c r="P13" t="n">
-        <v>12.49</v>
+        <v>312.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.49</v>
+        <v>312.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1249</v>
+        <v>31215</v>
       </c>
       <c r="S13" t="n">
-        <v>-51</v>
+        <v>2610</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1198</v>
+        <v>33825</v>
       </c>
     </row>
     <row r="14">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>1492.8</v>
+        <v>9.3725</v>
       </c>
       <c r="O14" t="n">
-        <v>22392</v>
+        <v>9372.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1474.989023133</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>1474.989023133</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>22124.835347</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>267.164653</v>
+        <v>-52.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>22392</v>
+        <v>9372.5</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>336.01</v>
+        <v>27.0739</v>
       </c>
       <c r="O15" t="n">
-        <v>33601</v>
+        <v>10423.45</v>
       </c>
       <c r="P15" t="n">
-        <v>312.15</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q15" t="n">
-        <v>312.15</v>
+        <v>26.012734603</v>
       </c>
       <c r="R15" t="n">
-        <v>31215</v>
+        <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>2386</v>
+        <v>408.547178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>33601</v>
+        <v>10423.45</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>GRAB HOLDINGS LTD - CL A</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>4.53</v>
+        <v>32.61</v>
       </c>
       <c r="O16" t="n">
-        <v>2265</v>
+        <v>1630.5</v>
       </c>
       <c r="P16" t="n">
-        <v>5.166</v>
+        <v>36.96000022</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.166</v>
+        <v>36.96000022</v>
       </c>
       <c r="R16" t="n">
-        <v>2583</v>
+        <v>1848.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-318</v>
+        <v>-217.500011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2265</v>
+        <v>1630.5</v>
       </c>
     </row>
     <row r="17">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.4275</v>
+        <v>9.85</v>
       </c>
       <c r="O17" t="n">
-        <v>9427.5</v>
+        <v>9850</v>
       </c>
       <c r="P17" t="n">
-        <v>9.424709999999999</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.424709999999999</v>
+        <v>10.2267108</v>
       </c>
       <c r="R17" t="n">
-        <v>9424.709999999999</v>
+        <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>2.79</v>
+        <v>-376.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9427.5</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="18">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>27.7505</v>
+        <v>192.51</v>
       </c>
       <c r="O18" t="n">
-        <v>10683.94</v>
+        <v>38502</v>
       </c>
       <c r="P18" t="n">
-        <v>26.012734603</v>
+        <v>185.216422</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.012734603</v>
+        <v>185.216422</v>
       </c>
       <c r="R18" t="n">
-        <v>10014.902822</v>
+        <v>37043.2844</v>
       </c>
       <c r="S18" t="n">
-        <v>669.037178</v>
+        <v>1458.7156</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>10683.94</v>
+        <v>38502</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>32.25</v>
+        <v>169.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1612.5</v>
+        <v>16901</v>
       </c>
       <c r="P19" t="n">
-        <v>36.96000022</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.96000022</v>
+        <v>205.3357044</v>
       </c>
       <c r="R19" t="n">
-        <v>1848.000011</v>
+        <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-235.500011</v>
+        <v>-3632.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1981,11 +1981,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1612.5</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>10.176</v>
+        <v>121.9</v>
       </c>
       <c r="O20" t="n">
-        <v>10176</v>
+        <v>1219</v>
       </c>
       <c r="P20" t="n">
-        <v>10.2267108</v>
+        <v>128.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.2267108</v>
+        <v>128.6</v>
       </c>
       <c r="R20" t="n">
-        <v>10226.7108</v>
+        <v>1286</v>
       </c>
       <c r="S20" t="n">
-        <v>-50.7108</v>
+        <v>-67</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>10176</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE INC</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2110,29 +2110,29 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>2268.6</v>
+        <v>174.54</v>
       </c>
       <c r="O21" t="n">
-        <v>2268.6</v>
+        <v>34908</v>
       </c>
       <c r="P21" t="n">
-        <v>2086.200022</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q21" t="n">
-        <v>2086.200022</v>
+        <v>171.74192805</v>
       </c>
       <c r="R21" t="n">
-        <v>2086.200022</v>
+        <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>182.399978</v>
+        <v>559.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2268.6</v>
+        <v>34908</v>
       </c>
     </row>
     <row r="22">
@@ -2164,55 +2164,65 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>560</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>191.52</v>
+        <v>24.0436</v>
       </c>
       <c r="O22" t="n">
-        <v>38304</v>
+        <v>4808.72</v>
       </c>
       <c r="P22" t="n">
-        <v>185.216422</v>
+        <v>23.4605</v>
       </c>
       <c r="Q22" t="n">
-        <v>185.216422</v>
+        <v>23.4605</v>
       </c>
       <c r="R22" t="n">
-        <v>37043.2844</v>
+        <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1260.7156</v>
+        <v>116.62</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2221,11 +2231,11 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>38304</v>
+        <v>4808.72</v>
       </c>
     </row>
     <row r="23">
@@ -2244,55 +2254,65 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>620</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>172.8</v>
+        <v>20.615</v>
       </c>
       <c r="O23" t="n">
-        <v>17280</v>
+        <v>4123</v>
       </c>
       <c r="P23" t="n">
-        <v>205.3357044</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.3357044</v>
+        <v>20.1374875</v>
       </c>
       <c r="R23" t="n">
-        <v>20533.57044</v>
+        <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>-3253.57044</v>
+        <v>95.5025</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2301,11 +2321,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>17280</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="24">
@@ -2324,55 +2344,65 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6525</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>126.55</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1265.5</v>
+        <v>800</v>
       </c>
       <c r="P24" t="n">
-        <v>128.6</v>
+        <v>31.5284</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.6</v>
+        <v>31.5284</v>
       </c>
       <c r="R24" t="n">
-        <v>1286</v>
+        <v>3152.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-20.5</v>
+        <v>-2352.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2381,11 +2411,11 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>1265.5</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25">
@@ -2404,55 +2434,65 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7300</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>175.78</v>
+        <v>0.7</v>
       </c>
       <c r="O25" t="n">
-        <v>35156</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
-        <v>171.74192805</v>
+        <v>8.0284</v>
       </c>
       <c r="Q25" t="n">
-        <v>171.74192805</v>
+        <v>8.0284</v>
       </c>
       <c r="R25" t="n">
-        <v>34348.38561</v>
+        <v>802.84</v>
       </c>
       <c r="S25" t="n">
-        <v>807.61439</v>
+        <v>-732.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2461,11 +2501,11 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>35156</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -2494,23 +2534,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JPM   260206P00320000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 320 P</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2520,33 +2560,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>19.3117</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1931.17</v>
+        <v>-450</v>
       </c>
       <c r="P26" t="n">
-        <v>21.7804875</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.7804875</v>
+        <v>7.2294546</v>
       </c>
       <c r="R26" t="n">
-        <v>2178.04875</v>
+        <v>-722.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>-246.87875</v>
+        <v>272.94546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -2555,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>1931.17</v>
+        <v>-450</v>
       </c>
     </row>
     <row r="27">
@@ -2579,64 +2619,64 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>23.5686</v>
+        <v>4.575</v>
       </c>
       <c r="O27" t="n">
-        <v>4713.72</v>
+        <v>-457.5</v>
       </c>
       <c r="P27" t="n">
-        <v>23.4605</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.4605</v>
+        <v>5.6494546</v>
       </c>
       <c r="R27" t="n">
-        <v>4692.1</v>
+        <v>-564.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>21.62</v>
+        <v>107.44546</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -2645,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>4713.72</v>
+        <v>-457.5</v>
       </c>
     </row>
     <row r="28">
@@ -2669,64 +2709,64 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>NVDA  260130C00195000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>NVDA 30JAN26 195 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>620</v>
+        <v>195</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>20.345</v>
+        <v>0.5608</v>
       </c>
       <c r="O28" t="n">
-        <v>4069</v>
+        <v>-112.16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1374875</v>
+        <v>2.1886796</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.1374875</v>
+        <v>2.1886796</v>
       </c>
       <c r="R28" t="n">
-        <v>4027.4975</v>
+        <v>-437.73592</v>
       </c>
       <c r="S28" t="n">
-        <v>41.5025</v>
+        <v>325.57592</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2735,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>4069</v>
+        <v>-112.16</v>
       </c>
     </row>
     <row r="29">
@@ -2754,29 +2794,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>6525</v>
+        <v>175</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2785,47 +2825,47 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>7.85</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>785</v>
+        <v>-550</v>
       </c>
       <c r="P29" t="n">
-        <v>31.5284</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.5284</v>
+        <v>3.3094546</v>
       </c>
       <c r="R29" t="n">
-        <v>3152.84</v>
+        <v>-330.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>-2367.84</v>
+        <v>-219.05454</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>785</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="30">
@@ -2844,7 +2884,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2854,23 +2894,23 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>7300</v>
+        <v>200</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2880,42 +2920,42 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.45</v>
+        <v>1.335</v>
       </c>
       <c r="O30" t="n">
-        <v>145</v>
+        <v>-133.5</v>
       </c>
       <c r="P30" t="n">
-        <v>8.0284</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.0284</v>
+        <v>2.3894796</v>
       </c>
       <c r="R30" t="n">
-        <v>802.84</v>
+        <v>-238.94796</v>
       </c>
       <c r="S30" t="n">
-        <v>-657.84</v>
+        <v>105.44796</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>145</v>
+        <v>-133.5</v>
       </c>
     </row>
     <row r="31">
@@ -2944,23 +2984,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AMZN  260220P00215000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AMZN 20FEB26 215 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2970,29 +3010,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>6.6444</v>
       </c>
       <c r="O31" t="n">
-        <v>-205</v>
+        <v>-1328.88</v>
       </c>
       <c r="P31" t="n">
-        <v>4.3794796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.3794796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R31" t="n">
-        <v>-437.94796</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S31" t="n">
-        <v>232.94796</v>
+        <v>-55.98658</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3005,7 +3045,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-205</v>
+        <v>-1328.88</v>
       </c>
     </row>
     <row r="32">
@@ -3029,60 +3069,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AMZN  260227C00255000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AMZN 27FEB26 255 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>6.775</v>
+        <v>7.645</v>
       </c>
       <c r="O32" t="n">
-        <v>-677.5</v>
+        <v>-1529</v>
       </c>
       <c r="P32" t="n">
-        <v>5.4294796</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.4294796</v>
+        <v>7.3548796</v>
       </c>
       <c r="R32" t="n">
-        <v>-542.94796</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S32" t="n">
-        <v>-134.55204</v>
+        <v>-58.02408</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3095,7 +3135,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-677.5</v>
+        <v>-1529</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3154,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3124,23 +3164,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I33" t="n">
-        <v>310</v>
+        <v>6625</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3150,29 +3190,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>4.725</v>
+        <v>12.5</v>
       </c>
       <c r="O33" t="n">
-        <v>-472.5</v>
+        <v>-1250</v>
       </c>
       <c r="P33" t="n">
-        <v>7.2294546</v>
+        <v>42.2216</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.2294546</v>
+        <v>42.2216</v>
       </c>
       <c r="R33" t="n">
-        <v>-722.94546</v>
+        <v>-4222.16</v>
       </c>
       <c r="S33" t="n">
-        <v>250.44546</v>
+        <v>2972.16</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3181,11 +3221,11 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-472.5</v>
+        <v>-1250</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3244,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3214,23 +3254,23 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I34" t="n">
-        <v>370</v>
+        <v>7200</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3240,29 +3280,29 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>3.975</v>
+        <v>4.05</v>
       </c>
       <c r="O34" t="n">
-        <v>-397.5</v>
+        <v>-405</v>
       </c>
       <c r="P34" t="n">
-        <v>5.6494546</v>
+        <v>18.9716</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.6494546</v>
+        <v>18.9716</v>
       </c>
       <c r="R34" t="n">
-        <v>-564.94546</v>
+        <v>-1897.16</v>
       </c>
       <c r="S34" t="n">
-        <v>167.44546</v>
+        <v>1492.16</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3271,641 +3311,11 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-397.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>JPM   260206P00300000</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>JPM 06FEB26 300 P</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>100</v>
-      </c>
-      <c r="I35" t="n">
-        <v>300</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.775</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-377.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.4194546</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.4194546</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-241.94546</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-135.55454</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>-377.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>NVDA  260130C00195000</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>NVDA 30JAN26 195 C</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>100</v>
-      </c>
-      <c r="I36" t="n">
-        <v>195</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.215</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-243</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.1886796</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.1886796</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-437.73592</v>
-      </c>
-      <c r="S36" t="n">
-        <v>194.73592</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V36" t="n">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>ORCL  260220C00200000</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ORCL 20FEB26 200 C</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>100</v>
-      </c>
-      <c r="I37" t="n">
-        <v>200</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.9784</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-197.84</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.3894796</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.3894796</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-238.94796</v>
-      </c>
-      <c r="S37" t="n">
-        <v>41.10796</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>-197.84</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>QQQ   261218P00425000</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>QQQ 18DEC26 425 P</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>100</v>
-      </c>
-      <c r="I38" t="n">
-        <v>425</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.4111</v>
-      </c>
-      <c r="O38" t="n">
-        <v>-1282.22</v>
-      </c>
-      <c r="P38" t="n">
-        <v>6.3644671</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>6.3644671</v>
-      </c>
-      <c r="R38" t="n">
-        <v>-1272.89342</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-9.32658</v>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V38" t="n">
-        <v>-1282.22</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>100</v>
-      </c>
-      <c r="I39" t="n">
-        <v>505</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-1516</v>
-      </c>
-      <c r="P39" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-1470.97592</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-45.02408</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>-1516</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>EW2G6 P6625</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 6625 P</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>50</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6625</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-1175</v>
-      </c>
-      <c r="P40" t="n">
-        <v>42.2216</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>42.2216</v>
-      </c>
-      <c r="R40" t="n">
-        <v>-4222.16</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3047.16</v>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V40" t="n">
-        <v>-1175</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>50</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-710</v>
-      </c>
-      <c r="P41" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1187.16</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V41" t="n">
-        <v>-710</v>
+        <v>-405</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +3461,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -4081,17 +3491,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>417.4</v>
+        <v>410.05</v>
       </c>
       <c r="O2" t="n">
-        <v>20870</v>
+        <v>20502.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -4103,7 +3513,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-112.956235</v>
+        <v>-480.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -4116,7 +3526,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>27162.305</v>
+        <v>26825.471</v>
       </c>
     </row>
     <row r="3">
@@ -4131,7 +3541,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -4161,17 +3571,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5615</v>
+        <v>3.5335</v>
       </c>
       <c r="O3" t="n">
-        <v>19588.25</v>
+        <v>19434.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -4183,7 +3593,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-85.73207499999999</v>
+        <v>-239.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -4196,7 +3606,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25494.107375</v>
+        <v>25427.7727</v>
       </c>
     </row>
     <row r="4">
@@ -4211,7 +3621,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3015</v>
+        <v>1.3084</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4241,17 +3651,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.43000000000001</v>
+        <v>63.64</v>
       </c>
       <c r="O4" t="n">
-        <v>12886</v>
+        <v>12728</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -4263,7 +3673,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-38.69912</v>
+        <v>-196.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -4276,7 +3686,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16771.129</v>
+        <v>16653.3152</v>
       </c>
     </row>
     <row r="5">
@@ -4291,7 +3701,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14402</v>
+        <v>0.14399</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4321,17 +3731,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.68</v>
+        <v>31.92</v>
       </c>
       <c r="O5" t="n">
-        <v>63360</v>
+        <v>63840</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -4343,7 +3753,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-32.47719</v>
+        <v>447.52281</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -4356,7 +3766,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9125.1072</v>
+        <v>9192.321600000001</v>
       </c>
     </row>
     <row r="6">
@@ -4371,7 +3781,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1954</v>
+        <v>1.1971</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4401,17 +3811,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6375</v>
+        <v>4.5805</v>
       </c>
       <c r="O6" t="n">
-        <v>18550</v>
+        <v>18322</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -4423,7 +3833,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-85.313</v>
+        <v>-313.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -4436,7 +3846,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>22174.67</v>
+        <v>21933.2662</v>
       </c>
     </row>
     <row r="7">
@@ -4451,7 +3861,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1954</v>
+        <v>1.1971</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4481,17 +3891,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>46.4</v>
+        <v>46.88</v>
       </c>
       <c r="O7" t="n">
-        <v>46400</v>
+        <v>46880</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -4503,7 +3913,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>3390</v>
+        <v>3870</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4516,7 +3926,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>55466.56</v>
+        <v>56120.048</v>
       </c>
     </row>
     <row r="8">
@@ -4527,11 +3937,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.1954</v>
+        <v>0.79082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4540,17 +3950,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>ES3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LVMH MOET HENNESSY LOUIS VUI</t>
+          <t>SPDR STRAITS TIMES INDEX ETF</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4561,29 +3971,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>542.8</v>
+        <v>5.019</v>
       </c>
       <c r="O8" t="n">
-        <v>2714</v>
+        <v>50190</v>
       </c>
       <c r="P8" t="n">
-        <v>624.1</v>
+        <v>3.81181816</v>
       </c>
       <c r="Q8" t="n">
-        <v>624.1</v>
+        <v>3.81181816</v>
       </c>
       <c r="R8" t="n">
-        <v>3120.5</v>
+        <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>-406.5</v>
+        <v>12071.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4592,11 +4002,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3244.3156</v>
+        <v>39691.2558</v>
       </c>
     </row>
     <row r="9">
@@ -4607,11 +4017,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.1954</v>
+        <v>0.79082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4620,17 +4030,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>HERMES INTL</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4641,29 +4051,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>2050</v>
+        <v>640.2</v>
       </c>
       <c r="O9" t="n">
-        <v>6150</v>
+        <v>32010</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.063</v>
+        <v>593.7864108799999</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.063</v>
+        <v>593.7864108799999</v>
       </c>
       <c r="R9" t="n">
-        <v>6381.189</v>
+        <v>29689.320544</v>
       </c>
       <c r="S9" t="n">
-        <v>-231.189</v>
+        <v>2320.679456</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4672,11 +4082,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>SBF</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7351.71</v>
+        <v>25314.1482</v>
       </c>
     </row>
     <row r="10">
@@ -4687,11 +4097,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7921899999999999</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4705,12 +4115,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ES3</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SPDR STRAITS TIMES INDEX ETF</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4721,29 +4131,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>11.66</v>
       </c>
       <c r="O10" t="n">
-        <v>50000</v>
+        <v>2332</v>
       </c>
       <c r="P10" t="n">
-        <v>3.81181816</v>
+        <v>12.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.81181816</v>
+        <v>12.7</v>
       </c>
       <c r="R10" t="n">
-        <v>38118.1816</v>
+        <v>2540</v>
       </c>
       <c r="S10" t="n">
-        <v>11881.8184</v>
+        <v>-208</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4752,11 +4162,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>39609.5</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="11">
@@ -4767,11 +4177,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7921899999999999</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -4785,12 +4195,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4801,29 +4211,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>613.2</v>
+        <v>1466.4</v>
       </c>
       <c r="O11" t="n">
-        <v>30660</v>
+        <v>29328</v>
       </c>
       <c r="P11" t="n">
-        <v>593.7864108799999</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.7864108799999</v>
+        <v>1467.02705</v>
       </c>
       <c r="R11" t="n">
-        <v>29689.320544</v>
+        <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>970.679456</v>
+        <v>-12.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4832,11 +4242,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>24288.5454</v>
+        <v>29328</v>
       </c>
     </row>
     <row r="12">
@@ -4860,17 +4270,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4881,29 +4291,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>12.34</v>
+        <v>338.25</v>
       </c>
       <c r="O12" t="n">
-        <v>2468</v>
+        <v>33825</v>
       </c>
       <c r="P12" t="n">
-        <v>12.7</v>
+        <v>331.87755</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.7</v>
+        <v>331.87755</v>
       </c>
       <c r="R12" t="n">
-        <v>2540</v>
+        <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-72</v>
+        <v>637.245</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4912,11 +4322,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2468</v>
+        <v>33825</v>
       </c>
     </row>
     <row r="13">
@@ -4945,12 +4355,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4961,29 +4371,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>1492.8</v>
+        <v>9.3725</v>
       </c>
       <c r="O13" t="n">
-        <v>29856</v>
+        <v>9372.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1467.02705</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>1467.02705</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R13" t="n">
-        <v>29340.541</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>515.4589999999999</v>
+        <v>-33.4006</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4992,11 +4402,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>29856</v>
+        <v>9372.5</v>
       </c>
     </row>
     <row r="14">
@@ -5025,12 +4435,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5041,29 +4451,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>336.01</v>
+        <v>75.66</v>
       </c>
       <c r="O14" t="n">
-        <v>33601</v>
+        <v>1274.48</v>
       </c>
       <c r="P14" t="n">
-        <v>331.87755</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.87755</v>
+        <v>20.721325216</v>
       </c>
       <c r="R14" t="n">
-        <v>33187.755</v>
+        <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>413.245</v>
+        <v>925.433421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -5076,7 +4486,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>33601</v>
+        <v>1274.48</v>
       </c>
     </row>
     <row r="15">
@@ -5105,12 +4515,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -5121,29 +4531,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>9.4275</v>
+        <v>27.0739</v>
       </c>
       <c r="O15" t="n">
-        <v>9427.5</v>
+        <v>10423.45</v>
       </c>
       <c r="P15" t="n">
-        <v>9.405900600000001</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.405900600000001</v>
+        <v>25.997158151</v>
       </c>
       <c r="R15" t="n">
-        <v>9405.900600000001</v>
+        <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>21.5994</v>
+        <v>414.544112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -5152,11 +4562,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9427.5</v>
+        <v>10423.45</v>
       </c>
     </row>
     <row r="16">
@@ -5185,12 +4595,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5201,29 +4611,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16.8448</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>75.45</v>
+        <v>306.42</v>
       </c>
       <c r="O16" t="n">
-        <v>1270.94</v>
+        <v>30642</v>
       </c>
       <c r="P16" t="n">
-        <v>20.721325216</v>
+        <v>298.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.721325216</v>
+        <v>298.02</v>
       </c>
       <c r="R16" t="n">
-        <v>349.046579</v>
+        <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>921.893421</v>
+        <v>840</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -5232,11 +4642,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1270.94</v>
+        <v>30642</v>
       </c>
     </row>
     <row r="17">
@@ -5265,12 +4675,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -5281,29 +4691,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>27.7505</v>
+        <v>9.85</v>
       </c>
       <c r="O17" t="n">
-        <v>10683.94</v>
+        <v>9850</v>
       </c>
       <c r="P17" t="n">
-        <v>25.997158151</v>
+        <v>10.229112</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.997158151</v>
+        <v>10.229112</v>
       </c>
       <c r="R17" t="n">
-        <v>10008.905888</v>
+        <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>675.0341120000001</v>
+        <v>-379.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -5312,11 +4722,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10683.94</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="18">
@@ -5340,17 +4750,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -5361,29 +4771,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>300.77</v>
+        <v>174.54</v>
       </c>
       <c r="O18" t="n">
-        <v>30077</v>
+        <v>52362</v>
       </c>
       <c r="P18" t="n">
-        <v>298.02</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.02</v>
+        <v>172.7421946</v>
       </c>
       <c r="R18" t="n">
-        <v>29802</v>
+        <v>51822.65838</v>
       </c>
       <c r="S18" t="n">
-        <v>275</v>
+        <v>539.34162</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -5392,11 +4802,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>30077</v>
+        <v>52362</v>
       </c>
     </row>
     <row r="19">
@@ -5415,55 +4825,65 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>560</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10.176</v>
+        <v>24.0436</v>
       </c>
       <c r="O19" t="n">
-        <v>10176</v>
+        <v>4808.72</v>
       </c>
       <c r="P19" t="n">
-        <v>10.229112</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.229112</v>
+        <v>23.5270125</v>
       </c>
       <c r="R19" t="n">
-        <v>10229.112</v>
+        <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>-53.112</v>
+        <v>103.3175</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -5472,11 +4892,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>10176</v>
+        <v>4808.72</v>
       </c>
     </row>
     <row r="20">
@@ -5495,55 +4915,65 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>620</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>175.78</v>
+        <v>20.615</v>
       </c>
       <c r="O20" t="n">
-        <v>52734</v>
+        <v>4123</v>
       </c>
       <c r="P20" t="n">
-        <v>172.7421946</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.7421946</v>
+        <v>20.1350875</v>
       </c>
       <c r="R20" t="n">
-        <v>51822.65838</v>
+        <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>911.34162</v>
+        <v>95.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -5552,11 +4982,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>52734</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="21">
@@ -5580,64 +5010,64 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>560</v>
+        <v>335</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>23.5686</v>
+        <v>12.7125</v>
       </c>
       <c r="O21" t="n">
-        <v>4713.72</v>
+        <v>-1271.25</v>
       </c>
       <c r="P21" t="n">
-        <v>23.5270125</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.5270125</v>
+        <v>10.0494796</v>
       </c>
       <c r="R21" t="n">
-        <v>4705.4025</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>8.317500000000001</v>
+        <v>-266.30204</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -5646,7 +5076,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4713.72</v>
+        <v>-1271.25</v>
       </c>
     </row>
     <row r="22">
@@ -5675,23 +5105,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>620</v>
+        <v>315</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5701,33 +5131,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>20.345</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
-        <v>4069</v>
+        <v>-480</v>
       </c>
       <c r="P22" t="n">
-        <v>20.1350875</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.1350875</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R22" t="n">
-        <v>4027.0175</v>
+        <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>41.9825</v>
+        <v>392.94796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5736,7 +5166,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4069</v>
+        <v>-480</v>
       </c>
     </row>
     <row r="23">
@@ -5765,19 +5195,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -5791,29 +5221,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>11.55</v>
+        <v>1.22</v>
       </c>
       <c r="O23" t="n">
-        <v>-1155</v>
+        <v>-122</v>
       </c>
       <c r="P23" t="n">
-        <v>10.0494796</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.0494796</v>
+        <v>2.0294546</v>
       </c>
       <c r="R23" t="n">
-        <v>-1004.94796</v>
+        <v>-202.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-150.05204</v>
+        <v>80.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5826,7 +5256,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1155</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="24">
@@ -5855,23 +5285,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>QQQ   260130P00608000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>QQQ 30JAN26 608 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>315</v>
+        <v>608</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5881,29 +5311,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>-510</v>
+        <v>-8.5</v>
       </c>
       <c r="P24" t="n">
-        <v>8.729479599999999</v>
+        <v>6.0594796</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.729479599999999</v>
+        <v>6.0594796</v>
       </c>
       <c r="R24" t="n">
-        <v>-872.94796</v>
+        <v>-605.94796</v>
       </c>
       <c r="S24" t="n">
-        <v>362.94796</v>
+        <v>597.44796</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5916,7 +5346,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-510</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="25">
@@ -5945,23 +5375,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>JPM   260206P00287500</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 287.5 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>287.5</v>
+        <v>425</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5971,29 +5401,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.77</v>
+        <v>6.6444</v>
       </c>
       <c r="O25" t="n">
-        <v>-77</v>
+        <v>-1328.88</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7094796</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7094796</v>
+        <v>6.3929546</v>
       </c>
       <c r="R25" t="n">
-        <v>-170.94796</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>93.94795999999999</v>
+        <v>-50.28908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -6006,7 +5436,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-77</v>
+        <v>-1328.88</v>
       </c>
     </row>
     <row r="26">
@@ -6030,60 +5460,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.485</v>
+        <v>7.645</v>
       </c>
       <c r="O26" t="n">
-        <v>-48.5</v>
+        <v>-1529</v>
       </c>
       <c r="P26" t="n">
-        <v>2.0294546</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.0294546</v>
+        <v>7.3496796</v>
       </c>
       <c r="R26" t="n">
-        <v>-202.94546</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S26" t="n">
-        <v>154.44546</v>
+        <v>-59.06408</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -6096,277 +5526,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-48.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>QQQ   260130P00608000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>QQQ 30JAN26 608 P</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>608</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.2775</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-27.75</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6.0594796</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>6.0594796</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-605.94796</v>
-      </c>
-      <c r="S27" t="n">
-        <v>578.19796</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>-27.75</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>QQQ   261218P00425000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>QQQ 18DEC26 425 P</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>425</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.4111</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-1282.22</v>
-      </c>
-      <c r="P28" t="n">
-        <v>6.3929546</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>6.3929546</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-1278.59092</v>
-      </c>
-      <c r="S28" t="n">
-        <v>-3.62908</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>-1282.22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>505</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-1516</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S29" t="n">
-        <v>-46.06408</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>-1516</v>
+        <v>-1529</v>
       </c>
     </row>
   </sheetData>
@@ -6418,17 +5578,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$356,162.16</t>
+          <t>$318,293.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$97,618.50</t>
+          <t>$134,409.76</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$453,780.66</t>
+          <t>$452,703.65</t>
         </is>
       </c>
     </row>
@@ -6440,17 +5600,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$415,148.58</t>
+          <t>$404,759.12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$148,327.30</t>
+          <t>$158,827.53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$563,475.88</t>
+          <t>$563,586.65</t>
         </is>
       </c>
     </row>
@@ -6468,17 +5628,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$771,310.74</t>
+          <t>$723,053.02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$245,945.81</t>
+          <t>$293,237.28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,017,256.55</t>
+          <t>$1,016,290.30</t>
         </is>
       </c>
     </row>
@@ -6531,14 +5691,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-29 23:51:03</t>
+          <t>2026-01-30 23:50:58</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5691,7 +5691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-30 23:50:58</t>
+          <t>2026-01-31 09:33:17</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,29 +590,29 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>410.05</v>
+        <v>411.6</v>
       </c>
       <c r="O2" t="n">
-        <v>16402</v>
+        <v>20580</v>
       </c>
       <c r="P2" t="n">
-        <v>419.45012025</v>
+        <v>418.0600962</v>
       </c>
       <c r="Q2" t="n">
-        <v>419.45012025</v>
+        <v>418.0600962</v>
       </c>
       <c r="R2" t="n">
-        <v>16778.00481</v>
+        <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-376.00481</v>
+        <v>-323.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>21460.3768</v>
+        <v>26620.23</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5335</v>
+        <v>3.5425</v>
       </c>
       <c r="O3" t="n">
-        <v>15900.75</v>
+        <v>15941.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-214.153425</v>
+        <v>-173.653425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20804.5413</v>
+        <v>20620.006875</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>63.64</v>
+        <v>63.41</v>
       </c>
       <c r="O4" t="n">
-        <v>9546</v>
+        <v>9511.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-155.78</v>
+        <v>-190.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12489.9864</v>
+        <v>12303.12525</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14399</v>
+        <v>0.1437</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.92</v>
+        <v>31.58</v>
       </c>
       <c r="O5" t="n">
-        <v>63840</v>
+        <v>63160</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>1508.40102</v>
+        <v>828.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9192.321600000001</v>
+        <v>9076.092000000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1971</v>
+        <v>1.185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5805</v>
+        <v>4.5705</v>
       </c>
       <c r="O6" t="n">
-        <v>18322</v>
+        <v>18282</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-326.67968</v>
+        <v>-366.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21933.2662</v>
+        <v>21664.17</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79082</v>
+        <v>0.78593</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.019</v>
+        <v>4.996</v>
       </c>
       <c r="O7" t="n">
-        <v>25095</v>
+        <v>24980</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2388.78755</v>
+        <v>2273.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19845.6279</v>
+        <v>19632.5314</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79082</v>
+        <v>0.78593</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>640.2</v>
+        <v>595</v>
       </c>
       <c r="O8" t="n">
-        <v>32010</v>
+        <v>14875</v>
       </c>
       <c r="P8" t="n">
-        <v>432.4596912</v>
+        <v>430.033752</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.4596912</v>
+        <v>430.033752</v>
       </c>
       <c r="R8" t="n">
-        <v>21622.98456</v>
+        <v>10750.8438</v>
       </c>
       <c r="S8" t="n">
-        <v>10387.01544</v>
+        <v>4124.1562</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>25314.1482</v>
+        <v>11690.70875</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="P9" t="n">
         <v>12.97</v>
@@ -1172,7 +1172,7 @@
         <v>1297</v>
       </c>
       <c r="S9" t="n">
-        <v>-131</v>
+        <v>-137</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>53.37</v>
+        <v>52.48</v>
       </c>
       <c r="O10" t="n">
-        <v>2668.5</v>
+        <v>2624</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>354.2489</v>
+        <v>309.7489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2668.5</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>12.06</v>
+        <v>11.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1206</v>
+        <v>1172</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-43</v>
+        <v>-77</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1206</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1466.4</v>
+        <v>1474.8</v>
       </c>
       <c r="O12" t="n">
-        <v>21996</v>
+        <v>22122</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-128.835347</v>
+        <v>-2.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21996</v>
+        <v>22122</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>338.25</v>
+        <v>338</v>
       </c>
       <c r="O13" t="n">
-        <v>33825</v>
+        <v>33800</v>
       </c>
       <c r="P13" t="n">
         <v>312.15</v>
@@ -1492,7 +1492,7 @@
         <v>31215</v>
       </c>
       <c r="S13" t="n">
-        <v>2610</v>
+        <v>2585</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>33825</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.3725</v>
+        <v>9.2925</v>
       </c>
       <c r="O14" t="n">
-        <v>9372.5</v>
+        <v>9292.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-52.21</v>
+        <v>-132.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9372.5</v>
+        <v>9292.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0739</v>
+        <v>27.0617</v>
       </c>
       <c r="O15" t="n">
-        <v>10423.45</v>
+        <v>10418.75</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>408.547178</v>
+        <v>403.847178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10423.45</v>
+        <v>10418.75</v>
       </c>
     </row>
     <row r="16">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>32.61</v>
+        <v>33.37</v>
       </c>
       <c r="O16" t="n">
-        <v>1630.5</v>
+        <v>3337</v>
       </c>
       <c r="P16" t="n">
-        <v>36.96000022</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.96000022</v>
+        <v>35.26000011</v>
       </c>
       <c r="R16" t="n">
-        <v>1848.000011</v>
+        <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-217.500011</v>
+        <v>-189.000011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1630.5</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.85</v>
+        <v>9.824</v>
       </c>
       <c r="O17" t="n">
-        <v>9850</v>
+        <v>9824</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-376.7108</v>
+        <v>-402.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9850</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>192.51</v>
+        <v>191.13</v>
       </c>
       <c r="O18" t="n">
-        <v>38502</v>
+        <v>38226</v>
       </c>
       <c r="P18" t="n">
         <v>185.216422</v>
@@ -1892,7 +1892,7 @@
         <v>37043.2844</v>
       </c>
       <c r="S18" t="n">
-        <v>1458.7156</v>
+        <v>1182.7156</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>38502</v>
+        <v>38226</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>169.01</v>
+        <v>164.58</v>
       </c>
       <c r="O19" t="n">
-        <v>16901</v>
+        <v>16458</v>
       </c>
       <c r="P19" t="n">
         <v>205.3357044</v>
@@ -1972,7 +1972,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-3632.57044</v>
+        <v>-4075.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>16901</v>
+        <v>16458</v>
       </c>
     </row>
     <row r="20">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>121.9</v>
+        <v>116.49</v>
       </c>
       <c r="O20" t="n">
-        <v>1219</v>
+        <v>2329.8</v>
       </c>
       <c r="P20" t="n">
-        <v>128.6</v>
+        <v>124.315</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.6</v>
+        <v>124.315</v>
       </c>
       <c r="R20" t="n">
-        <v>1286</v>
+        <v>2486.3</v>
       </c>
       <c r="S20" t="n">
-        <v>-67</v>
+        <v>-156.5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>1219</v>
+        <v>2329.8</v>
       </c>
     </row>
     <row r="21">
@@ -2110,17 +2110,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>174.54</v>
+        <v>174.7</v>
       </c>
       <c r="O21" t="n">
-        <v>34908</v>
+        <v>34940</v>
       </c>
       <c r="P21" t="n">
         <v>171.74192805</v>
@@ -2132,7 +2132,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>559.61439</v>
+        <v>591.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>34908</v>
+        <v>34940</v>
       </c>
     </row>
     <row r="22">
@@ -2200,17 +2200,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>24.0436</v>
+        <v>25.8147</v>
       </c>
       <c r="O22" t="n">
-        <v>4808.72</v>
+        <v>5162.94</v>
       </c>
       <c r="P22" t="n">
         <v>23.4605</v>
@@ -2222,7 +2222,7 @@
         <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>116.62</v>
+        <v>470.84</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4808.72</v>
+        <v>5162.94</v>
       </c>
     </row>
     <row r="23">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>20.615</v>
+        <v>21.1757</v>
       </c>
       <c r="O23" t="n">
-        <v>4123</v>
+        <v>4235.14</v>
       </c>
       <c r="P23" t="n">
         <v>20.1374875</v>
@@ -2312,7 +2312,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>95.5025</v>
+        <v>207.6425</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4123</v>
+        <v>4235.14</v>
       </c>
     </row>
     <row r="24">
@@ -2380,17 +2380,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="O24" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="P24" t="n">
         <v>31.5284</v>
@@ -2402,7 +2402,7 @@
         <v>3152.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-2352.84</v>
+        <v>-2277.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="O25" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="P25" t="n">
         <v>8.0284</v>
@@ -2492,7 +2492,7 @@
         <v>802.84</v>
       </c>
       <c r="S25" t="n">
-        <v>-732.84</v>
+        <v>-777.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -2560,17 +2560,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>4.2001</v>
       </c>
       <c r="O26" t="n">
-        <v>-450</v>
+        <v>-420.01</v>
       </c>
       <c r="P26" t="n">
         <v>7.2294546</v>
@@ -2582,7 +2582,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>272.94546</v>
+        <v>302.93546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-450</v>
+        <v>-420.01</v>
       </c>
     </row>
     <row r="27">
@@ -2650,17 +2650,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>4.575</v>
+        <v>4.2262</v>
       </c>
       <c r="O27" t="n">
-        <v>-457.5</v>
+        <v>-422.62</v>
       </c>
       <c r="P27" t="n">
         <v>5.6494546</v>
@@ -2672,7 +2672,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>107.44546</v>
+        <v>142.32546</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-457.5</v>
+        <v>-422.62</v>
       </c>
     </row>
     <row r="28">
@@ -2714,55 +2714,55 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NVDA  260130C00195000</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NVDA 30JAN26 195 C</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
       <c r="M28" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5608</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>-112.16</v>
+        <v>-330</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1886796</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1886796</v>
+        <v>3.3094546</v>
       </c>
       <c r="R28" t="n">
-        <v>-437.73592</v>
+        <v>-330.94546</v>
       </c>
       <c r="S28" t="n">
-        <v>325.57592</v>
+        <v>0.94546</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-112.16</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="29">
@@ -2804,23 +2804,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2830,29 +2830,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>0.745</v>
       </c>
       <c r="O29" t="n">
-        <v>-550</v>
+        <v>-74.5</v>
       </c>
       <c r="P29" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="R29" t="n">
-        <v>-330.94546</v>
+        <v>-238.94796</v>
       </c>
       <c r="S29" t="n">
-        <v>-219.05454</v>
+        <v>164.44796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-550</v>
+        <v>-74.5</v>
       </c>
     </row>
     <row r="30">
@@ -2889,60 +2889,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.335</v>
+        <v>7.1668</v>
       </c>
       <c r="O30" t="n">
-        <v>-133.5</v>
+        <v>-1433.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R30" t="n">
-        <v>-238.94796</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>105.44796</v>
+        <v>-160.46658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-133.5</v>
+        <v>-1433.36</v>
       </c>
     </row>
     <row r="31">
@@ -2984,19 +2984,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3010,29 +3010,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>6.6444</v>
+        <v>7.865</v>
       </c>
       <c r="O31" t="n">
-        <v>-1328.88</v>
+        <v>-1573</v>
       </c>
       <c r="P31" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="R31" t="n">
-        <v>-1272.89342</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S31" t="n">
-        <v>-55.98658</v>
+        <v>-102.02408</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-1328.88</v>
+        <v>-1573</v>
       </c>
     </row>
     <row r="32">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3074,23 +3074,23 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I32" t="n">
-        <v>505</v>
+        <v>6625</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3100,29 +3100,29 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>7.645</v>
+        <v>13.5</v>
       </c>
       <c r="O32" t="n">
-        <v>-1529</v>
+        <v>-1350</v>
       </c>
       <c r="P32" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="R32" t="n">
-        <v>-1470.97592</v>
+        <v>-4222.16</v>
       </c>
       <c r="S32" t="n">
-        <v>-58.02408</v>
+        <v>2872.16</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-1529</v>
+        <v>-1350</v>
       </c>
     </row>
     <row r="33">
@@ -3159,24 +3159,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>50</v>
       </c>
       <c r="I33" t="n">
-        <v>6625</v>
+        <v>7200</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3185,34 +3185,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>12.5</v>
+        <v>2.15</v>
       </c>
       <c r="O33" t="n">
-        <v>-1250</v>
+        <v>-215</v>
       </c>
       <c r="P33" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="R33" t="n">
-        <v>-4222.16</v>
+        <v>-1897.16</v>
       </c>
       <c r="S33" t="n">
-        <v>2972.16</v>
+        <v>1682.16</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3225,97 +3225,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1250</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>50</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-405</v>
-      </c>
-      <c r="P34" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1492.16</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>-405</v>
+        <v>-215</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +3239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,7 +3371,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3491,17 +3401,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>410.05</v>
+        <v>411.6</v>
       </c>
       <c r="O2" t="n">
-        <v>20502.5</v>
+        <v>20580</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3513,7 +3423,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-480.456235</v>
+        <v>-402.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3526,7 +3436,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26825.471</v>
+        <v>26620.23</v>
       </c>
     </row>
     <row r="3">
@@ -3541,7 +3451,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3571,17 +3481,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5335</v>
+        <v>3.5425</v>
       </c>
       <c r="O3" t="n">
-        <v>19434.25</v>
+        <v>19483.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3593,7 +3503,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-239.732075</v>
+        <v>-190.232075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3606,7 +3516,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25427.7727</v>
+        <v>25202.230625</v>
       </c>
     </row>
     <row r="4">
@@ -3621,7 +3531,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3084</v>
+        <v>1.2935</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3651,17 +3561,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>63.64</v>
+        <v>63.41</v>
       </c>
       <c r="O4" t="n">
-        <v>12728</v>
+        <v>12682</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3673,7 +3583,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-196.69912</v>
+        <v>-242.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3686,7 +3596,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16653.3152</v>
+        <v>16404.167</v>
       </c>
     </row>
     <row r="5">
@@ -3701,7 +3611,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14399</v>
+        <v>0.1437</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3731,17 +3641,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.92</v>
+        <v>31.58</v>
       </c>
       <c r="O5" t="n">
-        <v>63840</v>
+        <v>63160</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3753,7 +3663,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>447.52281</v>
+        <v>-232.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3766,7 +3676,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9192.321600000001</v>
+        <v>9076.092000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3781,7 +3691,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1971</v>
+        <v>1.185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3811,17 +3721,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5805</v>
+        <v>4.5705</v>
       </c>
       <c r="O6" t="n">
-        <v>18322</v>
+        <v>18282</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3833,7 +3743,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-313.313</v>
+        <v>-353.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3846,7 +3756,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21933.2662</v>
+        <v>21664.17</v>
       </c>
     </row>
     <row r="7">
@@ -3861,7 +3771,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1971</v>
+        <v>1.185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3891,17 +3801,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>46.88</v>
+        <v>47.32</v>
       </c>
       <c r="O7" t="n">
-        <v>46880</v>
+        <v>47320</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3913,7 +3823,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>3870</v>
+        <v>4310</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3926,7 +3836,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>56120.048</v>
+        <v>56074.2</v>
       </c>
     </row>
     <row r="8">
@@ -3941,7 +3851,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79082</v>
+        <v>0.78593</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3971,17 +3881,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.019</v>
+        <v>4.996</v>
       </c>
       <c r="O8" t="n">
-        <v>50190</v>
+        <v>49960</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3993,7 +3903,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12071.8184</v>
+        <v>11841.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4006,7 +3916,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39691.2558</v>
+        <v>39265.0628</v>
       </c>
     </row>
     <row r="9">
@@ -4017,11 +3927,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79082</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4035,12 +3945,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4051,29 +3961,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>640.2</v>
+        <v>11.6</v>
       </c>
       <c r="O9" t="n">
-        <v>32010</v>
+        <v>2320</v>
       </c>
       <c r="P9" t="n">
-        <v>593.7864108799999</v>
+        <v>12.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>593.7864108799999</v>
+        <v>12.7</v>
       </c>
       <c r="R9" t="n">
-        <v>29689.320544</v>
+        <v>2540</v>
       </c>
       <c r="S9" t="n">
-        <v>2320.679456</v>
+        <v>-220</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4082,11 +3992,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>25314.1482</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="10">
@@ -4115,12 +4025,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4131,29 +4041,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>11.66</v>
+        <v>1474.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2332</v>
+        <v>29496</v>
       </c>
       <c r="P10" t="n">
-        <v>12.7</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.7</v>
+        <v>1467.02705</v>
       </c>
       <c r="R10" t="n">
-        <v>2540</v>
+        <v>29340.541</v>
       </c>
       <c r="S10" t="n">
-        <v>-208</v>
+        <v>155.459</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4162,11 +4072,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2332</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="11">
@@ -4190,17 +4100,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4211,29 +4121,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>1466.4</v>
+        <v>338</v>
       </c>
       <c r="O11" t="n">
-        <v>29328</v>
+        <v>33800</v>
       </c>
       <c r="P11" t="n">
-        <v>1467.02705</v>
+        <v>331.87755</v>
       </c>
       <c r="Q11" t="n">
-        <v>1467.02705</v>
+        <v>331.87755</v>
       </c>
       <c r="R11" t="n">
-        <v>29340.541</v>
+        <v>33187.755</v>
       </c>
       <c r="S11" t="n">
-        <v>-12.541</v>
+        <v>612.245</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4242,11 +4152,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>29328</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="12">
@@ -4270,17 +4180,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4291,29 +4201,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>338.25</v>
+        <v>9.2925</v>
       </c>
       <c r="O12" t="n">
-        <v>33825</v>
+        <v>9292.5</v>
       </c>
       <c r="P12" t="n">
-        <v>331.87755</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>331.87755</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R12" t="n">
-        <v>33187.755</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S12" t="n">
-        <v>637.245</v>
+        <v>-113.4006</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4322,11 +4232,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33825</v>
+        <v>9292.5</v>
       </c>
     </row>
     <row r="13">
@@ -4350,17 +4260,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4371,29 +4281,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>16.8448</v>
       </c>
       <c r="N13" t="n">
-        <v>9.3725</v>
+        <v>74.88</v>
       </c>
       <c r="O13" t="n">
-        <v>9372.5</v>
+        <v>1261.34</v>
       </c>
       <c r="P13" t="n">
-        <v>9.405900600000001</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.405900600000001</v>
+        <v>20.721325216</v>
       </c>
       <c r="R13" t="n">
-        <v>9405.900600000001</v>
+        <v>349.046579</v>
       </c>
       <c r="S13" t="n">
-        <v>-33.4006</v>
+        <v>912.293421</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4402,11 +4312,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9372.5</v>
+        <v>1261.34</v>
       </c>
     </row>
     <row r="14">
@@ -4430,17 +4340,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4451,29 +4361,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16.8448</v>
+        <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>75.66</v>
+        <v>27.0617</v>
       </c>
       <c r="O14" t="n">
-        <v>1274.48</v>
+        <v>10418.75</v>
       </c>
       <c r="P14" t="n">
-        <v>20.721325216</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.721325216</v>
+        <v>25.997158151</v>
       </c>
       <c r="R14" t="n">
-        <v>349.046579</v>
+        <v>10008.905888</v>
       </c>
       <c r="S14" t="n">
-        <v>925.433421</v>
+        <v>409.844112</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4482,11 +4392,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1274.48</v>
+        <v>10418.75</v>
       </c>
     </row>
     <row r="15">
@@ -4510,17 +4420,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4531,29 +4441,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0739</v>
+        <v>305.89</v>
       </c>
       <c r="O15" t="n">
-        <v>10423.45</v>
+        <v>30589</v>
       </c>
       <c r="P15" t="n">
-        <v>25.997158151</v>
+        <v>298.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.997158151</v>
+        <v>298.02</v>
       </c>
       <c r="R15" t="n">
-        <v>10008.905888</v>
+        <v>29802</v>
       </c>
       <c r="S15" t="n">
-        <v>414.544112</v>
+        <v>787</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4562,11 +4472,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10423.45</v>
+        <v>30589</v>
       </c>
     </row>
     <row r="16">
@@ -4590,17 +4500,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4611,29 +4521,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="n">
-        <v>306.42</v>
+        <v>9.824</v>
       </c>
       <c r="O16" t="n">
-        <v>30642</v>
+        <v>9824</v>
       </c>
       <c r="P16" t="n">
-        <v>298.02</v>
+        <v>10.229112</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.02</v>
+        <v>10.229112</v>
       </c>
       <c r="R16" t="n">
-        <v>29802</v>
+        <v>10229.112</v>
       </c>
       <c r="S16" t="n">
-        <v>840</v>
+        <v>-405.112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4642,11 +4552,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>30642</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="17">
@@ -4675,12 +4585,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4691,29 +4601,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>9.85</v>
+        <v>174.7</v>
       </c>
       <c r="O17" t="n">
-        <v>9850</v>
+        <v>52410</v>
       </c>
       <c r="P17" t="n">
-        <v>10.229112</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.229112</v>
+        <v>172.7421946</v>
       </c>
       <c r="R17" t="n">
-        <v>10229.112</v>
+        <v>51822.65838</v>
       </c>
       <c r="S17" t="n">
-        <v>-379.112</v>
+        <v>587.34162</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4726,7 +4636,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9850</v>
+        <v>52410</v>
       </c>
     </row>
     <row r="18">
@@ -4745,55 +4655,65 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>560</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>174.54</v>
+        <v>25.8147</v>
       </c>
       <c r="O18" t="n">
-        <v>52362</v>
+        <v>5162.94</v>
       </c>
       <c r="P18" t="n">
-        <v>172.7421946</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.7421946</v>
+        <v>23.5270125</v>
       </c>
       <c r="R18" t="n">
-        <v>51822.65838</v>
+        <v>4705.4025</v>
       </c>
       <c r="S18" t="n">
-        <v>539.34162</v>
+        <v>457.5375</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4802,11 +4722,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>52362</v>
+        <v>5162.94</v>
       </c>
     </row>
     <row r="19">
@@ -4835,19 +4755,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -4861,29 +4781,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>24.0436</v>
+        <v>21.1757</v>
       </c>
       <c r="O19" t="n">
-        <v>4808.72</v>
+        <v>4235.14</v>
       </c>
       <c r="P19" t="n">
-        <v>23.5270125</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.5270125</v>
+        <v>20.1350875</v>
       </c>
       <c r="R19" t="n">
-        <v>4705.4025</v>
+        <v>4027.0175</v>
       </c>
       <c r="S19" t="n">
-        <v>103.3175</v>
+        <v>208.1225</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4896,7 +4816,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4808.72</v>
+        <v>4235.14</v>
       </c>
     </row>
     <row r="20">
@@ -4920,64 +4840,64 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>620</v>
+        <v>335</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>20.615</v>
+        <v>12.1073</v>
       </c>
       <c r="O20" t="n">
-        <v>4123</v>
+        <v>-1210.73</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1350875</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.1350875</v>
+        <v>10.0494796</v>
       </c>
       <c r="R20" t="n">
-        <v>4027.0175</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S20" t="n">
-        <v>95.9825</v>
+        <v>-205.78204</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4986,7 +4906,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4123</v>
+        <v>-1210.73</v>
       </c>
     </row>
     <row r="21">
@@ -5010,60 +4930,60 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>12.7125</v>
+        <v>4.4882</v>
       </c>
       <c r="O21" t="n">
-        <v>-1271.25</v>
+        <v>-448.82</v>
       </c>
       <c r="P21" t="n">
-        <v>10.0494796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.0494796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R21" t="n">
-        <v>-1004.94796</v>
+        <v>-872.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>-266.30204</v>
+        <v>424.12796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5076,7 +4996,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-1271.25</v>
+        <v>-448.82</v>
       </c>
     </row>
     <row r="22">
@@ -5100,17 +5020,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -5121,39 +5041,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>4.8</v>
+        <v>0.78</v>
       </c>
       <c r="O22" t="n">
-        <v>-480</v>
+        <v>-78</v>
       </c>
       <c r="P22" t="n">
-        <v>8.729479599999999</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.729479599999999</v>
+        <v>2.0294546</v>
       </c>
       <c r="R22" t="n">
-        <v>-872.94796</v>
+        <v>-202.94546</v>
       </c>
       <c r="S22" t="n">
-        <v>392.94796</v>
+        <v>124.94546</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5166,7 +5086,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-480</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="23">
@@ -5190,60 +5110,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.22</v>
+        <v>7.1668</v>
       </c>
       <c r="O23" t="n">
-        <v>-122</v>
+        <v>-1433.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.0294546</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.0294546</v>
+        <v>6.3929546</v>
       </c>
       <c r="R23" t="n">
-        <v>-202.94546</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>80.94546</v>
+        <v>-154.76908</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5256,7 +5176,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-122</v>
+        <v>-1433.36</v>
       </c>
     </row>
     <row r="24">
@@ -5285,55 +5205,55 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   260130P00608000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 30JAN26 608 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>608</v>
+        <v>505</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
       <c r="M24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08500000000000001</v>
+        <v>7.865</v>
       </c>
       <c r="O24" t="n">
-        <v>-8.5</v>
+        <v>-1573</v>
       </c>
       <c r="P24" t="n">
-        <v>6.0594796</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.0594796</v>
+        <v>7.3496796</v>
       </c>
       <c r="R24" t="n">
-        <v>-605.94796</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S24" t="n">
-        <v>597.44796</v>
+        <v>-103.06408</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5346,187 +5266,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-8.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>QQQ   261218P00425000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>QQQ 18DEC26 425 P</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>425</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6.6444</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-1328.88</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6.3929546</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>6.3929546</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-1278.59092</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-50.28908</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>-1328.88</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>505</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.645</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-1529</v>
-      </c>
-      <c r="P26" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-59.06408</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>-1529</v>
+        <v>-1573</v>
       </c>
     </row>
   </sheetData>
@@ -5578,17 +5318,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$318,293.90</t>
+          <t>$311,790.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$134,409.76</t>
+          <t>$138,115.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$452,703.65</t>
+          <t>$449,905.71</t>
         </is>
       </c>
     </row>
@@ -5600,17 +5340,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$404,759.12</t>
+          <t>$378,371.91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$158,827.53</t>
+          <t>$181,807.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$563,586.65</t>
+          <t>$560,179.43</t>
         </is>
       </c>
     </row>
@@ -5628,17 +5368,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$723,053.02</t>
+          <t>$690,162.42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$293,237.28</t>
+          <t>$319,922.72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,016,290.30</t>
+          <t>$1,010,085.13</t>
         </is>
       </c>
     </row>
@@ -5691,14 +5431,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-31 09:33:17</t>
+          <t>2026-01-31 15:55:40</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5431,7 +5431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-31 15:55:40</t>
+          <t>2026-01-31 23:48:05</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5431,7 +5431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-31 23:48:05</t>
+          <t>2026-02-01 23:50:30</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5431,7 +5431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-01 23:50:30</t>
+          <t>2026-02-02 23:54:16</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>411.6</v>
+        <v>413.35</v>
       </c>
       <c r="O2" t="n">
-        <v>20580</v>
+        <v>20667.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-323.00481</v>
+        <v>-235.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26620.23</v>
+        <v>26508.1355</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5425</v>
+        <v>3.5695</v>
       </c>
       <c r="O3" t="n">
-        <v>15941.25</v>
+        <v>16062.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-173.653425</v>
+        <v>-52.153425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20620.006875</v>
+        <v>20602.08315</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>63.41</v>
+        <v>63.74</v>
       </c>
       <c r="O4" t="n">
-        <v>9511.5</v>
+        <v>9561</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-190.28</v>
+        <v>-140.78</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12303.12525</v>
+        <v>12262.9386</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1437</v>
+        <v>0.14406</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.58</v>
+        <v>30.94</v>
       </c>
       <c r="O5" t="n">
-        <v>63160</v>
+        <v>61880</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>828.40102</v>
+        <v>-451.59898</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9076.092000000001</v>
+        <v>8914.4328</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.185</v>
+        <v>1.179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5705</v>
+        <v>4.544</v>
       </c>
       <c r="O6" t="n">
-        <v>18282</v>
+        <v>18176</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-366.67968</v>
+        <v>-472.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21664.17</v>
+        <v>21429.504</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78593</v>
+        <v>0.78589</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>4.996</v>
+        <v>4.97</v>
       </c>
       <c r="O7" t="n">
-        <v>24980</v>
+        <v>24850</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2273.78755</v>
+        <v>2143.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19632.5314</v>
+        <v>19529.3665</v>
       </c>
     </row>
     <row r="8">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78593</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SPDR GOLD SHARES</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>595</v>
+        <v>10.79</v>
       </c>
       <c r="O8" t="n">
-        <v>14875</v>
+        <v>1079</v>
       </c>
       <c r="P8" t="n">
-        <v>430.033752</v>
+        <v>12.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>430.033752</v>
+        <v>12.97</v>
       </c>
       <c r="R8" t="n">
-        <v>10750.8438</v>
+        <v>1297</v>
       </c>
       <c r="S8" t="n">
-        <v>4124.1562</v>
+        <v>-218</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>SGX</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>11690.70875</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>11.6</v>
+        <v>51.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1160</v>
+        <v>2566</v>
       </c>
       <c r="P9" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="R9" t="n">
-        <v>1297</v>
+        <v>2314.2511</v>
       </c>
       <c r="S9" t="n">
-        <v>-137</v>
+        <v>251.7489</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1160</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>52.48</v>
+        <v>11.48</v>
       </c>
       <c r="O10" t="n">
-        <v>2624</v>
+        <v>1148</v>
       </c>
       <c r="P10" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="R10" t="n">
-        <v>2314.2511</v>
+        <v>1249</v>
       </c>
       <c r="S10" t="n">
-        <v>309.7489</v>
+        <v>-101</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2624</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>11.72</v>
+        <v>1479</v>
       </c>
       <c r="O11" t="n">
-        <v>1172</v>
+        <v>22185</v>
       </c>
       <c r="P11" t="n">
-        <v>12.49</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.49</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R11" t="n">
-        <v>1249</v>
+        <v>22124.835347</v>
       </c>
       <c r="S11" t="n">
-        <v>-77</v>
+        <v>60.164653</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1172</v>
+        <v>22185</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>1474.8</v>
+        <v>343.69</v>
       </c>
       <c r="O12" t="n">
-        <v>22122</v>
+        <v>34369</v>
       </c>
       <c r="P12" t="n">
-        <v>1474.989023133</v>
+        <v>312.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1474.989023133</v>
+        <v>312.15</v>
       </c>
       <c r="R12" t="n">
-        <v>22124.835347</v>
+        <v>31215</v>
       </c>
       <c r="S12" t="n">
-        <v>-2.835347</v>
+        <v>3154</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>22122</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>338</v>
+        <v>9.3125</v>
       </c>
       <c r="O13" t="n">
-        <v>33800</v>
+        <v>9312.5</v>
       </c>
       <c r="P13" t="n">
-        <v>312.15</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>312.15</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>31215</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>2585</v>
+        <v>-112.21</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>33800</v>
+        <v>9312.5</v>
       </c>
     </row>
     <row r="14">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>9.2925</v>
+        <v>26.6791</v>
       </c>
       <c r="O14" t="n">
-        <v>9292.5</v>
+        <v>10271.45</v>
       </c>
       <c r="P14" t="n">
-        <v>9.424709999999999</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.424709999999999</v>
+        <v>26.012734603</v>
       </c>
       <c r="R14" t="n">
-        <v>9424.709999999999</v>
+        <v>10014.902822</v>
       </c>
       <c r="S14" t="n">
-        <v>-132.21</v>
+        <v>256.547178</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9292.5</v>
+        <v>10271.45</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0617</v>
+        <v>33.75</v>
       </c>
       <c r="O15" t="n">
-        <v>10418.75</v>
+        <v>3375</v>
       </c>
       <c r="P15" t="n">
-        <v>26.012734603</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.012734603</v>
+        <v>35.26000011</v>
       </c>
       <c r="R15" t="n">
-        <v>10014.902822</v>
+        <v>3526.000011</v>
       </c>
       <c r="S15" t="n">
-        <v>403.847178</v>
+        <v>-151.000011</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10418.75</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="n">
-        <v>33.37</v>
+        <v>9.9815</v>
       </c>
       <c r="O16" t="n">
-        <v>3337</v>
+        <v>9981.5</v>
       </c>
       <c r="P16" t="n">
-        <v>35.26000011</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.26000011</v>
+        <v>10.2267108</v>
       </c>
       <c r="R16" t="n">
-        <v>3526.000011</v>
+        <v>10226.7108</v>
       </c>
       <c r="S16" t="n">
-        <v>-189.000011</v>
+        <v>-245.2108</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3337</v>
+        <v>9981.5</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>9.824</v>
+        <v>185.61</v>
       </c>
       <c r="O17" t="n">
-        <v>9824</v>
+        <v>37122</v>
       </c>
       <c r="P17" t="n">
-        <v>10.2267108</v>
+        <v>185.216422</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.2267108</v>
+        <v>185.216422</v>
       </c>
       <c r="R17" t="n">
-        <v>10226.7108</v>
+        <v>37043.2844</v>
       </c>
       <c r="S17" t="n">
-        <v>-402.7108</v>
+        <v>78.71559999999999</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9824</v>
+        <v>37122</v>
       </c>
     </row>
     <row r="18">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>191.13</v>
+        <v>160.06</v>
       </c>
       <c r="O18" t="n">
-        <v>38226</v>
+        <v>16006</v>
       </c>
       <c r="P18" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="R18" t="n">
-        <v>37043.2844</v>
+        <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>1182.7156</v>
+        <v>-4527.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>38226</v>
+        <v>16006</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>164.58</v>
+        <v>113.59</v>
       </c>
       <c r="O19" t="n">
-        <v>16458</v>
+        <v>2271.8</v>
       </c>
       <c r="P19" t="n">
-        <v>205.3357044</v>
+        <v>124.315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.3357044</v>
+        <v>124.315</v>
       </c>
       <c r="R19" t="n">
-        <v>20533.57044</v>
+        <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-4075.57044</v>
+        <v>-214.5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>16458</v>
+        <v>2271.8</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>116.49</v>
+        <v>175.3</v>
       </c>
       <c r="O20" t="n">
-        <v>2329.8</v>
+        <v>35060</v>
       </c>
       <c r="P20" t="n">
-        <v>124.315</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.315</v>
+        <v>171.74192805</v>
       </c>
       <c r="R20" t="n">
-        <v>2486.3</v>
+        <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>-156.5</v>
+        <v>711.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2329.8</v>
+        <v>35060</v>
       </c>
     </row>
     <row r="21">
@@ -2084,55 +2084,65 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>560</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>174.7</v>
+        <v>24.7159</v>
       </c>
       <c r="O21" t="n">
-        <v>34940</v>
+        <v>4943.18</v>
       </c>
       <c r="P21" t="n">
-        <v>171.74192805</v>
+        <v>23.4605</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.74192805</v>
+        <v>23.4605</v>
       </c>
       <c r="R21" t="n">
-        <v>34348.38561</v>
+        <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>591.61439</v>
+        <v>251.08</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2141,11 +2151,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>34940</v>
+        <v>4943.18</v>
       </c>
     </row>
     <row r="22">
@@ -2174,19 +2184,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2200,29 +2210,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>25.8147</v>
+        <v>20.16</v>
       </c>
       <c r="O22" t="n">
-        <v>5162.94</v>
+        <v>4032</v>
       </c>
       <c r="P22" t="n">
-        <v>23.4605</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.4605</v>
+        <v>20.1374875</v>
       </c>
       <c r="R22" t="n">
-        <v>4692.1</v>
+        <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>470.84</v>
+        <v>4.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2235,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>5162.94</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="23">
@@ -2254,7 +2264,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2264,23 +2274,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>620</v>
+        <v>6525</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2290,29 +2300,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>21.1757</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>4235.14</v>
+        <v>375</v>
       </c>
       <c r="P23" t="n">
-        <v>20.1374875</v>
+        <v>31.5284</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.1374875</v>
+        <v>31.5284</v>
       </c>
       <c r="R23" t="n">
-        <v>4027.4975</v>
+        <v>3152.84</v>
       </c>
       <c r="S23" t="n">
-        <v>207.6425</v>
+        <v>-2777.84</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2321,11 +2331,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4235.14</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24">
@@ -2349,24 +2359,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>6525</v>
+        <v>7300</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2375,34 +2385,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="O24" t="n">
-        <v>875</v>
+        <v>25</v>
       </c>
       <c r="P24" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="R24" t="n">
-        <v>3152.84</v>
+        <v>802.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-2277.84</v>
+        <v>-777.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>875</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2434,78 +2444,78 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>7300</v>
+        <v>310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.25</v>
+        <v>2.945</v>
       </c>
       <c r="O25" t="n">
-        <v>25</v>
+        <v>-294.5</v>
       </c>
       <c r="P25" t="n">
-        <v>8.0284</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.0284</v>
+        <v>7.2294546</v>
       </c>
       <c r="R25" t="n">
-        <v>802.84</v>
+        <v>-722.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>-777.84</v>
+        <v>428.44546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>25</v>
+        <v>-294.5</v>
       </c>
     </row>
     <row r="26">
@@ -2529,24 +2539,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2555,34 +2565,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2001</v>
+        <v>5.15</v>
       </c>
       <c r="O26" t="n">
-        <v>-420.01</v>
+        <v>-515</v>
       </c>
       <c r="P26" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R26" t="n">
-        <v>-722.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>302.93546</v>
+        <v>49.94546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-420.01</v>
+        <v>-515</v>
       </c>
     </row>
     <row r="27">
@@ -2624,23 +2634,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2650,29 +2660,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2262</v>
+        <v>2.1466</v>
       </c>
       <c r="O27" t="n">
-        <v>-422.62</v>
+        <v>-214.66</v>
       </c>
       <c r="P27" t="n">
-        <v>5.6494546</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.6494546</v>
+        <v>3.3094546</v>
       </c>
       <c r="R27" t="n">
-        <v>-564.94546</v>
+        <v>-330.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>142.32546</v>
+        <v>116.28546</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-422.62</v>
+        <v>-214.66</v>
       </c>
     </row>
     <row r="28">
@@ -2714,23 +2724,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2740,29 +2750,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>0.5308</v>
       </c>
       <c r="O28" t="n">
-        <v>-330</v>
+        <v>-53.08</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="R28" t="n">
-        <v>-330.94546</v>
+        <v>-238.94796</v>
       </c>
       <c r="S28" t="n">
-        <v>0.94546</v>
+        <v>185.86796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-330</v>
+        <v>-53.08</v>
       </c>
     </row>
     <row r="29">
@@ -2799,60 +2809,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.745</v>
+        <v>6.8553</v>
       </c>
       <c r="O29" t="n">
-        <v>-74.5</v>
+        <v>-1371.06</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R29" t="n">
-        <v>-238.94796</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S29" t="n">
-        <v>164.44796</v>
+        <v>-98.16658</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2865,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-74.5</v>
+        <v>-1371.06</v>
       </c>
     </row>
     <row r="30">
@@ -2894,19 +2904,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2920,29 +2930,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.1668</v>
+        <v>7.475</v>
       </c>
       <c r="O30" t="n">
-        <v>-1433.36</v>
+        <v>-1495</v>
       </c>
       <c r="P30" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="R30" t="n">
-        <v>-1272.89342</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S30" t="n">
-        <v>-160.46658</v>
+        <v>-24.02408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2955,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1433.36</v>
+        <v>-1495</v>
       </c>
     </row>
     <row r="31">
@@ -2974,7 +2984,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2984,23 +2994,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I31" t="n">
-        <v>505</v>
+        <v>6625</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3010,29 +3020,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>7.865</v>
+        <v>6.25</v>
       </c>
       <c r="O31" t="n">
-        <v>-1573</v>
+        <v>-625</v>
       </c>
       <c r="P31" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="R31" t="n">
-        <v>-1470.97592</v>
+        <v>-4222.16</v>
       </c>
       <c r="S31" t="n">
-        <v>-102.02408</v>
+        <v>3597.16</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3041,11 +3051,11 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-1573</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="32">
@@ -3069,24 +3079,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>50</v>
       </c>
       <c r="I32" t="n">
-        <v>6625</v>
+        <v>7200</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3095,34 +3105,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>13.5</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>-1350</v>
+        <v>-170</v>
       </c>
       <c r="P32" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="R32" t="n">
-        <v>-4222.16</v>
+        <v>-1897.16</v>
       </c>
       <c r="S32" t="n">
-        <v>2872.16</v>
+        <v>1727.16</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3135,97 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-1350</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>50</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-215</v>
-      </c>
-      <c r="P33" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1682.16</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>-215</v>
+        <v>-170</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +3291,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3401,17 +3321,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>411.6</v>
+        <v>413.35</v>
       </c>
       <c r="O2" t="n">
-        <v>20580</v>
+        <v>20667.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3423,7 +3343,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-402.956235</v>
+        <v>-315.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3436,7 +3356,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26620.23</v>
+        <v>26508.1355</v>
       </c>
     </row>
     <row r="3">
@@ -3451,7 +3371,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3481,17 +3401,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5425</v>
+        <v>3.5695</v>
       </c>
       <c r="O3" t="n">
-        <v>19483.75</v>
+        <v>19632.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3503,7 +3423,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-190.232075</v>
+        <v>-41.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3516,7 +3436,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25202.230625</v>
+        <v>25180.32385</v>
       </c>
     </row>
     <row r="4">
@@ -3531,7 +3451,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2935</v>
+        <v>1.2826</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3561,17 +3481,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>63.41</v>
+        <v>63.74</v>
       </c>
       <c r="O4" t="n">
-        <v>12682</v>
+        <v>12748</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3583,7 +3503,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-242.69912</v>
+        <v>-176.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3596,7 +3516,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16404.167</v>
+        <v>16350.5848</v>
       </c>
     </row>
     <row r="5">
@@ -3611,7 +3531,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1437</v>
+        <v>0.14406</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3641,17 +3561,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.58</v>
+        <v>30.94</v>
       </c>
       <c r="O5" t="n">
-        <v>63160</v>
+        <v>61880</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3663,7 +3583,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-232.47719</v>
+        <v>-1512.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3676,7 +3596,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9076.092000000001</v>
+        <v>8914.4328</v>
       </c>
     </row>
     <row r="6">
@@ -3691,7 +3611,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.185</v>
+        <v>1.179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3721,17 +3641,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5705</v>
+        <v>4.544</v>
       </c>
       <c r="O6" t="n">
-        <v>18282</v>
+        <v>18176</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3743,7 +3663,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-353.313</v>
+        <v>-459.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3756,7 +3676,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21664.17</v>
+        <v>21429.504</v>
       </c>
     </row>
     <row r="7">
@@ -3771,7 +3691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.185</v>
+        <v>1.179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3801,17 +3721,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>47.32</v>
+        <v>47.57</v>
       </c>
       <c r="O7" t="n">
-        <v>47320</v>
+        <v>47570</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3823,7 +3743,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>4310</v>
+        <v>4560</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3836,7 +3756,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>56074.2</v>
+        <v>56085.03</v>
       </c>
     </row>
     <row r="8">
@@ -3851,7 +3771,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78593</v>
+        <v>0.78589</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3881,17 +3801,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>4.996</v>
+        <v>4.97</v>
       </c>
       <c r="O8" t="n">
-        <v>49960</v>
+        <v>49700</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3903,7 +3823,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11841.8184</v>
+        <v>11581.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3916,7 +3836,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39265.0628</v>
+        <v>39058.733</v>
       </c>
     </row>
     <row r="9">
@@ -3961,17 +3881,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>11.6</v>
+        <v>10.79</v>
       </c>
       <c r="O9" t="n">
-        <v>2320</v>
+        <v>2158</v>
       </c>
       <c r="P9" t="n">
         <v>12.7</v>
@@ -3983,7 +3903,7 @@
         <v>2540</v>
       </c>
       <c r="S9" t="n">
-        <v>-220</v>
+        <v>-382</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3996,7 +3916,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2320</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="10">
@@ -4041,17 +3961,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>1474.8</v>
+        <v>1479</v>
       </c>
       <c r="O10" t="n">
-        <v>29496</v>
+        <v>29580</v>
       </c>
       <c r="P10" t="n">
         <v>1467.02705</v>
@@ -4063,7 +3983,7 @@
         <v>29340.541</v>
       </c>
       <c r="S10" t="n">
-        <v>155.459</v>
+        <v>239.459</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4076,7 +3996,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>29496</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="11">
@@ -4121,17 +4041,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>338</v>
+        <v>343.69</v>
       </c>
       <c r="O11" t="n">
-        <v>33800</v>
+        <v>34369</v>
       </c>
       <c r="P11" t="n">
         <v>331.87755</v>
@@ -4143,7 +4063,7 @@
         <v>33187.755</v>
       </c>
       <c r="S11" t="n">
-        <v>612.245</v>
+        <v>1181.245</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4156,7 +4076,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>33800</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="12">
@@ -4201,17 +4121,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>9.2925</v>
+        <v>9.3125</v>
       </c>
       <c r="O12" t="n">
-        <v>9292.5</v>
+        <v>9312.5</v>
       </c>
       <c r="P12" t="n">
         <v>9.405900600000001</v>
@@ -4223,7 +4143,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S12" t="n">
-        <v>-113.4006</v>
+        <v>-93.4006</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4236,7 +4156,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9292.5</v>
+        <v>9312.5</v>
       </c>
     </row>
     <row r="13">
@@ -4281,17 +4201,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>16.8448</v>
       </c>
       <c r="N13" t="n">
-        <v>74.88</v>
+        <v>75.27</v>
       </c>
       <c r="O13" t="n">
-        <v>1261.34</v>
+        <v>1267.91</v>
       </c>
       <c r="P13" t="n">
         <v>20.721325216</v>
@@ -4303,7 +4223,7 @@
         <v>349.046579</v>
       </c>
       <c r="S13" t="n">
-        <v>912.293421</v>
+        <v>918.863421</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4316,7 +4236,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1261.34</v>
+        <v>1267.91</v>
       </c>
     </row>
     <row r="14">
@@ -4361,17 +4281,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>27.0617</v>
+        <v>26.6791</v>
       </c>
       <c r="O14" t="n">
-        <v>10418.75</v>
+        <v>10271.45</v>
       </c>
       <c r="P14" t="n">
         <v>25.997158151</v>
@@ -4383,7 +4303,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S14" t="n">
-        <v>409.844112</v>
+        <v>262.544112</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4396,7 +4316,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>10418.75</v>
+        <v>10271.45</v>
       </c>
     </row>
     <row r="15">
@@ -4441,17 +4361,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>305.89</v>
+        <v>308.14</v>
       </c>
       <c r="O15" t="n">
-        <v>30589</v>
+        <v>30814</v>
       </c>
       <c r="P15" t="n">
         <v>298.02</v>
@@ -4463,7 +4383,7 @@
         <v>29802</v>
       </c>
       <c r="S15" t="n">
-        <v>787</v>
+        <v>1012</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4476,7 +4396,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>30589</v>
+        <v>30814</v>
       </c>
     </row>
     <row r="16">
@@ -4521,17 +4441,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>1000</v>
       </c>
       <c r="N16" t="n">
-        <v>9.824</v>
+        <v>9.9815</v>
       </c>
       <c r="O16" t="n">
-        <v>9824</v>
+        <v>9981.5</v>
       </c>
       <c r="P16" t="n">
         <v>10.229112</v>
@@ -4543,7 +4463,7 @@
         <v>10229.112</v>
       </c>
       <c r="S16" t="n">
-        <v>-405.112</v>
+        <v>-247.612</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4556,7 +4476,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>9824</v>
+        <v>9981.5</v>
       </c>
     </row>
     <row r="17">
@@ -4601,17 +4521,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>174.7</v>
+        <v>175.3</v>
       </c>
       <c r="O17" t="n">
-        <v>52410</v>
+        <v>52590</v>
       </c>
       <c r="P17" t="n">
         <v>172.7421946</v>
@@ -4623,7 +4543,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S17" t="n">
-        <v>587.34162</v>
+        <v>767.34162</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4636,7 +4556,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>52410</v>
+        <v>52590</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4611,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>25.8147</v>
+        <v>24.7159</v>
       </c>
       <c r="O18" t="n">
-        <v>5162.94</v>
+        <v>4943.18</v>
       </c>
       <c r="P18" t="n">
         <v>23.5270125</v>
@@ -4713,7 +4633,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S18" t="n">
-        <v>457.5375</v>
+        <v>237.7775</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4646,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5162.94</v>
+        <v>4943.18</v>
       </c>
     </row>
     <row r="19">
@@ -4781,17 +4701,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>21.1757</v>
+        <v>20.16</v>
       </c>
       <c r="O19" t="n">
-        <v>4235.14</v>
+        <v>4032</v>
       </c>
       <c r="P19" t="n">
         <v>20.1350875</v>
@@ -4803,7 +4723,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S19" t="n">
-        <v>208.1225</v>
+        <v>4.9825</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4816,7 +4736,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4235.14</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="20">
@@ -4871,17 +4791,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>12.1073</v>
+        <v>15.0913</v>
       </c>
       <c r="O20" t="n">
-        <v>-1210.73</v>
+        <v>-1509.13</v>
       </c>
       <c r="P20" t="n">
         <v>10.0494796</v>
@@ -4893,7 +4813,7 @@
         <v>-1004.94796</v>
       </c>
       <c r="S20" t="n">
-        <v>-205.78204</v>
+        <v>-504.18204</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4906,7 +4826,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>-1210.73</v>
+        <v>-1509.13</v>
       </c>
     </row>
     <row r="21">
@@ -4961,17 +4881,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4882</v>
+        <v>3.01</v>
       </c>
       <c r="O21" t="n">
-        <v>-448.82</v>
+        <v>-301</v>
       </c>
       <c r="P21" t="n">
         <v>8.729479599999999</v>
@@ -4983,7 +4903,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>424.12796</v>
+        <v>571.94796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4996,7 +4916,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-448.82</v>
+        <v>-301</v>
       </c>
     </row>
     <row r="22">
@@ -5051,17 +4971,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="O22" t="n">
-        <v>-78</v>
+        <v>-84</v>
       </c>
       <c r="P22" t="n">
         <v>2.0294546</v>
@@ -5073,7 +4993,7 @@
         <v>-202.94546</v>
       </c>
       <c r="S22" t="n">
-        <v>124.94546</v>
+        <v>118.94546</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5086,7 +5006,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-78</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="23">
@@ -5141,17 +5061,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>7.1668</v>
+        <v>6.8553</v>
       </c>
       <c r="O23" t="n">
-        <v>-1433.36</v>
+        <v>-1371.06</v>
       </c>
       <c r="P23" t="n">
         <v>6.3929546</v>
@@ -5163,7 +5083,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>-154.76908</v>
+        <v>-92.46908000000001</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5176,7 +5096,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1433.36</v>
+        <v>-1371.06</v>
       </c>
     </row>
     <row r="24">
@@ -5231,17 +5151,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>7.865</v>
+        <v>7.475</v>
       </c>
       <c r="O24" t="n">
-        <v>-1573</v>
+        <v>-1495</v>
       </c>
       <c r="P24" t="n">
         <v>7.3496796</v>
@@ -5253,7 +5173,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S24" t="n">
-        <v>-103.06408</v>
+        <v>-25.06408</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5266,7 +5186,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-1573</v>
+        <v>-1495</v>
       </c>
     </row>
   </sheetData>
@@ -5318,17 +5238,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$311,790.50</t>
+          <t>$298,630.59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$138,115.20</t>
+          <t>$149,020.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$449,905.71</t>
+          <t>$447,650.66</t>
         </is>
       </c>
     </row>
@@ -5340,17 +5260,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$378,371.91</t>
+          <t>$378,086.09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$181,807.52</t>
+          <t>$181,627.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$560,179.43</t>
+          <t>$559,713.09</t>
         </is>
       </c>
     </row>
@@ -5368,17 +5288,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$690,162.42</t>
+          <t>$676,716.68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$319,922.72</t>
+          <t>$330,647.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,010,085.13</t>
+          <t>$1,007,363.76</t>
         </is>
       </c>
     </row>
@@ -5431,11 +5351,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-02 23:54:16</t>
+          <t>2026-02-03 23:53:22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>23</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>413.35</v>
+        <v>408.45</v>
       </c>
       <c r="O2" t="n">
-        <v>20667.5</v>
+        <v>20422.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-235.50481</v>
+        <v>-480.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26508.1355</v>
+        <v>26342.98275</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5695</v>
+        <v>3.554</v>
       </c>
       <c r="O3" t="n">
-        <v>16062.75</v>
+        <v>15993</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-52.153425</v>
+        <v>-121.903425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20602.08315</v>
+        <v>20629.3707</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>63.74</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>9561</v>
+        <v>9601.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-140.78</v>
+        <v>-100.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12262.9386</v>
+        <v>12384.97485</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14406</v>
+        <v>0.1442</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>30.94</v>
+        <v>31.28</v>
       </c>
       <c r="O5" t="n">
-        <v>61880</v>
+        <v>62560</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>-451.59898</v>
+        <v>228.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8914.4328</v>
+        <v>9021.152</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.179</v>
+        <v>1.1818</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.544</v>
+        <v>4.48</v>
       </c>
       <c r="O6" t="n">
-        <v>18176</v>
+        <v>17920</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-472.67968</v>
+        <v>-728.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21429.504</v>
+        <v>21177.856</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78589</v>
+        <v>0.7874</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>4.97</v>
+        <v>5.03</v>
       </c>
       <c r="O7" t="n">
-        <v>24850</v>
+        <v>25150</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2143.78755</v>
+        <v>2443.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19529.3665</v>
+        <v>19803.11</v>
       </c>
     </row>
     <row r="8">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.7874</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>10.79</v>
+        <v>574</v>
       </c>
       <c r="O8" t="n">
-        <v>1079</v>
+        <v>5740</v>
       </c>
       <c r="P8" t="n">
-        <v>12.97</v>
+        <v>564.3551232</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.97</v>
+        <v>564.3551232</v>
       </c>
       <c r="R8" t="n">
-        <v>1297</v>
+        <v>5643.551232</v>
       </c>
       <c r="S8" t="n">
-        <v>-218</v>
+        <v>96.448768</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1079</v>
+        <v>4519.676</v>
       </c>
     </row>
     <row r="9">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>51.32</v>
+        <v>10.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2566</v>
+        <v>1057</v>
       </c>
       <c r="P9" t="n">
-        <v>46.285022</v>
+        <v>12.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.285022</v>
+        <v>12.97</v>
       </c>
       <c r="R9" t="n">
-        <v>2314.2511</v>
+        <v>1297</v>
       </c>
       <c r="S9" t="n">
-        <v>251.7489</v>
+        <v>-240</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2566</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>11.48</v>
+        <v>50.36</v>
       </c>
       <c r="O10" t="n">
-        <v>1148</v>
+        <v>2518</v>
       </c>
       <c r="P10" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="R10" t="n">
-        <v>1249</v>
+        <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-101</v>
+        <v>203.7489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1148</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>1479</v>
+        <v>11.04</v>
       </c>
       <c r="O11" t="n">
-        <v>22185</v>
+        <v>1104</v>
       </c>
       <c r="P11" t="n">
-        <v>1474.989023133</v>
+        <v>12.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>1474.989023133</v>
+        <v>12.49</v>
       </c>
       <c r="R11" t="n">
-        <v>22124.835347</v>
+        <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>60.164653</v>
+        <v>-145</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>22185</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>343.69</v>
+        <v>1459</v>
       </c>
       <c r="O12" t="n">
-        <v>34369</v>
+        <v>21885</v>
       </c>
       <c r="P12" t="n">
-        <v>312.15</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q12" t="n">
-        <v>312.15</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R12" t="n">
-        <v>31215</v>
+        <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>3154</v>
+        <v>-239.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>34369</v>
+        <v>21885</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>9.3125</v>
+        <v>339.71</v>
       </c>
       <c r="O13" t="n">
-        <v>9312.5</v>
+        <v>33971</v>
       </c>
       <c r="P13" t="n">
-        <v>9.424709999999999</v>
+        <v>312.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.424709999999999</v>
+        <v>312.15</v>
       </c>
       <c r="R13" t="n">
-        <v>9424.709999999999</v>
+        <v>31215</v>
       </c>
       <c r="S13" t="n">
-        <v>-112.21</v>
+        <v>2756</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9312.5</v>
+        <v>33971</v>
       </c>
     </row>
     <row r="14">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>26.6791</v>
+        <v>9.33</v>
       </c>
       <c r="O14" t="n">
-        <v>10271.45</v>
+        <v>9330</v>
       </c>
       <c r="P14" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>10014.902822</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>256.547178</v>
+        <v>-94.70999999999999</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>10271.45</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>33.75</v>
+        <v>27.6112</v>
       </c>
       <c r="O15" t="n">
-        <v>3375</v>
+        <v>10630.31</v>
       </c>
       <c r="P15" t="n">
-        <v>35.26000011</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.26000011</v>
+        <v>26.012734603</v>
       </c>
       <c r="R15" t="n">
-        <v>3526.000011</v>
+        <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>-151.000011</v>
+        <v>615.407178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3375</v>
+        <v>10630.31</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>9.9815</v>
+        <v>34.89</v>
       </c>
       <c r="O16" t="n">
-        <v>9981.5</v>
+        <v>3489</v>
       </c>
       <c r="P16" t="n">
-        <v>10.2267108</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.2267108</v>
+        <v>35.26000011</v>
       </c>
       <c r="R16" t="n">
-        <v>10226.7108</v>
+        <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-245.2108</v>
+        <v>-37.000011</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>9981.5</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>185.61</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>37122</v>
+        <v>9687</v>
       </c>
       <c r="P17" t="n">
-        <v>185.216422</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.216422</v>
+        <v>10.2267108</v>
       </c>
       <c r="R17" t="n">
-        <v>37043.2844</v>
+        <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>78.71559999999999</v>
+        <v>-539.7107999999999</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>37122</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="18">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>NVIDIA CORP</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>160.06</v>
+        <v>180.34</v>
       </c>
       <c r="O18" t="n">
-        <v>16006</v>
+        <v>36068</v>
       </c>
       <c r="P18" t="n">
-        <v>205.3357044</v>
+        <v>185.216422</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.3357044</v>
+        <v>185.216422</v>
       </c>
       <c r="R18" t="n">
-        <v>20533.57044</v>
+        <v>37043.2844</v>
       </c>
       <c r="S18" t="n">
-        <v>-4527.57044</v>
+        <v>-975.2844</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>16006</v>
+        <v>36068</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>113.59</v>
+        <v>154.67</v>
       </c>
       <c r="O19" t="n">
-        <v>2271.8</v>
+        <v>15467</v>
       </c>
       <c r="P19" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="R19" t="n">
-        <v>2486.3</v>
+        <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-214.5</v>
+        <v>-5066.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2271.8</v>
+        <v>15467</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>175.3</v>
+        <v>108.2</v>
       </c>
       <c r="O20" t="n">
-        <v>35060</v>
+        <v>2164</v>
       </c>
       <c r="P20" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="R20" t="n">
-        <v>34348.38561</v>
+        <v>2486.3</v>
       </c>
       <c r="S20" t="n">
-        <v>711.61439</v>
+        <v>-322.3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35060</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="21">
@@ -2084,65 +2084,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>560</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>24.7159</v>
+        <v>174.88</v>
       </c>
       <c r="O21" t="n">
-        <v>4943.18</v>
+        <v>34976</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="R21" t="n">
-        <v>4692.1</v>
+        <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>251.08</v>
+        <v>627.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2151,11 +2141,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4943.18</v>
+        <v>34976</v>
       </c>
     </row>
     <row r="22">
@@ -2184,19 +2174,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2210,29 +2200,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>20.16</v>
+        <v>26.9691</v>
       </c>
       <c r="O22" t="n">
-        <v>4032</v>
+        <v>5393.82</v>
       </c>
       <c r="P22" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="R22" t="n">
-        <v>4027.4975</v>
+        <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5025</v>
+        <v>701.72</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2235,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4032</v>
+        <v>5393.82</v>
       </c>
     </row>
     <row r="23">
@@ -2264,7 +2254,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2274,23 +2264,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>6525</v>
+        <v>620</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2300,29 +2290,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>21.305</v>
       </c>
       <c r="O23" t="n">
-        <v>375</v>
+        <v>4261</v>
       </c>
       <c r="P23" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.5284</v>
+        <v>20.1374875</v>
       </c>
       <c r="R23" t="n">
-        <v>3152.84</v>
+        <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>-2777.84</v>
+        <v>233.5025</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2331,11 +2321,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>375</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="24">
@@ -2359,24 +2349,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>7300</v>
+        <v>6525</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2385,34 +2375,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.25</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>25</v>
+        <v>620</v>
       </c>
       <c r="P24" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.0284</v>
+        <v>31.5284</v>
       </c>
       <c r="R24" t="n">
-        <v>802.84</v>
+        <v>3152.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-777.84</v>
+        <v>-2532.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2415,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>25</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25">
@@ -2444,78 +2434,78 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I25" t="n">
-        <v>310</v>
+        <v>7300</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>2.945</v>
+        <v>0.15</v>
       </c>
       <c r="O25" t="n">
-        <v>-294.5</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
-        <v>7.2294546</v>
+        <v>8.0284</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.2294546</v>
+        <v>8.0284</v>
       </c>
       <c r="R25" t="n">
-        <v>-722.94546</v>
+        <v>802.84</v>
       </c>
       <c r="S25" t="n">
-        <v>428.44546</v>
+        <v>-787.84</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-294.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2539,24 +2529,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2565,34 +2555,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>5.15</v>
+        <v>4.075</v>
       </c>
       <c r="O26" t="n">
-        <v>-515</v>
+        <v>-407.5</v>
       </c>
       <c r="P26" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R26" t="n">
-        <v>-564.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>49.94546</v>
+        <v>315.44546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-515</v>
+        <v>-407.5</v>
       </c>
     </row>
     <row r="27">
@@ -2634,23 +2624,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2660,29 +2650,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1466</v>
+        <v>4.675</v>
       </c>
       <c r="O27" t="n">
-        <v>-214.66</v>
+        <v>-467.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3.3094546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.3094546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R27" t="n">
-        <v>-330.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>116.28546</v>
+        <v>97.44546</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-214.66</v>
+        <v>-467.5</v>
       </c>
     </row>
     <row r="28">
@@ -2724,23 +2714,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2750,29 +2740,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5308</v>
+        <v>1.1065</v>
       </c>
       <c r="O28" t="n">
-        <v>-53.08</v>
+        <v>-110.65</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3894796</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3894796</v>
+        <v>3.3094546</v>
       </c>
       <c r="R28" t="n">
-        <v>-238.94796</v>
+        <v>-330.94546</v>
       </c>
       <c r="S28" t="n">
-        <v>185.86796</v>
+        <v>220.29546</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-53.08</v>
+        <v>-110.65</v>
       </c>
     </row>
     <row r="29">
@@ -2809,60 +2799,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.8553</v>
+        <v>0.3451</v>
       </c>
       <c r="O29" t="n">
-        <v>-1371.06</v>
+        <v>-34.51</v>
       </c>
       <c r="P29" t="n">
-        <v>6.3644671</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.3644671</v>
+        <v>2.3894796</v>
       </c>
       <c r="R29" t="n">
-        <v>-1272.89342</v>
+        <v>-238.94796</v>
       </c>
       <c r="S29" t="n">
-        <v>-98.16658</v>
+        <v>204.43796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2865,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-1371.06</v>
+        <v>-34.51</v>
       </c>
     </row>
     <row r="30">
@@ -2904,19 +2894,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2930,29 +2920,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.475</v>
+        <v>7.428</v>
       </c>
       <c r="O30" t="n">
-        <v>-1495</v>
+        <v>-1485.6</v>
       </c>
       <c r="P30" t="n">
-        <v>7.3548796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.3548796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R30" t="n">
-        <v>-1470.97592</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-24.02408</v>
+        <v>-212.70658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2955,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1495</v>
+        <v>-1485.6</v>
       </c>
     </row>
     <row r="31">
@@ -2984,7 +2974,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2994,23 +2984,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>6625</v>
+        <v>505</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3020,29 +3010,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>6.25</v>
+        <v>7.825</v>
       </c>
       <c r="O31" t="n">
-        <v>-625</v>
+        <v>-1565</v>
       </c>
       <c r="P31" t="n">
-        <v>42.2216</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.2216</v>
+        <v>7.3548796</v>
       </c>
       <c r="R31" t="n">
-        <v>-4222.16</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S31" t="n">
-        <v>3597.16</v>
+        <v>-94.02408</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3051,11 +3041,11 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-625</v>
+        <v>-1565</v>
       </c>
     </row>
     <row r="32">
@@ -3079,24 +3069,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>50</v>
       </c>
       <c r="I32" t="n">
-        <v>7200</v>
+        <v>6625</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3105,47 +3095,137 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>1.7</v>
+        <v>10.75</v>
       </c>
       <c r="O32" t="n">
-        <v>-170</v>
+        <v>-1075</v>
       </c>
       <c r="P32" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>42.2216</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-4222.16</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3147.16</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-1075</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FOP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>EW2G6 C7200</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ES 13FEB26 7200 C</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>50</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7200</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-45</v>
+      </c>
+      <c r="P33" t="n">
         <v>18.9716</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>18.9716</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R33" t="n">
         <v>-1897.16</v>
       </c>
-      <c r="S32" t="n">
-        <v>1727.16</v>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="S33" t="n">
+        <v>1852.16</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>CME</t>
         </is>
       </c>
-      <c r="V32" t="n">
-        <v>-170</v>
+      <c r="V33" t="n">
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3291,7 +3371,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3321,17 +3401,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>413.35</v>
+        <v>408.45</v>
       </c>
       <c r="O2" t="n">
-        <v>20667.5</v>
+        <v>20422.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3343,7 +3423,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-315.456235</v>
+        <v>-560.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3356,7 +3436,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26508.1355</v>
+        <v>26342.98275</v>
       </c>
     </row>
     <row r="3">
@@ -3371,7 +3451,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3401,17 +3481,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5695</v>
+        <v>3.554</v>
       </c>
       <c r="O3" t="n">
-        <v>19632.25</v>
+        <v>19547</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3423,7 +3503,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-41.732075</v>
+        <v>-126.982075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3436,7 +3516,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25180.32385</v>
+        <v>25213.6753</v>
       </c>
     </row>
     <row r="4">
@@ -3451,7 +3531,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2826</v>
+        <v>1.2899</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3481,17 +3561,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>63.74</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>12748</v>
+        <v>12802</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3503,7 +3583,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-176.69912</v>
+        <v>-122.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3516,7 +3596,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16350.5848</v>
+        <v>16513.2998</v>
       </c>
     </row>
     <row r="5">
@@ -3531,7 +3611,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14406</v>
+        <v>0.1442</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3561,17 +3641,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>30.94</v>
+        <v>31.28</v>
       </c>
       <c r="O5" t="n">
-        <v>61880</v>
+        <v>62560</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3583,7 +3663,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-1512.47719</v>
+        <v>-832.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3596,7 +3676,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8914.4328</v>
+        <v>9021.152</v>
       </c>
     </row>
     <row r="6">
@@ -3611,7 +3691,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.179</v>
+        <v>1.1818</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3641,17 +3721,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.544</v>
+        <v>4.48</v>
       </c>
       <c r="O6" t="n">
-        <v>18176</v>
+        <v>17920</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3663,7 +3743,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-459.313</v>
+        <v>-715.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3676,7 +3756,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21429.504</v>
+        <v>21177.856</v>
       </c>
     </row>
     <row r="7">
@@ -3691,7 +3771,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.179</v>
+        <v>1.1818</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3721,17 +3801,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>47.57</v>
+        <v>48.35</v>
       </c>
       <c r="O7" t="n">
-        <v>47570</v>
+        <v>48350</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3743,7 +3823,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>4560</v>
+        <v>5340</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3756,7 +3836,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>56085.03</v>
+        <v>57140.03</v>
       </c>
     </row>
     <row r="8">
@@ -3771,7 +3851,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78589</v>
+        <v>0.7874</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3801,17 +3881,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>4.97</v>
+        <v>5.03</v>
       </c>
       <c r="O8" t="n">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3823,7 +3903,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11581.8184</v>
+        <v>12181.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3836,7 +3916,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39058.733</v>
+        <v>39606.22</v>
       </c>
     </row>
     <row r="9">
@@ -3847,11 +3927,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.7874</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3865,12 +3945,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>SPDR GOLD SHARES</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3881,29 +3961,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>10.79</v>
+        <v>574</v>
       </c>
       <c r="O9" t="n">
-        <v>2158</v>
+        <v>5740</v>
       </c>
       <c r="P9" t="n">
-        <v>12.7</v>
+        <v>570.746232</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.7</v>
+        <v>570.746232</v>
       </c>
       <c r="R9" t="n">
-        <v>2540</v>
+        <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>-382</v>
+        <v>32.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3912,11 +3992,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SGX</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2158</v>
+        <v>4519.676</v>
       </c>
     </row>
     <row r="10">
@@ -3945,12 +4025,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3961,29 +4041,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>1479</v>
+        <v>10.57</v>
       </c>
       <c r="O10" t="n">
-        <v>29580</v>
+        <v>2114</v>
       </c>
       <c r="P10" t="n">
-        <v>1467.02705</v>
+        <v>12.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1467.02705</v>
+        <v>12.7</v>
       </c>
       <c r="R10" t="n">
-        <v>29340.541</v>
+        <v>2540</v>
       </c>
       <c r="S10" t="n">
-        <v>239.459</v>
+        <v>-426</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3992,11 +4072,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>29580</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="11">
@@ -4020,17 +4100,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4041,29 +4121,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>343.69</v>
+        <v>1459</v>
       </c>
       <c r="O11" t="n">
-        <v>34369</v>
+        <v>29180</v>
       </c>
       <c r="P11" t="n">
-        <v>331.87755</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.87755</v>
+        <v>1467.02705</v>
       </c>
       <c r="R11" t="n">
-        <v>33187.755</v>
+        <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>1181.245</v>
+        <v>-160.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4072,11 +4152,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>34369</v>
+        <v>29180</v>
       </c>
     </row>
     <row r="12">
@@ -4100,17 +4180,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4121,29 +4201,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>9.3125</v>
+        <v>339.71</v>
       </c>
       <c r="O12" t="n">
-        <v>9312.5</v>
+        <v>33971</v>
       </c>
       <c r="P12" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.405900600000001</v>
+        <v>331.87755</v>
       </c>
       <c r="R12" t="n">
-        <v>9405.900600000001</v>
+        <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-93.4006</v>
+        <v>783.245</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4152,11 +4232,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9312.5</v>
+        <v>33971</v>
       </c>
     </row>
     <row r="13">
@@ -4180,17 +4260,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4201,29 +4281,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16.8448</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>75.27</v>
+        <v>9.33</v>
       </c>
       <c r="O13" t="n">
-        <v>1267.91</v>
+        <v>9330</v>
       </c>
       <c r="P13" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R13" t="n">
-        <v>349.046579</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>918.863421</v>
+        <v>-75.9006</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4232,11 +4312,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1267.91</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="14">
@@ -4260,17 +4340,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4281,29 +4361,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>385</v>
+        <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>26.6791</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>10271.45</v>
+        <v>1262.18</v>
       </c>
       <c r="P14" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="R14" t="n">
-        <v>10008.905888</v>
+        <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>262.544112</v>
+        <v>913.133421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4312,11 +4392,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>10271.45</v>
+        <v>1262.18</v>
       </c>
     </row>
     <row r="15">
@@ -4340,17 +4420,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4361,29 +4441,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>308.14</v>
+        <v>27.6112</v>
       </c>
       <c r="O15" t="n">
-        <v>30814</v>
+        <v>10630.31</v>
       </c>
       <c r="P15" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="R15" t="n">
-        <v>29802</v>
+        <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>1012</v>
+        <v>621.4041120000001</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4392,11 +4472,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>30814</v>
+        <v>10630.31</v>
       </c>
     </row>
     <row r="16">
@@ -4420,17 +4500,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4441,29 +4521,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>9.9815</v>
+        <v>314.85</v>
       </c>
       <c r="O16" t="n">
-        <v>9981.5</v>
+        <v>31485</v>
       </c>
       <c r="P16" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="R16" t="n">
-        <v>10229.112</v>
+        <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>-247.612</v>
+        <v>1683</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4472,11 +4552,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>9981.5</v>
+        <v>31485</v>
       </c>
     </row>
     <row r="17">
@@ -4505,12 +4585,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4521,29 +4601,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>175.3</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>52590</v>
+        <v>9687</v>
       </c>
       <c r="P17" t="n">
-        <v>172.7421946</v>
+        <v>10.229112</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.7421946</v>
+        <v>10.229112</v>
       </c>
       <c r="R17" t="n">
-        <v>51822.65838</v>
+        <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>767.34162</v>
+        <v>-542.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4556,7 +4636,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>52590</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="18">
@@ -4575,65 +4655,55 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>560</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>24.7159</v>
+        <v>174.88</v>
       </c>
       <c r="O18" t="n">
-        <v>4943.18</v>
+        <v>52464</v>
       </c>
       <c r="P18" t="n">
-        <v>23.5270125</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.5270125</v>
+        <v>172.7421946</v>
       </c>
       <c r="R18" t="n">
-        <v>4705.4025</v>
+        <v>51822.65838</v>
       </c>
       <c r="S18" t="n">
-        <v>237.7775</v>
+        <v>641.34162</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4642,11 +4712,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4943.18</v>
+        <v>52464</v>
       </c>
     </row>
     <row r="19">
@@ -4675,19 +4745,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -4701,29 +4771,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>20.16</v>
+        <v>26.9691</v>
       </c>
       <c r="O19" t="n">
-        <v>4032</v>
+        <v>5393.82</v>
       </c>
       <c r="P19" t="n">
-        <v>20.1350875</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.1350875</v>
+        <v>23.5270125</v>
       </c>
       <c r="R19" t="n">
-        <v>4027.0175</v>
+        <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9825</v>
+        <v>688.4175</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4736,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4032</v>
+        <v>5393.82</v>
       </c>
     </row>
     <row r="20">
@@ -4760,64 +4830,64 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>335</v>
+        <v>620</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>15.0913</v>
+        <v>21.305</v>
       </c>
       <c r="O20" t="n">
-        <v>-1509.13</v>
+        <v>4261</v>
       </c>
       <c r="P20" t="n">
-        <v>10.0494796</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.0494796</v>
+        <v>20.1350875</v>
       </c>
       <c r="R20" t="n">
-        <v>-1004.94796</v>
+        <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>-504.18204</v>
+        <v>233.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4826,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>-1509.13</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="21">
@@ -4850,60 +4920,60 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>GOOGL 260206C00335000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>GOOGL 06FEB26 335 C</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.01</v>
+        <v>13.15</v>
       </c>
       <c r="O21" t="n">
-        <v>-301</v>
+        <v>-1315</v>
       </c>
       <c r="P21" t="n">
-        <v>8.729479599999999</v>
+        <v>10.0494796</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.729479599999999</v>
+        <v>10.0494796</v>
       </c>
       <c r="R21" t="n">
-        <v>-872.94796</v>
+        <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>571.94796</v>
+        <v>-310.05204</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4916,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-301</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="22">
@@ -4940,17 +5010,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -4961,39 +5031,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.84</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="n">
-        <v>-84</v>
+        <v>-425</v>
       </c>
       <c r="P22" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.0294546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R22" t="n">
-        <v>-202.94546</v>
+        <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>118.94546</v>
+        <v>447.94796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5006,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-84</v>
+        <v>-425</v>
       </c>
     </row>
     <row r="23">
@@ -5030,60 +5100,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>JPM   260206C00315000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>JPM 06FEB26 315 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>6.8553</v>
+        <v>3.325</v>
       </c>
       <c r="O23" t="n">
-        <v>-1371.06</v>
+        <v>-332.5</v>
       </c>
       <c r="P23" t="n">
-        <v>6.3929546</v>
+        <v>2.0294546</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.3929546</v>
+        <v>2.0294546</v>
       </c>
       <c r="R23" t="n">
-        <v>-1278.59092</v>
+        <v>-202.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-92.46908000000001</v>
+        <v>-129.55454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5096,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1371.06</v>
+        <v>-332.5</v>
       </c>
     </row>
     <row r="24">
@@ -5125,19 +5195,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -5151,42 +5221,132 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>7.475</v>
+        <v>7.428</v>
       </c>
       <c r="O24" t="n">
-        <v>-1495</v>
+        <v>-1485.6</v>
       </c>
       <c r="P24" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-1278.59092</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-207.00908</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>-1485.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>505</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.825</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-1565</v>
+      </c>
+      <c r="P25" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R25" t="n">
         <v>-1469.93592</v>
       </c>
-      <c r="S24" t="n">
-        <v>-25.06408</v>
-      </c>
-      <c r="T24" t="inlineStr">
+      <c r="S25" t="n">
+        <v>-95.06408</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V24" t="n">
-        <v>-1495</v>
+      <c r="V25" t="n">
+        <v>-1565</v>
       </c>
     </row>
   </sheetData>
@@ -5238,17 +5398,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$298,630.59</t>
+          <t>$301,324.49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$149,020.07</t>
+          <t>$144,740.06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$447,650.66</t>
+          <t>$446,064.55</t>
         </is>
       </c>
     </row>
@@ -5260,17 +5420,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$378,086.09</t>
+          <t>$384,190.10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$181,627.00</t>
+          <t>$177,384.91</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$559,713.09</t>
+          <t>$561,575.01</t>
         </is>
       </c>
     </row>
@@ -5288,17 +5448,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$676,716.68</t>
+          <t>$685,514.59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$330,647.07</t>
+          <t>$322,124.97</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,007,363.76</t>
+          <t>$1,007,639.56</t>
         </is>
       </c>
     </row>
@@ -5351,14 +5511,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-03 23:53:22</t>
+          <t>2026-02-04 23:53:30</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>408.45</v>
+        <v>399</v>
       </c>
       <c r="O2" t="n">
-        <v>20422.5</v>
+        <v>19950</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-480.50481</v>
+        <v>-953.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26342.98275</v>
+        <v>25661.685</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.554</v>
+        <v>3.5435</v>
       </c>
       <c r="O3" t="n">
-        <v>15993</v>
+        <v>15945.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-121.903425</v>
+        <v>-169.153425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20629.3707</v>
+        <v>20511.018225</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.01000000000001</v>
+        <v>63.52</v>
       </c>
       <c r="O4" t="n">
-        <v>9601.5</v>
+        <v>9528</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-100.28</v>
+        <v>-173.78</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12384.97485</v>
+        <v>12255.8664</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1442</v>
+        <v>0.14407</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.28</v>
+        <v>31.58</v>
       </c>
       <c r="O5" t="n">
-        <v>62560</v>
+        <v>63160</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>228.40102</v>
+        <v>828.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9021.152</v>
+        <v>9099.4612</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1818</v>
+        <v>1.1806</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.48</v>
+        <v>4.3785</v>
       </c>
       <c r="O6" t="n">
-        <v>17920</v>
+        <v>17514</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-728.67968</v>
+        <v>-1134.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21177.856</v>
+        <v>20677.0284</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7874</v>
+        <v>0.78582</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.03</v>
+        <v>5.035</v>
       </c>
       <c r="O7" t="n">
-        <v>25150</v>
+        <v>25175</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2443.78755</v>
+        <v>2468.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19803.11</v>
+        <v>19783.0185</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7874</v>
+        <v>0.78582</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="O8" t="n">
-        <v>5740</v>
+        <v>5940</v>
       </c>
       <c r="P8" t="n">
         <v>564.3551232</v>
@@ -1092,7 +1092,7 @@
         <v>5643.551232</v>
       </c>
       <c r="S8" t="n">
-        <v>96.448768</v>
+        <v>296.448768</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4519.676</v>
+        <v>4667.770799999999</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>10.57</v>
+        <v>10.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="P9" t="n">
         <v>12.97</v>
@@ -1172,7 +1172,7 @@
         <v>1297</v>
       </c>
       <c r="S9" t="n">
-        <v>-240</v>
+        <v>-282</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>50.36</v>
+        <v>49.3</v>
       </c>
       <c r="O10" t="n">
-        <v>2518</v>
+        <v>2465</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>203.7489</v>
+        <v>150.7489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2518</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>11.04</v>
+        <v>11.18</v>
       </c>
       <c r="O11" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-145</v>
+        <v>-131</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1459</v>
+        <v>1432</v>
       </c>
       <c r="O12" t="n">
-        <v>21885</v>
+        <v>21480</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-239.835347</v>
+        <v>-644.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21885</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>339.71</v>
+        <v>333.04</v>
       </c>
       <c r="O13" t="n">
-        <v>33971</v>
+        <v>33304</v>
       </c>
       <c r="P13" t="n">
         <v>312.15</v>
@@ -1492,7 +1492,7 @@
         <v>31215</v>
       </c>
       <c r="S13" t="n">
-        <v>2756</v>
+        <v>2089</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>33971</v>
+        <v>33304</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.33</v>
+        <v>9.225</v>
       </c>
       <c r="O14" t="n">
-        <v>9330</v>
+        <v>9225</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-94.70999999999999</v>
+        <v>-199.71</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9330</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.6112</v>
+        <v>27.5746</v>
       </c>
       <c r="O15" t="n">
-        <v>10630.31</v>
+        <v>10616.22</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>615.407178</v>
+        <v>601.317178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10630.31</v>
+        <v>10616.22</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>34.89</v>
+        <v>36.87</v>
       </c>
       <c r="O16" t="n">
-        <v>3489</v>
+        <v>3687</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-37.000011</v>
+        <v>160.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3489</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.686999999999999</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>9687</v>
+        <v>9592</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-539.7107999999999</v>
+        <v>-634.7107999999999</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9687</v>
+        <v>9592</v>
       </c>
     </row>
     <row r="18">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NVIDIA CORP</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>180.34</v>
+        <v>146.67</v>
       </c>
       <c r="O18" t="n">
-        <v>36068</v>
+        <v>14667</v>
       </c>
       <c r="P18" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.216422</v>
+        <v>205.3357044</v>
       </c>
       <c r="R18" t="n">
-        <v>37043.2844</v>
+        <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-975.2844</v>
+        <v>-5866.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>36068</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>154.67</v>
+        <v>106.26</v>
       </c>
       <c r="O19" t="n">
-        <v>15467</v>
+        <v>2125.2</v>
       </c>
       <c r="P19" t="n">
-        <v>205.3357044</v>
+        <v>124.315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.3357044</v>
+        <v>124.315</v>
       </c>
       <c r="R19" t="n">
-        <v>20533.57044</v>
+        <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-5066.57044</v>
+        <v>-361.1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>15467</v>
+        <v>2125.2</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>108.2</v>
+        <v>174.2</v>
       </c>
       <c r="O20" t="n">
-        <v>2164</v>
+        <v>34840</v>
       </c>
       <c r="P20" t="n">
-        <v>124.315</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.315</v>
+        <v>171.74192805</v>
       </c>
       <c r="R20" t="n">
-        <v>2486.3</v>
+        <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>-322.3</v>
+        <v>491.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2164</v>
+        <v>34840</v>
       </c>
     </row>
     <row r="21">
@@ -2084,55 +2084,65 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>560</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>174.88</v>
+        <v>29.7077</v>
       </c>
       <c r="O21" t="n">
-        <v>34976</v>
+        <v>5941.54</v>
       </c>
       <c r="P21" t="n">
-        <v>171.74192805</v>
+        <v>23.4605</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.74192805</v>
+        <v>23.4605</v>
       </c>
       <c r="R21" t="n">
-        <v>34348.38561</v>
+        <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>627.61439</v>
+        <v>1249.44</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2141,11 +2151,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>34976</v>
+        <v>5941.54</v>
       </c>
     </row>
     <row r="22">
@@ -2174,19 +2184,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2200,29 +2210,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>26.9691</v>
+        <v>22.165</v>
       </c>
       <c r="O22" t="n">
-        <v>5393.82</v>
+        <v>4433</v>
       </c>
       <c r="P22" t="n">
-        <v>23.4605</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.4605</v>
+        <v>20.1374875</v>
       </c>
       <c r="R22" t="n">
-        <v>4692.1</v>
+        <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>701.72</v>
+        <v>405.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2235,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>5393.82</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="23">
@@ -2254,7 +2264,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2264,23 +2274,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>620</v>
+        <v>6525</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2290,29 +2300,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>21.305</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>4261</v>
+        <v>895</v>
       </c>
       <c r="P23" t="n">
-        <v>20.1374875</v>
+        <v>31.5284</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.1374875</v>
+        <v>31.5284</v>
       </c>
       <c r="R23" t="n">
-        <v>4027.4975</v>
+        <v>3152.84</v>
       </c>
       <c r="S23" t="n">
-        <v>233.5025</v>
+        <v>-2257.84</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2321,11 +2331,11 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4261</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24">
@@ -2349,24 +2359,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>6525</v>
+        <v>7300</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2375,34 +2385,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>0.05</v>
       </c>
       <c r="O24" t="n">
-        <v>620</v>
+        <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.5284</v>
+        <v>8.0284</v>
       </c>
       <c r="R24" t="n">
-        <v>3152.84</v>
+        <v>802.84</v>
       </c>
       <c r="S24" t="n">
-        <v>-2532.84</v>
+        <v>-797.84</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>620</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2434,78 +2444,78 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>7300</v>
+        <v>310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.15</v>
+        <v>5.85</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>-585</v>
       </c>
       <c r="P25" t="n">
-        <v>8.0284</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.0284</v>
+        <v>7.2294546</v>
       </c>
       <c r="R25" t="n">
-        <v>802.84</v>
+        <v>-722.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>-787.84</v>
+        <v>137.94546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>-585</v>
       </c>
     </row>
     <row r="26">
@@ -2529,24 +2539,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2555,34 +2565,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>4.075</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>-407.5</v>
+        <v>-350</v>
       </c>
       <c r="P26" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.2294546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R26" t="n">
-        <v>-722.94546</v>
+        <v>-564.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>315.44546</v>
+        <v>214.94546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-407.5</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="27">
@@ -2624,23 +2634,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2650,29 +2660,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>4.675</v>
+        <v>0.505</v>
       </c>
       <c r="O27" t="n">
-        <v>-467.5</v>
+        <v>-50.5</v>
       </c>
       <c r="P27" t="n">
-        <v>5.6494546</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.6494546</v>
+        <v>3.3094546</v>
       </c>
       <c r="R27" t="n">
-        <v>-564.94546</v>
+        <v>-330.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>97.44546</v>
+        <v>280.44546</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-467.5</v>
+        <v>-50.5</v>
       </c>
     </row>
     <row r="28">
@@ -2714,23 +2724,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2740,29 +2750,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1065</v>
+        <v>0.2104</v>
       </c>
       <c r="O28" t="n">
-        <v>-110.65</v>
+        <v>-21.04</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.3094546</v>
+        <v>2.3894796</v>
       </c>
       <c r="R28" t="n">
-        <v>-330.94546</v>
+        <v>-238.94796</v>
       </c>
       <c r="S28" t="n">
-        <v>220.29546</v>
+        <v>217.90796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-110.65</v>
+        <v>-21.04</v>
       </c>
     </row>
     <row r="29">
@@ -2799,60 +2809,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3451</v>
+        <v>8.144</v>
       </c>
       <c r="O29" t="n">
-        <v>-34.51</v>
+        <v>-1628.8</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3894796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R29" t="n">
-        <v>-238.94796</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S29" t="n">
-        <v>204.43796</v>
+        <v>-355.90658</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2865,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-34.51</v>
+        <v>-1628.8</v>
       </c>
     </row>
     <row r="30">
@@ -2894,19 +2904,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2920,29 +2930,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.428</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-1485.6</v>
+        <v>-1615</v>
       </c>
       <c r="P30" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.3644671</v>
+        <v>7.3548796</v>
       </c>
       <c r="R30" t="n">
-        <v>-1272.89342</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S30" t="n">
-        <v>-212.70658</v>
+        <v>-144.02408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2955,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1485.6</v>
+        <v>-1615</v>
       </c>
     </row>
     <row r="31">
@@ -2974,7 +2984,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2984,23 +2994,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I31" t="n">
-        <v>505</v>
+        <v>6625</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3010,29 +3020,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>7.825</v>
+        <v>16.5</v>
       </c>
       <c r="O31" t="n">
-        <v>-1565</v>
+        <v>-1650</v>
       </c>
       <c r="P31" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.3548796</v>
+        <v>42.2216</v>
       </c>
       <c r="R31" t="n">
-        <v>-1470.97592</v>
+        <v>-4222.16</v>
       </c>
       <c r="S31" t="n">
-        <v>-94.02408</v>
+        <v>2572.16</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3041,11 +3051,11 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-1565</v>
+        <v>-1650</v>
       </c>
     </row>
     <row r="32">
@@ -3069,24 +3079,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>50</v>
       </c>
       <c r="I32" t="n">
-        <v>6625</v>
+        <v>7200</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3095,34 +3105,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>10.75</v>
+        <v>0.2</v>
       </c>
       <c r="O32" t="n">
-        <v>-1075</v>
+        <v>-20</v>
       </c>
       <c r="P32" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.2216</v>
+        <v>18.9716</v>
       </c>
       <c r="R32" t="n">
-        <v>-4222.16</v>
+        <v>-1897.16</v>
       </c>
       <c r="S32" t="n">
-        <v>3147.16</v>
+        <v>1877.16</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3135,97 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-1075</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>50</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-45</v>
-      </c>
-      <c r="P33" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1852.16</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>-45</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +3159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,7 +3291,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3401,17 +3321,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>408.45</v>
+        <v>399</v>
       </c>
       <c r="O2" t="n">
-        <v>20422.5</v>
+        <v>19950</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3423,7 +3343,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-560.456235</v>
+        <v>-1032.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3436,7 +3356,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26342.98275</v>
+        <v>25661.685</v>
       </c>
     </row>
     <row r="3">
@@ -3451,7 +3371,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3481,17 +3401,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.554</v>
+        <v>3.5435</v>
       </c>
       <c r="O3" t="n">
-        <v>19547</v>
+        <v>19489.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3503,7 +3423,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-126.982075</v>
+        <v>-184.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3516,7 +3436,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25213.6753</v>
+        <v>25069.022275</v>
       </c>
     </row>
     <row r="4">
@@ -3531,7 +3451,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2899</v>
+        <v>1.2863</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3561,17 +3481,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.01000000000001</v>
+        <v>63.52</v>
       </c>
       <c r="O4" t="n">
-        <v>12802</v>
+        <v>12704</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3583,7 +3503,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-122.69912</v>
+        <v>-220.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3596,7 +3516,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16513.2998</v>
+        <v>16341.1552</v>
       </c>
     </row>
     <row r="5">
@@ -3611,7 +3531,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1442</v>
+        <v>0.14407</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3641,17 +3561,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.28</v>
+        <v>31.58</v>
       </c>
       <c r="O5" t="n">
-        <v>62560</v>
+        <v>63160</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3663,7 +3583,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-832.47719</v>
+        <v>-232.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3676,7 +3596,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9021.152</v>
+        <v>9099.4612</v>
       </c>
     </row>
     <row r="6">
@@ -3691,7 +3611,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1818</v>
+        <v>1.1806</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3721,17 +3641,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.48</v>
+        <v>4.3785</v>
       </c>
       <c r="O6" t="n">
-        <v>17920</v>
+        <v>17514</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3743,7 +3663,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-715.313</v>
+        <v>-1121.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3756,7 +3676,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21177.856</v>
+        <v>20677.0284</v>
       </c>
     </row>
     <row r="7">
@@ -3771,7 +3691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1818</v>
+        <v>1.1806</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3801,17 +3721,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>48.35</v>
+        <v>49.55</v>
       </c>
       <c r="O7" t="n">
-        <v>48350</v>
+        <v>49550</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3823,7 +3743,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>5340</v>
+        <v>6540</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3836,7 +3756,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>57140.03</v>
+        <v>58498.73</v>
       </c>
     </row>
     <row r="8">
@@ -3851,7 +3771,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7874</v>
+        <v>0.78582</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3881,17 +3801,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.03</v>
+        <v>5.035</v>
       </c>
       <c r="O8" t="n">
-        <v>50300</v>
+        <v>50350</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3903,7 +3823,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12181.8184</v>
+        <v>12231.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3916,7 +3836,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39606.22</v>
+        <v>39566.037</v>
       </c>
     </row>
     <row r="9">
@@ -3931,7 +3851,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7874</v>
+        <v>0.78582</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3961,17 +3881,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="O9" t="n">
-        <v>5740</v>
+        <v>5940</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3983,7 +3903,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>32.53768</v>
+        <v>232.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3996,7 +3916,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4519.676</v>
+        <v>4667.770799999999</v>
       </c>
     </row>
     <row r="10">
@@ -4041,17 +3961,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10.57</v>
+        <v>10.15</v>
       </c>
       <c r="O10" t="n">
-        <v>2114</v>
+        <v>2030</v>
       </c>
       <c r="P10" t="n">
         <v>12.7</v>
@@ -4063,7 +3983,7 @@
         <v>2540</v>
       </c>
       <c r="S10" t="n">
-        <v>-426</v>
+        <v>-510</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4076,7 +3996,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2114</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="11">
@@ -4121,17 +4041,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1459</v>
+        <v>1432</v>
       </c>
       <c r="O11" t="n">
-        <v>29180</v>
+        <v>28640</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4143,7 +4063,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-160.541</v>
+        <v>-700.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4156,7 +4076,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>29180</v>
+        <v>28640</v>
       </c>
     </row>
     <row r="12">
@@ -4201,17 +4121,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>339.71</v>
+        <v>333.04</v>
       </c>
       <c r="O12" t="n">
-        <v>33971</v>
+        <v>33304</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4223,7 +4143,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>783.245</v>
+        <v>116.245</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4236,7 +4156,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33971</v>
+        <v>33304</v>
       </c>
     </row>
     <row r="13">
@@ -4281,17 +4201,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>9.33</v>
+        <v>9.225</v>
       </c>
       <c r="O13" t="n">
-        <v>9330</v>
+        <v>9225</v>
       </c>
       <c r="P13" t="n">
         <v>9.405900600000001</v>
@@ -4303,7 +4223,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>-75.9006</v>
+        <v>-180.9006</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4316,7 +4236,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9330</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="14">
@@ -4361,17 +4281,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>74.93000000000001</v>
+        <v>73.44</v>
       </c>
       <c r="O14" t="n">
-        <v>1262.18</v>
+        <v>1237.08</v>
       </c>
       <c r="P14" t="n">
         <v>20.721325216</v>
@@ -4383,7 +4303,7 @@
         <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>913.133421</v>
+        <v>888.033421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4396,7 +4316,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1262.18</v>
+        <v>1237.08</v>
       </c>
     </row>
     <row r="15">
@@ -4441,17 +4361,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.6112</v>
+        <v>27.5746</v>
       </c>
       <c r="O15" t="n">
-        <v>10630.31</v>
+        <v>10616.22</v>
       </c>
       <c r="P15" t="n">
         <v>25.997158151</v>
@@ -4463,7 +4383,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>621.4041120000001</v>
+        <v>607.314112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4476,7 +4396,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10630.31</v>
+        <v>10616.22</v>
       </c>
     </row>
     <row r="16">
@@ -4521,17 +4441,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>314.85</v>
+        <v>317.27</v>
       </c>
       <c r="O16" t="n">
-        <v>31485</v>
+        <v>31727</v>
       </c>
       <c r="P16" t="n">
         <v>298.02</v>
@@ -4543,7 +4463,7 @@
         <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>1683</v>
+        <v>1925</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4556,7 +4476,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>31485</v>
+        <v>31727</v>
       </c>
     </row>
     <row r="17">
@@ -4601,17 +4521,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.686999999999999</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>9687</v>
+        <v>9592</v>
       </c>
       <c r="P17" t="n">
         <v>10.229112</v>
@@ -4623,7 +4543,7 @@
         <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>-542.112</v>
+        <v>-637.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4636,7 +4556,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9687</v>
+        <v>9592</v>
       </c>
     </row>
     <row r="18">
@@ -4681,17 +4601,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>174.88</v>
+        <v>174.2</v>
       </c>
       <c r="O18" t="n">
-        <v>52464</v>
+        <v>52260</v>
       </c>
       <c r="P18" t="n">
         <v>172.7421946</v>
@@ -4703,7 +4623,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S18" t="n">
-        <v>641.34162</v>
+        <v>437.34162</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4716,7 +4636,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>52464</v>
+        <v>52260</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4691,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>26.9691</v>
+        <v>29.7077</v>
       </c>
       <c r="O19" t="n">
-        <v>5393.82</v>
+        <v>5941.54</v>
       </c>
       <c r="P19" t="n">
         <v>23.5270125</v>
@@ -4793,7 +4713,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>688.4175</v>
+        <v>1236.1375</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4726,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5393.82</v>
+        <v>5941.54</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4781,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>21.305</v>
+        <v>22.165</v>
       </c>
       <c r="O20" t="n">
-        <v>4261</v>
+        <v>4433</v>
       </c>
       <c r="P20" t="n">
         <v>20.1350875</v>
@@ -4883,7 +4803,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>233.9825</v>
+        <v>405.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4816,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4261</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4871,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>13.15</v>
+        <v>9.863099999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>-1315</v>
+        <v>-986.3099999999999</v>
       </c>
       <c r="P21" t="n">
         <v>10.0494796</v>
@@ -4973,7 +4893,7 @@
         <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>-310.05204</v>
+        <v>18.63796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4906,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-1315</v>
+        <v>-986.3099999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +4961,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>4.25</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>-425</v>
+        <v>-620</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5063,7 +4983,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>447.94796</v>
+        <v>252.94796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +4996,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-425</v>
+        <v>-620</v>
       </c>
     </row>
     <row r="23">
@@ -5100,60 +5020,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JPM   260206C00315000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JPM 06FEB26 315 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>3.325</v>
+        <v>8.144</v>
       </c>
       <c r="O23" t="n">
-        <v>-332.5</v>
+        <v>-1628.8</v>
       </c>
       <c r="P23" t="n">
-        <v>2.0294546</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.0294546</v>
+        <v>6.3929546</v>
       </c>
       <c r="R23" t="n">
-        <v>-202.94546</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>-129.55454</v>
+        <v>-350.20908</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5086,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-332.5</v>
+        <v>-1628.8</v>
       </c>
     </row>
     <row r="24">
@@ -5195,19 +5115,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -5221,29 +5141,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>7.428</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>-1485.6</v>
+        <v>-1615</v>
       </c>
       <c r="P24" t="n">
-        <v>6.3929546</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.3929546</v>
+        <v>7.3496796</v>
       </c>
       <c r="R24" t="n">
-        <v>-1278.59092</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S24" t="n">
-        <v>-207.00908</v>
+        <v>-145.06408</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,97 +5176,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-1485.6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>505</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.825</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-1565</v>
-      </c>
-      <c r="P25" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-95.06408</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>-1565</v>
+        <v>-1615</v>
       </c>
     </row>
   </sheetData>
@@ -5398,17 +5228,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$301,324.49</t>
+          <t>$262,144.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$144,740.06</t>
+          <t>$179,638.25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$446,064.55</t>
+          <t>$441,782.72</t>
         </is>
       </c>
     </row>
@@ -5420,17 +5250,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$384,190.10</t>
+          <t>$383,736.62</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$177,384.91</t>
+          <t>$176,932.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$561,575.01</t>
+          <t>$560,669.26</t>
         </is>
       </c>
     </row>
@@ -5448,17 +5278,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$685,514.59</t>
+          <t>$645,881.09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$322,124.97</t>
+          <t>$356,570.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,007,639.56</t>
+          <t>$1,002,451.98</t>
         </is>
       </c>
     </row>
@@ -5511,14 +5341,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-04 23:53:30</t>
+          <t>2026-02-05 23:50:20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>399</v>
+        <v>395.65</v>
       </c>
       <c r="O2" t="n">
-        <v>19950</v>
+        <v>19782.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-953.00481</v>
+        <v>-1120.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25661.685</v>
+        <v>25420.5125</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5435</v>
+        <v>3.5095</v>
       </c>
       <c r="O3" t="n">
-        <v>15945.75</v>
+        <v>15792.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-169.153425</v>
+        <v>-322.153425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20511.018225</v>
+        <v>20293.68375</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>63.52</v>
+        <v>63.45</v>
       </c>
       <c r="O4" t="n">
-        <v>9528</v>
+        <v>9517.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-173.78</v>
+        <v>-184.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12255.8664</v>
+        <v>12229.9875</v>
       </c>
     </row>
     <row r="5">
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.58</v>
+        <v>31.36</v>
       </c>
       <c r="O5" t="n">
-        <v>63160</v>
+        <v>62720</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>828.40102</v>
+        <v>388.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9099.4612</v>
+        <v>9036.070400000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1806</v>
+        <v>1.1778</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3785</v>
+        <v>4.3925</v>
       </c>
       <c r="O6" t="n">
-        <v>17514</v>
+        <v>17570</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1134.67968</v>
+        <v>-1078.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20677.0284</v>
+        <v>20693.946</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78582</v>
+        <v>0.78408</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.035</v>
+        <v>5.05</v>
       </c>
       <c r="O7" t="n">
-        <v>25175</v>
+        <v>25250</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2468.78755</v>
+        <v>2543.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19783.0185</v>
+        <v>19798.02</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78582</v>
+        <v>0.78408</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>594</v>
+        <v>573.7</v>
       </c>
       <c r="O8" t="n">
-        <v>5940</v>
+        <v>5737</v>
       </c>
       <c r="P8" t="n">
         <v>564.3551232</v>
@@ -1092,7 +1092,7 @@
         <v>5643.551232</v>
       </c>
       <c r="S8" t="n">
-        <v>296.448768</v>
+        <v>93.448768</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4667.770799999999</v>
+        <v>4498.26696</v>
       </c>
     </row>
     <row r="9">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>10.15</v>
+        <v>47.97</v>
       </c>
       <c r="O9" t="n">
-        <v>1015</v>
+        <v>2398.5</v>
       </c>
       <c r="P9" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.97</v>
+        <v>46.285022</v>
       </c>
       <c r="R9" t="n">
-        <v>1297</v>
+        <v>2314.2511</v>
       </c>
       <c r="S9" t="n">
-        <v>-282</v>
+        <v>84.24890000000001</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1015</v>
+        <v>2398.5</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>49.3</v>
+        <v>10.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2465</v>
+        <v>1060</v>
       </c>
       <c r="P10" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.285022</v>
+        <v>12.49</v>
       </c>
       <c r="R10" t="n">
-        <v>2314.2511</v>
+        <v>1249</v>
       </c>
       <c r="S10" t="n">
-        <v>150.7489</v>
+        <v>-189</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2465</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>11.18</v>
+        <v>1419.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1118</v>
+        <v>21294</v>
       </c>
       <c r="P11" t="n">
-        <v>12.49</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.49</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R11" t="n">
-        <v>1249</v>
+        <v>22124.835347</v>
       </c>
       <c r="S11" t="n">
-        <v>-131</v>
+        <v>-830.835347</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1118</v>
+        <v>21294</v>
       </c>
     </row>
     <row r="12">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>1432</v>
+        <v>9.172499999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>21480</v>
+        <v>9172.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1474.989023133</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>1474.989023133</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>22124.835347</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>-644.835347</v>
+        <v>-252.21</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21480</v>
+        <v>9172.5</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N13" t="n">
-        <v>333.04</v>
+        <v>26.9888</v>
       </c>
       <c r="O13" t="n">
-        <v>33304</v>
+        <v>10390.69</v>
       </c>
       <c r="P13" t="n">
-        <v>312.15</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q13" t="n">
-        <v>312.15</v>
+        <v>26.012734603</v>
       </c>
       <c r="R13" t="n">
-        <v>31215</v>
+        <v>10014.902822</v>
       </c>
       <c r="S13" t="n">
-        <v>2089</v>
+        <v>375.787178</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>33304</v>
+        <v>10390.69</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>9.225</v>
+        <v>36.71</v>
       </c>
       <c r="O14" t="n">
-        <v>9225</v>
+        <v>3671</v>
       </c>
       <c r="P14" t="n">
-        <v>9.424709999999999</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.424709999999999</v>
+        <v>35.26000011</v>
       </c>
       <c r="R14" t="n">
-        <v>9424.709999999999</v>
+        <v>3526.000011</v>
       </c>
       <c r="S14" t="n">
-        <v>-199.71</v>
+        <v>144.999989</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9225</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="15">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>27.5746</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>10616.22</v>
+        <v>9489</v>
       </c>
       <c r="P15" t="n">
-        <v>26.012734603</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.012734603</v>
+        <v>10.2267108</v>
       </c>
       <c r="R15" t="n">
-        <v>10014.902822</v>
+        <v>10226.7108</v>
       </c>
       <c r="S15" t="n">
-        <v>601.317178</v>
+        <v>-737.7107999999999</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10616.22</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87</v>
+        <v>136.48</v>
       </c>
       <c r="O16" t="n">
-        <v>3687</v>
+        <v>13648</v>
       </c>
       <c r="P16" t="n">
-        <v>35.26000011</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.26000011</v>
+        <v>205.3357044</v>
       </c>
       <c r="R16" t="n">
-        <v>3526.000011</v>
+        <v>20533.57044</v>
       </c>
       <c r="S16" t="n">
-        <v>160.999989</v>
+        <v>-6885.57044</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3687</v>
+        <v>13648</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>9.592000000000001</v>
+        <v>108.57</v>
       </c>
       <c r="O17" t="n">
-        <v>9592</v>
+        <v>2171.4</v>
       </c>
       <c r="P17" t="n">
-        <v>10.2267108</v>
+        <v>124.315</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.2267108</v>
+        <v>124.315</v>
       </c>
       <c r="R17" t="n">
-        <v>10226.7108</v>
+        <v>2486.3</v>
       </c>
       <c r="S17" t="n">
-        <v>-634.7107999999999</v>
+        <v>-314.9</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9592</v>
+        <v>2171.4</v>
       </c>
     </row>
     <row r="18">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>146.67</v>
+        <v>172.7</v>
       </c>
       <c r="O18" t="n">
-        <v>14667</v>
+        <v>34540</v>
       </c>
       <c r="P18" t="n">
-        <v>205.3357044</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.3357044</v>
+        <v>171.74192805</v>
       </c>
       <c r="R18" t="n">
-        <v>20533.57044</v>
+        <v>34348.38561</v>
       </c>
       <c r="S18" t="n">
-        <v>-5866.57044</v>
+        <v>191.61439</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>14667</v>
+        <v>34540</v>
       </c>
     </row>
     <row r="19">
@@ -1924,55 +1924,65 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>560</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>106.26</v>
+        <v>32.3184</v>
       </c>
       <c r="O19" t="n">
-        <v>2125.2</v>
+        <v>6463.68</v>
       </c>
       <c r="P19" t="n">
-        <v>124.315</v>
+        <v>23.4605</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.315</v>
+        <v>23.4605</v>
       </c>
       <c r="R19" t="n">
-        <v>2486.3</v>
+        <v>4692.1</v>
       </c>
       <c r="S19" t="n">
-        <v>-361.1</v>
+        <v>1771.58</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1981,11 +1991,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2125.2</v>
+        <v>6463.68</v>
       </c>
     </row>
     <row r="20">
@@ -2004,55 +2014,65 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>620</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>174.2</v>
+        <v>24.495</v>
       </c>
       <c r="O20" t="n">
-        <v>34840</v>
+        <v>4899</v>
       </c>
       <c r="P20" t="n">
-        <v>171.74192805</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.74192805</v>
+        <v>20.1374875</v>
       </c>
       <c r="R20" t="n">
-        <v>34348.38561</v>
+        <v>4027.4975</v>
       </c>
       <c r="S20" t="n">
-        <v>491.61439</v>
+        <v>871.5025000000001</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2081,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>34840</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2104,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2094,23 +2114,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>EW2G6 P6525</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>ES 13FEB26 6525 P</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
-        <v>560</v>
+        <v>6525</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2120,29 +2140,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>29.7077</v>
+        <v>16.5</v>
       </c>
       <c r="O21" t="n">
-        <v>5941.54</v>
+        <v>1650</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4605</v>
+        <v>31.5284</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.4605</v>
+        <v>31.5284</v>
       </c>
       <c r="R21" t="n">
-        <v>4692.1</v>
+        <v>3152.84</v>
       </c>
       <c r="S21" t="n">
-        <v>1249.44</v>
+        <v>-1502.84</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2151,11 +2171,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5941.54</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="22">
@@ -2174,65 +2194,65 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>EW2G6 C7300</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>ES 13FEB26 7300 C</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>620</v>
+        <v>7300</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>22.165</v>
+        <v>0.05</v>
       </c>
       <c r="O22" t="n">
-        <v>4433</v>
+        <v>5</v>
       </c>
       <c r="P22" t="n">
-        <v>20.1374875</v>
+        <v>8.0284</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.1374875</v>
+        <v>8.0284</v>
       </c>
       <c r="R22" t="n">
-        <v>4027.4975</v>
+        <v>802.84</v>
       </c>
       <c r="S22" t="n">
-        <v>405.5025</v>
+        <v>-797.84</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2241,11 +2261,11 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4433</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2264,7 +2284,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2274,23 +2294,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>6525</v>
+        <v>310</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2300,42 +2320,42 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>8.949999999999999</v>
+        <v>4.3133</v>
       </c>
       <c r="O23" t="n">
-        <v>895</v>
+        <v>-431.33</v>
       </c>
       <c r="P23" t="n">
-        <v>31.5284</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.5284</v>
+        <v>7.2294546</v>
       </c>
       <c r="R23" t="n">
-        <v>3152.84</v>
+        <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-2257.84</v>
+        <v>291.61546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>895</v>
+        <v>-431.33</v>
       </c>
     </row>
     <row r="24">
@@ -2354,7 +2374,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2364,23 +2384,23 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>7300</v>
+        <v>370</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2390,42 +2410,42 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05</v>
+        <v>1.775</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>-177.5</v>
       </c>
       <c r="P24" t="n">
-        <v>8.0284</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.0284</v>
+        <v>5.6494546</v>
       </c>
       <c r="R24" t="n">
-        <v>802.84</v>
+        <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>-797.84</v>
+        <v>387.44546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>-177.5</v>
       </c>
     </row>
     <row r="25">
@@ -2449,60 +2469,60 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>ORCL  260213C00175000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>ORCL 13FEB26 175 C</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>5.85</v>
+        <v>0.1525</v>
       </c>
       <c r="O25" t="n">
-        <v>-585</v>
+        <v>-15.25</v>
       </c>
       <c r="P25" t="n">
-        <v>7.2294546</v>
+        <v>3.3094546</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.2294546</v>
+        <v>3.3094546</v>
       </c>
       <c r="R25" t="n">
-        <v>-722.94546</v>
+        <v>-330.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>137.94546</v>
+        <v>315.69546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2535,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-585</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="26">
@@ -2544,23 +2564,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>ORCL  260220C00200000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>ORCL 20FEB26 200 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2570,29 +2590,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>0.0946</v>
       </c>
       <c r="O26" t="n">
-        <v>-350</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>5.6494546</v>
+        <v>2.3894796</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.6494546</v>
+        <v>2.3894796</v>
       </c>
       <c r="R26" t="n">
-        <v>-564.94546</v>
+        <v>-238.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>214.94546</v>
+        <v>229.48796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2625,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-350</v>
+        <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -2629,60 +2649,60 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.505</v>
+        <v>8.833</v>
       </c>
       <c r="O27" t="n">
-        <v>-50.5</v>
+        <v>-1766.6</v>
       </c>
       <c r="P27" t="n">
-        <v>3.3094546</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.3094546</v>
+        <v>6.3644671</v>
       </c>
       <c r="R27" t="n">
-        <v>-330.94546</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S27" t="n">
-        <v>280.44546</v>
+        <v>-493.70658</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2715,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-50.5</v>
+        <v>-1766.6</v>
       </c>
     </row>
     <row r="28">
@@ -2719,60 +2739,60 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2104</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>-21.04</v>
+        <v>-1776</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3894796</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3894796</v>
+        <v>7.3548796</v>
       </c>
       <c r="R28" t="n">
-        <v>-238.94796</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S28" t="n">
-        <v>217.90796</v>
+        <v>-305.02408</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2805,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-21.04</v>
+        <v>-1776</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2824,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2814,23 +2834,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>EW2G6 P6625</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>ES 13FEB26 6625 P</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I29" t="n">
-        <v>425</v>
+        <v>6625</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2840,29 +2860,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>8.144</v>
+        <v>30</v>
       </c>
       <c r="O29" t="n">
-        <v>-1628.8</v>
+        <v>-3000</v>
       </c>
       <c r="P29" t="n">
-        <v>6.3644671</v>
+        <v>42.2216</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.3644671</v>
+        <v>42.2216</v>
       </c>
       <c r="R29" t="n">
-        <v>-1272.89342</v>
+        <v>-4222.16</v>
       </c>
       <c r="S29" t="n">
-        <v>-355.90658</v>
+        <v>1222.16</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2871,11 +2891,11 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-1628.8</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="30">
@@ -2894,65 +2914,65 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>EW2G6 C7200</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ES 13FEB26 7200 C</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>505</v>
+        <v>7200</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.074999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="O30" t="n">
-        <v>-1615</v>
+        <v>-15</v>
       </c>
       <c r="P30" t="n">
-        <v>7.3548796</v>
+        <v>18.9716</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.3548796</v>
+        <v>18.9716</v>
       </c>
       <c r="R30" t="n">
-        <v>-1470.97592</v>
+        <v>-1897.16</v>
       </c>
       <c r="S30" t="n">
-        <v>-144.02408</v>
+        <v>1882.16</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2961,191 +2981,11 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1615</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>EW2G6 P6625</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 6625 P</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>50</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6625</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-1650</v>
-      </c>
-      <c r="P31" t="n">
-        <v>42.2216</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>42.2216</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-4222.16</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2572.16</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>-1650</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>FOP</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>EW2G6 C7200</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ES 13FEB26 7200 C</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>50</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7200</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-20</v>
-      </c>
-      <c r="P32" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>18.9716</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-1897.16</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1877.16</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>CME</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3131,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3321,17 +3161,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>399</v>
+        <v>395.65</v>
       </c>
       <c r="O2" t="n">
-        <v>19950</v>
+        <v>19782.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3343,7 +3183,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1032.956235</v>
+        <v>-1200.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3356,7 +3196,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25661.685</v>
+        <v>25420.5125</v>
       </c>
     </row>
     <row r="3">
@@ -3371,7 +3211,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3401,17 +3241,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5435</v>
+        <v>3.5095</v>
       </c>
       <c r="O3" t="n">
-        <v>19489.25</v>
+        <v>19302.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3423,7 +3263,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-184.732075</v>
+        <v>-371.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3436,7 +3276,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25069.022275</v>
+        <v>24803.39125</v>
       </c>
     </row>
     <row r="4">
@@ -3451,7 +3291,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2863</v>
+        <v>1.285</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3481,17 +3321,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>63.52</v>
+        <v>63.45</v>
       </c>
       <c r="O4" t="n">
-        <v>12704</v>
+        <v>12690</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3503,7 +3343,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-220.69912</v>
+        <v>-234.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3516,7 +3356,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16341.1552</v>
+        <v>16306.65</v>
       </c>
     </row>
     <row r="5">
@@ -3561,17 +3401,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.58</v>
+        <v>31.36</v>
       </c>
       <c r="O5" t="n">
-        <v>63160</v>
+        <v>62720</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3583,7 +3423,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-232.47719</v>
+        <v>-672.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3596,7 +3436,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9099.4612</v>
+        <v>9036.070400000001</v>
       </c>
     </row>
     <row r="6">
@@ -3611,7 +3451,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1806</v>
+        <v>1.1778</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3641,17 +3481,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3785</v>
+        <v>4.3925</v>
       </c>
       <c r="O6" t="n">
-        <v>17514</v>
+        <v>17570</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3663,7 +3503,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1121.313</v>
+        <v>-1065.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3676,7 +3516,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20677.0284</v>
+        <v>20693.946</v>
       </c>
     </row>
     <row r="7">
@@ -3691,7 +3531,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1806</v>
+        <v>1.1778</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3721,17 +3561,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.55</v>
+        <v>49.47</v>
       </c>
       <c r="O7" t="n">
-        <v>49550</v>
+        <v>49470</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3743,7 +3583,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6540</v>
+        <v>6460</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3756,7 +3596,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58498.73</v>
+        <v>58265.766</v>
       </c>
     </row>
     <row r="8">
@@ -3771,7 +3611,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78582</v>
+        <v>0.78408</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3801,17 +3641,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.035</v>
+        <v>5.05</v>
       </c>
       <c r="O8" t="n">
-        <v>50350</v>
+        <v>50500</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3823,7 +3663,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12231.8184</v>
+        <v>12381.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3836,7 +3676,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39566.037</v>
+        <v>39596.04</v>
       </c>
     </row>
     <row r="9">
@@ -3851,7 +3691,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78582</v>
+        <v>0.78408</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3881,17 +3721,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>594</v>
+        <v>573.7</v>
       </c>
       <c r="O9" t="n">
-        <v>5940</v>
+        <v>5737</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3903,7 +3743,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>232.53768</v>
+        <v>29.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3916,7 +3756,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4667.770799999999</v>
+        <v>4498.26696</v>
       </c>
     </row>
     <row r="10">
@@ -3961,17 +3801,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>2030</v>
+        <v>1760</v>
       </c>
       <c r="P10" t="n">
         <v>12.7</v>
@@ -3983,7 +3823,7 @@
         <v>2540</v>
       </c>
       <c r="S10" t="n">
-        <v>-510</v>
+        <v>-780</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3996,7 +3836,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2030</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="11">
@@ -4041,17 +3881,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1432</v>
+        <v>1419.6</v>
       </c>
       <c r="O11" t="n">
-        <v>28640</v>
+        <v>28392</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4063,7 +3903,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-700.5410000000001</v>
+        <v>-948.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4076,7 +3916,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28640</v>
+        <v>28392</v>
       </c>
     </row>
     <row r="12">
@@ -4121,17 +3961,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>333.04</v>
+        <v>331.25</v>
       </c>
       <c r="O12" t="n">
-        <v>33304</v>
+        <v>33125</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4143,7 +3983,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>116.245</v>
+        <v>-62.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4156,7 +3996,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33304</v>
+        <v>33125</v>
       </c>
     </row>
     <row r="13">
@@ -4201,17 +4041,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>9.225</v>
+        <v>9.172499999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>9225</v>
+        <v>9172.5</v>
       </c>
       <c r="P13" t="n">
         <v>9.405900600000001</v>
@@ -4223,7 +4063,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>-180.9006</v>
+        <v>-233.4006</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4236,7 +4076,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9225</v>
+        <v>9172.5</v>
       </c>
     </row>
     <row r="14">
@@ -4281,17 +4121,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>73.44</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1237.08</v>
+        <v>1170.55</v>
       </c>
       <c r="P14" t="n">
         <v>20.721325216</v>
@@ -4303,7 +4143,7 @@
         <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>888.033421</v>
+        <v>821.503421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4316,7 +4156,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1237.08</v>
+        <v>1170.55</v>
       </c>
     </row>
     <row r="15">
@@ -4361,17 +4201,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.5746</v>
+        <v>26.9888</v>
       </c>
       <c r="O15" t="n">
-        <v>10616.22</v>
+        <v>10390.69</v>
       </c>
       <c r="P15" t="n">
         <v>25.997158151</v>
@@ -4383,7 +4223,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>607.314112</v>
+        <v>381.784112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4396,7 +4236,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10616.22</v>
+        <v>10390.69</v>
       </c>
     </row>
     <row r="16">
@@ -4441,17 +4281,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>317.27</v>
+        <v>310.16</v>
       </c>
       <c r="O16" t="n">
-        <v>31727</v>
+        <v>31016</v>
       </c>
       <c r="P16" t="n">
         <v>298.02</v>
@@ -4463,7 +4303,7 @@
         <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>1925</v>
+        <v>1214</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4476,7 +4316,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>31727</v>
+        <v>31016</v>
       </c>
     </row>
     <row r="17">
@@ -4521,17 +4361,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.592000000000001</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>9592</v>
+        <v>9489</v>
       </c>
       <c r="P17" t="n">
         <v>10.229112</v>
@@ -4543,7 +4383,7 @@
         <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>-637.112</v>
+        <v>-740.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4556,7 +4396,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9592</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="18">
@@ -4601,17 +4441,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>174.2</v>
+        <v>172.7</v>
       </c>
       <c r="O18" t="n">
-        <v>52260</v>
+        <v>51810</v>
       </c>
       <c r="P18" t="n">
         <v>172.7421946</v>
@@ -4623,7 +4463,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S18" t="n">
-        <v>437.34162</v>
+        <v>-12.65838</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4636,7 +4476,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>52260</v>
+        <v>51810</v>
       </c>
     </row>
     <row r="19">
@@ -4691,17 +4531,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>29.7077</v>
+        <v>32.3184</v>
       </c>
       <c r="O19" t="n">
-        <v>5941.54</v>
+        <v>6463.68</v>
       </c>
       <c r="P19" t="n">
         <v>23.5270125</v>
@@ -4713,7 +4553,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>1236.1375</v>
+        <v>1758.2775</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4726,7 +4566,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5941.54</v>
+        <v>6463.68</v>
       </c>
     </row>
     <row r="20">
@@ -4781,17 +4621,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>22.165</v>
+        <v>24.495</v>
       </c>
       <c r="O20" t="n">
-        <v>4433</v>
+        <v>4899</v>
       </c>
       <c r="P20" t="n">
         <v>20.1350875</v>
@@ -4803,7 +4643,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>405.9825</v>
+        <v>871.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4816,7 +4656,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4433</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="21">
@@ -4871,17 +4711,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>9.863099999999999</v>
+        <v>2.4784</v>
       </c>
       <c r="O21" t="n">
-        <v>-986.3099999999999</v>
+        <v>-247.84</v>
       </c>
       <c r="P21" t="n">
         <v>10.0494796</v>
@@ -4893,7 +4733,7 @@
         <v>-1004.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>18.63796</v>
+        <v>757.10796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4906,7 +4746,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-986.3099999999999</v>
+        <v>-247.84</v>
       </c>
     </row>
     <row r="22">
@@ -4961,17 +4801,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>3.8965</v>
       </c>
       <c r="O22" t="n">
-        <v>-620</v>
+        <v>-389.65</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -4983,7 +4823,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>252.94796</v>
+        <v>483.29796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -4996,7 +4836,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-620</v>
+        <v>-389.65</v>
       </c>
     </row>
     <row r="23">
@@ -5051,17 +4891,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>8.144</v>
+        <v>8.833</v>
       </c>
       <c r="O23" t="n">
-        <v>-1628.8</v>
+        <v>-1766.6</v>
       </c>
       <c r="P23" t="n">
         <v>6.3929546</v>
@@ -5073,7 +4913,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>-350.20908</v>
+        <v>-488.00908</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5086,7 +4926,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1628.8</v>
+        <v>-1766.6</v>
       </c>
     </row>
     <row r="24">
@@ -5141,17 +4981,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>8.074999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>-1615</v>
+        <v>-1776</v>
       </c>
       <c r="P24" t="n">
         <v>7.3496796</v>
@@ -5163,7 +5003,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S24" t="n">
-        <v>-145.06408</v>
+        <v>-306.06408</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5176,7 +5016,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-1615</v>
+        <v>-1776</v>
       </c>
     </row>
   </sheetData>
@@ -5228,17 +5068,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$262,144.47</t>
+          <t>$225,632.12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$179,638.25</t>
+          <t>$211,298.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$441,782.72</t>
+          <t>$436,930.11</t>
         </is>
       </c>
     </row>
@@ -5250,17 +5090,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$383,736.62</t>
+          <t>$382,128.97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$176,932.64</t>
+          <t>$176,665.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$560,669.26</t>
+          <t>$558,794.35</t>
         </is>
       </c>
     </row>
@@ -5278,17 +5118,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$645,881.09</t>
+          <t>$607,761.09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$356,570.89</t>
+          <t>$387,963.37</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,002,451.98</t>
+          <t>$995,724.46</t>
         </is>
       </c>
     </row>
@@ -5341,11 +5181,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-05 23:50:20</t>
+          <t>2026-02-06 23:51:16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>23</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>395.65</v>
+        <v>399.2</v>
       </c>
       <c r="O2" t="n">
-        <v>19782.5</v>
+        <v>19960</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1120.50481</v>
+        <v>-943.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25420.5125</v>
+        <v>25730.436</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>4500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5095</v>
+        <v>3.547</v>
       </c>
       <c r="O3" t="n">
-        <v>15792.75</v>
+        <v>15961.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.58108965</v>
@@ -692,7 +692,7 @@
         <v>16114.903425</v>
       </c>
       <c r="S3" t="n">
-        <v>-322.153425</v>
+        <v>-153.403425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20293.68375</v>
+        <v>20575.96965</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>63.45</v>
+        <v>64.13</v>
       </c>
       <c r="O4" t="n">
-        <v>9517.5</v>
+        <v>9619.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-184.28</v>
+        <v>-82.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12229.9875</v>
+        <v>12400.49745</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14407</v>
+        <v>0.1443</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.36</v>
+        <v>31.22</v>
       </c>
       <c r="O5" t="n">
-        <v>62720</v>
+        <v>62440</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>388.40102</v>
+        <v>108.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9036.070400000001</v>
+        <v>9010.092000000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1778</v>
+        <v>1.1818</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3925</v>
+        <v>4.4475</v>
       </c>
       <c r="O6" t="n">
-        <v>17570</v>
+        <v>17790</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1078.67968</v>
+        <v>-858.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20693.946</v>
+        <v>21024.222</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78408</v>
+        <v>0.78666</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.05</v>
+        <v>5.02</v>
       </c>
       <c r="O7" t="n">
-        <v>25250</v>
+        <v>25100</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2543.78755</v>
+        <v>2393.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19798.02</v>
+        <v>19745.166</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78408</v>
+        <v>0.78666</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>573.7</v>
+        <v>568.5</v>
       </c>
       <c r="O8" t="n">
-        <v>5737</v>
+        <v>5685</v>
       </c>
       <c r="P8" t="n">
         <v>564.3551232</v>
@@ -1092,7 +1092,7 @@
         <v>5643.551232</v>
       </c>
       <c r="S8" t="n">
-        <v>93.448768</v>
+        <v>41.448768</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4498.26696</v>
+        <v>4472.1621</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>47.97</v>
+        <v>50.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2398.5</v>
+        <v>2528.5</v>
       </c>
       <c r="P9" t="n">
         <v>46.285022</v>
@@ -1172,7 +1172,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S9" t="n">
-        <v>84.24890000000001</v>
+        <v>214.2489</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2398.5</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>10.6</v>
+        <v>10.99</v>
       </c>
       <c r="O10" t="n">
-        <v>1060</v>
+        <v>1099</v>
       </c>
       <c r="P10" t="n">
         <v>12.49</v>
@@ -1252,7 +1252,7 @@
         <v>1249</v>
       </c>
       <c r="S10" t="n">
-        <v>-189</v>
+        <v>-150</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1060</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>1419.6</v>
+        <v>1430.8</v>
       </c>
       <c r="O11" t="n">
-        <v>21294</v>
+        <v>21462</v>
       </c>
       <c r="P11" t="n">
         <v>1474.989023133</v>
@@ -1332,7 +1332,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S11" t="n">
-        <v>-830.835347</v>
+        <v>-662.835347</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>21294</v>
+        <v>21462</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>9.172499999999999</v>
+        <v>9.157500000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>9172.5</v>
+        <v>9157.5</v>
       </c>
       <c r="P12" t="n">
         <v>9.424709999999999</v>
@@ -1412,7 +1412,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>-252.21</v>
+        <v>-267.21</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9172.5</v>
+        <v>9157.5</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>385</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9888</v>
+        <v>27.2154</v>
       </c>
       <c r="O13" t="n">
-        <v>10390.69</v>
+        <v>10477.93</v>
       </c>
       <c r="P13" t="n">
         <v>26.012734603</v>
@@ -1492,7 +1492,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S13" t="n">
-        <v>375.787178</v>
+        <v>463.027178</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>10390.69</v>
+        <v>10477.93</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>36.71</v>
+        <v>37.44</v>
       </c>
       <c r="O14" t="n">
-        <v>3671</v>
+        <v>3744</v>
       </c>
       <c r="P14" t="n">
         <v>35.26000011</v>
@@ -1572,7 +1572,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S14" t="n">
-        <v>144.999989</v>
+        <v>217.999989</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3671</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>9.489000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="O15" t="n">
-        <v>9489</v>
+        <v>9545</v>
       </c>
       <c r="P15" t="n">
         <v>10.2267108</v>
@@ -1652,7 +1652,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S15" t="n">
-        <v>-737.7107999999999</v>
+        <v>-681.7107999999999</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9489</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>136.48</v>
+        <v>142.82</v>
       </c>
       <c r="O16" t="n">
-        <v>13648</v>
+        <v>14282</v>
       </c>
       <c r="P16" t="n">
         <v>205.3357044</v>
@@ -1732,7 +1732,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S16" t="n">
-        <v>-6885.57044</v>
+        <v>-6251.57044</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>13648</v>
+        <v>14282</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>108.57</v>
+        <v>108.54</v>
       </c>
       <c r="O17" t="n">
-        <v>2171.4</v>
+        <v>2170.8</v>
       </c>
       <c r="P17" t="n">
         <v>124.315</v>
@@ -1812,7 +1812,7 @@
         <v>2486.3</v>
       </c>
       <c r="S17" t="n">
-        <v>-314.9</v>
+        <v>-315.5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2171.4</v>
+        <v>2170.8</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>172.7</v>
+        <v>174.68</v>
       </c>
       <c r="O18" t="n">
-        <v>34540</v>
+        <v>34936</v>
       </c>
       <c r="P18" t="n">
         <v>171.74192805</v>
@@ -1892,7 +1892,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S18" t="n">
-        <v>191.61439</v>
+        <v>587.61439</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>34540</v>
+        <v>34936</v>
       </c>
     </row>
     <row r="19">
@@ -1960,17 +1960,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>32.3184</v>
+        <v>27.7588</v>
       </c>
       <c r="O19" t="n">
-        <v>6463.68</v>
+        <v>5551.76</v>
       </c>
       <c r="P19" t="n">
         <v>23.4605</v>
@@ -1982,7 +1982,7 @@
         <v>4692.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1771.58</v>
+        <v>859.66</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>6463.68</v>
+        <v>5551.76</v>
       </c>
     </row>
     <row r="20">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>24.495</v>
+        <v>21.01</v>
       </c>
       <c r="O20" t="n">
-        <v>4899</v>
+        <v>4202</v>
       </c>
       <c r="P20" t="n">
         <v>20.1374875</v>
@@ -2072,7 +2072,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S20" t="n">
-        <v>871.5025000000001</v>
+        <v>174.5025</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4899</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="21">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>16.5</v>
+        <v>2.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1650</v>
+        <v>225</v>
       </c>
       <c r="P21" t="n">
         <v>31.5284</v>
@@ -2162,7 +2162,7 @@
         <v>3152.84</v>
       </c>
       <c r="S21" t="n">
-        <v>-1502.84</v>
+        <v>-2927.84</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1650</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3133</v>
+        <v>4.825</v>
       </c>
       <c r="O23" t="n">
-        <v>-431.33</v>
+        <v>-482.5</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2342,7 +2342,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>291.61546</v>
+        <v>240.44546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-431.33</v>
+        <v>-482.5</v>
       </c>
     </row>
     <row r="24">
@@ -2410,17 +2410,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.775</v>
+        <v>0.485</v>
       </c>
       <c r="O24" t="n">
-        <v>-177.5</v>
+        <v>-48.5</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2432,7 +2432,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>387.44546</v>
+        <v>516.44546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-177.5</v>
+        <v>-48.5</v>
       </c>
     </row>
     <row r="25">
@@ -2469,17 +2469,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ORCL  260213C00175000</t>
+          <t>NVDA  260227P00175000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ORCL 13FEB26 175 C</t>
+          <t>NVDA 27FEB26 175 P</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2490,39 +2490,39 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1525</v>
+        <v>4.75</v>
       </c>
       <c r="O25" t="n">
-        <v>-15.25</v>
+        <v>-950</v>
       </c>
       <c r="P25" t="n">
-        <v>3.3094546</v>
+        <v>4.6464796</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.3094546</v>
+        <v>4.6464796</v>
       </c>
       <c r="R25" t="n">
-        <v>-330.94546</v>
+        <v>-929.29592</v>
       </c>
       <c r="S25" t="n">
-        <v>315.69546</v>
+        <v>-20.70408</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-15.25</v>
+        <v>-950</v>
       </c>
     </row>
     <row r="26">
@@ -2564,19 +2564,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ORCL  260220C00200000</t>
+          <t>ORCL  260220C00160000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 200 C</t>
+          <t>ORCL 20FEB26 160 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2590,29 +2590,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0946</v>
+        <v>1.385</v>
       </c>
       <c r="O26" t="n">
-        <v>-9.460000000000001</v>
+        <v>-138.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3894796</v>
+        <v>1.0819796</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3894796</v>
+        <v>1.0819796</v>
       </c>
       <c r="R26" t="n">
-        <v>-238.94796</v>
+        <v>-108.19796</v>
       </c>
       <c r="S26" t="n">
-        <v>229.48796</v>
+        <v>-30.30204</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-9.460000000000001</v>
+        <v>-138.5</v>
       </c>
     </row>
     <row r="27">
@@ -2680,17 +2680,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.833</v>
+        <v>7.383</v>
       </c>
       <c r="O27" t="n">
-        <v>-1766.6</v>
+        <v>-1476.6</v>
       </c>
       <c r="P27" t="n">
         <v>6.3644671</v>
@@ -2702,7 +2702,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S27" t="n">
-        <v>-493.70658</v>
+        <v>-203.70658</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1766.6</v>
+        <v>-1476.6</v>
       </c>
     </row>
     <row r="28">
@@ -2770,17 +2770,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>8.880000000000001</v>
+        <v>7.665</v>
       </c>
       <c r="O28" t="n">
-        <v>-1776</v>
+        <v>-1533</v>
       </c>
       <c r="P28" t="n">
         <v>7.3548796</v>
@@ -2792,7 +2792,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S28" t="n">
-        <v>-305.02408</v>
+        <v>-62.02408</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-1776</v>
+        <v>-1533</v>
       </c>
     </row>
     <row r="29">
@@ -2860,17 +2860,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>30</v>
+        <v>4.6</v>
       </c>
       <c r="O29" t="n">
-        <v>-3000</v>
+        <v>-460</v>
       </c>
       <c r="P29" t="n">
         <v>42.2216</v>
@@ -2882,7 +2882,7 @@
         <v>-4222.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1222.16</v>
+        <v>3762.16</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-3000</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="30">
@@ -2950,17 +2950,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O30" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="P30" t="n">
         <v>18.9716</v>
@@ -2972,7 +2972,7 @@
         <v>-1897.16</v>
       </c>
       <c r="S30" t="n">
-        <v>1882.16</v>
+        <v>1887.16</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3161,17 +3161,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>395.65</v>
+        <v>399.2</v>
       </c>
       <c r="O2" t="n">
-        <v>19782.5</v>
+        <v>19960</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3183,7 +3183,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1200.456235</v>
+        <v>-1022.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25420.5125</v>
+        <v>25730.436</v>
       </c>
     </row>
     <row r="3">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3241,17 +3241,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5095</v>
+        <v>3.547</v>
       </c>
       <c r="O3" t="n">
-        <v>19302.25</v>
+        <v>19508.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3263,7 +3263,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-371.732075</v>
+        <v>-165.482075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>24803.39125</v>
+        <v>25148.40735</v>
       </c>
     </row>
     <row r="4">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.285</v>
+        <v>1.2891</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3321,17 +3321,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>63.45</v>
+        <v>64.13</v>
       </c>
       <c r="O4" t="n">
-        <v>12690</v>
+        <v>12826</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3343,7 +3343,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-234.69912</v>
+        <v>-98.69911999999999</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16306.65</v>
+        <v>16533.9966</v>
       </c>
     </row>
     <row r="5">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14407</v>
+        <v>0.1443</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3401,17 +3401,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.36</v>
+        <v>31.22</v>
       </c>
       <c r="O5" t="n">
-        <v>62720</v>
+        <v>62440</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3423,7 +3423,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-672.47719</v>
+        <v>-952.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9036.070400000001</v>
+        <v>9010.092000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1778</v>
+        <v>1.1818</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3481,17 +3481,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3925</v>
+        <v>4.4475</v>
       </c>
       <c r="O6" t="n">
-        <v>17570</v>
+        <v>17790</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3503,7 +3503,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1065.313</v>
+        <v>-845.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20693.946</v>
+        <v>21024.222</v>
       </c>
     </row>
     <row r="7">
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1778</v>
+        <v>1.1818</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3561,17 +3561,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.47</v>
+        <v>49.7</v>
       </c>
       <c r="O7" t="n">
-        <v>49470</v>
+        <v>49700</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3583,7 +3583,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6460</v>
+        <v>6690</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58265.766</v>
+        <v>58735.46</v>
       </c>
     </row>
     <row r="8">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78408</v>
+        <v>0.78666</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3641,17 +3641,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.05</v>
+        <v>5.02</v>
       </c>
       <c r="O8" t="n">
-        <v>50500</v>
+        <v>50200</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3663,7 +3663,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12381.8184</v>
+        <v>12081.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39596.04</v>
+        <v>39490.332</v>
       </c>
     </row>
     <row r="9">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78408</v>
+        <v>0.78666</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3721,17 +3721,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>573.7</v>
+        <v>568.5</v>
       </c>
       <c r="O9" t="n">
-        <v>5737</v>
+        <v>5685</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3743,7 +3743,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>29.53768</v>
+        <v>-22.46232</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4498.26696</v>
+        <v>4472.1621</v>
       </c>
     </row>
     <row r="10">
@@ -3801,17 +3801,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="O10" t="n">
-        <v>1760</v>
+        <v>1938</v>
       </c>
       <c r="P10" t="n">
         <v>12.7</v>
@@ -3823,7 +3823,7 @@
         <v>2540</v>
       </c>
       <c r="S10" t="n">
-        <v>-780</v>
+        <v>-602</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1760</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="11">
@@ -3881,17 +3881,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1419.6</v>
+        <v>1430.8</v>
       </c>
       <c r="O11" t="n">
-        <v>28392</v>
+        <v>28616</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -3903,7 +3903,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-948.5410000000001</v>
+        <v>-724.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28392</v>
+        <v>28616</v>
       </c>
     </row>
     <row r="12">
@@ -3961,17 +3961,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>331.25</v>
+        <v>322.86</v>
       </c>
       <c r="O12" t="n">
-        <v>33125</v>
+        <v>32286</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -3983,7 +3983,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-62.755</v>
+        <v>-901.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>33125</v>
+        <v>32286</v>
       </c>
     </row>
     <row r="13">
@@ -4041,17 +4041,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1000</v>
       </c>
       <c r="N13" t="n">
-        <v>9.172499999999999</v>
+        <v>9.157500000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>9172.5</v>
+        <v>9157.5</v>
       </c>
       <c r="P13" t="n">
         <v>9.405900600000001</v>
@@ -4063,7 +4063,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S13" t="n">
-        <v>-233.4006</v>
+        <v>-248.4006</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9172.5</v>
+        <v>9157.5</v>
       </c>
     </row>
     <row r="14">
@@ -4121,17 +4121,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>69.48999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="O14" t="n">
-        <v>1170.55</v>
+        <v>1256.45</v>
       </c>
       <c r="P14" t="n">
         <v>20.721325216</v>
@@ -4143,7 +4143,7 @@
         <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>821.503421</v>
+        <v>907.403421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1170.55</v>
+        <v>1256.45</v>
       </c>
     </row>
     <row r="15">
@@ -4201,17 +4201,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>26.9888</v>
+        <v>27.2154</v>
       </c>
       <c r="O15" t="n">
-        <v>10390.69</v>
+        <v>10477.93</v>
       </c>
       <c r="P15" t="n">
         <v>25.997158151</v>
@@ -4223,7 +4223,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>381.784112</v>
+        <v>469.024112</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10390.69</v>
+        <v>10477.93</v>
       </c>
     </row>
     <row r="16">
@@ -4281,17 +4281,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>310.16</v>
+        <v>322.4</v>
       </c>
       <c r="O16" t="n">
-        <v>31016</v>
+        <v>32240</v>
       </c>
       <c r="P16" t="n">
         <v>298.02</v>
@@ -4303,7 +4303,7 @@
         <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>1214</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>31016</v>
+        <v>32240</v>
       </c>
     </row>
     <row r="17">
@@ -4361,17 +4361,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.489000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="O17" t="n">
-        <v>9489</v>
+        <v>9545</v>
       </c>
       <c r="P17" t="n">
         <v>10.229112</v>
@@ -4383,7 +4383,7 @@
         <v>10229.112</v>
       </c>
       <c r="S17" t="n">
-        <v>-740.112</v>
+        <v>-684.112</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9489</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="18">
@@ -4441,17 +4441,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>172.7</v>
+        <v>174.68</v>
       </c>
       <c r="O18" t="n">
-        <v>51810</v>
+        <v>52404</v>
       </c>
       <c r="P18" t="n">
         <v>172.7421946</v>
@@ -4463,7 +4463,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S18" t="n">
-        <v>-12.65838</v>
+        <v>581.34162</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>51810</v>
+        <v>52404</v>
       </c>
     </row>
     <row r="19">
@@ -4531,17 +4531,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>32.3184</v>
+        <v>27.7588</v>
       </c>
       <c r="O19" t="n">
-        <v>6463.68</v>
+        <v>5551.76</v>
       </c>
       <c r="P19" t="n">
         <v>23.5270125</v>
@@ -4553,7 +4553,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S19" t="n">
-        <v>1758.2775</v>
+        <v>846.3575</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>6463.68</v>
+        <v>5551.76</v>
       </c>
     </row>
     <row r="20">
@@ -4621,17 +4621,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>24.495</v>
+        <v>21.01</v>
       </c>
       <c r="O20" t="n">
-        <v>4899</v>
+        <v>4202</v>
       </c>
       <c r="P20" t="n">
         <v>20.1350875</v>
@@ -4643,7 +4643,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S20" t="n">
-        <v>871.9825</v>
+        <v>174.9825</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4899</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="21">
@@ -4680,60 +4680,60 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOOGL 260206C00335000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GOOGL 06FEB26 335 C</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>-1</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4784</v>
+        <v>4.675</v>
       </c>
       <c r="O21" t="n">
-        <v>-247.84</v>
+        <v>-467.5</v>
       </c>
       <c r="P21" t="n">
-        <v>10.0494796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.0494796</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R21" t="n">
-        <v>-1004.94796</v>
+        <v>-872.94796</v>
       </c>
       <c r="S21" t="n">
-        <v>757.10796</v>
+        <v>405.44796</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-247.84</v>
+        <v>-467.5</v>
       </c>
     </row>
     <row r="22">
@@ -4775,23 +4775,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4801,29 +4801,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8965</v>
+        <v>7.383</v>
       </c>
       <c r="O22" t="n">
-        <v>-389.65</v>
+        <v>-1476.6</v>
       </c>
       <c r="P22" t="n">
-        <v>8.729479599999999</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.729479599999999</v>
+        <v>6.3929546</v>
       </c>
       <c r="R22" t="n">
-        <v>-872.94796</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S22" t="n">
-        <v>483.29796</v>
+        <v>-198.00908</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-389.65</v>
+        <v>-1476.6</v>
       </c>
     </row>
     <row r="23">
@@ -4865,19 +4865,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -4891,29 +4891,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>8.833</v>
+        <v>7.665</v>
       </c>
       <c r="O23" t="n">
-        <v>-1766.6</v>
+        <v>-1533</v>
       </c>
       <c r="P23" t="n">
-        <v>6.3929546</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.3929546</v>
+        <v>7.3496796</v>
       </c>
       <c r="R23" t="n">
-        <v>-1278.59092</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S23" t="n">
-        <v>-488.00908</v>
+        <v>-63.06408</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -4926,97 +4926,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1766.6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>505</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-1776</v>
-      </c>
-      <c r="P24" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-306.06408</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>-1776</v>
+        <v>-1533</v>
       </c>
     </row>
   </sheetData>
@@ -5068,17 +4978,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$225,632.12</t>
+          <t>$227,245.94</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$211,298.00</t>
+          <t>$212,640.40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$436,930.11</t>
+          <t>$439,886.34</t>
         </is>
       </c>
     </row>
@@ -5090,17 +5000,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$382,128.97</t>
+          <t>$384,342.65</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$176,665.37</t>
+          <t>$177,145.94</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$558,794.35</t>
+          <t>$561,488.59</t>
         </is>
       </c>
     </row>
@@ -5118,17 +5028,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$607,761.09</t>
+          <t>$611,588.58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$387,963.37</t>
+          <t>$389,786.34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$995,724.46</t>
+          <t>$1,001,374.92</t>
         </is>
       </c>
     </row>
@@ -5181,14 +5091,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-06 23:51:16</t>
+          <t>2026-02-07 23:57:51</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5091,7 +5091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-07 23:57:51</t>
+          <t>2026-02-08 23:55:44</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5091,7 +5091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-08 23:55:44</t>
+          <t>2026-02-10 00:02:57</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>399.2</v>
+        <v>404.3</v>
       </c>
       <c r="O2" t="n">
-        <v>19960</v>
+        <v>20215</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-943.00481</v>
+        <v>-688.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25730.436</v>
+        <v>26384.618</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,29 +670,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.547</v>
+        <v>3.5815</v>
       </c>
       <c r="O3" t="n">
-        <v>15961.5</v>
+        <v>23279.75</v>
       </c>
       <c r="P3" t="n">
-        <v>3.58108965</v>
+        <v>3.577615912</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.58108965</v>
+        <v>3.577615912</v>
       </c>
       <c r="R3" t="n">
-        <v>16114.903425</v>
+        <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>-153.403425</v>
+        <v>25.246575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>20575.96965</v>
+        <v>30384.7297</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.13</v>
+        <v>64.28</v>
       </c>
       <c r="O4" t="n">
-        <v>9619.5</v>
+        <v>9642</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-82.28</v>
+        <v>-59.78</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12400.49745</v>
+        <v>12584.7384</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1443</v>
+        <v>0.14461</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.22</v>
+        <v>31.66</v>
       </c>
       <c r="O5" t="n">
-        <v>62440</v>
+        <v>63320</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>108.40102</v>
+        <v>988.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9010.092000000001</v>
+        <v>9156.705199999999</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1818</v>
+        <v>1.1916</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4475</v>
+        <v>4.4615</v>
       </c>
       <c r="O6" t="n">
-        <v>17790</v>
+        <v>17846</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-858.67968</v>
+        <v>-802.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21024.222</v>
+        <v>21265.2936</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78666</v>
+        <v>0.79034</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.02</v>
+        <v>5.036</v>
       </c>
       <c r="O7" t="n">
-        <v>25100</v>
+        <v>25180</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2393.78755</v>
+        <v>2473.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19745.166</v>
+        <v>19900.7612</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78666</v>
+        <v>0.79034</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>568.5</v>
+        <v>587</v>
       </c>
       <c r="O8" t="n">
-        <v>5685</v>
+        <v>11740</v>
       </c>
       <c r="P8" t="n">
-        <v>564.3551232</v>
+        <v>574.5512735999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>564.3551232</v>
+        <v>574.5512735999999</v>
       </c>
       <c r="R8" t="n">
-        <v>5643.551232</v>
+        <v>11491.025472</v>
       </c>
       <c r="S8" t="n">
-        <v>41.448768</v>
+        <v>248.974528</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4472.1621</v>
+        <v>9278.5916</v>
       </c>
     </row>
     <row r="9">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>50.57</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>2528.5</v>
+        <v>978</v>
       </c>
       <c r="P9" t="n">
-        <v>46.285022</v>
+        <v>9.705</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.285022</v>
+        <v>9.705</v>
       </c>
       <c r="R9" t="n">
-        <v>2314.2511</v>
+        <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>214.2489</v>
+        <v>7.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2528.5</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CELH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>CELSIUS HOLDINGS INC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>10.99</v>
+        <v>47.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1099</v>
+        <v>2390</v>
       </c>
       <c r="P10" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.49</v>
+        <v>46.285022</v>
       </c>
       <c r="R10" t="n">
-        <v>1249</v>
+        <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-150</v>
+        <v>75.74890000000001</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1099</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>CHAGEE HOLDINGS LTD-ADR</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>1430.8</v>
+        <v>10.69</v>
       </c>
       <c r="O11" t="n">
-        <v>21462</v>
+        <v>1069</v>
       </c>
       <c r="P11" t="n">
-        <v>1474.989023133</v>
+        <v>12.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>1474.989023133</v>
+        <v>12.49</v>
       </c>
       <c r="R11" t="n">
-        <v>22124.835347</v>
+        <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-662.835347</v>
+        <v>-180</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>21462</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>9.157500000000001</v>
+        <v>1446.6</v>
       </c>
       <c r="O12" t="n">
-        <v>9157.5</v>
+        <v>21699</v>
       </c>
       <c r="P12" t="n">
-        <v>9.424709999999999</v>
+        <v>1474.989023133</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.424709999999999</v>
+        <v>1474.989023133</v>
       </c>
       <c r="R12" t="n">
-        <v>9424.709999999999</v>
+        <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-267.21</v>
+        <v>-425.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9157.5</v>
+        <v>21699</v>
       </c>
     </row>
     <row r="13">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>27.2154</v>
+        <v>60.12</v>
       </c>
       <c r="O13" t="n">
-        <v>10477.93</v>
+        <v>4809.6</v>
       </c>
       <c r="P13" t="n">
-        <v>26.012734603</v>
+        <v>59.41</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.012734603</v>
+        <v>59.41</v>
       </c>
       <c r="R13" t="n">
-        <v>10014.902822</v>
+        <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>463.027178</v>
+        <v>56.8</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>10477.93</v>
+        <v>4809.6</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>37.44</v>
+        <v>9.1775</v>
       </c>
       <c r="O14" t="n">
-        <v>3744</v>
+        <v>9177.5</v>
       </c>
       <c r="P14" t="n">
-        <v>35.26000011</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.26000011</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>3526.000011</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>217.999989</v>
+        <v>-247.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3744</v>
+        <v>9177.5</v>
       </c>
     </row>
     <row r="15">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>9.545</v>
+        <v>28.0167</v>
       </c>
       <c r="O15" t="n">
-        <v>9545</v>
+        <v>10786.43</v>
       </c>
       <c r="P15" t="n">
-        <v>10.2267108</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.2267108</v>
+        <v>26.012734603</v>
       </c>
       <c r="R15" t="n">
-        <v>10226.7108</v>
+        <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>-681.7107999999999</v>
+        <v>771.527178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9545</v>
+        <v>10786.43</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>142.82</v>
+        <v>37.4</v>
       </c>
       <c r="O16" t="n">
-        <v>14282</v>
+        <v>3740</v>
       </c>
       <c r="P16" t="n">
-        <v>205.3357044</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.3357044</v>
+        <v>35.26000011</v>
       </c>
       <c r="R16" t="n">
-        <v>20533.57044</v>
+        <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>-6251.57044</v>
+        <v>213.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>14282</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>108.54</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>2170.8</v>
+        <v>9790</v>
       </c>
       <c r="P17" t="n">
-        <v>124.315</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.315</v>
+        <v>10.2267108</v>
       </c>
       <c r="R17" t="n">
-        <v>2486.3</v>
+        <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-315.5</v>
+        <v>-436.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2170.8</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="18">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>174.68</v>
+        <v>156.59</v>
       </c>
       <c r="O18" t="n">
-        <v>34936</v>
+        <v>15659</v>
       </c>
       <c r="P18" t="n">
-        <v>171.74192805</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.74192805</v>
+        <v>205.3357044</v>
       </c>
       <c r="R18" t="n">
-        <v>34348.38561</v>
+        <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>587.61439</v>
+        <v>-4874.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>34936</v>
+        <v>15659</v>
       </c>
     </row>
     <row r="19">
@@ -1924,65 +1924,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>560</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>27.7588</v>
+        <v>108.86</v>
       </c>
       <c r="O19" t="n">
-        <v>5551.76</v>
+        <v>2177.2</v>
       </c>
       <c r="P19" t="n">
-        <v>23.4605</v>
+        <v>124.315</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.4605</v>
+        <v>124.315</v>
       </c>
       <c r="R19" t="n">
-        <v>4692.1</v>
+        <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>859.66</v>
+        <v>-309.1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1991,11 +1981,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5551.76</v>
+        <v>2177.2</v>
       </c>
     </row>
     <row r="20">
@@ -2014,65 +2004,55 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>620</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>21.01</v>
+        <v>176.7</v>
       </c>
       <c r="O20" t="n">
-        <v>4202</v>
+        <v>35340</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1374875</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.1374875</v>
+        <v>171.74192805</v>
       </c>
       <c r="R20" t="n">
-        <v>4027.4975</v>
+        <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>174.5025</v>
+        <v>991.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2081,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4202</v>
+        <v>35340</v>
       </c>
     </row>
     <row r="21">
@@ -2104,7 +2084,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2114,23 +2094,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EW2G6 P6525</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6525 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>6525</v>
+        <v>560</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2140,29 +2120,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>26.378</v>
       </c>
       <c r="O21" t="n">
-        <v>225</v>
+        <v>5275.6</v>
       </c>
       <c r="P21" t="n">
-        <v>31.5284</v>
+        <v>23.4605</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.5284</v>
+        <v>23.4605</v>
       </c>
       <c r="R21" t="n">
-        <v>3152.84</v>
+        <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>-2927.84</v>
+        <v>583.5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2171,11 +2151,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>225</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="22">
@@ -2194,65 +2174,65 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EW2G6 C7300</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7300 C</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>7300</v>
+        <v>620</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05</v>
+        <v>20.26</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>4052</v>
       </c>
       <c r="P22" t="n">
-        <v>8.0284</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.0284</v>
+        <v>20.1374875</v>
       </c>
       <c r="R22" t="n">
-        <v>802.84</v>
+        <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>-797.84</v>
+        <v>24.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2261,11 +2241,11 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="23">
@@ -2320,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>4.825</v>
+        <v>3.7183</v>
       </c>
       <c r="O23" t="n">
-        <v>-482.5</v>
+        <v>-371.83</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2342,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>240.44546</v>
+        <v>351.11546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2355,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-482.5</v>
+        <v>-371.83</v>
       </c>
     </row>
     <row r="24">
@@ -2410,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.485</v>
+        <v>0.34</v>
       </c>
       <c r="O24" t="n">
-        <v>-48.5</v>
+        <v>-34</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2432,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>516.44546</v>
+        <v>530.94546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2445,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-48.5</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="25">
@@ -2474,19 +2454,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NVDA  260227P00175000</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NVDA 27FEB26 175 P</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2500,29 +2480,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>4.75</v>
+        <v>1.88</v>
       </c>
       <c r="O25" t="n">
-        <v>-950</v>
+        <v>-376</v>
       </c>
       <c r="P25" t="n">
-        <v>4.6464796</v>
+        <v>1.8129546</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.6464796</v>
+        <v>1.8129546</v>
       </c>
       <c r="R25" t="n">
-        <v>-929.29592</v>
+        <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-20.70408</v>
+        <v>-13.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2535,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-950</v>
+        <v>-376</v>
       </c>
     </row>
     <row r="26">
@@ -2564,23 +2544,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ORCL  260220C00160000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ORCL 20FEB26 160 C</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2590,29 +2570,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.385</v>
+        <v>1.28</v>
       </c>
       <c r="O26" t="n">
-        <v>-138.5</v>
+        <v>-256</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0819796</v>
+        <v>1.3029546</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.0819796</v>
+        <v>1.3029546</v>
       </c>
       <c r="R26" t="n">
-        <v>-108.19796</v>
+        <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-30.30204</v>
+        <v>4.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2625,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-138.5</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="27">
@@ -2654,23 +2634,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>NVDA  260227P00175000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>NVDA 27FEB26 175 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2680,29 +2660,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.383</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>-1476.6</v>
+        <v>-650</v>
       </c>
       <c r="P27" t="n">
-        <v>6.3644671</v>
+        <v>4.6464796</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.3644671</v>
+        <v>4.6464796</v>
       </c>
       <c r="R27" t="n">
-        <v>-1272.89342</v>
+        <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>-203.70658</v>
+        <v>279.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2715,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1476.6</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="28">
@@ -2744,23 +2724,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>ORCL  260227P00140000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>ORCL 27FEB26 140 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>505</v>
+        <v>140</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2770,29 +2750,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>7.665</v>
+        <v>2.6266</v>
       </c>
       <c r="O28" t="n">
-        <v>-1533</v>
+        <v>-262.66</v>
       </c>
       <c r="P28" t="n">
-        <v>7.3548796</v>
+        <v>2.4919796</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.3548796</v>
+        <v>2.4919796</v>
       </c>
       <c r="R28" t="n">
-        <v>-1470.97592</v>
+        <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>-62.02408</v>
+        <v>-13.46204</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2805,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-1533</v>
+        <v>-262.66</v>
       </c>
     </row>
     <row r="29">
@@ -2824,7 +2804,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2834,23 +2814,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EW2G6 P6625</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ES 13FEB26 6625 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>6625</v>
+        <v>425</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2860,29 +2840,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>7.036</v>
       </c>
       <c r="O29" t="n">
-        <v>-460</v>
+        <v>-1407.2</v>
       </c>
       <c r="P29" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.2216</v>
+        <v>6.3644671</v>
       </c>
       <c r="R29" t="n">
-        <v>-4222.16</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S29" t="n">
-        <v>3762.16</v>
+        <v>-134.30658</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2891,11 +2871,11 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-460</v>
+        <v>-1407.2</v>
       </c>
     </row>
     <row r="30">
@@ -2914,65 +2894,65 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EW2G6 C7200</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ES 13FEB26 7200 C</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>7200</v>
+        <v>377.5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1</v>
+        <v>4.5802</v>
       </c>
       <c r="O30" t="n">
-        <v>-10</v>
+        <v>-916.04</v>
       </c>
       <c r="P30" t="n">
-        <v>18.9716</v>
+        <v>4.3429546</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.9716</v>
+        <v>4.3429546</v>
       </c>
       <c r="R30" t="n">
-        <v>-1897.16</v>
+        <v>-868.59092</v>
       </c>
       <c r="S30" t="n">
-        <v>1887.16</v>
+        <v>-47.44908</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2981,11 +2961,191 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-10</v>
+        <v>-916.04</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SMH   260227C00437500</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 437.5 C</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.4829</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-696.58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-702.59092</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6.01092</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>-696.58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>505</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-1488</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.3548796</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-1470.97592</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-17.02408</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-1488</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3131,7 +3291,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3161,17 +3321,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>399.2</v>
+        <v>404.3</v>
       </c>
       <c r="O2" t="n">
-        <v>19960</v>
+        <v>20215</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3183,7 +3343,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1022.956235</v>
+        <v>-767.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3196,7 +3356,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25730.436</v>
+        <v>26384.618</v>
       </c>
     </row>
     <row r="3">
@@ -3211,7 +3371,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3241,17 +3401,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.547</v>
+        <v>3.5815</v>
       </c>
       <c r="O3" t="n">
-        <v>19508.5</v>
+        <v>19698.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3263,7 +3423,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-165.482075</v>
+        <v>24.267925</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3276,7 +3436,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25148.40735</v>
+        <v>25710.1559</v>
       </c>
     </row>
     <row r="4">
@@ -3291,7 +3451,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2891</v>
+        <v>1.3052</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3321,17 +3481,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.13</v>
+        <v>64.28</v>
       </c>
       <c r="O4" t="n">
-        <v>12826</v>
+        <v>12856</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3343,7 +3503,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-98.69911999999999</v>
+        <v>-68.69911999999999</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3356,7 +3516,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16533.9966</v>
+        <v>16779.6512</v>
       </c>
     </row>
     <row r="5">
@@ -3371,7 +3531,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1443</v>
+        <v>0.14461</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3401,17 +3561,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.22</v>
+        <v>31.66</v>
       </c>
       <c r="O5" t="n">
-        <v>62440</v>
+        <v>63320</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3423,7 +3583,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-952.47719</v>
+        <v>-72.47718999999999</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3436,7 +3596,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9010.092000000001</v>
+        <v>9156.705199999999</v>
       </c>
     </row>
     <row r="6">
@@ -3451,7 +3611,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1818</v>
+        <v>1.1916</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3481,17 +3641,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4475</v>
+        <v>4.4615</v>
       </c>
       <c r="O6" t="n">
-        <v>17790</v>
+        <v>17846</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3503,7 +3663,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-845.313</v>
+        <v>-789.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3516,7 +3676,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21024.222</v>
+        <v>21265.2936</v>
       </c>
     </row>
     <row r="7">
@@ -3531,7 +3691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1818</v>
+        <v>1.1916</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3561,17 +3721,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.7</v>
+        <v>50.58</v>
       </c>
       <c r="O7" t="n">
-        <v>49700</v>
+        <v>50580</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3583,7 +3743,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6690</v>
+        <v>7570</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3596,7 +3756,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58735.46</v>
+        <v>60271.128</v>
       </c>
     </row>
     <row r="8">
@@ -3611,7 +3771,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78666</v>
+        <v>0.79034</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3641,17 +3801,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.02</v>
+        <v>5.036</v>
       </c>
       <c r="O8" t="n">
-        <v>50200</v>
+        <v>50360</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3663,7 +3823,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12081.8184</v>
+        <v>12241.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3676,7 +3836,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39490.332</v>
+        <v>39801.5224</v>
       </c>
     </row>
     <row r="9">
@@ -3691,7 +3851,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78666</v>
+        <v>0.79034</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3721,17 +3881,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>568.5</v>
+        <v>587</v>
       </c>
       <c r="O9" t="n">
-        <v>5685</v>
+        <v>5870</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3743,7 +3903,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>-22.46232</v>
+        <v>162.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3756,7 +3916,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4472.1621</v>
+        <v>4639.2958</v>
       </c>
     </row>
     <row r="10">
@@ -3801,29 +3961,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.69</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1938</v>
+        <v>2934</v>
       </c>
       <c r="P10" t="n">
-        <v>12.7</v>
+        <v>11.661666667</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.7</v>
+        <v>11.661666667</v>
       </c>
       <c r="R10" t="n">
-        <v>2540</v>
+        <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-602</v>
+        <v>-564.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3836,7 +3996,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1938</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="11">
@@ -3881,17 +4041,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1430.8</v>
+        <v>1446.6</v>
       </c>
       <c r="O11" t="n">
-        <v>28616</v>
+        <v>28932</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -3903,7 +4063,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-724.5410000000001</v>
+        <v>-408.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -3916,7 +4076,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28616</v>
+        <v>28932</v>
       </c>
     </row>
     <row r="12">
@@ -3961,17 +4121,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>322.86</v>
+        <v>324.32</v>
       </c>
       <c r="O12" t="n">
-        <v>32286</v>
+        <v>32432</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -3983,7 +4143,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-901.755</v>
+        <v>-755.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -3996,7 +4156,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>32286</v>
+        <v>32432</v>
       </c>
     </row>
     <row r="13">
@@ -4025,12 +4185,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4041,29 +4201,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>9.157500000000001</v>
+        <v>60.12</v>
       </c>
       <c r="O13" t="n">
-        <v>9157.5</v>
+        <v>4809.6</v>
       </c>
       <c r="P13" t="n">
-        <v>9.405900600000001</v>
+        <v>60.13025</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.405900600000001</v>
+        <v>60.13025</v>
       </c>
       <c r="R13" t="n">
-        <v>9405.900600000001</v>
+        <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>-248.4006</v>
+        <v>-0.82</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4076,7 +4236,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9157.5</v>
+        <v>4809.6</v>
       </c>
     </row>
     <row r="14">
@@ -4100,17 +4260,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4121,29 +4281,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16.8448</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>74.59</v>
+        <v>9.1775</v>
       </c>
       <c r="O14" t="n">
-        <v>1256.45</v>
+        <v>9177.5</v>
       </c>
       <c r="P14" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.721325216</v>
+        <v>9.405900600000001</v>
       </c>
       <c r="R14" t="n">
-        <v>349.046579</v>
+        <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>907.403421</v>
+        <v>-228.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4152,11 +4312,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1256.45</v>
+        <v>9177.5</v>
       </c>
     </row>
     <row r="15">
@@ -4180,17 +4340,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4201,29 +4361,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>27.2154</v>
+        <v>78.42</v>
       </c>
       <c r="O15" t="n">
-        <v>10477.93</v>
+        <v>1320.97</v>
       </c>
       <c r="P15" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="R15" t="n">
-        <v>10008.905888</v>
+        <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>469.024112</v>
+        <v>971.923421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4232,11 +4392,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10477.93</v>
+        <v>1320.97</v>
       </c>
     </row>
     <row r="16">
@@ -4260,17 +4420,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4281,29 +4441,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>322.4</v>
+        <v>28.0167</v>
       </c>
       <c r="O16" t="n">
-        <v>32240</v>
+        <v>10786.43</v>
       </c>
       <c r="P16" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="R16" t="n">
-        <v>29802</v>
+        <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>777.5241119999999</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4312,11 +4472,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>32240</v>
+        <v>10786.43</v>
       </c>
     </row>
     <row r="17">
@@ -4340,17 +4500,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4361,29 +4521,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>9.545</v>
+        <v>322.1</v>
       </c>
       <c r="O17" t="n">
-        <v>9545</v>
+        <v>32210</v>
       </c>
       <c r="P17" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.229112</v>
+        <v>298.02</v>
       </c>
       <c r="R17" t="n">
-        <v>10229.112</v>
+        <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>-684.112</v>
+        <v>2408</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4392,11 +4552,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9545</v>
+        <v>32210</v>
       </c>
     </row>
     <row r="18">
@@ -4425,12 +4585,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -4441,29 +4601,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>174.68</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>52404</v>
+        <v>9790</v>
       </c>
       <c r="P18" t="n">
-        <v>172.7421946</v>
+        <v>10.229112</v>
       </c>
       <c r="Q18" t="n">
-        <v>172.7421946</v>
+        <v>10.229112</v>
       </c>
       <c r="R18" t="n">
-        <v>51822.65838</v>
+        <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>581.34162</v>
+        <v>-439.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4476,7 +4636,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>52404</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="19">
@@ -4495,65 +4655,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>560</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>27.7588</v>
+        <v>176.7</v>
       </c>
       <c r="O19" t="n">
-        <v>5551.76</v>
+        <v>53010</v>
       </c>
       <c r="P19" t="n">
-        <v>23.5270125</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.5270125</v>
+        <v>172.7421946</v>
       </c>
       <c r="R19" t="n">
-        <v>4705.4025</v>
+        <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>846.3575</v>
+        <v>1187.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4562,11 +4712,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5551.76</v>
+        <v>53010</v>
       </c>
     </row>
     <row r="20">
@@ -4595,19 +4745,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -4621,29 +4771,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>21.01</v>
+        <v>26.378</v>
       </c>
       <c r="O20" t="n">
-        <v>4202</v>
+        <v>5275.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1350875</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.1350875</v>
+        <v>23.5270125</v>
       </c>
       <c r="R20" t="n">
-        <v>4027.0175</v>
+        <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>174.9825</v>
+        <v>570.1975</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4656,7 +4806,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4202</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="21">
@@ -4685,23 +4835,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>315</v>
+        <v>620</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4711,33 +4861,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>4.675</v>
+        <v>20.26</v>
       </c>
       <c r="O21" t="n">
-        <v>-467.5</v>
+        <v>4052</v>
       </c>
       <c r="P21" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.729479599999999</v>
+        <v>20.1350875</v>
       </c>
       <c r="R21" t="n">
-        <v>-872.94796</v>
+        <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>405.44796</v>
+        <v>24.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4746,7 +4896,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-467.5</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="22">
@@ -4775,23 +4925,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>GOOGL 260220P00315000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>GOOGL 20FEB26 315 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4801,29 +4951,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>7.383</v>
+        <v>3.375</v>
       </c>
       <c r="O22" t="n">
-        <v>-1476.6</v>
+        <v>-337.5</v>
       </c>
       <c r="P22" t="n">
-        <v>6.3929546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.3929546</v>
+        <v>8.729479599999999</v>
       </c>
       <c r="R22" t="n">
-        <v>-1278.59092</v>
+        <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-198.00908</v>
+        <v>535.44796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -4836,7 +4986,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-1476.6</v>
+        <v>-337.5</v>
       </c>
     </row>
     <row r="23">
@@ -4860,73 +5010,703 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>GOOGL 260227C00345000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>GOOGL 27FEB26 345 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
+        <v>345</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.2401</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-224.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.3794546</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3794546</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-237.94546</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13.93546</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>-224.01</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>IWM   260227P00257000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 257 P</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>257</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-376</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.8429546</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.8429546</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-368.59092</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-7.40908</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>IWM   260227C00277000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 277 C</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>277</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-256</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.2929546</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.2929546</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-258.59092</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.59092</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>JPM   260227C00340000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>JPM 27FEB26 340 C</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>340</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.3182</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-131.82</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.9994796</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.9994796</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-199.94796</v>
+      </c>
+      <c r="S26" t="n">
+        <v>68.12796</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>-131.82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>QQQ   261218P00425000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>QQQ 18DEC26 425 P</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>425</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.036</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-1407.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-1278.59092</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-128.60908</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>-1407.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SMH   260227P00377500</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 377.5 P</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.5802</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-916.04</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.3329546</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4.3329546</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-866.59092</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-49.44908</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>-916.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SMH   260227C00437500</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 437.5 C</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.4829</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-696.58</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5029546</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.5029546</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-700.59092</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.01092</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>-696.58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
         <v>505</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>2026-12-18</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>-2</v>
       </c>
-      <c r="N23" t="n">
-        <v>7.665</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-1533</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="N30" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-1488</v>
+      </c>
+      <c r="P30" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q30" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R30" t="n">
         <v>-1469.93592</v>
       </c>
-      <c r="S23" t="n">
-        <v>-63.06408</v>
-      </c>
-      <c r="T23" t="inlineStr">
+      <c r="S30" t="n">
+        <v>-18.06408</v>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V23" t="n">
-        <v>-1533</v>
+      <c r="V30" t="n">
+        <v>-1488</v>
       </c>
     </row>
   </sheetData>
@@ -4978,17 +5758,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$227,245.94</t>
+          <t>$249,440.46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$212,640.40</t>
+          <t>$195,405.03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$439,886.34</t>
+          <t>$444,845.49</t>
         </is>
       </c>
     </row>
@@ -5000,17 +5780,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$384,342.65</t>
+          <t>$392,905.32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$177,145.94</t>
+          <t>$174,689.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$561,488.59</t>
+          <t>$567,594.36</t>
         </is>
       </c>
     </row>
@@ -5028,17 +5808,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$611,588.58</t>
+          <t>$642,345.78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$389,786.34</t>
+          <t>$370,094.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,001,374.92</t>
+          <t>$1,012,439.85</t>
         </is>
       </c>
     </row>
@@ -5091,14 +5871,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-10 00:02:57</t>
+          <t>2026-02-11 00:03:43</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" t="n">
         <v>29</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>404.3</v>
+        <v>404.55</v>
       </c>
       <c r="O2" t="n">
-        <v>20215</v>
+        <v>20227.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-688.00481</v>
+        <v>-675.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26384.618</v>
+        <v>26334.18225</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5815</v>
+        <v>3.5865</v>
       </c>
       <c r="O3" t="n">
-        <v>23279.75</v>
+        <v>23312.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>25.246575</v>
+        <v>57.746575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>30384.7297</v>
+        <v>30350.218275</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.28</v>
+        <v>64.33</v>
       </c>
       <c r="O4" t="n">
-        <v>9642</v>
+        <v>9649.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-59.78</v>
+        <v>-52.28</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12584.7384</v>
+        <v>12562.68405</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14461</v>
+        <v>0.14465</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.66</v>
+        <v>31.7</v>
       </c>
       <c r="O5" t="n">
-        <v>63320</v>
+        <v>63400</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>988.40102</v>
+        <v>1068.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9156.705199999999</v>
+        <v>9170.809999999999</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1916</v>
+        <v>1.1895</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4615</v>
+        <v>4.476</v>
       </c>
       <c r="O6" t="n">
-        <v>17846</v>
+        <v>17904</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-802.67968</v>
+        <v>-744.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21265.2936</v>
+        <v>21296.808</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79034</v>
+        <v>0.79065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.036</v>
+        <v>5.04</v>
       </c>
       <c r="O7" t="n">
-        <v>25180</v>
+        <v>25200</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2473.78755</v>
+        <v>2493.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19900.7612</v>
+        <v>19924.38</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79034</v>
+        <v>0.79065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="O8" t="n">
-        <v>11740</v>
+        <v>11750</v>
       </c>
       <c r="P8" t="n">
         <v>574.5512735999999</v>
@@ -1092,7 +1092,7 @@
         <v>11491.025472</v>
       </c>
       <c r="S8" t="n">
-        <v>248.974528</v>
+        <v>258.974528</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9278.5916</v>
+        <v>9290.137499999999</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.779999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="O9" t="n">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>7.5</v>
+        <v>-19.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>978</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>47.8</v>
+        <v>46.35</v>
       </c>
       <c r="O10" t="n">
-        <v>2390</v>
+        <v>2317.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>75.74890000000001</v>
+        <v>3.2489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2390</v>
+        <v>2317.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.69</v>
+        <v>10.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-180</v>
+        <v>-177</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.6</v>
+        <v>1447.2</v>
       </c>
       <c r="O12" t="n">
-        <v>21699</v>
+        <v>21708</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-425.835347</v>
+        <v>-416.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21699</v>
+        <v>21708</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.12</v>
+        <v>60.31</v>
       </c>
       <c r="O13" t="n">
-        <v>4809.6</v>
+        <v>4824.8</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>56.8</v>
+        <v>72</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4809.6</v>
+        <v>4824.8</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.1775</v>
+        <v>9.2325</v>
       </c>
       <c r="O14" t="n">
-        <v>9177.5</v>
+        <v>9232.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-247.21</v>
+        <v>-192.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9177.5</v>
+        <v>9232.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>28.0167</v>
+        <v>28.0903</v>
       </c>
       <c r="O15" t="n">
-        <v>10786.43</v>
+        <v>10814.77</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>771.527178</v>
+        <v>799.867178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10786.43</v>
+        <v>10814.77</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="O16" t="n">
-        <v>3740</v>
+        <v>3710</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>213.999989</v>
+        <v>183.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3740</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.789999999999999</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>9790</v>
+        <v>9995</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-436.7108</v>
+        <v>-231.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9790</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>156.59</v>
+        <v>159.89</v>
       </c>
       <c r="O18" t="n">
-        <v>15659</v>
+        <v>15989</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-4874.57044</v>
+        <v>-4544.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15659</v>
+        <v>15989</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>108.86</v>
+        <v>113.33</v>
       </c>
       <c r="O19" t="n">
-        <v>2177.2</v>
+        <v>2266.6</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-309.1</v>
+        <v>-219.7</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2177.2</v>
+        <v>2266.6</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>176.7</v>
+        <v>177.22</v>
       </c>
       <c r="O20" t="n">
-        <v>35340</v>
+        <v>35444</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>991.61439</v>
+        <v>1095.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35340</v>
+        <v>35444</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>26.378</v>
+        <v>27.3187</v>
       </c>
       <c r="O21" t="n">
-        <v>5275.6</v>
+        <v>5463.74</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>583.5</v>
+        <v>771.64</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5275.6</v>
+        <v>5463.74</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>20.26</v>
+        <v>20.905</v>
       </c>
       <c r="O22" t="n">
-        <v>4052</v>
+        <v>4181</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>24.5025</v>
+        <v>153.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4052</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7183</v>
+        <v>4.6544</v>
       </c>
       <c r="O23" t="n">
-        <v>-371.83</v>
+        <v>-465.44</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>351.11546</v>
+        <v>257.50546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-371.83</v>
+        <v>-465.44</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="O24" t="n">
-        <v>-34</v>
+        <v>-19</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>530.94546</v>
+        <v>545.94546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-34</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.88</v>
+        <v>1.985</v>
       </c>
       <c r="O25" t="n">
-        <v>-376</v>
+        <v>-397</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-13.40908</v>
+        <v>-34.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-376</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="O26" t="n">
-        <v>-256</v>
+        <v>-206</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>4.59092</v>
+        <v>54.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-256</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.125</v>
       </c>
       <c r="O27" t="n">
-        <v>-650</v>
+        <v>-625</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>279.29592</v>
+        <v>304.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-650</v>
+        <v>-625</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.6266</v>
+        <v>1.857</v>
       </c>
       <c r="O28" t="n">
-        <v>-262.66</v>
+        <v>-185.7</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>-13.46204</v>
+        <v>63.49796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-262.66</v>
+        <v>-185.7</v>
       </c>
     </row>
     <row r="29">
@@ -2809,60 +2809,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>ORCL  260227C00190000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>ORCL 27FEB26 190 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>7.036</v>
+        <v>0.995</v>
       </c>
       <c r="O29" t="n">
-        <v>-1407.2</v>
+        <v>-99.5</v>
       </c>
       <c r="P29" t="n">
-        <v>6.3644671</v>
+        <v>1.0094546</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.3644671</v>
+        <v>1.0094546</v>
       </c>
       <c r="R29" t="n">
-        <v>-1272.89342</v>
+        <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>-134.30658</v>
+        <v>1.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-1407.2</v>
+        <v>-99.5</v>
       </c>
     </row>
     <row r="30">
@@ -2904,23 +2904,23 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>377.5</v>
+        <v>425</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2930,29 +2930,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>4.5802</v>
+        <v>7.2824</v>
       </c>
       <c r="O30" t="n">
-        <v>-916.04</v>
+        <v>-1456.48</v>
       </c>
       <c r="P30" t="n">
-        <v>4.3429546</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.3429546</v>
+        <v>6.3644671</v>
       </c>
       <c r="R30" t="n">
-        <v>-868.59092</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-47.44908</v>
+        <v>-183.58658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-916.04</v>
+        <v>-1456.48</v>
       </c>
     </row>
     <row r="31">
@@ -2989,24 +2989,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>437.5</v>
+        <v>377.5</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3015,34 +3015,34 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>3.4829</v>
+        <v>4.625</v>
       </c>
       <c r="O31" t="n">
-        <v>-696.58</v>
+        <v>-925</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5129546</v>
+        <v>4.3429546</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.5129546</v>
+        <v>4.3429546</v>
       </c>
       <c r="R31" t="n">
-        <v>-702.59092</v>
+        <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>6.01092</v>
+        <v>-56.40908</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-696.58</v>
+        <v>-925</v>
       </c>
     </row>
     <row r="32">
@@ -3079,73 +3079,163 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>505</v>
+        <v>437.5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>7.44</v>
+        <v>2.64</v>
       </c>
       <c r="O32" t="n">
-        <v>-1488</v>
+        <v>-528</v>
       </c>
       <c r="P32" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-702.59092</v>
+      </c>
+      <c r="S32" t="n">
+        <v>174.59092</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-528</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>505</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.705</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1541</v>
+      </c>
+      <c r="P33" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R33" t="n">
         <v>-1470.97592</v>
       </c>
-      <c r="S32" t="n">
-        <v>-17.02408</v>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="S33" t="n">
+        <v>-70.02408</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V32" t="n">
-        <v>-1488</v>
+      <c r="V33" t="n">
+        <v>-1541</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3321,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>404.3</v>
+        <v>404.55</v>
       </c>
       <c r="O2" t="n">
-        <v>20215</v>
+        <v>20227.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3343,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-767.956235</v>
+        <v>-755.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3356,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26384.618</v>
+        <v>26334.18225</v>
       </c>
     </row>
     <row r="3">
@@ -3371,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3401,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5815</v>
+        <v>3.5865</v>
       </c>
       <c r="O3" t="n">
-        <v>19698.25</v>
+        <v>19725.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3423,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.267925</v>
+        <v>51.767925</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3436,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25710.1559</v>
+        <v>25680.953925</v>
       </c>
     </row>
     <row r="4">
@@ -3451,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3052</v>
+        <v>1.3019</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3481,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.28</v>
+        <v>64.33</v>
       </c>
       <c r="O4" t="n">
-        <v>12856</v>
+        <v>12866</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3503,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-68.69911999999999</v>
+        <v>-58.69912</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3516,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16779.6512</v>
+        <v>16750.2454</v>
       </c>
     </row>
     <row r="5">
@@ -3531,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14461</v>
+        <v>0.14465</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3561,17 +3651,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.66</v>
+        <v>31.7</v>
       </c>
       <c r="O5" t="n">
-        <v>63320</v>
+        <v>63400</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3583,7 +3673,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-72.47718999999999</v>
+        <v>7.52281</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3596,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9156.705199999999</v>
+        <v>9170.809999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3611,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1916</v>
+        <v>1.1895</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3641,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4615</v>
+        <v>4.476</v>
       </c>
       <c r="O6" t="n">
-        <v>17846</v>
+        <v>17904</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3663,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-789.313</v>
+        <v>-731.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3676,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21265.2936</v>
+        <v>21296.808</v>
       </c>
     </row>
     <row r="7">
@@ -3691,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1916</v>
+        <v>1.1895</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3721,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>50.58</v>
+        <v>51.14</v>
       </c>
       <c r="O7" t="n">
-        <v>50580</v>
+        <v>51140</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3743,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>7570</v>
+        <v>8130</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3756,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>60271.128</v>
+        <v>60831.03</v>
       </c>
     </row>
     <row r="8">
@@ -3771,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79034</v>
+        <v>0.79065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3801,17 +3891,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.036</v>
+        <v>5.04</v>
       </c>
       <c r="O8" t="n">
-        <v>50360</v>
+        <v>50400</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3823,7 +3913,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12241.8184</v>
+        <v>12281.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3836,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39801.5224</v>
+        <v>39848.75999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3851,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79034</v>
+        <v>0.79065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3881,17 +3971,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="O9" t="n">
-        <v>5870</v>
+        <v>5875</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3903,7 +3993,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>162.53768</v>
+        <v>167.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3916,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4639.2958</v>
+        <v>4645.068749999999</v>
       </c>
     </row>
     <row r="10">
@@ -3961,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.779999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="O10" t="n">
-        <v>2934</v>
+        <v>2853</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -3983,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-564.5</v>
+        <v>-645.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3996,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2934</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="11">
@@ -4041,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1446.6</v>
+        <v>1447.2</v>
       </c>
       <c r="O11" t="n">
-        <v>28932</v>
+        <v>28944</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4063,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-408.541</v>
+        <v>-396.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4076,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28932</v>
+        <v>28944</v>
       </c>
     </row>
     <row r="12">
@@ -4121,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>324.32</v>
+        <v>318.58</v>
       </c>
       <c r="O12" t="n">
-        <v>32432</v>
+        <v>31858</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4143,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-755.755</v>
+        <v>-1329.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4156,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>32432</v>
+        <v>31858</v>
       </c>
     </row>
     <row r="13">
@@ -4201,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.12</v>
+        <v>60.31</v>
       </c>
       <c r="O13" t="n">
-        <v>4809.6</v>
+        <v>4824.8</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4223,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.82</v>
+        <v>14.38</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4236,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4809.6</v>
+        <v>4824.8</v>
       </c>
     </row>
     <row r="14">
@@ -4281,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.1775</v>
+        <v>9.2325</v>
       </c>
       <c r="O14" t="n">
-        <v>9177.5</v>
+        <v>9232.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4303,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-228.4006</v>
+        <v>-173.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4316,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9177.5</v>
+        <v>9232.5</v>
       </c>
     </row>
     <row r="15">
@@ -4361,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>78.42</v>
+        <v>77.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1320.97</v>
+        <v>1300.42</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4383,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>971.923421</v>
+        <v>951.373421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4396,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1320.97</v>
+        <v>1300.42</v>
       </c>
     </row>
     <row r="16">
@@ -4441,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>28.0167</v>
+        <v>28.0903</v>
       </c>
       <c r="O16" t="n">
-        <v>10786.43</v>
+        <v>10814.77</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4463,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>777.5241119999999</v>
+        <v>805.864112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4476,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10786.43</v>
+        <v>10814.77</v>
       </c>
     </row>
     <row r="17">
@@ -4521,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1</v>
+        <v>318.28</v>
       </c>
       <c r="O17" t="n">
-        <v>32210</v>
+        <v>31828</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4543,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>2408</v>
+        <v>2026</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4556,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>32210</v>
+        <v>31828</v>
       </c>
     </row>
     <row r="18">
@@ -4601,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.789999999999999</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>9790</v>
+        <v>9995</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4623,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-439.112</v>
+        <v>-234.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4636,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9790</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="19">
@@ -4681,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>176.7</v>
+        <v>177.22</v>
       </c>
       <c r="O19" t="n">
-        <v>53010</v>
+        <v>53166</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4703,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.34162</v>
+        <v>1343.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4716,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>53010</v>
+        <v>53166</v>
       </c>
     </row>
     <row r="20">
@@ -4771,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>26.378</v>
+        <v>27.3187</v>
       </c>
       <c r="O20" t="n">
-        <v>5275.6</v>
+        <v>5463.74</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4793,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>570.1975</v>
+        <v>758.3375</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4806,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5275.6</v>
+        <v>5463.74</v>
       </c>
     </row>
     <row r="21">
@@ -4861,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>20.26</v>
+        <v>20.905</v>
       </c>
       <c r="O21" t="n">
-        <v>4052</v>
+        <v>4181</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4883,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>24.9825</v>
+        <v>153.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4896,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4052</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="22">
@@ -4951,17 +5041,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.375</v>
+        <v>4.65</v>
       </c>
       <c r="O22" t="n">
-        <v>-337.5</v>
+        <v>-465</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -4973,7 +5063,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>535.44796</v>
+        <v>407.94796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -4986,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-337.5</v>
+        <v>-465</v>
       </c>
     </row>
     <row r="23">
@@ -5041,17 +5131,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2401</v>
+        <v>1.14</v>
       </c>
       <c r="O23" t="n">
-        <v>-224.01</v>
+        <v>-114</v>
       </c>
       <c r="P23" t="n">
         <v>2.3794546</v>
@@ -5063,7 +5153,7 @@
         <v>-237.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>13.93546</v>
+        <v>123.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5076,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-224.01</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="24">
@@ -5131,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.985</v>
       </c>
       <c r="O24" t="n">
-        <v>-376</v>
+        <v>-397</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5153,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-7.40908</v>
+        <v>-28.40908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5166,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-376</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="25">
@@ -5221,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="O25" t="n">
-        <v>-256</v>
+        <v>-206</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5243,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>2.59092</v>
+        <v>52.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5256,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-256</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="26">
@@ -5311,17 +5401,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.3182</v>
+        <v>1.021</v>
       </c>
       <c r="O26" t="n">
-        <v>-131.82</v>
+        <v>-102.1</v>
       </c>
       <c r="P26" t="n">
         <v>1.9994796</v>
@@ -5333,7 +5423,7 @@
         <v>-199.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>68.12796</v>
+        <v>97.84796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5346,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-131.82</v>
+        <v>-102.1</v>
       </c>
     </row>
     <row r="27">
@@ -5401,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.036</v>
+        <v>7.2824</v>
       </c>
       <c r="O27" t="n">
-        <v>-1407.2</v>
+        <v>-1456.48</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5423,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-128.60908</v>
+        <v>-177.88908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5436,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1407.2</v>
+        <v>-1456.48</v>
       </c>
     </row>
     <row r="28">
@@ -5491,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5802</v>
+        <v>4.625</v>
       </c>
       <c r="O28" t="n">
-        <v>-916.04</v>
+        <v>-925</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5513,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>-49.44908</v>
+        <v>-58.40908</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5526,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-916.04</v>
+        <v>-925</v>
       </c>
     </row>
     <row r="29">
@@ -5581,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4829</v>
+        <v>2.64</v>
       </c>
       <c r="O29" t="n">
-        <v>-696.58</v>
+        <v>-528</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5603,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>4.01092</v>
+        <v>172.59092</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5616,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-696.58</v>
+        <v>-528</v>
       </c>
     </row>
     <row r="30">
@@ -5671,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.44</v>
+        <v>7.705</v>
       </c>
       <c r="O30" t="n">
-        <v>-1488</v>
+        <v>-1541</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5693,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-18.06408</v>
+        <v>-71.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5706,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1488</v>
+        <v>-1541</v>
       </c>
     </row>
   </sheetData>
@@ -5758,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$249,440.46</t>
+          <t>$250,451.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$195,405.03</t>
+          <t>$195,532.44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$444,845.49</t>
+          <t>$445,983.45</t>
         </is>
       </c>
     </row>
@@ -5780,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$392,905.32</t>
+          <t>$393,284.51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,689.04</t>
+          <t>$174,660.54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$567,594.36</t>
+          <t>$567,945.04</t>
         </is>
       </c>
     </row>
@@ -5808,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$642,345.78</t>
+          <t>$643,735.52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$370,094.07</t>
+          <t>$370,192.98</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,012,439.85</t>
+          <t>$1,013,928.50</t>
         </is>
       </c>
     </row>
@@ -5871,11 +5961,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-11 00:03:43</t>
+          <t>2026-02-11 23:55:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>29</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>404.55</v>
+        <v>403.3</v>
       </c>
       <c r="O2" t="n">
-        <v>20227.5</v>
+        <v>20165</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-675.50481</v>
+        <v>-738.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26334.18225</v>
+        <v>26129.807</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5865</v>
+        <v>3.579</v>
       </c>
       <c r="O3" t="n">
-        <v>23312.25</v>
+        <v>23263.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>57.746575</v>
+        <v>8.996575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>30350.218275</v>
+        <v>30144.8433</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.33</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>9649.5</v>
+        <v>9793.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>-52.28</v>
+        <v>91.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12562.68405</v>
+        <v>12690.4173</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14465</v>
+        <v>0.14474</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.7</v>
+        <v>31.64</v>
       </c>
       <c r="O5" t="n">
-        <v>63400</v>
+        <v>63280</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>1068.40102</v>
+        <v>948.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9170.809999999999</v>
+        <v>9159.147200000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1895</v>
+        <v>1.1872</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.476</v>
+        <v>4.4275</v>
       </c>
       <c r="O6" t="n">
-        <v>17904</v>
+        <v>17710</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-744.67968</v>
+        <v>-938.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21296.808</v>
+        <v>21025.312</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79065</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.04</v>
+        <v>4.978</v>
       </c>
       <c r="O7" t="n">
-        <v>25200</v>
+        <v>24890</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2493.78755</v>
+        <v>2183.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19924.38</v>
+        <v>19717.6091</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79065</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>587.5</v>
+        <v>586.1</v>
       </c>
       <c r="O8" t="n">
-        <v>11750</v>
+        <v>17583</v>
       </c>
       <c r="P8" t="n">
-        <v>574.5512735999999</v>
+        <v>578.8573824</v>
       </c>
       <c r="Q8" t="n">
-        <v>574.5512735999999</v>
+        <v>578.8573824</v>
       </c>
       <c r="R8" t="n">
-        <v>11491.025472</v>
+        <v>17365.721472</v>
       </c>
       <c r="S8" t="n">
-        <v>258.974528</v>
+        <v>217.278528</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9290.137499999999</v>
+        <v>13929.07677</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.51</v>
+        <v>9.34</v>
       </c>
       <c r="O9" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-19.5</v>
+        <v>-36.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>46.35</v>
+        <v>44.35</v>
       </c>
       <c r="O10" t="n">
-        <v>2317.5</v>
+        <v>2217.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2489</v>
+        <v>-96.75109999999999</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2317.5</v>
+        <v>2217.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.72</v>
+        <v>10.31</v>
       </c>
       <c r="O11" t="n">
-        <v>1072</v>
+        <v>1031</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-177</v>
+        <v>-218</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1072</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1447.2</v>
+        <v>1442.6</v>
       </c>
       <c r="O12" t="n">
-        <v>21708</v>
+        <v>21639</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-416.835347</v>
+        <v>-485.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21708</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.31</v>
+        <v>61.07</v>
       </c>
       <c r="O13" t="n">
-        <v>4824.8</v>
+        <v>4885.6</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>72</v>
+        <v>132.8</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4824.8</v>
+        <v>4885.6</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.2325</v>
+        <v>9.065</v>
       </c>
       <c r="O14" t="n">
-        <v>9232.5</v>
+        <v>9065</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-192.21</v>
+        <v>-359.71</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9232.5</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>28.0903</v>
+        <v>27.7521</v>
       </c>
       <c r="O15" t="n">
-        <v>10814.77</v>
+        <v>10684.56</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>799.867178</v>
+        <v>669.657178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10814.77</v>
+        <v>10684.56</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>37.1</v>
+        <v>37.96</v>
       </c>
       <c r="O16" t="n">
-        <v>3710</v>
+        <v>3796</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>183.999989</v>
+        <v>269.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3710</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.994999999999999</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>9995</v>
+        <v>9835</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-231.7108</v>
+        <v>-391.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9995</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>159.89</v>
+        <v>157.16</v>
       </c>
       <c r="O18" t="n">
-        <v>15989</v>
+        <v>15716</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-4544.57044</v>
+        <v>-4817.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15989</v>
+        <v>15716</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>113.33</v>
+        <v>114.52</v>
       </c>
       <c r="O19" t="n">
-        <v>2266.6</v>
+        <v>2290.4</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-219.7</v>
+        <v>-195.9</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2266.6</v>
+        <v>2290.4</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>177.22</v>
+        <v>177.1</v>
       </c>
       <c r="O20" t="n">
-        <v>35444</v>
+        <v>35420</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>1095.61439</v>
+        <v>1071.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35444</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>27.3187</v>
+        <v>26.8587</v>
       </c>
       <c r="O21" t="n">
-        <v>5463.74</v>
+        <v>5371.74</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>771.64</v>
+        <v>679.64</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5463.74</v>
+        <v>5371.74</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>20.905</v>
+        <v>20.735</v>
       </c>
       <c r="O22" t="n">
-        <v>4181</v>
+        <v>4147</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>153.5025</v>
+        <v>119.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4181</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>4.6544</v>
+        <v>7.2</v>
       </c>
       <c r="O23" t="n">
-        <v>-465.44</v>
+        <v>-720</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>257.50546</v>
+        <v>2.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-465.44</v>
+        <v>-720</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.19</v>
+        <v>0.135</v>
       </c>
       <c r="O24" t="n">
-        <v>-19</v>
+        <v>-13.5</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>545.94546</v>
+        <v>551.44546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-19</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.985</v>
+        <v>1.96</v>
       </c>
       <c r="O25" t="n">
-        <v>-397</v>
+        <v>-392</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-34.40908</v>
+        <v>-29.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-397</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.03</v>
+        <v>0.71</v>
       </c>
       <c r="O26" t="n">
-        <v>-206</v>
+        <v>-142</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>54.59092</v>
+        <v>118.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-206</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.125</v>
+        <v>2.765</v>
       </c>
       <c r="O27" t="n">
-        <v>-625</v>
+        <v>-553</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>304.29592</v>
+        <v>376.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-625</v>
+        <v>-553</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.857</v>
+        <v>1.9951</v>
       </c>
       <c r="O28" t="n">
-        <v>-185.7</v>
+        <v>-199.51</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>63.49796</v>
+        <v>49.68796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-185.7</v>
+        <v>-199.51</v>
       </c>
     </row>
     <row r="29">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.995</v>
+        <v>0.665</v>
       </c>
       <c r="O29" t="n">
-        <v>-99.5</v>
+        <v>-66.5</v>
       </c>
       <c r="P29" t="n">
         <v>1.0094546</v>
@@ -2862,7 +2862,7 @@
         <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44546</v>
+        <v>34.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-99.5</v>
+        <v>-66.5</v>
       </c>
     </row>
     <row r="30">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.2824</v>
+        <v>7.1976</v>
       </c>
       <c r="O30" t="n">
-        <v>-1456.48</v>
+        <v>-1439.52</v>
       </c>
       <c r="P30" t="n">
         <v>6.3644671</v>
@@ -2952,7 +2952,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-183.58658</v>
+        <v>-166.62658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1456.48</v>
+        <v>-1439.52</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3020,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>4.625</v>
+        <v>3.3532</v>
       </c>
       <c r="O31" t="n">
-        <v>-925</v>
+        <v>-670.64</v>
       </c>
       <c r="P31" t="n">
         <v>4.3429546</v>
@@ -3042,7 +3042,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>-56.40908</v>
+        <v>197.95092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-925</v>
+        <v>-670.64</v>
       </c>
     </row>
     <row r="32">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.64</v>
+        <v>5.075</v>
       </c>
       <c r="O32" t="n">
-        <v>-528</v>
+        <v>-1015</v>
       </c>
       <c r="P32" t="n">
         <v>3.5129546</v>
@@ -3132,7 +3132,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>174.59092</v>
+        <v>-312.40908</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-528</v>
+        <v>-1015</v>
       </c>
     </row>
     <row r="33">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>7.705</v>
+        <v>7.645</v>
       </c>
       <c r="O33" t="n">
-        <v>-1541</v>
+        <v>-1529</v>
       </c>
       <c r="P33" t="n">
         <v>7.3548796</v>
@@ -3222,7 +3222,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>-70.02408</v>
+        <v>-58.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1541</v>
+        <v>-1529</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>404.55</v>
+        <v>403.3</v>
       </c>
       <c r="O2" t="n">
-        <v>20227.5</v>
+        <v>20165</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-755.456235</v>
+        <v>-817.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26334.18225</v>
+        <v>26129.807</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5865</v>
+        <v>3.579</v>
       </c>
       <c r="O3" t="n">
-        <v>19725.75</v>
+        <v>19684.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>51.767925</v>
+        <v>10.517925</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25680.953925</v>
+        <v>25507.1751</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3019</v>
+        <v>1.2958</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.33</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>12866</v>
+        <v>13058</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>-58.69912</v>
+        <v>133.30088</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16750.2454</v>
+        <v>16920.5564</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14465</v>
+        <v>0.14474</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,17 +3651,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.7</v>
+        <v>31.64</v>
       </c>
       <c r="O5" t="n">
-        <v>63400</v>
+        <v>63280</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3673,7 +3673,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>7.52281</v>
+        <v>-112.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9170.809999999999</v>
+        <v>9159.147200000001</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1895</v>
+        <v>1.1872</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.476</v>
+        <v>4.4275</v>
       </c>
       <c r="O6" t="n">
-        <v>17904</v>
+        <v>17710</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-731.313</v>
+        <v>-925.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21296.808</v>
+        <v>21025.312</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1895</v>
+        <v>1.1872</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>51.14</v>
+        <v>51.28</v>
       </c>
       <c r="O7" t="n">
-        <v>51140</v>
+        <v>51280</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>8130</v>
+        <v>8270</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>60831.03</v>
+        <v>60879.616</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79065</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,17 +3891,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.04</v>
+        <v>4.978</v>
       </c>
       <c r="O8" t="n">
-        <v>50400</v>
+        <v>49780</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3913,7 +3913,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12281.8184</v>
+        <v>11661.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39848.75999999999</v>
+        <v>39435.2182</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79065</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,17 +3971,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>587.5</v>
+        <v>586.1</v>
       </c>
       <c r="O9" t="n">
-        <v>5875</v>
+        <v>5861</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3993,7 +3993,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>167.53768</v>
+        <v>153.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4645.068749999999</v>
+        <v>4643.025589999999</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.51</v>
+        <v>9.34</v>
       </c>
       <c r="O10" t="n">
-        <v>2853</v>
+        <v>2802</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-645.5</v>
+        <v>-696.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2853</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1447.2</v>
+        <v>1442.6</v>
       </c>
       <c r="O11" t="n">
-        <v>28944</v>
+        <v>28852</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-396.541</v>
+        <v>-488.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28944</v>
+        <v>28852</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>318.58</v>
+        <v>310.96</v>
       </c>
       <c r="O12" t="n">
-        <v>31858</v>
+        <v>31096</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-1329.755</v>
+        <v>-2091.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31858</v>
+        <v>31096</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.31</v>
+        <v>61.07</v>
       </c>
       <c r="O13" t="n">
-        <v>4824.8</v>
+        <v>4885.6</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>14.38</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4824.8</v>
+        <v>4885.6</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.2325</v>
+        <v>9.065</v>
       </c>
       <c r="O14" t="n">
-        <v>9232.5</v>
+        <v>9065</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-173.4006</v>
+        <v>-340.9006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9232.5</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>77.2</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1300.42</v>
+        <v>1286.1</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>951.373421</v>
+        <v>937.053421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1300.42</v>
+        <v>1286.1</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>28.0903</v>
+        <v>27.7521</v>
       </c>
       <c r="O16" t="n">
-        <v>10814.77</v>
+        <v>10684.56</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>805.864112</v>
+        <v>675.6541120000001</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10814.77</v>
+        <v>10684.56</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>318.28</v>
+        <v>310.82</v>
       </c>
       <c r="O17" t="n">
-        <v>31828</v>
+        <v>31082</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>2026</v>
+        <v>1280</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>31828</v>
+        <v>31082</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.994999999999999</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>9995</v>
+        <v>9835</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-234.112</v>
+        <v>-394.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9995</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>177.22</v>
+        <v>177.1</v>
       </c>
       <c r="O19" t="n">
-        <v>53166</v>
+        <v>53130</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.34162</v>
+        <v>1307.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>53166</v>
+        <v>53130</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>27.3187</v>
+        <v>26.8587</v>
       </c>
       <c r="O20" t="n">
-        <v>5463.74</v>
+        <v>5371.74</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>758.3375</v>
+        <v>666.3375</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5463.74</v>
+        <v>5371.74</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>20.905</v>
+        <v>20.735</v>
       </c>
       <c r="O21" t="n">
-        <v>4181</v>
+        <v>4147</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>153.9825</v>
+        <v>119.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4181</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +5041,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>4.65</v>
+        <v>7.7405</v>
       </c>
       <c r="O22" t="n">
-        <v>-465</v>
+        <v>-774.05</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5063,7 +5063,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>407.94796</v>
+        <v>98.89796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-465</v>
+        <v>-774.05</v>
       </c>
     </row>
     <row r="23">
@@ -5131,17 +5131,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.14</v>
+        <v>0.515</v>
       </c>
       <c r="O23" t="n">
-        <v>-114</v>
+        <v>-51.5</v>
       </c>
       <c r="P23" t="n">
         <v>2.3794546</v>
@@ -5153,7 +5153,7 @@
         <v>-237.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>123.94546</v>
+        <v>186.44546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-114</v>
+        <v>-51.5</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.985</v>
+        <v>1.96</v>
       </c>
       <c r="O24" t="n">
-        <v>-397</v>
+        <v>-392</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-28.40908</v>
+        <v>-23.40908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-397</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.03</v>
+        <v>0.71</v>
       </c>
       <c r="O25" t="n">
-        <v>-206</v>
+        <v>-142</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>52.59092</v>
+        <v>116.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-206</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="26">
@@ -5401,17 +5401,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.021</v>
+        <v>0.5004</v>
       </c>
       <c r="O26" t="n">
-        <v>-102.1</v>
+        <v>-50.04</v>
       </c>
       <c r="P26" t="n">
         <v>1.9994796</v>
@@ -5423,7 +5423,7 @@
         <v>-199.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>97.84796</v>
+        <v>149.90796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-102.1</v>
+        <v>-50.04</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.2824</v>
+        <v>7.1976</v>
       </c>
       <c r="O27" t="n">
-        <v>-1456.48</v>
+        <v>-1439.52</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-177.88908</v>
+        <v>-160.92908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1456.48</v>
+        <v>-1439.52</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>4.625</v>
+        <v>3.3532</v>
       </c>
       <c r="O28" t="n">
-        <v>-925</v>
+        <v>-670.64</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>-58.40908</v>
+        <v>195.95092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-925</v>
+        <v>-670.64</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.64</v>
+        <v>5.075</v>
       </c>
       <c r="O29" t="n">
-        <v>-528</v>
+        <v>-1015</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>172.59092</v>
+        <v>-314.40908</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-528</v>
+        <v>-1015</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.705</v>
+        <v>7.645</v>
       </c>
       <c r="O30" t="n">
-        <v>-1541</v>
+        <v>-1529</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-71.06408</v>
+        <v>-59.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1541</v>
+        <v>-1529</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$250,451.01</t>
+          <t>$253,088.34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$195,532.44</t>
+          <t>$191,010.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$445,983.45</t>
+          <t>$444,098.57</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$393,284.51</t>
+          <t>$389,873.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,660.54</t>
+          <t>$174,757.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$567,945.04</t>
+          <t>$564,630.15</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$643,735.52</t>
+          <t>$642,961.45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$370,192.98</t>
+          <t>$365,767.27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,013,928.50</t>
+          <t>$1,008,728.72</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-11 23:55:00</t>
+          <t>2026-02-12 23:55:34</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>403.3</v>
+        <v>396.55</v>
       </c>
       <c r="O2" t="n">
-        <v>20165</v>
+        <v>19827.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-738.00481</v>
+        <v>-1075.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26129.807</v>
+        <v>25771.7845</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.579</v>
+        <v>3.542</v>
       </c>
       <c r="O3" t="n">
-        <v>23263.5</v>
+        <v>23023</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>8.996575</v>
+        <v>-231.503425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>30144.8433</v>
+        <v>29925.2954</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>65.29000000000001</v>
+        <v>65.25</v>
       </c>
       <c r="O4" t="n">
-        <v>9793.5</v>
+        <v>9787.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>91.72</v>
+        <v>85.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12690.4173</v>
+        <v>12721.7925</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14474</v>
+        <v>0.14495</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.64</v>
+        <v>31.7</v>
       </c>
       <c r="O5" t="n">
-        <v>63280</v>
+        <v>63400</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>948.40102</v>
+        <v>1068.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9159.147200000001</v>
+        <v>9189.83</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1872</v>
+        <v>1.1871</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4275</v>
+        <v>4.356</v>
       </c>
       <c r="O6" t="n">
-        <v>17710</v>
+        <v>17424</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-938.67968</v>
+        <v>-1224.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21025.312</v>
+        <v>20684.0304</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79197</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>4.978</v>
+        <v>5.015</v>
       </c>
       <c r="O7" t="n">
-        <v>24890</v>
+        <v>25075</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2183.78755</v>
+        <v>2368.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19717.6091</v>
+        <v>19858.64775</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79197</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>586.1</v>
+        <v>588</v>
       </c>
       <c r="O8" t="n">
-        <v>17583</v>
+        <v>17640</v>
       </c>
       <c r="P8" t="n">
         <v>578.8573824</v>
@@ -1092,7 +1092,7 @@
         <v>17365.721472</v>
       </c>
       <c r="S8" t="n">
-        <v>217.278528</v>
+        <v>274.278528</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13929.07677</v>
+        <v>13970.3508</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.34</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-36.5</v>
+        <v>-66.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>934</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>44.35</v>
+        <v>44.39</v>
       </c>
       <c r="O10" t="n">
-        <v>2217.5</v>
+        <v>2219.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-96.75109999999999</v>
+        <v>-94.75109999999999</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2217.5</v>
+        <v>2219.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.31</v>
+        <v>10.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-218</v>
+        <v>-229</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1442.6</v>
+        <v>1423.2</v>
       </c>
       <c r="O12" t="n">
-        <v>21639</v>
+        <v>21348</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-485.835347</v>
+        <v>-776.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21639</v>
+        <v>21348</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>61.07</v>
+        <v>60.96</v>
       </c>
       <c r="O13" t="n">
-        <v>4885.6</v>
+        <v>4876.8</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>132.8</v>
+        <v>124</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4885.6</v>
+        <v>4876.8</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.065</v>
+        <v>8.932499999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9065</v>
+        <v>8932.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-359.71</v>
+        <v>-492.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9065</v>
+        <v>8932.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.7521</v>
+        <v>27.1998</v>
       </c>
       <c r="O15" t="n">
-        <v>10684.56</v>
+        <v>10471.92</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>669.657178</v>
+        <v>457.017178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10684.56</v>
+        <v>10471.92</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>37.96</v>
+        <v>36.04</v>
       </c>
       <c r="O16" t="n">
-        <v>3796</v>
+        <v>3604</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>269.999989</v>
+        <v>77.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3796</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.835000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="O17" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-391.7108</v>
+        <v>-536.7107999999999</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>157.16</v>
+        <v>156.48</v>
       </c>
       <c r="O18" t="n">
-        <v>15716</v>
+        <v>15648</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-4817.57044</v>
+        <v>-4885.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15716</v>
+        <v>15648</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>114.52</v>
+        <v>109.06</v>
       </c>
       <c r="O19" t="n">
-        <v>2290.4</v>
+        <v>2181.2</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-195.9</v>
+        <v>-305.1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2290.4</v>
+        <v>2181.2</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>177.1</v>
+        <v>175.38</v>
       </c>
       <c r="O20" t="n">
-        <v>35420</v>
+        <v>35076</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>1071.61439</v>
+        <v>727.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35420</v>
+        <v>35076</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>26.8587</v>
+        <v>31.2431</v>
       </c>
       <c r="O21" t="n">
-        <v>5371.74</v>
+        <v>6248.62</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>679.64</v>
+        <v>1556.52</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5371.74</v>
+        <v>6248.62</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>20.735</v>
+        <v>23.575</v>
       </c>
       <c r="O22" t="n">
-        <v>4147</v>
+        <v>4715</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>119.5025</v>
+        <v>687.5025000000001</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4147</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>7.2</v>
+        <v>8.5031</v>
       </c>
       <c r="O23" t="n">
-        <v>-720</v>
+        <v>-850.3099999999999</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>2.94546</v>
+        <v>-127.36454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-720</v>
+        <v>-850.3099999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.135</v>
+        <v>0.11</v>
       </c>
       <c r="O24" t="n">
-        <v>-13.5</v>
+        <v>-11</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>551.44546</v>
+        <v>553.94546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-13.5</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.96</v>
+        <v>4.075</v>
       </c>
       <c r="O25" t="n">
-        <v>-392</v>
+        <v>-815</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-29.40908</v>
+        <v>-452.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-392</v>
+        <v>-815</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>-142</v>
+        <v>-76</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>118.59092</v>
+        <v>184.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-142</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.765</v>
+        <v>3.8</v>
       </c>
       <c r="O27" t="n">
-        <v>-553</v>
+        <v>-760</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>376.29592</v>
+        <v>169.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-553</v>
+        <v>-760</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9951</v>
+        <v>2.2487</v>
       </c>
       <c r="O28" t="n">
-        <v>-199.51</v>
+        <v>-224.87</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>49.68796</v>
+        <v>24.32796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-199.51</v>
+        <v>-224.87</v>
       </c>
     </row>
     <row r="29">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.665</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>-66.5</v>
+        <v>-56.5</v>
       </c>
       <c r="P29" t="n">
         <v>1.0094546</v>
@@ -2862,7 +2862,7 @@
         <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44546</v>
+        <v>44.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-66.5</v>
+        <v>-56.5</v>
       </c>
     </row>
     <row r="30">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.1976</v>
+        <v>8.6088</v>
       </c>
       <c r="O30" t="n">
-        <v>-1439.52</v>
+        <v>-1721.76</v>
       </c>
       <c r="P30" t="n">
         <v>6.3644671</v>
@@ -2952,7 +2952,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-166.62658</v>
+        <v>-448.86658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1439.52</v>
+        <v>-1721.76</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3020,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3532</v>
+        <v>5.275</v>
       </c>
       <c r="O31" t="n">
-        <v>-670.64</v>
+        <v>-1055</v>
       </c>
       <c r="P31" t="n">
         <v>4.3429546</v>
@@ -3042,7 +3042,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>197.95092</v>
+        <v>-186.40908</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-670.64</v>
+        <v>-1055</v>
       </c>
     </row>
     <row r="32">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>5.075</v>
+        <v>3.625</v>
       </c>
       <c r="O32" t="n">
-        <v>-1015</v>
+        <v>-725</v>
       </c>
       <c r="P32" t="n">
         <v>3.5129546</v>
@@ -3132,7 +3132,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>-312.40908</v>
+        <v>-22.40908</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-1015</v>
+        <v>-725</v>
       </c>
     </row>
     <row r="33">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>7.645</v>
+        <v>8.635</v>
       </c>
       <c r="O33" t="n">
-        <v>-1529</v>
+        <v>-1727</v>
       </c>
       <c r="P33" t="n">
         <v>7.3548796</v>
@@ -3222,7 +3222,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>-58.02408</v>
+        <v>-256.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1529</v>
+        <v>-1727</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>403.3</v>
+        <v>396.55</v>
       </c>
       <c r="O2" t="n">
-        <v>20165</v>
+        <v>19827.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-817.956235</v>
+        <v>-1155.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26129.807</v>
+        <v>25771.7845</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.579</v>
+        <v>3.542</v>
       </c>
       <c r="O3" t="n">
-        <v>19684.5</v>
+        <v>19481</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>10.517925</v>
+        <v>-192.982075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25507.1751</v>
+        <v>25321.4038</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2958</v>
+        <v>1.2998</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>65.29000000000001</v>
+        <v>65.25</v>
       </c>
       <c r="O4" t="n">
-        <v>13058</v>
+        <v>13050</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>133.30088</v>
+        <v>125.30088</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16920.5564</v>
+        <v>16962.39</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14474</v>
+        <v>0.14495</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,17 +3651,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.64</v>
+        <v>31.7</v>
       </c>
       <c r="O5" t="n">
-        <v>63280</v>
+        <v>63400</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3673,7 +3673,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-112.47719</v>
+        <v>7.52281</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9159.147200000001</v>
+        <v>9189.83</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1872</v>
+        <v>1.1871</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4275</v>
+        <v>4.356</v>
       </c>
       <c r="O6" t="n">
-        <v>17710</v>
+        <v>17424</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-925.313</v>
+        <v>-1211.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>21025.312</v>
+        <v>20684.0304</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1872</v>
+        <v>1.1871</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>51.28</v>
+        <v>48.78</v>
       </c>
       <c r="O7" t="n">
-        <v>51280</v>
+        <v>48780</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>8270</v>
+        <v>5770</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>60879.616</v>
+        <v>57906.738</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79197</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,17 +3891,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>4.978</v>
+        <v>5.015</v>
       </c>
       <c r="O8" t="n">
-        <v>49780</v>
+        <v>50150</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3913,7 +3913,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11661.8184</v>
+        <v>12031.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39435.2182</v>
+        <v>39717.2955</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79197</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,17 +3971,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>586.1</v>
+        <v>588</v>
       </c>
       <c r="O9" t="n">
-        <v>5861</v>
+        <v>5880</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3993,7 +3993,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>153.53768</v>
+        <v>172.53768</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4643.025589999999</v>
+        <v>4656.7836</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.34</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>2802</v>
+        <v>2712</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-696.5</v>
+        <v>-786.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2802</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1442.6</v>
+        <v>1423.2</v>
       </c>
       <c r="O11" t="n">
-        <v>28852</v>
+        <v>28464</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-488.541</v>
+        <v>-876.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28852</v>
+        <v>28464</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>310.96</v>
+        <v>309</v>
       </c>
       <c r="O12" t="n">
-        <v>31096</v>
+        <v>30900</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2091.755</v>
+        <v>-2287.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31096</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>61.07</v>
+        <v>60.96</v>
       </c>
       <c r="O13" t="n">
-        <v>4885.6</v>
+        <v>4876.8</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>75.18000000000001</v>
+        <v>66.38</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4885.6</v>
+        <v>4876.8</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.065</v>
+        <v>8.932499999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9065</v>
+        <v>8932.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-340.9006</v>
+        <v>-473.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9065</v>
+        <v>8932.5</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>76.34999999999999</v>
+        <v>73.06</v>
       </c>
       <c r="O15" t="n">
-        <v>1286.1</v>
+        <v>1230.68</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>937.053421</v>
+        <v>881.633421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1286.1</v>
+        <v>1230.68</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.7521</v>
+        <v>27.1998</v>
       </c>
       <c r="O16" t="n">
-        <v>10684.56</v>
+        <v>10471.92</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>675.6541120000001</v>
+        <v>463.014112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10684.56</v>
+        <v>10471.92</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>310.82</v>
+        <v>302.64</v>
       </c>
       <c r="O17" t="n">
-        <v>31082</v>
+        <v>30264</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>1280</v>
+        <v>462</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>31082</v>
+        <v>30264</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.835000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="O18" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-394.112</v>
+        <v>-539.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>177.1</v>
+        <v>175.38</v>
       </c>
       <c r="O19" t="n">
-        <v>53130</v>
+        <v>52614</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>1307.34162</v>
+        <v>791.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>53130</v>
+        <v>52614</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>26.8587</v>
+        <v>31.2431</v>
       </c>
       <c r="O20" t="n">
-        <v>5371.74</v>
+        <v>6248.62</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>666.3375</v>
+        <v>1543.2175</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5371.74</v>
+        <v>6248.62</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>20.735</v>
+        <v>23.575</v>
       </c>
       <c r="O21" t="n">
-        <v>4147</v>
+        <v>4715</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>119.9825</v>
+        <v>687.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4147</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +5041,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>7.7405</v>
+        <v>9.2012</v>
       </c>
       <c r="O22" t="n">
-        <v>-774.05</v>
+        <v>-920.12</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5063,7 +5063,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>98.89796</v>
+        <v>-47.17204</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-774.05</v>
+        <v>-920.12</v>
       </c>
     </row>
     <row r="23">
@@ -5131,17 +5131,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.515</v>
+        <v>0.495</v>
       </c>
       <c r="O23" t="n">
-        <v>-51.5</v>
+        <v>-49.5</v>
       </c>
       <c r="P23" t="n">
         <v>2.3794546</v>
@@ -5153,7 +5153,7 @@
         <v>-237.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>186.44546</v>
+        <v>188.44546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-51.5</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.96</v>
+        <v>4.075</v>
       </c>
       <c r="O24" t="n">
-        <v>-392</v>
+        <v>-815</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-23.40908</v>
+        <v>-446.40908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-392</v>
+        <v>-815</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
-        <v>-142</v>
+        <v>-76</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>116.59092</v>
+        <v>182.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-142</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="26">
@@ -5401,17 +5401,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5004</v>
+        <v>0.3177</v>
       </c>
       <c r="O26" t="n">
-        <v>-50.04</v>
+        <v>-31.77</v>
       </c>
       <c r="P26" t="n">
         <v>1.9994796</v>
@@ -5423,7 +5423,7 @@
         <v>-199.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>149.90796</v>
+        <v>168.17796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-50.04</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.1976</v>
+        <v>8.6088</v>
       </c>
       <c r="O27" t="n">
-        <v>-1439.52</v>
+        <v>-1721.76</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-160.92908</v>
+        <v>-443.16908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1439.52</v>
+        <v>-1721.76</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3532</v>
+        <v>5.275</v>
       </c>
       <c r="O28" t="n">
-        <v>-670.64</v>
+        <v>-1055</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>195.95092</v>
+        <v>-188.40908</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-670.64</v>
+        <v>-1055</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>5.075</v>
+        <v>3.625</v>
       </c>
       <c r="O29" t="n">
-        <v>-1015</v>
+        <v>-725</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>-314.40908</v>
+        <v>-24.40908</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-1015</v>
+        <v>-725</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>7.645</v>
+        <v>8.635</v>
       </c>
       <c r="O30" t="n">
-        <v>-1529</v>
+        <v>-1727</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-59.06408</v>
+        <v>-257.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1529</v>
+        <v>-1727</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$253,088.34</t>
+          <t>$251,034.83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$191,010.23</t>
+          <t>$190,992.68</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$444,098.57</t>
+          <t>$442,027.51</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$389,873.11</t>
+          <t>$384,208.63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,757.04</t>
+          <t>$174,731.10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$564,630.15</t>
+          <t>$558,939.72</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$642,961.45</t>
+          <t>$635,243.46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$365,767.27</t>
+          <t>$365,723.77</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,008,728.72</t>
+          <t>$1,000,967.23</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-12 23:55:34</t>
+          <t>2026-02-13 23:55:23</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.55</v>
+        <v>396.45</v>
       </c>
       <c r="O2" t="n">
-        <v>19827.5</v>
+        <v>19822.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1075.50481</v>
+        <v>-1080.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25771.7845</v>
+        <v>25820.7885</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.542</v>
+        <v>3.541</v>
       </c>
       <c r="O3" t="n">
-        <v>23023</v>
+        <v>23016.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>-231.503425</v>
+        <v>-238.003425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>29925.2954</v>
+        <v>29981.2929</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>65.25</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>9787.5</v>
+        <v>9706.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>85.72</v>
+        <v>4.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12721.7925</v>
+        <v>12643.6869</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14495</v>
+        <v>0.14491</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.7</v>
+        <v>31.34</v>
       </c>
       <c r="O5" t="n">
-        <v>63400</v>
+        <v>62680</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>1068.40102</v>
+        <v>348.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9189.83</v>
+        <v>9082.9588</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1871</v>
+        <v>1.1868</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.356</v>
+        <v>4.379</v>
       </c>
       <c r="O6" t="n">
-        <v>17424</v>
+        <v>17516</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1224.67968</v>
+        <v>-1132.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20684.0304</v>
+        <v>20787.9888</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79197</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>5000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.015</v>
+        <v>4.945</v>
       </c>
       <c r="O7" t="n">
-        <v>25075</v>
+        <v>24725</v>
       </c>
       <c r="P7" t="n">
         <v>4.54124249</v>
@@ -1012,7 +1012,7 @@
         <v>22706.21245</v>
       </c>
       <c r="S7" t="n">
-        <v>2368.78755</v>
+        <v>2018.78755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19858.64775</v>
+        <v>19586.89775</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79197</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="O8" t="n">
-        <v>17640</v>
+        <v>17340</v>
       </c>
       <c r="P8" t="n">
         <v>578.8573824</v>
@@ -1092,7 +1092,7 @@
         <v>17365.721472</v>
       </c>
       <c r="S8" t="n">
-        <v>274.278528</v>
+        <v>-25.721472</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13970.3508</v>
+        <v>13736.5746</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.039999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>904</v>
+        <v>950</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-66.5</v>
+        <v>-20.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>904</v>
+        <v>950</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>44.39</v>
+        <v>44.68</v>
       </c>
       <c r="O10" t="n">
-        <v>2219.5</v>
+        <v>2234</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-94.75109999999999</v>
+        <v>-80.25109999999999</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2219.5</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.2</v>
+        <v>10.31</v>
       </c>
       <c r="O11" t="n">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-229</v>
+        <v>-218</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1020</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1423.2</v>
+        <v>1420.8</v>
       </c>
       <c r="O12" t="n">
-        <v>21348</v>
+        <v>21312</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-776.835347</v>
+        <v>-812.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21348</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.96</v>
+        <v>60.88</v>
       </c>
       <c r="O13" t="n">
-        <v>4876.8</v>
+        <v>4870.4</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>124</v>
+        <v>117.6</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4876.8</v>
+        <v>4870.4</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>8.932499999999999</v>
+        <v>9.135</v>
       </c>
       <c r="O14" t="n">
-        <v>8932.5</v>
+        <v>9135</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-492.21</v>
+        <v>-289.71</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8932.5</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.1998</v>
+        <v>27.2792</v>
       </c>
       <c r="O15" t="n">
-        <v>10471.92</v>
+        <v>10502.49</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>457.017178</v>
+        <v>487.587178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10471.92</v>
+        <v>10502.49</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>36.04</v>
+        <v>36.45</v>
       </c>
       <c r="O16" t="n">
-        <v>3604</v>
+        <v>3645</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>77.999989</v>
+        <v>118.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3604</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.69</v>
+        <v>9.818</v>
       </c>
       <c r="O17" t="n">
-        <v>9690</v>
+        <v>9818</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-536.7107999999999</v>
+        <v>-408.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9690</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>156.48</v>
+        <v>160.14</v>
       </c>
       <c r="O18" t="n">
-        <v>15648</v>
+        <v>16014</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-4885.57044</v>
+        <v>-4519.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15648</v>
+        <v>16014</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>109.06</v>
+        <v>106.74</v>
       </c>
       <c r="O19" t="n">
-        <v>2181.2</v>
+        <v>2134.8</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-305.1</v>
+        <v>-351.5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2181.2</v>
+        <v>2134.8</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>175.38</v>
+        <v>175.46</v>
       </c>
       <c r="O20" t="n">
-        <v>35076</v>
+        <v>35092</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>727.61439</v>
+        <v>743.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35076</v>
+        <v>35092</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>31.2431</v>
+        <v>30.8971</v>
       </c>
       <c r="O21" t="n">
-        <v>6248.62</v>
+        <v>6179.42</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1556.52</v>
+        <v>1487.32</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>6248.62</v>
+        <v>6179.42</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>23.575</v>
+        <v>23.605</v>
       </c>
       <c r="O22" t="n">
-        <v>4715</v>
+        <v>4721</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>687.5025000000001</v>
+        <v>693.5025000000001</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4715</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5031</v>
+        <v>9.25</v>
       </c>
       <c r="O23" t="n">
-        <v>-850.3099999999999</v>
+        <v>-925</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-127.36454</v>
+        <v>-202.05454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-850.3099999999999</v>
+        <v>-925</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.11</v>
+        <v>0.0669</v>
       </c>
       <c r="O24" t="n">
-        <v>-11</v>
+        <v>-6.69</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>553.94546</v>
+        <v>558.25546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-11</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>4.075</v>
+        <v>2.81</v>
       </c>
       <c r="O25" t="n">
-        <v>-815</v>
+        <v>-562</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-452.40908</v>
+        <v>-199.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-815</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.505</v>
       </c>
       <c r="O26" t="n">
-        <v>-76</v>
+        <v>-101</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>184.59092</v>
+        <v>159.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-76</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O27" t="n">
-        <v>-760</v>
+        <v>-950</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>169.29592</v>
+        <v>-20.70408</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-760</v>
+        <v>-950</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2487</v>
+        <v>1.4401</v>
       </c>
       <c r="O28" t="n">
-        <v>-224.87</v>
+        <v>-144.01</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>24.32796</v>
+        <v>105.18796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-224.87</v>
+        <v>-144.01</v>
       </c>
     </row>
     <row r="29">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5185</v>
       </c>
       <c r="O29" t="n">
-        <v>-56.5</v>
+        <v>-51.85</v>
       </c>
       <c r="P29" t="n">
         <v>1.0094546</v>
@@ -2862,7 +2862,7 @@
         <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>44.44546</v>
+        <v>49.09546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-56.5</v>
+        <v>-51.85</v>
       </c>
     </row>
     <row r="30">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.6088</v>
+        <v>8.4833</v>
       </c>
       <c r="O30" t="n">
-        <v>-1721.76</v>
+        <v>-1696.66</v>
       </c>
       <c r="P30" t="n">
         <v>6.3644671</v>
@@ -2952,7 +2952,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-448.86658</v>
+        <v>-423.76658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1721.76</v>
+        <v>-1696.66</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3020,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>5.275</v>
+        <v>4.15</v>
       </c>
       <c r="O31" t="n">
-        <v>-1055</v>
+        <v>-830</v>
       </c>
       <c r="P31" t="n">
         <v>4.3429546</v>
@@ -3042,7 +3042,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>-186.40908</v>
+        <v>38.59092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-1055</v>
+        <v>-830</v>
       </c>
     </row>
     <row r="32">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.625</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="n">
-        <v>-725</v>
+        <v>-612</v>
       </c>
       <c r="P32" t="n">
         <v>3.5129546</v>
@@ -3132,7 +3132,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>-22.40908</v>
+        <v>90.59092</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-725</v>
+        <v>-612</v>
       </c>
     </row>
     <row r="33">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>8.635</v>
+        <v>8.68</v>
       </c>
       <c r="O33" t="n">
-        <v>-1727</v>
+        <v>-1736</v>
       </c>
       <c r="P33" t="n">
         <v>7.3548796</v>
@@ -3222,7 +3222,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>-256.02408</v>
+        <v>-265.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1727</v>
+        <v>-1736</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.55</v>
+        <v>396.45</v>
       </c>
       <c r="O2" t="n">
-        <v>19827.5</v>
+        <v>19822.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1155.456235</v>
+        <v>-1160.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25771.7845</v>
+        <v>25820.7885</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.542</v>
+        <v>3.541</v>
       </c>
       <c r="O3" t="n">
-        <v>19481</v>
+        <v>19475.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-192.982075</v>
+        <v>-198.482075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25321.4038</v>
+        <v>25368.7863</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2998</v>
+        <v>1.3026</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>65.25</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>13050</v>
+        <v>12942</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>125.30088</v>
+        <v>17.30088</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16962.39</v>
+        <v>16858.2492</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14495</v>
+        <v>0.14491</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,17 +3651,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.7</v>
+        <v>31.34</v>
       </c>
       <c r="O5" t="n">
-        <v>63400</v>
+        <v>62680</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3673,7 +3673,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>7.52281</v>
+        <v>-712.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9189.83</v>
+        <v>9082.9588</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1871</v>
+        <v>1.1868</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.356</v>
+        <v>4.379</v>
       </c>
       <c r="O6" t="n">
-        <v>17424</v>
+        <v>17516</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1211.313</v>
+        <v>-1119.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20684.0304</v>
+        <v>20787.9888</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1871</v>
+        <v>1.1868</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>48.78</v>
+        <v>49.18</v>
       </c>
       <c r="O7" t="n">
-        <v>48780</v>
+        <v>49180</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>5770</v>
+        <v>6170</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>57906.738</v>
+        <v>58366.824</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79197</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,17 +3891,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.015</v>
+        <v>4.945</v>
       </c>
       <c r="O8" t="n">
-        <v>50150</v>
+        <v>49450</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3913,7 +3913,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12031.8184</v>
+        <v>11331.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39717.2955</v>
+        <v>39173.7955</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79197</v>
+        <v>0.7921899999999999</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,17 +3971,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="O9" t="n">
-        <v>5880</v>
+        <v>5780</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3993,7 +3993,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>172.53768</v>
+        <v>72.53767999999999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4656.7836</v>
+        <v>4578.8582</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.039999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>2712</v>
+        <v>2850</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-786.5</v>
+        <v>-648.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2712</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1423.2</v>
+        <v>1420.8</v>
       </c>
       <c r="O11" t="n">
-        <v>28464</v>
+        <v>28416</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-876.5410000000001</v>
+        <v>-924.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28464</v>
+        <v>28416</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>309</v>
+        <v>305.72</v>
       </c>
       <c r="O12" t="n">
-        <v>30900</v>
+        <v>30572</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2287.755</v>
+        <v>-2615.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>30900</v>
+        <v>30572</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.96</v>
+        <v>60.88</v>
       </c>
       <c r="O13" t="n">
-        <v>4876.8</v>
+        <v>4870.4</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>66.38</v>
+        <v>59.98</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4876.8</v>
+        <v>4870.4</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>8.932499999999999</v>
+        <v>9.135</v>
       </c>
       <c r="O14" t="n">
-        <v>8932.5</v>
+        <v>9135</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-473.4006</v>
+        <v>-270.9006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8932.5</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>73.06</v>
+        <v>74.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1230.68</v>
+        <v>1259.15</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>881.633421</v>
+        <v>910.103421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1230.68</v>
+        <v>1259.15</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.1998</v>
+        <v>27.2792</v>
       </c>
       <c r="O16" t="n">
-        <v>10471.92</v>
+        <v>10502.49</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>463.014112</v>
+        <v>493.584112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10471.92</v>
+        <v>10502.49</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>302.64</v>
+        <v>302.55</v>
       </c>
       <c r="O17" t="n">
-        <v>30264</v>
+        <v>30255</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30264</v>
+        <v>30255</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.69</v>
+        <v>9.818</v>
       </c>
       <c r="O18" t="n">
-        <v>9690</v>
+        <v>9818</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-539.112</v>
+        <v>-411.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9690</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>175.38</v>
+        <v>175.46</v>
       </c>
       <c r="O19" t="n">
-        <v>52614</v>
+        <v>52638</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>791.34162</v>
+        <v>815.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52614</v>
+        <v>52638</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>31.2431</v>
+        <v>30.8971</v>
       </c>
       <c r="O20" t="n">
-        <v>6248.62</v>
+        <v>6179.42</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1543.2175</v>
+        <v>1474.0175</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6248.62</v>
+        <v>6179.42</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>23.575</v>
+        <v>23.605</v>
       </c>
       <c r="O21" t="n">
-        <v>4715</v>
+        <v>4721</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>687.9825</v>
+        <v>693.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4715</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +5041,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>9.2012</v>
+        <v>10.6444</v>
       </c>
       <c r="O22" t="n">
-        <v>-920.12</v>
+        <v>-1064.44</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5063,7 +5063,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-47.17204</v>
+        <v>-191.49204</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-920.12</v>
+        <v>-1064.44</v>
       </c>
     </row>
     <row r="23">
@@ -5131,17 +5131,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.495</v>
+        <v>0.24</v>
       </c>
       <c r="O23" t="n">
-        <v>-49.5</v>
+        <v>-24</v>
       </c>
       <c r="P23" t="n">
         <v>2.3794546</v>
@@ -5153,7 +5153,7 @@
         <v>-237.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>188.44546</v>
+        <v>213.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-49.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>4.075</v>
+        <v>2.81</v>
       </c>
       <c r="O24" t="n">
-        <v>-815</v>
+        <v>-562</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-446.40908</v>
+        <v>-193.40908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-815</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.38</v>
+        <v>0.505</v>
       </c>
       <c r="O25" t="n">
-        <v>-76</v>
+        <v>-101</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>182.59092</v>
+        <v>157.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-76</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="26">
@@ -5401,17 +5401,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3177</v>
+        <v>0.1551</v>
       </c>
       <c r="O26" t="n">
-        <v>-31.77</v>
+        <v>-15.51</v>
       </c>
       <c r="P26" t="n">
         <v>1.9994796</v>
@@ -5423,7 +5423,7 @@
         <v>-199.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>168.17796</v>
+        <v>184.43796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-31.77</v>
+        <v>-15.51</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.6088</v>
+        <v>8.4833</v>
       </c>
       <c r="O27" t="n">
-        <v>-1721.76</v>
+        <v>-1696.66</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-443.16908</v>
+        <v>-418.06908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1721.76</v>
+        <v>-1696.66</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>5.275</v>
+        <v>4.15</v>
       </c>
       <c r="O28" t="n">
-        <v>-1055</v>
+        <v>-830</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>-188.40908</v>
+        <v>36.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-1055</v>
+        <v>-830</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>3.625</v>
+        <v>3.06</v>
       </c>
       <c r="O29" t="n">
-        <v>-725</v>
+        <v>-612</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>-24.40908</v>
+        <v>88.59092</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-725</v>
+        <v>-612</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.635</v>
+        <v>8.68</v>
       </c>
       <c r="O30" t="n">
-        <v>-1727</v>
+        <v>-1736</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-257.06408</v>
+        <v>-266.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1727</v>
+        <v>-1736</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$251,034.83</t>
+          <t>$251,664.09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$190,992.68</t>
+          <t>$191,010.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$442,027.51</t>
+          <t>$442,674.26</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$384,208.63</t>
+          <t>$384,613.10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,731.10</t>
+          <t>$174,746.10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$558,939.72</t>
+          <t>$559,359.20</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$635,243.46</t>
+          <t>$636,277.19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$365,723.77</t>
+          <t>$365,756.28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,000,967.23</t>
+          <t>$1,002,033.46</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-13 23:55:23</t>
+          <t>2026-02-14 23:49:54</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-14 23:49:54</t>
+          <t>2026-02-15 23:52:48</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-15 23:52:48</t>
+          <t>2026-02-16 23:55:26</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.45</v>
+        <v>393.95</v>
       </c>
       <c r="O2" t="n">
-        <v>19822.5</v>
+        <v>19697.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1080.50481</v>
+        <v>-1205.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25820.7885</v>
+        <v>25592.96175</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.541</v>
+        <v>3.5285</v>
       </c>
       <c r="O3" t="n">
-        <v>23016.5</v>
+        <v>22935.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>-238.003425</v>
+        <v>-319.253425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>29981.2929</v>
+        <v>29799.770325</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.70999999999999</v>
+        <v>64.84</v>
       </c>
       <c r="O4" t="n">
-        <v>9706.5</v>
+        <v>9726</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>4.72</v>
+        <v>24.22</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12643.6869</v>
+        <v>12636.9918</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14491</v>
+        <v>0.14527</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.34</v>
+        <v>31.56</v>
       </c>
       <c r="O5" t="n">
-        <v>62680</v>
+        <v>63120</v>
       </c>
       <c r="P5" t="n">
         <v>31.16579949</v>
@@ -852,7 +852,7 @@
         <v>62331.59898</v>
       </c>
       <c r="S5" t="n">
-        <v>348.40102</v>
+        <v>788.40102</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9082.9588</v>
+        <v>9169.4424</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1868</v>
+        <v>1.1851</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.379</v>
+        <v>4.3955</v>
       </c>
       <c r="O6" t="n">
-        <v>17516</v>
+        <v>17582</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1132.67968</v>
+        <v>-1066.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20787.9888</v>
+        <v>20836.4282</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79214</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19586.89775</v>
+        <v>19585.6615</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79214</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>578</v>
+        <v>579.2</v>
       </c>
       <c r="O8" t="n">
-        <v>17340</v>
+        <v>17376</v>
       </c>
       <c r="P8" t="n">
         <v>578.8573824</v>
@@ -1092,7 +1092,7 @@
         <v>17365.721472</v>
       </c>
       <c r="S8" t="n">
-        <v>-25.721472</v>
+        <v>10.278528</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13736.5746</v>
+        <v>13764.22464</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1150,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1230,7 +1230,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1310,7 +1310,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1420.8</v>
+        <v>1413.4</v>
       </c>
       <c r="O12" t="n">
-        <v>21312</v>
+        <v>21201</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-812.835347</v>
+        <v>-923.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21312</v>
+        <v>21201</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.88</v>
+        <v>60.58</v>
       </c>
       <c r="O13" t="n">
-        <v>4870.4</v>
+        <v>4846.4</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>117.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4870.4</v>
+        <v>4846.4</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.135</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9135</v>
+        <v>9047.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-289.71</v>
+        <v>-377.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9135</v>
+        <v>9047.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.2792</v>
+        <v>27.1948</v>
       </c>
       <c r="O15" t="n">
-        <v>10502.49</v>
+        <v>10470</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>487.587178</v>
+        <v>455.097178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10502.49</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="16">
@@ -1710,7 +1710,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.818</v>
+        <v>9.798</v>
       </c>
       <c r="O17" t="n">
-        <v>9818</v>
+        <v>9798</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-408.7108</v>
+        <v>-428.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9818</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="18">
@@ -1870,7 +1870,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1950,7 +1950,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>175.46</v>
+        <v>174.92</v>
       </c>
       <c r="O20" t="n">
-        <v>35092</v>
+        <v>34984</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>743.61439</v>
+        <v>635.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35092</v>
+        <v>34984</v>
       </c>
     </row>
     <row r="21">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.45</v>
+        <v>393.95</v>
       </c>
       <c r="O2" t="n">
-        <v>19822.5</v>
+        <v>19697.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1160.456235</v>
+        <v>-1285.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25820.7885</v>
+        <v>25592.96175</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.541</v>
+        <v>3.5285</v>
       </c>
       <c r="O3" t="n">
-        <v>19475.5</v>
+        <v>19406.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-198.482075</v>
+        <v>-267.232075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25368.7863</v>
+        <v>25215.190275</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3026</v>
+        <v>1.2993</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.70999999999999</v>
+        <v>64.84</v>
       </c>
       <c r="O4" t="n">
-        <v>12942</v>
+        <v>12968</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.30088</v>
+        <v>43.30088</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16858.2492</v>
+        <v>16849.3224</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14491</v>
+        <v>0.14527</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,17 +3651,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.34</v>
+        <v>31.56</v>
       </c>
       <c r="O5" t="n">
-        <v>62680</v>
+        <v>63120</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3673,7 +3673,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-712.47719</v>
+        <v>-272.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9082.9588</v>
+        <v>9169.4424</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1868</v>
+        <v>1.1851</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.379</v>
+        <v>4.3955</v>
       </c>
       <c r="O6" t="n">
-        <v>17516</v>
+        <v>17582</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1119.313</v>
+        <v>-1053.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20787.9888</v>
+        <v>20836.4282</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1868</v>
+        <v>1.1851</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.18</v>
+        <v>48.92</v>
       </c>
       <c r="O7" t="n">
-        <v>49180</v>
+        <v>48920</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6170</v>
+        <v>5910</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58366.824</v>
+        <v>57975.092</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79214</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39173.7955</v>
+        <v>39171.323</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7921899999999999</v>
+        <v>0.79214</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,17 +3971,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>578</v>
+        <v>579.2</v>
       </c>
       <c r="O9" t="n">
-        <v>5780</v>
+        <v>5792</v>
       </c>
       <c r="P9" t="n">
         <v>570.746232</v>
@@ -3993,7 +3993,7 @@
         <v>5707.46232</v>
       </c>
       <c r="S9" t="n">
-        <v>72.53767999999999</v>
+        <v>84.53767999999999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4578.8582</v>
+        <v>4588.07488</v>
       </c>
     </row>
     <row r="10">
@@ -4051,7 +4051,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1420.8</v>
+        <v>1413.4</v>
       </c>
       <c r="O11" t="n">
-        <v>28416</v>
+        <v>28268</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-924.5410000000001</v>
+        <v>-1072.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28416</v>
+        <v>28268</v>
       </c>
     </row>
     <row r="12">
@@ -4211,7 +4211,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.88</v>
+        <v>60.58</v>
       </c>
       <c r="O13" t="n">
-        <v>4870.4</v>
+        <v>4846.4</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>59.98</v>
+        <v>35.98</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4870.4</v>
+        <v>4846.4</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.135</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9135</v>
+        <v>9047.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-270.9006</v>
+        <v>-358.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9135</v>
+        <v>9047.5</v>
       </c>
     </row>
     <row r="15">
@@ -4451,7 +4451,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.2792</v>
+        <v>27.1948</v>
       </c>
       <c r="O16" t="n">
-        <v>10502.49</v>
+        <v>10470</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>493.584112</v>
+        <v>461.094112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10502.49</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="17">
@@ -4611,7 +4611,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.818</v>
+        <v>9.798</v>
       </c>
       <c r="O18" t="n">
-        <v>9818</v>
+        <v>9798</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-411.112</v>
+        <v>-431.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9818</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>175.46</v>
+        <v>174.92</v>
       </c>
       <c r="O19" t="n">
-        <v>52638</v>
+        <v>52476</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>815.34162</v>
+        <v>653.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52638</v>
+        <v>52476</v>
       </c>
     </row>
     <row r="20">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$251,664.09</t>
+          <t>$251,026.39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$191,010.17</t>
+          <t>$191,006.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$442,674.26</t>
+          <t>$442,032.58</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$384,613.10</t>
+          <t>$383,498.69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,746.10</t>
+          <t>$174,690.87</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$559,359.20</t>
+          <t>$558,189.57</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$636,277.19</t>
+          <t>$634,525.09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$365,756.28</t>
+          <t>$365,697.06</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,002,033.46</t>
+          <t>$1,000,222.15</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-16 23:55:26</t>
+          <t>2026-02-17 23:55:09</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-17 23:55:09</t>
+          <t>2026-02-18 12:26:50</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-18 12:26:50</t>
+          <t>2026-02-18 04:49:01</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>393.95</v>
+        <v>395</v>
       </c>
       <c r="O2" t="n">
-        <v>19697.5</v>
+        <v>19750</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1205.50481</v>
+        <v>-1153.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25592.96175</v>
+        <v>25647.35</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5285</v>
+        <v>3.5335</v>
       </c>
       <c r="O3" t="n">
-        <v>22935.25</v>
+        <v>22967.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>-319.253425</v>
+        <v>-286.753425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>29799.770325</v>
+        <v>29825.92015</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>64.84</v>
+        <v>65.03</v>
       </c>
       <c r="O4" t="n">
-        <v>9726</v>
+        <v>9754.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>24.22</v>
+        <v>52.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12636.9918</v>
+        <v>12667.1937</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14527</v>
+        <v>0.14524</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9169.4424</v>
+        <v>9167.5488</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1851</v>
+        <v>1.1854</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3955</v>
+        <v>4.393</v>
       </c>
       <c r="O6" t="n">
-        <v>17582</v>
+        <v>17572</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1066.67968</v>
+        <v>-1076.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20836.4282</v>
+        <v>20829.8488</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79214</v>
+        <v>0.79182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19585.6615</v>
+        <v>19577.7495</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79214</v>
+        <v>0.79182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13764.22464</v>
+        <v>13758.66432</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-20.5</v>
+        <v>-34.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>44.68</v>
+        <v>43.91</v>
       </c>
       <c r="O10" t="n">
-        <v>2234</v>
+        <v>2195.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-80.25109999999999</v>
+        <v>-118.7511</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2234</v>
+        <v>2195.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.31</v>
+        <v>10.59</v>
       </c>
       <c r="O11" t="n">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-218</v>
+        <v>-190</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1031</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1413.4</v>
+        <v>1414.2</v>
       </c>
       <c r="O12" t="n">
-        <v>21201</v>
+        <v>21213</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-923.835347</v>
+        <v>-911.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21201</v>
+        <v>21213</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.58</v>
+        <v>60.56</v>
       </c>
       <c r="O13" t="n">
-        <v>4846.4</v>
+        <v>4844.8</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>93.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4846.4</v>
+        <v>4844.8</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.047499999999999</v>
+        <v>9.0825</v>
       </c>
       <c r="O14" t="n">
-        <v>9047.5</v>
+        <v>9082.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-377.21</v>
+        <v>-342.21</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9047.5</v>
+        <v>9082.5</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.1948</v>
+        <v>27.4247</v>
       </c>
       <c r="O15" t="n">
-        <v>10470</v>
+        <v>10558.51</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>455.097178</v>
+        <v>543.607178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10470</v>
+        <v>10558.51</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>36.45</v>
+        <v>37.96</v>
       </c>
       <c r="O16" t="n">
-        <v>3645</v>
+        <v>3796</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>118.999989</v>
+        <v>269.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3645</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.798</v>
+        <v>9.715</v>
       </c>
       <c r="O17" t="n">
-        <v>9798</v>
+        <v>9715</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-428.7108</v>
+        <v>-511.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9798</v>
+        <v>9715</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>160.14</v>
+        <v>153.97</v>
       </c>
       <c r="O18" t="n">
-        <v>16014</v>
+        <v>15397</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-4519.57044</v>
+        <v>-5136.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>16014</v>
+        <v>15397</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>106.74</v>
+        <v>108.51</v>
       </c>
       <c r="O19" t="n">
-        <v>2134.8</v>
+        <v>2170.2</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-351.5</v>
+        <v>-316.1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2134.8</v>
+        <v>2170.2</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>174.92</v>
+        <v>174.86</v>
       </c>
       <c r="O20" t="n">
-        <v>34984</v>
+        <v>34972</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>635.61439</v>
+        <v>623.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>34984</v>
+        <v>34972</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>30.8971</v>
+        <v>30.6377</v>
       </c>
       <c r="O21" t="n">
-        <v>6179.42</v>
+        <v>6127.54</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1487.32</v>
+        <v>1435.44</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>6179.42</v>
+        <v>6127.54</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>23.605</v>
+        <v>22.845</v>
       </c>
       <c r="O22" t="n">
-        <v>4721</v>
+        <v>4569</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>693.5025000000001</v>
+        <v>541.5025000000001</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4721</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>9.25</v>
+        <v>11.3854</v>
       </c>
       <c r="O23" t="n">
-        <v>-925</v>
+        <v>-1138.54</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-202.05454</v>
+        <v>-415.59454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-925</v>
+        <v>-1138.54</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0669</v>
+        <v>0.0335</v>
       </c>
       <c r="O24" t="n">
-        <v>-6.69</v>
+        <v>-3.35</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>558.25546</v>
+        <v>561.59546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-6.69</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="O25" t="n">
-        <v>-562</v>
+        <v>-478</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-199.40908</v>
+        <v>-115.40908</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-562</v>
+        <v>-478</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.505</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
-        <v>-101</v>
+        <v>-68</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>159.59092</v>
+        <v>192.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-101</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>4.75</v>
+        <v>3.475</v>
       </c>
       <c r="O27" t="n">
-        <v>-950</v>
+        <v>-695</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>-20.70408</v>
+        <v>234.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-950</v>
+        <v>-695</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.4401</v>
+        <v>1.8776</v>
       </c>
       <c r="O28" t="n">
-        <v>-144.01</v>
+        <v>-187.76</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>105.18796</v>
+        <v>61.43796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-144.01</v>
+        <v>-187.76</v>
       </c>
     </row>
     <row r="29">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5185</v>
+        <v>0.1517</v>
       </c>
       <c r="O29" t="n">
-        <v>-51.85</v>
+        <v>-15.17</v>
       </c>
       <c r="P29" t="n">
         <v>1.0094546</v>
@@ -2862,7 +2862,7 @@
         <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>49.09546</v>
+        <v>85.77546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-51.85</v>
+        <v>-15.17</v>
       </c>
     </row>
     <row r="30">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.4833</v>
+        <v>8.301399999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-1696.66</v>
+        <v>-1660.28</v>
       </c>
       <c r="P30" t="n">
         <v>6.3644671</v>
@@ -2952,7 +2952,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-423.76658</v>
+        <v>-387.38658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1696.66</v>
+        <v>-1660.28</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3020,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="n">
-        <v>-830</v>
+        <v>-740</v>
       </c>
       <c r="P31" t="n">
         <v>4.3429546</v>
@@ -3042,7 +3042,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>38.59092</v>
+        <v>128.59092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-830</v>
+        <v>-740</v>
       </c>
     </row>
     <row r="32">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>2.365</v>
       </c>
       <c r="O32" t="n">
-        <v>-612</v>
+        <v>-473</v>
       </c>
       <c r="P32" t="n">
         <v>3.5129546</v>
@@ -3132,7 +3132,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>90.59092</v>
+        <v>229.59092</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-612</v>
+        <v>-473</v>
       </c>
     </row>
     <row r="33">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>8.68</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>-1736</v>
+        <v>-1656</v>
       </c>
       <c r="P33" t="n">
         <v>7.3548796</v>
@@ -3222,7 +3222,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>-265.02408</v>
+        <v>-185.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1736</v>
+        <v>-1656</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>393.95</v>
+        <v>395</v>
       </c>
       <c r="O2" t="n">
-        <v>19697.5</v>
+        <v>19750</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1285.456235</v>
+        <v>-1232.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25592.96175</v>
+        <v>25647.35</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5285</v>
+        <v>3.5335</v>
       </c>
       <c r="O3" t="n">
-        <v>19406.75</v>
+        <v>19434.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-267.232075</v>
+        <v>-239.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25215.190275</v>
+        <v>25237.31705</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2993</v>
+        <v>1.2986</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>64.84</v>
+        <v>65.03</v>
       </c>
       <c r="O4" t="n">
-        <v>12968</v>
+        <v>13006</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>43.30088</v>
+        <v>81.30088000000001</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16849.3224</v>
+        <v>16889.5916</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14527</v>
+        <v>0.14524</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9169.4424</v>
+        <v>9167.5488</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1851</v>
+        <v>1.1854</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3955</v>
+        <v>4.393</v>
       </c>
       <c r="O6" t="n">
-        <v>17582</v>
+        <v>17572</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1053.313</v>
+        <v>-1063.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20836.4282</v>
+        <v>20829.8488</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1851</v>
+        <v>1.1854</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>48.92</v>
+        <v>49.47</v>
       </c>
       <c r="O7" t="n">
-        <v>48920</v>
+        <v>49470</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>5910</v>
+        <v>6460</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>57975.092</v>
+        <v>58641.738</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79214</v>
+        <v>0.79182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39171.323</v>
+        <v>39155.499</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79214</v>
+        <v>0.79182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4588.07488</v>
+        <v>4586.22144</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>2850</v>
+        <v>2808</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-648.5</v>
+        <v>-690.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2850</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1413.4</v>
+        <v>1414.2</v>
       </c>
       <c r="O11" t="n">
-        <v>28268</v>
+        <v>28284</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-1072.541</v>
+        <v>-1056.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28268</v>
+        <v>28284</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>305.72</v>
+        <v>302.02</v>
       </c>
       <c r="O12" t="n">
-        <v>30572</v>
+        <v>30202</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2615.755</v>
+        <v>-2985.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>30572</v>
+        <v>30202</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.58</v>
+        <v>60.56</v>
       </c>
       <c r="O13" t="n">
-        <v>4846.4</v>
+        <v>4844.8</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>35.98</v>
+        <v>34.38</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4846.4</v>
+        <v>4844.8</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.047499999999999</v>
+        <v>9.0825</v>
       </c>
       <c r="O14" t="n">
-        <v>9047.5</v>
+        <v>9082.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-358.4006</v>
+        <v>-323.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9047.5</v>
+        <v>9082.5</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>74.75</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1259.15</v>
+        <v>1234.56</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>910.103421</v>
+        <v>885.513421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1259.15</v>
+        <v>1234.56</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.1948</v>
+        <v>27.4247</v>
       </c>
       <c r="O16" t="n">
-        <v>10470</v>
+        <v>10558.51</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>461.094112</v>
+        <v>549.604112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10470</v>
+        <v>10558.51</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>302.55</v>
+        <v>307.13</v>
       </c>
       <c r="O17" t="n">
-        <v>30255</v>
+        <v>30713</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>453</v>
+        <v>911</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30255</v>
+        <v>30713</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.798</v>
+        <v>9.715</v>
       </c>
       <c r="O18" t="n">
-        <v>9798</v>
+        <v>9715</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-431.112</v>
+        <v>-514.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9798</v>
+        <v>9715</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>174.92</v>
+        <v>174.86</v>
       </c>
       <c r="O19" t="n">
-        <v>52476</v>
+        <v>52458</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>653.34162</v>
+        <v>635.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52476</v>
+        <v>52458</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>30.8971</v>
+        <v>30.6377</v>
       </c>
       <c r="O20" t="n">
-        <v>6179.42</v>
+        <v>6127.54</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1474.0175</v>
+        <v>1422.1375</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6179.42</v>
+        <v>6127.54</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>23.605</v>
+        <v>22.845</v>
       </c>
       <c r="O21" t="n">
-        <v>4721</v>
+        <v>4569</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>693.9825</v>
+        <v>541.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4721</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +5041,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>10.6444</v>
+        <v>13.3836</v>
       </c>
       <c r="O22" t="n">
-        <v>-1064.44</v>
+        <v>-1338.36</v>
       </c>
       <c r="P22" t="n">
         <v>8.729479599999999</v>
@@ -5063,7 +5063,7 @@
         <v>-872.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-191.49204</v>
+        <v>-465.41204</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-1064.44</v>
+        <v>-1338.36</v>
       </c>
     </row>
     <row r="23">
@@ -5131,17 +5131,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.24</v>
+        <v>0.1106</v>
       </c>
       <c r="O23" t="n">
-        <v>-24</v>
+        <v>-11.06</v>
       </c>
       <c r="P23" t="n">
         <v>2.3794546</v>
@@ -5153,7 +5153,7 @@
         <v>-237.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>213.94546</v>
+        <v>226.88546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-24</v>
+        <v>-11.06</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="O24" t="n">
-        <v>-562</v>
+        <v>-478</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-193.40908</v>
+        <v>-109.40908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-562</v>
+        <v>-478</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.505</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>-101</v>
+        <v>-68</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>157.59092</v>
+        <v>190.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-101</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="26">
@@ -5401,17 +5401,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1551</v>
+        <v>0.1221</v>
       </c>
       <c r="O26" t="n">
-        <v>-15.51</v>
+        <v>-12.21</v>
       </c>
       <c r="P26" t="n">
         <v>1.9994796</v>
@@ -5423,7 +5423,7 @@
         <v>-199.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>184.43796</v>
+        <v>187.73796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-15.51</v>
+        <v>-12.21</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.4833</v>
+        <v>8.301399999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>-1696.66</v>
+        <v>-1660.28</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-418.06908</v>
+        <v>-381.68908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1696.66</v>
+        <v>-1660.28</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="O28" t="n">
-        <v>-830</v>
+        <v>-740</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>36.59092</v>
+        <v>126.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-830</v>
+        <v>-740</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>3.06</v>
+        <v>2.365</v>
       </c>
       <c r="O29" t="n">
-        <v>-612</v>
+        <v>-473</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>88.59092</v>
+        <v>227.59092</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-612</v>
+        <v>-473</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.68</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-1736</v>
+        <v>-1656</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-266.06408</v>
+        <v>-186.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1736</v>
+        <v>-1656</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$251,026.39</t>
+          <t>$250,995.23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$191,006.19</t>
+          <t>$190,980.74</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$442,032.58</t>
+          <t>$441,975.96</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$383,498.69</t>
+          <t>$384,315.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,690.87</t>
+          <t>$174,665.43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$558,189.57</t>
+          <t>$558,980.54</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$634,525.09</t>
+          <t>$635,310.34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$365,697.06</t>
+          <t>$365,646.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,000,222.15</t>
+          <t>$1,000,956.50</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-18 04:49:01</t>
+          <t>2026-02-18 23:55:23</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>395</v>
+        <v>400.6</v>
       </c>
       <c r="O2" t="n">
-        <v>19750</v>
+        <v>20030</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1153.00481</v>
+        <v>-873.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25647.35</v>
+        <v>25908.805</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>6500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5335</v>
+        <v>3.5695</v>
       </c>
       <c r="O3" t="n">
-        <v>22967.75</v>
+        <v>23201.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.577615912</v>
@@ -692,7 +692,7 @@
         <v>23254.503425</v>
       </c>
       <c r="S3" t="n">
-        <v>-286.753425</v>
+        <v>-52.753425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>29825.92015</v>
+        <v>30011.463625</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>65.03</v>
+        <v>65.75</v>
       </c>
       <c r="O4" t="n">
-        <v>9754.5</v>
+        <v>9862.5</v>
       </c>
       <c r="P4" t="n">
         <v>64.678533333</v>
@@ -772,7 +772,7 @@
         <v>9701.780000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>52.72</v>
+        <v>160.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12667.1937</v>
+        <v>12757.14375</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14524</v>
+        <v>0.14512</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9167.5488</v>
+        <v>9159.974399999999</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1854</v>
+        <v>1.1783</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.393</v>
+        <v>4.4515</v>
       </c>
       <c r="O6" t="n">
-        <v>17572</v>
+        <v>17806</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1076.67968</v>
+        <v>-842.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20829.8488</v>
+        <v>20980.8098</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79182</v>
+        <v>0.78912</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19577.7495</v>
+        <v>19510.992</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79182</v>
+        <v>0.78912</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13758.66432</v>
+        <v>13711.74912</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.359999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="O9" t="n">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-34.5</v>
+        <v>-54.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>43.91</v>
+        <v>43.43</v>
       </c>
       <c r="O10" t="n">
-        <v>2195.5</v>
+        <v>2171.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-118.7511</v>
+        <v>-142.7511</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2195.5</v>
+        <v>2171.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.59</v>
+        <v>10.82</v>
       </c>
       <c r="O11" t="n">
-        <v>1059</v>
+        <v>1082</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-190</v>
+        <v>-167</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1059</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1414.2</v>
+        <v>1436</v>
       </c>
       <c r="O12" t="n">
-        <v>21213</v>
+        <v>21540</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-911.835347</v>
+        <v>-584.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21213</v>
+        <v>21540</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.56</v>
+        <v>60.97</v>
       </c>
       <c r="O13" t="n">
-        <v>4844.8</v>
+        <v>4877.6</v>
       </c>
       <c r="P13" t="n">
         <v>59.41</v>
@@ -1492,7 +1492,7 @@
         <v>4752.8</v>
       </c>
       <c r="S13" t="n">
-        <v>92</v>
+        <v>124.8</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4844.8</v>
+        <v>4877.6</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0825</v>
+        <v>9.145</v>
       </c>
       <c r="O14" t="n">
-        <v>9082.5</v>
+        <v>9145</v>
       </c>
       <c r="P14" t="n">
         <v>9.424709999999999</v>
@@ -1572,7 +1572,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>-342.21</v>
+        <v>-279.71</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9082.5</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>27.4247</v>
+        <v>28.1051</v>
       </c>
       <c r="O15" t="n">
-        <v>10558.51</v>
+        <v>10820.46</v>
       </c>
       <c r="P15" t="n">
         <v>26.012734603</v>
@@ -1652,7 +1652,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S15" t="n">
-        <v>543.607178</v>
+        <v>805.557178</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10558.51</v>
+        <v>10820.46</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>37.96</v>
+        <v>37.65</v>
       </c>
       <c r="O16" t="n">
-        <v>3796</v>
+        <v>3765</v>
       </c>
       <c r="P16" t="n">
         <v>35.26000011</v>
@@ -1732,7 +1732,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S16" t="n">
-        <v>269.999989</v>
+        <v>238.999989</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3796</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>9.715</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>9715</v>
+        <v>9860</v>
       </c>
       <c r="P17" t="n">
         <v>10.2267108</v>
@@ -1812,7 +1812,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S17" t="n">
-        <v>-511.7108</v>
+        <v>-366.7108</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9715</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>153.97</v>
+        <v>156.17</v>
       </c>
       <c r="O18" t="n">
-        <v>15397</v>
+        <v>15617</v>
       </c>
       <c r="P18" t="n">
         <v>205.3357044</v>
@@ -1892,7 +1892,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S18" t="n">
-        <v>-5136.57044</v>
+        <v>-4916.57044</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15397</v>
+        <v>15617</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>108.51</v>
+        <v>112.78</v>
       </c>
       <c r="O19" t="n">
-        <v>2170.2</v>
+        <v>2255.6</v>
       </c>
       <c r="P19" t="n">
         <v>124.315</v>
@@ -1972,7 +1972,7 @@
         <v>2486.3</v>
       </c>
       <c r="S19" t="n">
-        <v>-316.1</v>
+        <v>-230.7</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2170.2</v>
+        <v>2255.6</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>174.86</v>
+        <v>176.66</v>
       </c>
       <c r="O20" t="n">
-        <v>34972</v>
+        <v>35332</v>
       </c>
       <c r="P20" t="n">
         <v>171.74192805</v>
@@ -2052,7 +2052,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S20" t="n">
-        <v>623.61439</v>
+        <v>983.61439</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>34972</v>
+        <v>35332</v>
       </c>
     </row>
     <row r="21">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>30.6377</v>
+        <v>29.0807</v>
       </c>
       <c r="O21" t="n">
-        <v>6127.54</v>
+        <v>5816.14</v>
       </c>
       <c r="P21" t="n">
         <v>23.4605</v>
@@ -2142,7 +2142,7 @@
         <v>4692.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1435.44</v>
+        <v>1124.04</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>6127.54</v>
+        <v>5816.14</v>
       </c>
     </row>
     <row r="22">
@@ -2210,17 +2210,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>22.845</v>
+        <v>22.08</v>
       </c>
       <c r="O22" t="n">
-        <v>4569</v>
+        <v>4416</v>
       </c>
       <c r="P22" t="n">
         <v>20.1374875</v>
@@ -2232,7 +2232,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S22" t="n">
-        <v>541.5025000000001</v>
+        <v>388.5025</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4569</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="23">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>11.3854</v>
+        <v>9.4725</v>
       </c>
       <c r="O23" t="n">
-        <v>-1138.54</v>
+        <v>-947.25</v>
       </c>
       <c r="P23" t="n">
         <v>7.2294546</v>
@@ -2322,7 +2322,7 @@
         <v>-722.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-415.59454</v>
+        <v>-224.30454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-1138.54</v>
+        <v>-947.25</v>
       </c>
     </row>
     <row r="24">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0335</v>
+        <v>0.0036</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.35</v>
+        <v>-0.36</v>
       </c>
       <c r="P24" t="n">
         <v>5.6494546</v>
@@ -2412,7 +2412,7 @@
         <v>-564.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>561.59546</v>
+        <v>564.58546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-3.35</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="25">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>2.39</v>
+        <v>1.725</v>
       </c>
       <c r="O25" t="n">
-        <v>-478</v>
+        <v>-345</v>
       </c>
       <c r="P25" t="n">
         <v>1.8129546</v>
@@ -2502,7 +2502,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>-115.40908</v>
+        <v>17.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-478</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="26">
@@ -2570,17 +2570,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="O26" t="n">
-        <v>-68</v>
+        <v>-48</v>
       </c>
       <c r="P26" t="n">
         <v>1.3029546</v>
@@ -2592,7 +2592,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>192.59092</v>
+        <v>212.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-68</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="27">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.475</v>
+        <v>2.46</v>
       </c>
       <c r="O27" t="n">
-        <v>-695</v>
+        <v>-492</v>
       </c>
       <c r="P27" t="n">
         <v>4.6464796</v>
@@ -2682,7 +2682,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S27" t="n">
-        <v>234.29592</v>
+        <v>437.29592</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-695</v>
+        <v>-492</v>
       </c>
     </row>
     <row r="28">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.8776</v>
+        <v>1.38</v>
       </c>
       <c r="O28" t="n">
-        <v>-187.76</v>
+        <v>-138</v>
       </c>
       <c r="P28" t="n">
         <v>2.4919796</v>
@@ -2772,7 +2772,7 @@
         <v>-249.19796</v>
       </c>
       <c r="S28" t="n">
-        <v>61.43796</v>
+        <v>111.19796</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-187.76</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="29">
@@ -2840,17 +2840,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1517</v>
+        <v>0.145</v>
       </c>
       <c r="O29" t="n">
-        <v>-15.17</v>
+        <v>-14.5</v>
       </c>
       <c r="P29" t="n">
         <v>1.0094546</v>
@@ -2862,7 +2862,7 @@
         <v>-100.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77546</v>
+        <v>86.44546</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-15.17</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="30">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.301399999999999</v>
+        <v>7.8385</v>
       </c>
       <c r="O30" t="n">
-        <v>-1660.28</v>
+        <v>-1567.7</v>
       </c>
       <c r="P30" t="n">
         <v>6.3644671</v>
@@ -2952,7 +2952,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>-387.38658</v>
+        <v>-294.80658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1660.28</v>
+        <v>-1567.7</v>
       </c>
     </row>
     <row r="31">
@@ -3020,17 +3020,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>2.3939</v>
       </c>
       <c r="O31" t="n">
-        <v>-740</v>
+        <v>-478.78</v>
       </c>
       <c r="P31" t="n">
         <v>4.3429546</v>
@@ -3042,7 +3042,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>128.59092</v>
+        <v>389.81092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-740</v>
+        <v>-478.78</v>
       </c>
     </row>
     <row r="32">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.365</v>
+        <v>2.615</v>
       </c>
       <c r="O32" t="n">
-        <v>-473</v>
+        <v>-523</v>
       </c>
       <c r="P32" t="n">
         <v>3.5129546</v>
@@ -3132,7 +3132,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>229.59092</v>
+        <v>179.59092</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-473</v>
+        <v>-523</v>
       </c>
     </row>
     <row r="33">
@@ -3200,17 +3200,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>8.279999999999999</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>-1656</v>
+        <v>-1615</v>
       </c>
       <c r="P33" t="n">
         <v>7.3548796</v>
@@ -3222,7 +3222,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>-185.02408</v>
+        <v>-144.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-1656</v>
+        <v>-1615</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>395</v>
+        <v>400.6</v>
       </c>
       <c r="O2" t="n">
-        <v>19750</v>
+        <v>20030</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3433,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1232.956235</v>
+        <v>-952.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25647.35</v>
+        <v>25908.805</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,17 +3491,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>5500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5335</v>
+        <v>3.5695</v>
       </c>
       <c r="O3" t="n">
-        <v>19434.25</v>
+        <v>19632.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.57708765</v>
@@ -3513,7 +3513,7 @@
         <v>19673.982075</v>
       </c>
       <c r="S3" t="n">
-        <v>-239.732075</v>
+        <v>-41.732075</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25237.31705</v>
+        <v>25394.315375</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2986</v>
+        <v>1.2935</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>65.03</v>
+        <v>65.75</v>
       </c>
       <c r="O4" t="n">
-        <v>13006</v>
+        <v>13150</v>
       </c>
       <c r="P4" t="n">
         <v>64.6234956</v>
@@ -3593,7 +3593,7 @@
         <v>12924.69912</v>
       </c>
       <c r="S4" t="n">
-        <v>81.30088000000001</v>
+        <v>225.30088</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>16889.5916</v>
+        <v>17009.525</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14524</v>
+        <v>0.14512</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9167.5488</v>
+        <v>9159.974399999999</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1854</v>
+        <v>1.1783</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3731,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.393</v>
+        <v>4.4515</v>
       </c>
       <c r="O6" t="n">
-        <v>17572</v>
+        <v>17806</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3753,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1063.313</v>
+        <v>-829.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20829.8488</v>
+        <v>20980.8098</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1854</v>
+        <v>1.1783</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3811,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.47</v>
+        <v>49.65</v>
       </c>
       <c r="O7" t="n">
-        <v>49470</v>
+        <v>49650</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +3833,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6460</v>
+        <v>6640</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58641.738</v>
+        <v>58502.59499999999</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79182</v>
+        <v>0.78912</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39155.499</v>
+        <v>39021.984</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79182</v>
+        <v>0.78912</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4586.22144</v>
+        <v>4570.58304</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4051,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.359999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="O10" t="n">
-        <v>2808</v>
+        <v>2748</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4073,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-690.5</v>
+        <v>-750.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2808</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4131,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1414.2</v>
+        <v>1436</v>
       </c>
       <c r="O11" t="n">
-        <v>28284</v>
+        <v>28720</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4153,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-1056.541</v>
+        <v>-620.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28284</v>
+        <v>28720</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4211,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>302.02</v>
+        <v>303.33</v>
       </c>
       <c r="O12" t="n">
-        <v>30202</v>
+        <v>30333</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4233,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2985.755</v>
+        <v>-2854.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>30202</v>
+        <v>30333</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4291,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.56</v>
+        <v>60.97</v>
       </c>
       <c r="O13" t="n">
-        <v>4844.8</v>
+        <v>4877.6</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4313,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>34.38</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4844.8</v>
+        <v>4877.6</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4371,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0825</v>
+        <v>9.145</v>
       </c>
       <c r="O14" t="n">
-        <v>9082.5</v>
+        <v>9145</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4393,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-323.4006</v>
+        <v>-260.9006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9082.5</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4451,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>73.29000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1234.56</v>
+        <v>1261.68</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4473,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>885.513421</v>
+        <v>912.633421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1234.56</v>
+        <v>1261.68</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4531,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.4247</v>
+        <v>28.1051</v>
       </c>
       <c r="O16" t="n">
-        <v>10558.51</v>
+        <v>10820.46</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4553,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>549.604112</v>
+        <v>811.554112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10558.51</v>
+        <v>10820.46</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4611,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>307.13</v>
+        <v>308.78</v>
       </c>
       <c r="O17" t="n">
-        <v>30713</v>
+        <v>30878</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4633,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>911</v>
+        <v>1076</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30713</v>
+        <v>30878</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4691,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.715</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>9715</v>
+        <v>9860</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4713,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-514.112</v>
+        <v>-369.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9715</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4771,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>174.86</v>
+        <v>176.66</v>
       </c>
       <c r="O19" t="n">
-        <v>52458</v>
+        <v>52998</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4793,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>635.34162</v>
+        <v>1175.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52458</v>
+        <v>52998</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>30.6377</v>
+        <v>29.0807</v>
       </c>
       <c r="O20" t="n">
-        <v>6127.54</v>
+        <v>5816.14</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +4883,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1422.1375</v>
+        <v>1110.7375</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6127.54</v>
+        <v>5816.14</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>22.845</v>
+        <v>22.08</v>
       </c>
       <c r="O21" t="n">
-        <v>4569</v>
+        <v>4416</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +4973,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>541.9825</v>
+        <v>388.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4569</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="22">
@@ -5015,23 +5015,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOOGL 260220P00315000</t>
+          <t>GOOGL 260304P00295000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GOOGL 20FEB26 315 P</t>
+          <t>GOOGL 04MAR26 295 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5041,29 +5041,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>13.3836</v>
+        <v>3.875</v>
       </c>
       <c r="O22" t="n">
-        <v>-1338.36</v>
+        <v>-387.5</v>
       </c>
       <c r="P22" t="n">
-        <v>8.729479599999999</v>
+        <v>3.6594796</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.729479599999999</v>
+        <v>3.6594796</v>
       </c>
       <c r="R22" t="n">
-        <v>-872.94796</v>
+        <v>-365.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-465.41204</v>
+        <v>-21.55204</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-1338.36</v>
+        <v>-387.5</v>
       </c>
     </row>
     <row r="23">
@@ -5105,23 +5105,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00345000</t>
+          <t>GOOGL 260304C00315000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 345 C</t>
+          <t>GOOGL 04MAR26 315 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5131,29 +5131,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1106</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
-        <v>-11.06</v>
+        <v>-268</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3794546</v>
+        <v>2.7594546</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3794546</v>
+        <v>2.7594546</v>
       </c>
       <c r="R23" t="n">
-        <v>-237.94546</v>
+        <v>-275.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>226.88546</v>
+        <v>7.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-11.06</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>2.39</v>
+        <v>1.725</v>
       </c>
       <c r="O24" t="n">
-        <v>-478</v>
+        <v>-345</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5243,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>-109.40908</v>
+        <v>23.59092</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-478</v>
+        <v>-345</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5311,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="O25" t="n">
-        <v>-68</v>
+        <v>-48</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5333,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>190.59092</v>
+        <v>210.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-68</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="26">
@@ -5375,23 +5375,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JPM   260227C00340000</t>
+          <t>JPM   260327C00325000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JPM 27FEB26 340 C</t>
+          <t>JPM 27MAR26 325 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -5401,29 +5401,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1221</v>
+        <v>4.1573</v>
       </c>
       <c r="O26" t="n">
-        <v>-12.21</v>
+        <v>-415.73</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9994796</v>
+        <v>4.5994546</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9994796</v>
+        <v>4.5994546</v>
       </c>
       <c r="R26" t="n">
-        <v>-199.94796</v>
+        <v>-459.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>187.73796</v>
+        <v>44.21546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-12.21</v>
+        <v>-415.73</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5491,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.301399999999999</v>
+        <v>7.8385</v>
       </c>
       <c r="O27" t="n">
-        <v>-1660.28</v>
+        <v>-1567.7</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5513,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-381.68908</v>
+        <v>-289.10908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1660.28</v>
+        <v>-1567.7</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>3.7</v>
+        <v>2.3939</v>
       </c>
       <c r="O28" t="n">
-        <v>-740</v>
+        <v>-478.78</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5603,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>126.59092</v>
+        <v>387.81092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-740</v>
+        <v>-478.78</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5671,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.365</v>
+        <v>2.615</v>
       </c>
       <c r="O29" t="n">
-        <v>-473</v>
+        <v>-523</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5693,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>227.59092</v>
+        <v>177.59092</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-473</v>
+        <v>-523</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.279999999999999</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-1656</v>
+        <v>-1615</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5783,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-186.06408</v>
+        <v>-145.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1656</v>
+        <v>-1615</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$250,995.23</t>
+          <t>$253,485.65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$190,980.74</t>
+          <t>$187,265.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$441,975.96</t>
+          <t>$440,751.44</t>
         </is>
       </c>
     </row>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$384,315.11</t>
+          <t>$386,773.76</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,665.43</t>
+          <t>$174,089.24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$558,980.54</t>
+          <t>$560,863.01</t>
         </is>
       </c>
     </row>
@@ -5898,17 +5898,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$635,310.34</t>
+          <t>$640,259.41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$365,646.16</t>
+          <t>$361,355.03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,000,956.50</t>
+          <t>$1,001,614.44</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-18 23:55:23</t>
+          <t>2026-02-19 23:55:22</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>400.6</v>
+        <v>396.9</v>
       </c>
       <c r="O2" t="n">
-        <v>20030</v>
+        <v>19845</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-873.00481</v>
+        <v>-1058.00481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25908.805</v>
+        <v>25604.019</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,29 +670,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5695</v>
+        <v>3.552</v>
       </c>
       <c r="O3" t="n">
-        <v>23201.75</v>
+        <v>26640</v>
       </c>
       <c r="P3" t="n">
-        <v>3.577615912</v>
+        <v>3.576800457</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.577615912</v>
+        <v>3.576800457</v>
       </c>
       <c r="R3" t="n">
-        <v>23254.503425</v>
+        <v>26826.003425</v>
       </c>
       <c r="S3" t="n">
-        <v>-52.753425</v>
+        <v>-186.003425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>30011.463625</v>
+        <v>34370.928</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,29 +750,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>65.75</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>9862.5</v>
+        <v>19596</v>
       </c>
       <c r="P4" t="n">
-        <v>64.678533333</v>
+        <v>65.14093333300001</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.678533333</v>
+        <v>65.14093333300001</v>
       </c>
       <c r="R4" t="n">
-        <v>9701.780000000001</v>
+        <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>160.72</v>
+        <v>53.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>12757.14375</v>
+        <v>25282.7592</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14512</v>
+        <v>0.14494</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9159.974399999999</v>
+        <v>9148.612800000001</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1783</v>
+        <v>1.1773</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4515</v>
+        <v>4.4215</v>
       </c>
       <c r="O6" t="n">
-        <v>17806</v>
+        <v>17686</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-842.67968</v>
+        <v>-962.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20980.8098</v>
+        <v>20821.7278</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78912</v>
+        <v>0.78852</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,29 +990,29 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>4.945</v>
+        <v>5.002</v>
       </c>
       <c r="O7" t="n">
-        <v>24725</v>
+        <v>40016</v>
       </c>
       <c r="P7" t="n">
-        <v>4.54124249</v>
+        <v>4.717028356</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.54124249</v>
+        <v>4.717028356</v>
       </c>
       <c r="R7" t="n">
-        <v>22706.21245</v>
+        <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2018.78755</v>
+        <v>2279.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>19510.992</v>
+        <v>31553.41632</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78912</v>
+        <v>0.78852</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,29 +1070,29 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>579.2</v>
+        <v>584.12</v>
       </c>
       <c r="O8" t="n">
-        <v>17376</v>
+        <v>29206</v>
       </c>
       <c r="P8" t="n">
-        <v>578.8573824</v>
+        <v>581.20939584</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.8573824</v>
+        <v>581.20939584</v>
       </c>
       <c r="R8" t="n">
-        <v>17365.721472</v>
+        <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>10.278528</v>
+        <v>145.530208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>13711.74912</v>
+        <v>23029.51512</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.16</v>
+        <v>9.27</v>
       </c>
       <c r="O9" t="n">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-54.5</v>
+        <v>-43.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>43.43</v>
+        <v>44.13</v>
       </c>
       <c r="O10" t="n">
-        <v>2171.5</v>
+        <v>2206.5</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-142.7511</v>
+        <v>-107.7511</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2171.5</v>
+        <v>2206.5</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.82</v>
+        <v>10.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1082</v>
+        <v>1055</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-167</v>
+        <v>-194</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1082</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1436</v>
+        <v>1424.2</v>
       </c>
       <c r="O12" t="n">
-        <v>21540</v>
+        <v>21363</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-584.835347</v>
+        <v>-761.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21540</v>
+        <v>21363</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GRDU</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FT NSDQ CLN EDG SMRT GRID</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>60.97</v>
+        <v>302.85</v>
       </c>
       <c r="O13" t="n">
-        <v>4877.6</v>
+        <v>30285</v>
       </c>
       <c r="P13" t="n">
-        <v>59.41</v>
+        <v>301.635</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.41</v>
+        <v>301.635</v>
       </c>
       <c r="R13" t="n">
-        <v>4752.8</v>
+        <v>30163.5</v>
       </c>
       <c r="S13" t="n">
-        <v>124.8</v>
+        <v>121.5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4877.6</v>
+        <v>30285</v>
       </c>
     </row>
     <row r="14">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>9.145</v>
+        <v>60.39</v>
       </c>
       <c r="O14" t="n">
-        <v>9145</v>
+        <v>4831.2</v>
       </c>
       <c r="P14" t="n">
-        <v>9.424709999999999</v>
+        <v>59.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.424709999999999</v>
+        <v>59.41</v>
       </c>
       <c r="R14" t="n">
-        <v>9424.709999999999</v>
+        <v>4752.8</v>
       </c>
       <c r="S14" t="n">
-        <v>-279.71</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9145</v>
+        <v>4831.2</v>
       </c>
     </row>
     <row r="15">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>HEAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>ISHR HEALTHCARE INNOVATION</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>28.1051</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>10820.46</v>
+        <v>9110</v>
       </c>
       <c r="P15" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.012734603</v>
+        <v>9.424709999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>10014.902822</v>
+        <v>9424.709999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>805.557178</v>
+        <v>-314.71</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10820.46</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>37.65</v>
+        <v>27.8173</v>
       </c>
       <c r="O16" t="n">
-        <v>3765</v>
+        <v>10709.66</v>
       </c>
       <c r="P16" t="n">
-        <v>35.26000011</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.26000011</v>
+        <v>26.012734603</v>
       </c>
       <c r="R16" t="n">
-        <v>3526.000011</v>
+        <v>10014.902822</v>
       </c>
       <c r="S16" t="n">
-        <v>238.999989</v>
+        <v>694.757178</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3765</v>
+        <v>10709.66</v>
       </c>
     </row>
     <row r="17">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>LKNCY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>LUCKIN COFFEE INC - ADR</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1790,29 +1790,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>9.859999999999999</v>
+        <v>38.69</v>
       </c>
       <c r="O17" t="n">
-        <v>9860</v>
+        <v>3869</v>
       </c>
       <c r="P17" t="n">
-        <v>10.2267108</v>
+        <v>35.26000011</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.2267108</v>
+        <v>35.26000011</v>
       </c>
       <c r="R17" t="n">
-        <v>10226.7108</v>
+        <v>3526.000011</v>
       </c>
       <c r="S17" t="n">
-        <v>-366.7108</v>
+        <v>342.999989</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>PINK</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>9860</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="18">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>LOCK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>ISHARES DIGITAL SCRTY USD-A</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1870,29 +1870,29 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>156.17</v>
+        <v>9.769</v>
       </c>
       <c r="O18" t="n">
-        <v>15617</v>
+        <v>9769</v>
       </c>
       <c r="P18" t="n">
-        <v>205.3357044</v>
+        <v>10.2267108</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.3357044</v>
+        <v>10.2267108</v>
       </c>
       <c r="R18" t="n">
-        <v>20533.57044</v>
+        <v>10226.7108</v>
       </c>
       <c r="S18" t="n">
-        <v>-4916.57044</v>
+        <v>-457.7108</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>15617</v>
+        <v>9769</v>
       </c>
     </row>
     <row r="19">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1950,29 +1950,29 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>112.78</v>
+        <v>156.54</v>
       </c>
       <c r="O19" t="n">
-        <v>2255.6</v>
+        <v>15654</v>
       </c>
       <c r="P19" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="R19" t="n">
-        <v>2486.3</v>
+        <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-230.7</v>
+        <v>-4879.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2255.6</v>
+        <v>15654</v>
       </c>
     </row>
     <row r="20">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2030,29 +2030,29 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>176.66</v>
+        <v>114.6</v>
       </c>
       <c r="O20" t="n">
-        <v>35332</v>
+        <v>2292</v>
       </c>
       <c r="P20" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="R20" t="n">
-        <v>34348.38561</v>
+        <v>2486.3</v>
       </c>
       <c r="S20" t="n">
-        <v>983.61439</v>
+        <v>-194.3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>35332</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="21">
@@ -2084,65 +2084,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>560</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>29.0807</v>
+        <v>175.64</v>
       </c>
       <c r="O21" t="n">
-        <v>5816.14</v>
+        <v>35128</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.4605</v>
+        <v>171.74192805</v>
       </c>
       <c r="R21" t="n">
-        <v>4692.1</v>
+        <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>1124.04</v>
+        <v>779.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2151,11 +2141,11 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5816.14</v>
+        <v>35128</v>
       </c>
     </row>
     <row r="22">
@@ -2184,19 +2174,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2210,29 +2200,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>22.08</v>
+        <v>30.1255</v>
       </c>
       <c r="O22" t="n">
-        <v>4416</v>
+        <v>6025.1</v>
       </c>
       <c r="P22" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.1374875</v>
+        <v>23.4605</v>
       </c>
       <c r="R22" t="n">
-        <v>4027.4975</v>
+        <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>388.5025</v>
+        <v>1333</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2245,7 +2235,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4416</v>
+        <v>6025.1</v>
       </c>
     </row>
     <row r="23">
@@ -2274,23 +2264,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2300,33 +2290,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>9.4725</v>
+        <v>22.69</v>
       </c>
       <c r="O23" t="n">
-        <v>-947.25</v>
+        <v>4538</v>
       </c>
       <c r="P23" t="n">
-        <v>7.2294546</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.2294546</v>
+        <v>20.1374875</v>
       </c>
       <c r="R23" t="n">
-        <v>-722.94546</v>
+        <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>-224.30454</v>
+        <v>510.5025</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2335,7 +2325,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-947.25</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="24">
@@ -2359,24 +2349,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260227P00310000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27FEB26 310 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2385,34 +2375,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0036</v>
+        <v>9.6326</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.36</v>
+        <v>-963.26</v>
       </c>
       <c r="P24" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.6494546</v>
+        <v>7.2294546</v>
       </c>
       <c r="R24" t="n">
-        <v>-564.94546</v>
+        <v>-722.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>564.58546</v>
+        <v>-240.31454</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2425,7 +2415,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-0.36</v>
+        <v>-963.26</v>
       </c>
     </row>
     <row r="25">
@@ -2449,24 +2439,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>GOOGL 260227C00370000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>GOOGL 27FEB26 370 C</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2475,34 +2465,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.725</v>
+        <v>0.0125</v>
       </c>
       <c r="O25" t="n">
-        <v>-345</v>
+        <v>-1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8129546</v>
+        <v>5.6494546</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8129546</v>
+        <v>5.6494546</v>
       </c>
       <c r="R25" t="n">
-        <v>-362.59092</v>
+        <v>-564.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>17.59092</v>
+        <v>563.69546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2515,7 +2505,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-345</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="26">
@@ -2544,23 +2534,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>GOOGL 260320C00320000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>GOOGL 20MAR26 320 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2570,29 +2560,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.24</v>
+        <v>4.325</v>
       </c>
       <c r="O26" t="n">
-        <v>-48</v>
+        <v>-432.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.3029546</v>
+        <v>4.1694796</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.3029546</v>
+        <v>4.1694796</v>
       </c>
       <c r="R26" t="n">
-        <v>-260.59092</v>
+        <v>-416.94796</v>
       </c>
       <c r="S26" t="n">
-        <v>212.59092</v>
+        <v>-15.55204</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2605,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-48</v>
+        <v>-432.5</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2624,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NVDA  260227P00175000</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NVDA 27FEB26 175 P</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2660,29 +2650,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.46</v>
+        <v>1.66</v>
       </c>
       <c r="O27" t="n">
-        <v>-492</v>
+        <v>-332</v>
       </c>
       <c r="P27" t="n">
-        <v>4.6464796</v>
+        <v>1.8129546</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.6464796</v>
+        <v>1.8129546</v>
       </c>
       <c r="R27" t="n">
-        <v>-929.29592</v>
+        <v>-362.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>437.29592</v>
+        <v>30.59092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2695,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-492</v>
+        <v>-332</v>
       </c>
     </row>
     <row r="28">
@@ -2719,24 +2709,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORCL  260227P00140000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ORCL 27FEB26 140 P</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2745,34 +2735,34 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.38</v>
+        <v>0.23</v>
       </c>
       <c r="O28" t="n">
-        <v>-138</v>
+        <v>-46</v>
       </c>
       <c r="P28" t="n">
-        <v>2.4919796</v>
+        <v>1.3029546</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4919796</v>
+        <v>1.3029546</v>
       </c>
       <c r="R28" t="n">
-        <v>-249.19796</v>
+        <v>-260.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>111.19796</v>
+        <v>214.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2785,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-138</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="29">
@@ -2809,24 +2799,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ORCL  260227C00190000</t>
+          <t>NVDA  260227P00175000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ORCL 27FEB26 190 C</t>
+          <t>NVDA 27FEB26 175 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2835,34 +2825,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.145</v>
+        <v>2.11</v>
       </c>
       <c r="O29" t="n">
-        <v>-14.5</v>
+        <v>-422</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0094546</v>
+        <v>4.6464796</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.0094546</v>
+        <v>4.6464796</v>
       </c>
       <c r="R29" t="n">
-        <v>-100.94546</v>
+        <v>-929.29592</v>
       </c>
       <c r="S29" t="n">
-        <v>86.44546</v>
+        <v>507.29592</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2875,7 +2865,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-14.5</v>
+        <v>-422</v>
       </c>
     </row>
     <row r="30">
@@ -2904,23 +2894,23 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>ORCL  260227P00140000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>ORCL 27FEB26 140 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2930,29 +2920,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>7.8385</v>
+        <v>1.1336</v>
       </c>
       <c r="O30" t="n">
-        <v>-1567.7</v>
+        <v>-113.36</v>
       </c>
       <c r="P30" t="n">
-        <v>6.3644671</v>
+        <v>2.4919796</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.3644671</v>
+        <v>2.4919796</v>
       </c>
       <c r="R30" t="n">
-        <v>-1272.89342</v>
+        <v>-249.19796</v>
       </c>
       <c r="S30" t="n">
-        <v>-294.80658</v>
+        <v>135.83796</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2965,7 +2955,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1567.7</v>
+        <v>-113.36</v>
       </c>
     </row>
     <row r="31">
@@ -2989,24 +2979,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>ORCL  260227C00190000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>ORCL 27FEB26 190 C</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>377.5</v>
+        <v>190</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3015,34 +3005,34 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.3939</v>
+        <v>0.1451</v>
       </c>
       <c r="O31" t="n">
-        <v>-478.78</v>
+        <v>-14.51</v>
       </c>
       <c r="P31" t="n">
-        <v>4.3429546</v>
+        <v>1.0094546</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.3429546</v>
+        <v>1.0094546</v>
       </c>
       <c r="R31" t="n">
-        <v>-868.59092</v>
+        <v>-100.94546</v>
       </c>
       <c r="S31" t="n">
-        <v>389.81092</v>
+        <v>86.43546000000001</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3055,7 +3045,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-478.78</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="32">
@@ -3079,60 +3069,60 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>437.5</v>
+        <v>425</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>2.615</v>
+        <v>8.2224</v>
       </c>
       <c r="O32" t="n">
-        <v>-523</v>
+        <v>-1644.48</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5129546</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5129546</v>
+        <v>6.3644671</v>
       </c>
       <c r="R32" t="n">
-        <v>-702.59092</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S32" t="n">
-        <v>179.59092</v>
+        <v>-371.58658</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3145,7 +3135,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-523</v>
+        <v>-1644.48</v>
       </c>
     </row>
     <row r="33">
@@ -3174,23 +3164,23 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>505</v>
+        <v>377.5</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3200,42 +3190,222 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>8.074999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="O33" t="n">
-        <v>-1615</v>
+        <v>-488</v>
       </c>
       <c r="P33" t="n">
+        <v>4.3429546</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4.3429546</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-868.59092</v>
+      </c>
+      <c r="S33" t="n">
+        <v>380.59092</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>-488</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SMH   260227C00437500</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 437.5 C</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.7293</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-345.86</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-702.59092</v>
+      </c>
+      <c r="S34" t="n">
+        <v>356.73092</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>-345.86</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="n">
+        <v>505</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1662</v>
+      </c>
+      <c r="P35" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q35" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R35" t="n">
         <v>-1470.97592</v>
       </c>
-      <c r="S33" t="n">
-        <v>-144.02408</v>
-      </c>
-      <c r="T33" t="inlineStr">
+      <c r="S35" t="n">
+        <v>-191.02408</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V33" t="n">
-        <v>-1615</v>
+      <c r="V35" t="n">
+        <v>-1662</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3551,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3411,17 +3581,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>400.6</v>
+        <v>396.9</v>
       </c>
       <c r="O2" t="n">
-        <v>20030</v>
+        <v>19845</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3433,7 +3603,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-952.956235</v>
+        <v>-1137.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3446,7 +3616,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25908.805</v>
+        <v>25604.019</v>
       </c>
     </row>
     <row r="3">
@@ -3461,7 +3631,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3491,29 +3661,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5695</v>
+        <v>3.552</v>
       </c>
       <c r="O3" t="n">
-        <v>19632.25</v>
+        <v>31968</v>
       </c>
       <c r="P3" t="n">
-        <v>3.57708765</v>
+        <v>3.573974983</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.57708765</v>
+        <v>3.573974983</v>
       </c>
       <c r="R3" t="n">
-        <v>19673.982075</v>
+        <v>32165.77485</v>
       </c>
       <c r="S3" t="n">
-        <v>-41.732075</v>
+        <v>-197.77485</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3526,7 +3696,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>25394.315375</v>
+        <v>41245.1136</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3711,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2935</v>
+        <v>1.2902</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3571,29 +3741,29 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>65.75</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>13150</v>
+        <v>32660</v>
       </c>
       <c r="P4" t="n">
-        <v>64.6234956</v>
+        <v>65.30711724</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.6234956</v>
+        <v>65.30711724</v>
       </c>
       <c r="R4" t="n">
-        <v>12924.69912</v>
+        <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>225.30088</v>
+        <v>6.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3606,7 +3776,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>17009.525</v>
+        <v>42137.932</v>
       </c>
     </row>
     <row r="5">
@@ -3621,7 +3791,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14512</v>
+        <v>0.14494</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3651,7 +3821,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -3686,7 +3856,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9159.974399999999</v>
+        <v>9148.612800000001</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3871,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1783</v>
+        <v>1.1773</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3731,17 +3901,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4515</v>
+        <v>4.4215</v>
       </c>
       <c r="O6" t="n">
-        <v>17806</v>
+        <v>17686</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3753,7 +3923,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-829.313</v>
+        <v>-949.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3766,7 +3936,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20980.8098</v>
+        <v>20821.7278</v>
       </c>
     </row>
     <row r="7">
@@ -3781,7 +3951,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1783</v>
+        <v>1.1773</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3811,17 +3981,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.65</v>
+        <v>49.92</v>
       </c>
       <c r="O7" t="n">
-        <v>49650</v>
+        <v>49920</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3833,7 +4003,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6640</v>
+        <v>6910</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3846,7 +4016,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58502.59499999999</v>
+        <v>58770.816</v>
       </c>
     </row>
     <row r="8">
@@ -3861,7 +4031,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78912</v>
+        <v>0.78852</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3891,17 +4061,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>4.945</v>
+        <v>5.002</v>
       </c>
       <c r="O8" t="n">
-        <v>49450</v>
+        <v>50020</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3913,7 +4083,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11331.8184</v>
+        <v>11901.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3926,7 +4096,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39021.984</v>
+        <v>39441.7704</v>
       </c>
     </row>
     <row r="9">
@@ -3941,7 +4111,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78912</v>
+        <v>0.78852</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3971,29 +4141,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>579.2</v>
+        <v>584.12</v>
       </c>
       <c r="O9" t="n">
-        <v>5792</v>
+        <v>29206</v>
       </c>
       <c r="P9" t="n">
-        <v>570.746232</v>
+        <v>581.41476</v>
       </c>
       <c r="Q9" t="n">
-        <v>570.746232</v>
+        <v>581.41476</v>
       </c>
       <c r="R9" t="n">
-        <v>5707.46232</v>
+        <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>84.53767999999999</v>
+        <v>135.262</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4006,7 +4176,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4570.58304</v>
+        <v>23029.51512</v>
       </c>
     </row>
     <row r="10">
@@ -4051,17 +4221,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.16</v>
+        <v>9.27</v>
       </c>
       <c r="O10" t="n">
-        <v>2748</v>
+        <v>2781</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4073,7 +4243,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-750.5</v>
+        <v>-717.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4086,7 +4256,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2748</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="11">
@@ -4131,17 +4301,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1436</v>
+        <v>1424.2</v>
       </c>
       <c r="O11" t="n">
-        <v>28720</v>
+        <v>28484</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4153,7 +4323,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-620.5410000000001</v>
+        <v>-856.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4166,7 +4336,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28720</v>
+        <v>28484</v>
       </c>
     </row>
     <row r="12">
@@ -4211,17 +4381,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>303.33</v>
+        <v>302.85</v>
       </c>
       <c r="O12" t="n">
-        <v>30333</v>
+        <v>30285</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4233,7 +4403,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2854.755</v>
+        <v>-2902.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4246,7 +4416,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>30333</v>
+        <v>30285</v>
       </c>
     </row>
     <row r="13">
@@ -4291,17 +4461,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.97</v>
+        <v>60.39</v>
       </c>
       <c r="O13" t="n">
-        <v>4877.6</v>
+        <v>4831.2</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4313,7 +4483,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>67.18000000000001</v>
+        <v>20.78</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4326,7 +4496,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4877.6</v>
+        <v>4831.2</v>
       </c>
     </row>
     <row r="14">
@@ -4371,17 +4541,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.145</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>9145</v>
+        <v>9110</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4393,7 +4563,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-260.9006</v>
+        <v>-295.9006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4406,7 +4576,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9145</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="15">
@@ -4451,17 +4621,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>74.90000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1261.68</v>
+        <v>1246.35</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4473,7 +4643,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>912.633421</v>
+        <v>897.303421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4486,7 +4656,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1261.68</v>
+        <v>1246.35</v>
       </c>
     </row>
     <row r="16">
@@ -4531,17 +4701,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>28.1051</v>
+        <v>27.8173</v>
       </c>
       <c r="O16" t="n">
-        <v>10820.46</v>
+        <v>10709.66</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4553,7 +4723,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>811.554112</v>
+        <v>700.754112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4566,7 +4736,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10820.46</v>
+        <v>10709.66</v>
       </c>
     </row>
     <row r="17">
@@ -4611,17 +4781,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>308.78</v>
+        <v>308.05</v>
       </c>
       <c r="O17" t="n">
-        <v>30878</v>
+        <v>30805</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4633,7 +4803,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>1076</v>
+        <v>1003</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4646,7 +4816,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30878</v>
+        <v>30805</v>
       </c>
     </row>
     <row r="18">
@@ -4691,17 +4861,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.859999999999999</v>
+        <v>9.769</v>
       </c>
       <c r="O18" t="n">
-        <v>9860</v>
+        <v>9769</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4713,7 +4883,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-369.112</v>
+        <v>-460.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4726,7 +4896,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9860</v>
+        <v>9769</v>
       </c>
     </row>
     <row r="19">
@@ -4771,17 +4941,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>176.66</v>
+        <v>175.64</v>
       </c>
       <c r="O19" t="n">
-        <v>52998</v>
+        <v>52692</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4793,7 +4963,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>1175.34162</v>
+        <v>869.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4806,7 +4976,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52998</v>
+        <v>52692</v>
       </c>
     </row>
     <row r="20">
@@ -4861,17 +5031,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>29.0807</v>
+        <v>30.1255</v>
       </c>
       <c r="O20" t="n">
-        <v>5816.14</v>
+        <v>6025.1</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4883,7 +5053,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1110.7375</v>
+        <v>1319.6975</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4896,7 +5066,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5816.14</v>
+        <v>6025.1</v>
       </c>
     </row>
     <row r="21">
@@ -4951,17 +5121,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>22.08</v>
+        <v>22.69</v>
       </c>
       <c r="O21" t="n">
-        <v>4416</v>
+        <v>4538</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -4973,7 +5143,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>388.9825</v>
+        <v>510.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4986,7 +5156,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4416</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="22">
@@ -5041,17 +5211,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>-387.5</v>
+        <v>-400</v>
       </c>
       <c r="P22" t="n">
         <v>3.6594796</v>
@@ -5063,7 +5233,7 @@
         <v>-365.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-21.55204</v>
+        <v>-34.05204</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5076,7 +5246,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-387.5</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="23">
@@ -5131,17 +5301,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>2.475</v>
       </c>
       <c r="O23" t="n">
-        <v>-268</v>
+        <v>-247.5</v>
       </c>
       <c r="P23" t="n">
         <v>2.7594546</v>
@@ -5153,7 +5323,7 @@
         <v>-275.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>7.94546</v>
+        <v>28.44546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5166,7 +5336,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-268</v>
+        <v>-247.5</v>
       </c>
     </row>
     <row r="24">
@@ -5221,17 +5391,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.725</v>
+        <v>1.66</v>
       </c>
       <c r="O24" t="n">
-        <v>-345</v>
+        <v>-332</v>
       </c>
       <c r="P24" t="n">
         <v>1.8429546</v>
@@ -5243,7 +5413,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>23.59092</v>
+        <v>36.59092</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5256,7 +5426,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-345</v>
+        <v>-332</v>
       </c>
     </row>
     <row r="25">
@@ -5311,17 +5481,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="O25" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="P25" t="n">
         <v>1.2929546</v>
@@ -5333,7 +5503,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>210.59092</v>
+        <v>212.59092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5346,7 +5516,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-48</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="26">
@@ -5401,17 +5571,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1573</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>-415.73</v>
+        <v>-410</v>
       </c>
       <c r="P26" t="n">
         <v>4.5994546</v>
@@ -5423,7 +5593,7 @@
         <v>-459.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>44.21546</v>
+        <v>49.94546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5436,7 +5606,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-415.73</v>
+        <v>-410</v>
       </c>
     </row>
     <row r="27">
@@ -5491,17 +5661,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>7.8385</v>
+        <v>8.2224</v>
       </c>
       <c r="O27" t="n">
-        <v>-1567.7</v>
+        <v>-1644.48</v>
       </c>
       <c r="P27" t="n">
         <v>6.3929546</v>
@@ -5513,7 +5683,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-289.10908</v>
+        <v>-365.88908</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5526,7 +5696,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1567.7</v>
+        <v>-1644.48</v>
       </c>
     </row>
     <row r="28">
@@ -5581,17 +5751,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>2.3939</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>-478.78</v>
+        <v>-488</v>
       </c>
       <c r="P28" t="n">
         <v>4.3329546</v>
@@ -5603,7 +5773,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>387.81092</v>
+        <v>378.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5616,7 +5786,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-478.78</v>
+        <v>-488</v>
       </c>
     </row>
     <row r="29">
@@ -5671,17 +5841,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.615</v>
+        <v>1.7293</v>
       </c>
       <c r="O29" t="n">
-        <v>-523</v>
+        <v>-345.86</v>
       </c>
       <c r="P29" t="n">
         <v>3.5029546</v>
@@ -5693,7 +5863,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S29" t="n">
-        <v>177.59092</v>
+        <v>354.73092</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5706,7 +5876,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-523</v>
+        <v>-345.86</v>
       </c>
     </row>
     <row r="30">
@@ -5761,17 +5931,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>8.074999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="O30" t="n">
-        <v>-1615</v>
+        <v>-1662</v>
       </c>
       <c r="P30" t="n">
         <v>7.3496796</v>
@@ -5783,7 +5953,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S30" t="n">
-        <v>-145.06408</v>
+        <v>-192.06408</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -5796,7 +5966,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-1615</v>
+        <v>-1662</v>
       </c>
     </row>
   </sheetData>
@@ -5848,17 +6018,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$253,485.65</t>
+          <t>$321,108.22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$187,265.79</t>
+          <t>$119,030.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$440,751.44</t>
+          <t>$440,138.38</t>
         </is>
       </c>
     </row>
@@ -5870,17 +6040,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$386,773.76</t>
+          <t>$445,899.98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,089.24</t>
+          <t>$113,936.78</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$560,863.01</t>
+          <t>$559,836.75</t>
         </is>
       </c>
     </row>
@@ -5898,17 +6068,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$640,259.41</t>
+          <t>$767,008.19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$361,355.03</t>
+          <t>$232,966.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,001,614.44</t>
+          <t>$999,975.13</t>
         </is>
       </c>
     </row>
@@ -5961,11 +6131,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-19 23:55:22</t>
+          <t>2026-02-20 23:53:54</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>29</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.9</v>
+        <v>399.05</v>
       </c>
       <c r="O2" t="n">
-        <v>19845</v>
+        <v>19952.5</v>
       </c>
       <c r="P2" t="n">
         <v>418.0600962</v>
@@ -612,7 +612,7 @@
         <v>20903.00481</v>
       </c>
       <c r="S2" t="n">
-        <v>-1058.00481</v>
+        <v>-950.50481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25604.019</v>
+        <v>25722.763</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>7500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.552</v>
+        <v>3.5675</v>
       </c>
       <c r="O3" t="n">
-        <v>26640</v>
+        <v>26756.25</v>
       </c>
       <c r="P3" t="n">
         <v>3.576800457</v>
@@ -692,7 +692,7 @@
         <v>26826.003425</v>
       </c>
       <c r="S3" t="n">
-        <v>-186.003425</v>
+        <v>-69.75342499999999</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>34370.928</v>
+        <v>34494.15749999999</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>65.31999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>19596</v>
+        <v>19929</v>
       </c>
       <c r="P4" t="n">
         <v>65.14093333300001</v>
@@ -772,7 +772,7 @@
         <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>53.72</v>
+        <v>386.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>25282.7592</v>
+        <v>25692.4668</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14494</v>
+        <v>0.14498</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,29 +830,29 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.56</v>
+        <v>31.4</v>
       </c>
       <c r="O5" t="n">
-        <v>63120</v>
+        <v>94200</v>
       </c>
       <c r="P5" t="n">
-        <v>31.16579949</v>
+        <v>31.36596519</v>
       </c>
       <c r="Q5" t="n">
-        <v>31.16579949</v>
+        <v>31.36596519</v>
       </c>
       <c r="R5" t="n">
-        <v>62331.59898</v>
+        <v>94097.89556999999</v>
       </c>
       <c r="S5" t="n">
-        <v>788.40102</v>
+        <v>102.10443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9148.612800000001</v>
+        <v>13657.116</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1773</v>
+        <v>1.1781</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4215</v>
+        <v>4.408</v>
       </c>
       <c r="O6" t="n">
-        <v>17686</v>
+        <v>17632</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-962.67968</v>
+        <v>-1016.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20821.7278</v>
+        <v>20772.2592</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78852</v>
+        <v>0.78939</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.002</v>
+        <v>5.01</v>
       </c>
       <c r="O7" t="n">
-        <v>40016</v>
+        <v>40080</v>
       </c>
       <c r="P7" t="n">
         <v>4.717028356</v>
@@ -1012,7 +1012,7 @@
         <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2279.77315</v>
+        <v>2343.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>31553.41632</v>
+        <v>31638.7512</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78852</v>
+        <v>0.78939</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>584.12</v>
+        <v>586.95</v>
       </c>
       <c r="O8" t="n">
-        <v>29206</v>
+        <v>29347.5</v>
       </c>
       <c r="P8" t="n">
         <v>581.20939584</v>
@@ -1092,7 +1092,7 @@
         <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>145.530208</v>
+        <v>287.030208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>23029.51512</v>
+        <v>23166.623025</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.27</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-43.5</v>
+        <v>-34.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>927</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13</v>
+        <v>48.32</v>
       </c>
       <c r="O10" t="n">
-        <v>2206.5</v>
+        <v>2416</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>-107.7511</v>
+        <v>101.7489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2206.5</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.55</v>
+        <v>10.34</v>
       </c>
       <c r="O11" t="n">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-194</v>
+        <v>-215</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1055</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>1424.2</v>
+        <v>1431</v>
       </c>
       <c r="O12" t="n">
-        <v>21363</v>
+        <v>21465</v>
       </c>
       <c r="P12" t="n">
         <v>1474.989023133</v>
@@ -1412,7 +1412,7 @@
         <v>22124.835347</v>
       </c>
       <c r="S12" t="n">
-        <v>-761.835347</v>
+        <v>-659.835347</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21363</v>
+        <v>21465</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>302.85</v>
+        <v>314.98</v>
       </c>
       <c r="O13" t="n">
-        <v>30285</v>
+        <v>31498</v>
       </c>
       <c r="P13" t="n">
         <v>301.635</v>
@@ -1492,7 +1492,7 @@
         <v>30163.5</v>
       </c>
       <c r="S13" t="n">
-        <v>121.5</v>
+        <v>1334.5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>30285</v>
+        <v>31498</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>60.39</v>
+        <v>60.75</v>
       </c>
       <c r="O14" t="n">
-        <v>4831.2</v>
+        <v>4860</v>
       </c>
       <c r="P14" t="n">
         <v>59.41</v>
@@ -1572,7 +1572,7 @@
         <v>4752.8</v>
       </c>
       <c r="S14" t="n">
-        <v>78.40000000000001</v>
+        <v>107.2</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4831.2</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>9.109999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>9110</v>
+        <v>9140</v>
       </c>
       <c r="P15" t="n">
         <v>9.424709999999999</v>
@@ -1652,7 +1652,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>-314.71</v>
+        <v>-284.71</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9110</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.8173</v>
+        <v>27.878</v>
       </c>
       <c r="O16" t="n">
-        <v>10709.66</v>
+        <v>10733.03</v>
       </c>
       <c r="P16" t="n">
         <v>26.012734603</v>
@@ -1732,7 +1732,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S16" t="n">
-        <v>694.757178</v>
+        <v>718.127178</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10709.66</v>
+        <v>10733.03</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>38.69</v>
+        <v>38.9</v>
       </c>
       <c r="O17" t="n">
-        <v>3869</v>
+        <v>3890</v>
       </c>
       <c r="P17" t="n">
         <v>35.26000011</v>
@@ -1812,7 +1812,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S17" t="n">
-        <v>342.999989</v>
+        <v>363.999989</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3869</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.769</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>9769</v>
+        <v>9870</v>
       </c>
       <c r="P18" t="n">
         <v>10.2267108</v>
@@ -1892,7 +1892,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S18" t="n">
-        <v>-457.7108</v>
+        <v>-356.7108</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9769</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>156.54</v>
+        <v>148.08</v>
       </c>
       <c r="O19" t="n">
-        <v>15654</v>
+        <v>14808</v>
       </c>
       <c r="P19" t="n">
         <v>205.3357044</v>
@@ -1972,7 +1972,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-4879.57044</v>
+        <v>-5725.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>15654</v>
+        <v>14808</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>114.6</v>
+        <v>115</v>
       </c>
       <c r="O20" t="n">
-        <v>2292</v>
+        <v>2300</v>
       </c>
       <c r="P20" t="n">
         <v>124.315</v>
@@ -2052,7 +2052,7 @@
         <v>2486.3</v>
       </c>
       <c r="S20" t="n">
-        <v>-194.3</v>
+        <v>-186.3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2292</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="21">
@@ -2110,17 +2110,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>175.64</v>
+        <v>176.6</v>
       </c>
       <c r="O21" t="n">
-        <v>35128</v>
+        <v>35320</v>
       </c>
       <c r="P21" t="n">
         <v>171.74192805</v>
@@ -2132,7 +2132,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>779.61439</v>
+        <v>971.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>35128</v>
+        <v>35320</v>
       </c>
     </row>
     <row r="22">
@@ -2200,17 +2200,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>30.1255</v>
+        <v>28.6489</v>
       </c>
       <c r="O22" t="n">
-        <v>6025.1</v>
+        <v>5729.78</v>
       </c>
       <c r="P22" t="n">
         <v>23.4605</v>
@@ -2222,7 +2222,7 @@
         <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1333</v>
+        <v>1037.68</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>6025.1</v>
+        <v>5729.78</v>
       </c>
     </row>
     <row r="23">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>22.69</v>
+        <v>21.5359</v>
       </c>
       <c r="O23" t="n">
-        <v>4538</v>
+        <v>4307.18</v>
       </c>
       <c r="P23" t="n">
         <v>20.1374875</v>
@@ -2312,7 +2312,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>510.5025</v>
+        <v>279.6825</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4538</v>
+        <v>4307.18</v>
       </c>
     </row>
     <row r="24">
@@ -2349,60 +2349,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GOOGL 260227P00310000</t>
+          <t>GOOGL 260306C00325000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 310 P</t>
+          <t>GOOGL 06MAR26 325 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>9.6326</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>-963.26</v>
+        <v>-375</v>
       </c>
       <c r="P24" t="n">
-        <v>7.2294546</v>
+        <v>3.7194546</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.2294546</v>
+        <v>3.7194546</v>
       </c>
       <c r="R24" t="n">
-        <v>-722.94546</v>
+        <v>-371.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>-240.31454</v>
+        <v>-3.05454</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-963.26</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="25">
@@ -2439,60 +2439,60 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOOGL 260227C00370000</t>
+          <t>GOOGL 260327P00300000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GOOGL 27FEB26 370 C</t>
+          <t>GOOGL 27MAR26 300 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0125</v>
+        <v>6.35</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.25</v>
+        <v>-635</v>
       </c>
       <c r="P25" t="n">
-        <v>5.6494546</v>
+        <v>5.6794546</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.6494546</v>
+        <v>5.6794546</v>
       </c>
       <c r="R25" t="n">
-        <v>-564.94546</v>
+        <v>-567.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>563.69546</v>
+        <v>-67.05454</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-1.25</v>
+        <v>-635</v>
       </c>
     </row>
     <row r="26">
@@ -2529,60 +2529,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GOOGL 260320C00320000</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GOOGL 20MAR26 320 C</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>4.325</v>
+        <v>1.17</v>
       </c>
       <c r="O26" t="n">
-        <v>-432.5</v>
+        <v>-234</v>
       </c>
       <c r="P26" t="n">
-        <v>4.1694796</v>
+        <v>1.8129546</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.1694796</v>
+        <v>1.8129546</v>
       </c>
       <c r="R26" t="n">
-        <v>-416.94796</v>
+        <v>-362.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-15.55204</v>
+        <v>128.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-432.5</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="27">
@@ -2619,24 +2619,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2645,34 +2645,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.66</v>
+        <v>0.075</v>
       </c>
       <c r="O27" t="n">
-        <v>-332</v>
+        <v>-15</v>
       </c>
       <c r="P27" t="n">
-        <v>1.8129546</v>
+        <v>1.3029546</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8129546</v>
+        <v>1.3029546</v>
       </c>
       <c r="R27" t="n">
-        <v>-362.59092</v>
+        <v>-260.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>30.59092</v>
+        <v>245.59092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-332</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="28">
@@ -2709,24 +2709,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>NVDA  260227P00175000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>NVDA 27FEB26 175 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2735,34 +2735,34 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.23</v>
+        <v>1.505</v>
       </c>
       <c r="O28" t="n">
-        <v>-46</v>
+        <v>-301</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3029546</v>
+        <v>4.6464796</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.3029546</v>
+        <v>4.6464796</v>
       </c>
       <c r="R28" t="n">
-        <v>-260.59092</v>
+        <v>-929.29592</v>
       </c>
       <c r="S28" t="n">
-        <v>214.59092</v>
+        <v>628.29592</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-46</v>
+        <v>-301</v>
       </c>
     </row>
     <row r="29">
@@ -2804,19 +2804,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NVDA  260227P00175000</t>
+          <t>ORCL  260227P00140000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NVDA 27FEB26 175 P</t>
+          <t>ORCL 27FEB26 140 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2830,29 +2830,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.11</v>
+        <v>2.465</v>
       </c>
       <c r="O29" t="n">
-        <v>-422</v>
+        <v>-246.5</v>
       </c>
       <c r="P29" t="n">
-        <v>4.6464796</v>
+        <v>2.4919796</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.6464796</v>
+        <v>2.4919796</v>
       </c>
       <c r="R29" t="n">
-        <v>-929.29592</v>
+        <v>-249.19796</v>
       </c>
       <c r="S29" t="n">
-        <v>507.29592</v>
+        <v>2.69796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-422</v>
+        <v>-246.5</v>
       </c>
     </row>
     <row r="30">
@@ -2889,60 +2889,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ORCL  260227P00140000</t>
+          <t>ORCL  260306C00165000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ORCL 27FEB26 140 P</t>
+          <t>ORCL 06MAR26 165 C</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1336</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>-113.36</v>
+        <v>-167</v>
       </c>
       <c r="P30" t="n">
-        <v>2.4919796</v>
+        <v>1.8094796</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4919796</v>
+        <v>1.8094796</v>
       </c>
       <c r="R30" t="n">
-        <v>-249.19796</v>
+        <v>-180.94796</v>
       </c>
       <c r="S30" t="n">
-        <v>135.83796</v>
+        <v>13.94796</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-113.36</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="31">
@@ -2979,60 +2979,60 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ORCL  260227C00190000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ORCL 27FEB26 190 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>190</v>
+        <v>425</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1451</v>
+        <v>7.8086</v>
       </c>
       <c r="O31" t="n">
-        <v>-14.51</v>
+        <v>-1561.72</v>
       </c>
       <c r="P31" t="n">
-        <v>1.0094546</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.0094546</v>
+        <v>6.3644671</v>
       </c>
       <c r="R31" t="n">
-        <v>-100.94546</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S31" t="n">
-        <v>86.43546000000001</v>
+        <v>-288.82658</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-14.51</v>
+        <v>-1561.72</v>
       </c>
     </row>
     <row r="32">
@@ -3074,23 +3074,23 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>425</v>
+        <v>377.5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3100,29 +3100,29 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>8.2224</v>
+        <v>1.4511</v>
       </c>
       <c r="O32" t="n">
-        <v>-1644.48</v>
+        <v>-290.22</v>
       </c>
       <c r="P32" t="n">
-        <v>6.3644671</v>
+        <v>4.3429546</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.3644671</v>
+        <v>4.3429546</v>
       </c>
       <c r="R32" t="n">
-        <v>-1272.89342</v>
+        <v>-868.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>-371.58658</v>
+        <v>578.37092</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-1644.48</v>
+        <v>-290.22</v>
       </c>
     </row>
     <row r="33">
@@ -3159,24 +3159,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>377.5</v>
+        <v>437.5</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3185,34 +3185,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="O33" t="n">
-        <v>-488</v>
+        <v>-352</v>
       </c>
       <c r="P33" t="n">
-        <v>4.3429546</v>
+        <v>3.5129546</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.3429546</v>
+        <v>3.5129546</v>
       </c>
       <c r="R33" t="n">
-        <v>-868.59092</v>
+        <v>-702.59092</v>
       </c>
       <c r="S33" t="n">
-        <v>380.59092</v>
+        <v>350.59092</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-488</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="34">
@@ -3249,60 +3249,60 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>437.5</v>
+        <v>505</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7293</v>
+        <v>7.895</v>
       </c>
       <c r="O34" t="n">
-        <v>-345.86</v>
+        <v>-1579</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5129546</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.5129546</v>
+        <v>7.3548796</v>
       </c>
       <c r="R34" t="n">
-        <v>-702.59092</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S34" t="n">
-        <v>356.73092</v>
+        <v>-108.02408</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3315,97 +3315,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-345.86</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>100</v>
-      </c>
-      <c r="I35" t="n">
-        <v>505</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-1662</v>
-      </c>
-      <c r="P35" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="R35" t="n">
-        <v>-1470.97592</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-191.02408</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>-1662</v>
+        <v>-1579</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +3329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3551,7 +3461,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3581,17 +3491,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>396.9</v>
+        <v>399.05</v>
       </c>
       <c r="O2" t="n">
-        <v>19845</v>
+        <v>19952.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3603,7 +3513,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1137.956235</v>
+        <v>-1030.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3616,7 +3526,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25604.019</v>
+        <v>25722.763</v>
       </c>
     </row>
     <row r="3">
@@ -3631,7 +3541,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3661,17 +3571,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>9000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.552</v>
+        <v>3.5675</v>
       </c>
       <c r="O3" t="n">
-        <v>31968</v>
+        <v>32107.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.573974983</v>
@@ -3683,7 +3593,7 @@
         <v>32165.77485</v>
       </c>
       <c r="S3" t="n">
-        <v>-197.77485</v>
+        <v>-58.27485</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3696,7 +3606,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>41245.1136</v>
+        <v>41392.98899999999</v>
       </c>
     </row>
     <row r="4">
@@ -3711,7 +3621,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2902</v>
+        <v>1.2892</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3741,17 +3651,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>65.31999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>32660</v>
+        <v>33215</v>
       </c>
       <c r="P4" t="n">
         <v>65.30711724</v>
@@ -3763,7 +3673,7 @@
         <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>6.44138</v>
+        <v>561.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3776,7 +3686,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>42137.932</v>
+        <v>42820.778</v>
       </c>
     </row>
     <row r="5">
@@ -3791,7 +3701,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14494</v>
+        <v>0.14498</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3821,17 +3731,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.56</v>
+        <v>31.4</v>
       </c>
       <c r="O5" t="n">
-        <v>63120</v>
+        <v>62800</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3843,7 +3753,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-272.47719</v>
+        <v>-592.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3856,7 +3766,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9148.612800000001</v>
+        <v>9104.744000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3871,7 +3781,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1773</v>
+        <v>1.1781</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3901,17 +3811,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4215</v>
+        <v>4.408</v>
       </c>
       <c r="O6" t="n">
-        <v>17686</v>
+        <v>17632</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3923,7 +3833,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-949.313</v>
+        <v>-1003.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3936,7 +3846,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20821.7278</v>
+        <v>20772.2592</v>
       </c>
     </row>
     <row r="7">
@@ -3951,7 +3861,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1773</v>
+        <v>1.1781</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3981,17 +3891,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.92</v>
+        <v>49.95</v>
       </c>
       <c r="O7" t="n">
-        <v>49920</v>
+        <v>49950</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -4003,7 +3913,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6910</v>
+        <v>6940</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4016,7 +3926,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58770.816</v>
+        <v>58846.09499999999</v>
       </c>
     </row>
     <row r="8">
@@ -4031,7 +3941,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78852</v>
+        <v>0.78939</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4061,17 +3971,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.002</v>
+        <v>5.01</v>
       </c>
       <c r="O8" t="n">
-        <v>50020</v>
+        <v>50100</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -4083,7 +3993,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11901.8184</v>
+        <v>11981.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4096,7 +4006,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39441.7704</v>
+        <v>39548.439</v>
       </c>
     </row>
     <row r="9">
@@ -4111,7 +4021,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78852</v>
+        <v>0.78939</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4141,17 +4051,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>584.12</v>
+        <v>586.95</v>
       </c>
       <c r="O9" t="n">
-        <v>29206</v>
+        <v>29347.5</v>
       </c>
       <c r="P9" t="n">
         <v>581.41476</v>
@@ -4163,7 +4073,7 @@
         <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>135.262</v>
+        <v>276.762</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4176,7 +4086,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23029.51512</v>
+        <v>23166.623025</v>
       </c>
     </row>
     <row r="10">
@@ -4221,17 +4131,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.27</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>2781</v>
+        <v>2808</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4243,7 +4153,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-717.5</v>
+        <v>-690.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4256,7 +4166,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2781</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="11">
@@ -4301,17 +4211,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1424.2</v>
+        <v>1431</v>
       </c>
       <c r="O11" t="n">
-        <v>28484</v>
+        <v>28620</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4323,7 +4233,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-856.5410000000001</v>
+        <v>-720.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4336,7 +4246,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28484</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="12">
@@ -4381,17 +4291,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>302.85</v>
+        <v>314.98</v>
       </c>
       <c r="O12" t="n">
-        <v>30285</v>
+        <v>31498</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4403,7 +4313,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2902.755</v>
+        <v>-1689.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4416,7 +4326,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>30285</v>
+        <v>31498</v>
       </c>
     </row>
     <row r="13">
@@ -4461,17 +4371,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.39</v>
+        <v>60.75</v>
       </c>
       <c r="O13" t="n">
-        <v>4831.2</v>
+        <v>4860</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4483,7 +4393,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>20.78</v>
+        <v>49.58</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4496,7 +4406,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4831.2</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="14">
@@ -4541,17 +4451,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.109999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>9110</v>
+        <v>9140</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4563,7 +4473,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-295.9006</v>
+        <v>-265.9006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4576,7 +4486,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9110</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="15">
@@ -4621,17 +4531,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>73.98999999999999</v>
+        <v>74.395</v>
       </c>
       <c r="O15" t="n">
-        <v>1246.35</v>
+        <v>1253.17</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4643,7 +4553,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>897.303421</v>
+        <v>904.123421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4656,7 +4566,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1246.35</v>
+        <v>1253.17</v>
       </c>
     </row>
     <row r="16">
@@ -4701,17 +4611,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.8173</v>
+        <v>27.878</v>
       </c>
       <c r="O16" t="n">
-        <v>10709.66</v>
+        <v>10733.03</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4723,7 +4633,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>700.754112</v>
+        <v>724.124112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4736,7 +4646,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10709.66</v>
+        <v>10733.03</v>
       </c>
     </row>
     <row r="17">
@@ -4781,17 +4691,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>308.05</v>
+        <v>310.79</v>
       </c>
       <c r="O17" t="n">
-        <v>30805</v>
+        <v>31079</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4803,7 +4713,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>1003</v>
+        <v>1277</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4816,7 +4726,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30805</v>
+        <v>31079</v>
       </c>
     </row>
     <row r="18">
@@ -4861,17 +4771,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.769</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>9769</v>
+        <v>9870</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4883,7 +4793,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-460.112</v>
+        <v>-359.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4896,7 +4806,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9769</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="19">
@@ -4941,17 +4851,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>175.64</v>
+        <v>176.6</v>
       </c>
       <c r="O19" t="n">
-        <v>52692</v>
+        <v>52980</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4963,7 +4873,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>869.34162</v>
+        <v>1157.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4976,7 +4886,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52692</v>
+        <v>52980</v>
       </c>
     </row>
     <row r="20">
@@ -5031,17 +4941,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>30.1255</v>
+        <v>28.6489</v>
       </c>
       <c r="O20" t="n">
-        <v>6025.1</v>
+        <v>5729.78</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -5053,7 +4963,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1319.6975</v>
+        <v>1024.3775</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -5066,7 +4976,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6025.1</v>
+        <v>5729.78</v>
       </c>
     </row>
     <row r="21">
@@ -5121,17 +5031,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>22.69</v>
+        <v>21.5359</v>
       </c>
       <c r="O21" t="n">
-        <v>4538</v>
+        <v>4307.18</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -5143,7 +5053,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>510.9825</v>
+        <v>280.1625</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5156,7 +5066,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4538</v>
+        <v>4307.18</v>
       </c>
     </row>
     <row r="22">
@@ -5211,17 +5121,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>1.4091</v>
       </c>
       <c r="O22" t="n">
-        <v>-400</v>
+        <v>-140.91</v>
       </c>
       <c r="P22" t="n">
         <v>3.6594796</v>
@@ -5233,7 +5143,7 @@
         <v>-365.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>-34.05204</v>
+        <v>225.03796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5246,7 +5156,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-400</v>
+        <v>-140.91</v>
       </c>
     </row>
     <row r="23">
@@ -5270,60 +5180,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GOOGL 260304C00315000</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GOOGL 04MAR26 315 C</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>2.475</v>
+        <v>1.17</v>
       </c>
       <c r="O23" t="n">
-        <v>-247.5</v>
+        <v>-234</v>
       </c>
       <c r="P23" t="n">
-        <v>2.7594546</v>
+        <v>1.8429546</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.7594546</v>
+        <v>1.8429546</v>
       </c>
       <c r="R23" t="n">
-        <v>-275.94546</v>
+        <v>-368.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>28.44546</v>
+        <v>134.59092</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5336,7 +5246,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-247.5</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="24">
@@ -5360,24 +5270,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -5386,34 +5296,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.66</v>
+        <v>0.075</v>
       </c>
       <c r="O24" t="n">
-        <v>-332</v>
+        <v>-15</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8429546</v>
+        <v>1.2929546</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8429546</v>
+        <v>1.2929546</v>
       </c>
       <c r="R24" t="n">
-        <v>-368.59092</v>
+        <v>-258.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>36.59092</v>
+        <v>243.59092</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5426,7 +5336,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-332</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="25">
@@ -5455,23 +5365,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>JPM   260327C00325000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>JPM 27MAR26 325 C</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5481,29 +5391,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.23</v>
+        <v>4.2793</v>
       </c>
       <c r="O25" t="n">
-        <v>-46</v>
+        <v>-427.93</v>
       </c>
       <c r="P25" t="n">
-        <v>1.2929546</v>
+        <v>4.5994546</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.2929546</v>
+        <v>4.5994546</v>
       </c>
       <c r="R25" t="n">
-        <v>-258.59092</v>
+        <v>-459.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>212.59092</v>
+        <v>32.01546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5516,7 +5426,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-46</v>
+        <v>-427.93</v>
       </c>
     </row>
     <row r="26">
@@ -5540,60 +5450,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JPM   260327C00325000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JPM 27MAR26 325 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>7.8086</v>
       </c>
       <c r="O26" t="n">
-        <v>-410</v>
+        <v>-1561.72</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5994546</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.5994546</v>
+        <v>6.3929546</v>
       </c>
       <c r="R26" t="n">
-        <v>-459.94546</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>49.94546</v>
+        <v>-283.12908</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5606,7 +5516,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-410</v>
+        <v>-1561.72</v>
       </c>
     </row>
     <row r="27">
@@ -5635,23 +5545,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>425</v>
+        <v>377.5</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5661,29 +5571,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>8.2224</v>
+        <v>1.4511</v>
       </c>
       <c r="O27" t="n">
-        <v>-1644.48</v>
+        <v>-290.22</v>
       </c>
       <c r="P27" t="n">
-        <v>6.3929546</v>
+        <v>4.3329546</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.3929546</v>
+        <v>4.3329546</v>
       </c>
       <c r="R27" t="n">
-        <v>-1278.59092</v>
+        <v>-866.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>-365.88908</v>
+        <v>576.37092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5696,7 +5606,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-1644.48</v>
+        <v>-290.22</v>
       </c>
     </row>
     <row r="28">
@@ -5720,24 +5630,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>377.5</v>
+        <v>437.5</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -5746,34 +5656,34 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="O28" t="n">
-        <v>-488</v>
+        <v>-352</v>
       </c>
       <c r="P28" t="n">
-        <v>4.3329546</v>
+        <v>3.5029546</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.3329546</v>
+        <v>3.5029546</v>
       </c>
       <c r="R28" t="n">
-        <v>-866.59092</v>
+        <v>-700.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>378.59092</v>
+        <v>348.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5786,7 +5696,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-488</v>
+        <v>-352</v>
       </c>
     </row>
     <row r="29">
@@ -5810,60 +5720,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>437.5</v>
+        <v>505</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7293</v>
+        <v>7.895</v>
       </c>
       <c r="O29" t="n">
-        <v>-345.86</v>
+        <v>-1579</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5029546</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5029546</v>
+        <v>7.3496796</v>
       </c>
       <c r="R29" t="n">
-        <v>-700.59092</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S29" t="n">
-        <v>354.73092</v>
+        <v>-109.06408</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5876,97 +5786,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-345.86</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>505</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="O30" t="n">
-        <v>-1662</v>
-      </c>
-      <c r="P30" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S30" t="n">
-        <v>-192.06408</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>-1662</v>
+        <v>-1579</v>
       </c>
     </row>
   </sheetData>
@@ -6018,17 +5838,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$321,108.22</t>
+          <t>$327,694.69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$119,030.16</t>
+          <t>$114,463.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$440,138.38</t>
+          <t>$442,157.91</t>
         </is>
       </c>
     </row>
@@ -6040,17 +5860,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$445,899.98</t>
+          <t>$449,652.07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$113,936.78</t>
+          <t>$113,399.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$559,836.75</t>
+          <t>$563,051.23</t>
         </is>
       </c>
     </row>
@@ -6068,17 +5888,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$767,008.19</t>
+          <t>$777,346.76</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$232,966.94</t>
+          <t>$227,862.38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$999,975.13</t>
+          <t>$1,005,209.13</t>
         </is>
       </c>
     </row>
@@ -6131,14 +5951,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-20 23:53:54</t>
+          <t>2026-02-21 23:48:33</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5951,7 +5951,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-21 23:48:33</t>
+          <t>2026-02-22 23:50:49</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -5951,7 +5951,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-22 23:50:49</t>
+          <t>2026-02-23 23:55:28</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,29 +590,29 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>399.05</v>
+        <v>394.7</v>
       </c>
       <c r="O2" t="n">
-        <v>19952.5</v>
+        <v>15788</v>
       </c>
       <c r="P2" t="n">
-        <v>418.0600962</v>
+        <v>417.712590175</v>
       </c>
       <c r="Q2" t="n">
-        <v>418.0600962</v>
+        <v>417.712590175</v>
       </c>
       <c r="R2" t="n">
-        <v>20903.00481</v>
+        <v>16708.503607</v>
       </c>
       <c r="S2" t="n">
-        <v>-950.50481</v>
+        <v>-920.503607</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25722.763</v>
+        <v>20377.5716</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>7500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5675</v>
+        <v>3.546</v>
       </c>
       <c r="O3" t="n">
-        <v>26756.25</v>
+        <v>26595</v>
       </c>
       <c r="P3" t="n">
         <v>3.576800457</v>
@@ -692,7 +692,7 @@
         <v>26826.003425</v>
       </c>
       <c r="S3" t="n">
-        <v>-69.75342499999999</v>
+        <v>-231.003425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>34494.15749999999</v>
+        <v>34326.1665</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>66.43000000000001</v>
+        <v>66</v>
       </c>
       <c r="O4" t="n">
-        <v>19929</v>
+        <v>19800</v>
       </c>
       <c r="P4" t="n">
         <v>65.14093333300001</v>
@@ -772,7 +772,7 @@
         <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>386.72</v>
+        <v>257.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>25692.4668</v>
+        <v>25555.86</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14498</v>
+        <v>0.14515</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.4</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>94200</v>
+        <v>95040</v>
       </c>
       <c r="P5" t="n">
         <v>31.36596519</v>
@@ -852,7 +852,7 @@
         <v>94097.89556999999</v>
       </c>
       <c r="S5" t="n">
-        <v>102.10443</v>
+        <v>942.10443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>13657.116</v>
+        <v>13795.056</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1781</v>
+        <v>1.1785</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.408</v>
+        <v>4.403</v>
       </c>
       <c r="O6" t="n">
-        <v>17632</v>
+        <v>17612</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1016.67968</v>
+        <v>-1036.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20772.2592</v>
+        <v>20755.742</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78939</v>
+        <v>0.78955</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.01</v>
+        <v>5.035</v>
       </c>
       <c r="O7" t="n">
-        <v>40080</v>
+        <v>40280</v>
       </c>
       <c r="P7" t="n">
         <v>4.717028356</v>
@@ -1012,7 +1012,7 @@
         <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2343.77315</v>
+        <v>2543.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>31638.7512</v>
+        <v>31803.074</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78939</v>
+        <v>0.78955</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>586.95</v>
+        <v>599</v>
       </c>
       <c r="O8" t="n">
-        <v>29347.5</v>
+        <v>29950</v>
       </c>
       <c r="P8" t="n">
         <v>581.20939584</v>
@@ -1092,7 +1092,7 @@
         <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>287.030208</v>
+        <v>889.530208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>23166.623025</v>
+        <v>23647.0225</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9.359999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="O9" t="n">
-        <v>936</v>
+        <v>891</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-34.5</v>
+        <v>-79.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>936</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>48.32</v>
+        <v>49.22</v>
       </c>
       <c r="O10" t="n">
-        <v>2416</v>
+        <v>2461</v>
       </c>
       <c r="P10" t="n">
         <v>46.285022</v>
@@ -1252,7 +1252,7 @@
         <v>2314.2511</v>
       </c>
       <c r="S10" t="n">
-        <v>101.7489</v>
+        <v>146.7489</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2416</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.34</v>
+        <v>10.24</v>
       </c>
       <c r="O11" t="n">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="P11" t="n">
         <v>12.49</v>
@@ -1332,7 +1332,7 @@
         <v>1249</v>
       </c>
       <c r="S11" t="n">
-        <v>-215</v>
+        <v>-225</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>1431</v>
+        <v>1416.6</v>
       </c>
       <c r="O12" t="n">
-        <v>21465</v>
+        <v>14166</v>
       </c>
       <c r="P12" t="n">
-        <v>1474.989023133</v>
+        <v>1474.045</v>
       </c>
       <c r="Q12" t="n">
-        <v>1474.989023133</v>
+        <v>1474.045</v>
       </c>
       <c r="R12" t="n">
-        <v>22124.835347</v>
+        <v>14740.45</v>
       </c>
       <c r="S12" t="n">
-        <v>-659.835347</v>
+        <v>-574.45</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21465</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>314.98</v>
+        <v>311.49</v>
       </c>
       <c r="O13" t="n">
-        <v>31498</v>
+        <v>31149</v>
       </c>
       <c r="P13" t="n">
         <v>301.635</v>
@@ -1492,7 +1492,7 @@
         <v>30163.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1334.5</v>
+        <v>985.5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>31498</v>
+        <v>31149</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>60.75</v>
+        <v>60.28</v>
       </c>
       <c r="O14" t="n">
-        <v>4860</v>
+        <v>4822.4</v>
       </c>
       <c r="P14" t="n">
         <v>59.41</v>
@@ -1572,7 +1572,7 @@
         <v>4752.8</v>
       </c>
       <c r="S14" t="n">
-        <v>107.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4860</v>
+        <v>4822.4</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>9.140000000000001</v>
+        <v>9.1075</v>
       </c>
       <c r="O15" t="n">
-        <v>9140</v>
+        <v>9107.5</v>
       </c>
       <c r="P15" t="n">
         <v>9.424709999999999</v>
@@ -1652,7 +1652,7 @@
         <v>9424.709999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>-284.71</v>
+        <v>-317.21</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9140</v>
+        <v>9107.5</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.878</v>
+        <v>27.7493</v>
       </c>
       <c r="O16" t="n">
-        <v>10733.03</v>
+        <v>10683.48</v>
       </c>
       <c r="P16" t="n">
         <v>26.012734603</v>
@@ -1732,7 +1732,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S16" t="n">
-        <v>718.127178</v>
+        <v>668.577178</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10733.03</v>
+        <v>10683.48</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>38.9</v>
+        <v>38.06</v>
       </c>
       <c r="O17" t="n">
-        <v>3890</v>
+        <v>3806</v>
       </c>
       <c r="P17" t="n">
         <v>35.26000011</v>
@@ -1812,7 +1812,7 @@
         <v>3526.000011</v>
       </c>
       <c r="S17" t="n">
-        <v>363.999989</v>
+        <v>279.999989</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3890</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="18">
@@ -1870,17 +1870,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.869999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="O18" t="n">
-        <v>9870</v>
+        <v>9468</v>
       </c>
       <c r="P18" t="n">
         <v>10.2267108</v>
@@ -1892,7 +1892,7 @@
         <v>10226.7108</v>
       </c>
       <c r="S18" t="n">
-        <v>-356.7108</v>
+        <v>-758.7107999999999</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9870</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="19">
@@ -1950,17 +1950,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>148.08</v>
+        <v>141.31</v>
       </c>
       <c r="O19" t="n">
-        <v>14808</v>
+        <v>14131</v>
       </c>
       <c r="P19" t="n">
         <v>205.3357044</v>
@@ -1972,7 +1972,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S19" t="n">
-        <v>-5725.57044</v>
+        <v>-6402.57044</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>14808</v>
+        <v>14131</v>
       </c>
     </row>
     <row r="20">
@@ -2030,17 +2030,17 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>115</v>
+        <v>111.24</v>
       </c>
       <c r="O20" t="n">
-        <v>2300</v>
+        <v>2224.8</v>
       </c>
       <c r="P20" t="n">
         <v>124.315</v>
@@ -2052,7 +2052,7 @@
         <v>2486.3</v>
       </c>
       <c r="S20" t="n">
-        <v>-186.3</v>
+        <v>-261.5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2300</v>
+        <v>2224.8</v>
       </c>
     </row>
     <row r="21">
@@ -2110,17 +2110,17 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>176.6</v>
+        <v>175.68</v>
       </c>
       <c r="O21" t="n">
-        <v>35320</v>
+        <v>35136</v>
       </c>
       <c r="P21" t="n">
         <v>171.74192805</v>
@@ -2132,7 +2132,7 @@
         <v>34348.38561</v>
       </c>
       <c r="S21" t="n">
-        <v>971.61439</v>
+        <v>787.61439</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>35320</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="22">
@@ -2200,17 +2200,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>28.6489</v>
+        <v>30.8432</v>
       </c>
       <c r="O22" t="n">
-        <v>5729.78</v>
+        <v>6168.64</v>
       </c>
       <c r="P22" t="n">
         <v>23.4605</v>
@@ -2222,7 +2222,7 @@
         <v>4692.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1037.68</v>
+        <v>1476.54</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>5729.78</v>
+        <v>6168.64</v>
       </c>
     </row>
     <row r="23">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>21.5359</v>
+        <v>23.395</v>
       </c>
       <c r="O23" t="n">
-        <v>4307.18</v>
+        <v>4679</v>
       </c>
       <c r="P23" t="n">
         <v>20.1374875</v>
@@ -2312,7 +2312,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S23" t="n">
-        <v>279.6825</v>
+        <v>651.5025000000001</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4307.18</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="24">
@@ -2380,17 +2380,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>2.5305</v>
       </c>
       <c r="O24" t="n">
-        <v>-375</v>
+        <v>-253.05</v>
       </c>
       <c r="P24" t="n">
         <v>3.7194546</v>
@@ -2402,7 +2402,7 @@
         <v>-371.94546</v>
       </c>
       <c r="S24" t="n">
-        <v>-3.05454</v>
+        <v>118.89546</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-375</v>
+        <v>-253.05</v>
       </c>
     </row>
     <row r="25">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.35</v>
+        <v>7.425</v>
       </c>
       <c r="O25" t="n">
-        <v>-635</v>
+        <v>-742.5</v>
       </c>
       <c r="P25" t="n">
         <v>5.6794546</v>
@@ -2492,7 +2492,7 @@
         <v>-567.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>-67.05454</v>
+        <v>-174.55454</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-635</v>
+        <v>-742.5</v>
       </c>
     </row>
     <row r="26">
@@ -2560,17 +2560,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.17</v>
+        <v>1.955</v>
       </c>
       <c r="O26" t="n">
-        <v>-234</v>
+        <v>-391</v>
       </c>
       <c r="P26" t="n">
         <v>1.8129546</v>
@@ -2582,7 +2582,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>128.59092</v>
+        <v>-28.40908</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-234</v>
+        <v>-391</v>
       </c>
     </row>
     <row r="27">
@@ -2650,17 +2650,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.075</v>
+        <v>0.02</v>
       </c>
       <c r="O27" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="P27" t="n">
         <v>1.3029546</v>
@@ -2672,7 +2672,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>245.59092</v>
+        <v>256.59092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="28">
@@ -2740,17 +2740,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.505</v>
+        <v>1.22</v>
       </c>
       <c r="O28" t="n">
-        <v>-301</v>
+        <v>-244</v>
       </c>
       <c r="P28" t="n">
         <v>4.6464796</v>
@@ -2762,7 +2762,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S28" t="n">
-        <v>628.29592</v>
+        <v>685.29592</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-301</v>
+        <v>-244</v>
       </c>
     </row>
     <row r="29">
@@ -2799,60 +2799,60 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ORCL  260227P00140000</t>
+          <t>ORCL  260306C00165000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ORCL 27FEB26 140 P</t>
+          <t>ORCL 06MAR26 165 C</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.465</v>
+        <v>0.7311</v>
       </c>
       <c r="O29" t="n">
-        <v>-246.5</v>
+        <v>-73.11</v>
       </c>
       <c r="P29" t="n">
-        <v>2.4919796</v>
+        <v>1.8094796</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4919796</v>
+        <v>1.8094796</v>
       </c>
       <c r="R29" t="n">
-        <v>-249.19796</v>
+        <v>-180.94796</v>
       </c>
       <c r="S29" t="n">
-        <v>2.69796</v>
+        <v>107.83796</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-246.5</v>
+        <v>-73.11</v>
       </c>
     </row>
     <row r="30">
@@ -2889,60 +2889,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ORCL  260306C00165000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ORCL 06MAR26 165 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>8.4413</v>
       </c>
       <c r="O30" t="n">
-        <v>-167</v>
+        <v>-1688.26</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8094796</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8094796</v>
+        <v>6.3644671</v>
       </c>
       <c r="R30" t="n">
-        <v>-180.94796</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S30" t="n">
-        <v>13.94796</v>
+        <v>-415.36658</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-167</v>
+        <v>-1688.26</v>
       </c>
     </row>
     <row r="31">
@@ -2984,23 +2984,23 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>425</v>
+        <v>377.5</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3010,29 +3010,29 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>7.8086</v>
+        <v>1.2387</v>
       </c>
       <c r="O31" t="n">
-        <v>-1561.72</v>
+        <v>-247.74</v>
       </c>
       <c r="P31" t="n">
-        <v>6.3644671</v>
+        <v>4.3429546</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.3644671</v>
+        <v>4.3429546</v>
       </c>
       <c r="R31" t="n">
-        <v>-1272.89342</v>
+        <v>-868.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>-288.82658</v>
+        <v>620.85092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-1561.72</v>
+        <v>-247.74</v>
       </c>
     </row>
     <row r="32">
@@ -3069,24 +3069,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>377.5</v>
+        <v>437.5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -3095,34 +3095,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-2</v>
       </c>
       <c r="N32" t="n">
-        <v>1.4511</v>
+        <v>1.03</v>
       </c>
       <c r="O32" t="n">
-        <v>-290.22</v>
+        <v>-206</v>
       </c>
       <c r="P32" t="n">
-        <v>4.3429546</v>
+        <v>3.5129546</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.3429546</v>
+        <v>3.5129546</v>
       </c>
       <c r="R32" t="n">
-        <v>-868.59092</v>
+        <v>-702.59092</v>
       </c>
       <c r="S32" t="n">
-        <v>578.37092</v>
+        <v>496.59092</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-290.22</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="33">
@@ -3159,60 +3159,60 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>437.5</v>
+        <v>505</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>1.76</v>
+        <v>8.51</v>
       </c>
       <c r="O33" t="n">
-        <v>-352</v>
+        <v>-1702</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5129546</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.5129546</v>
+        <v>7.3548796</v>
       </c>
       <c r="R33" t="n">
-        <v>-702.59092</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S33" t="n">
-        <v>350.59092</v>
+        <v>-231.02408</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3225,97 +3225,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-352</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>100</v>
-      </c>
-      <c r="I34" t="n">
-        <v>505</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.895</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-1579</v>
-      </c>
-      <c r="P34" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-1470.97592</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-108.02408</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>-1579</v>
+        <v>-1702</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3371,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3491,17 +3401,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>399.05</v>
+        <v>394.7</v>
       </c>
       <c r="O2" t="n">
-        <v>19952.5</v>
+        <v>19735</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3513,7 +3423,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1030.456235</v>
+        <v>-1247.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3526,7 +3436,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25722.763</v>
+        <v>25471.9645</v>
       </c>
     </row>
     <row r="3">
@@ -3541,7 +3451,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3571,17 +3481,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>9000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5675</v>
+        <v>3.546</v>
       </c>
       <c r="O3" t="n">
-        <v>32107.5</v>
+        <v>31914</v>
       </c>
       <c r="P3" t="n">
         <v>3.573974983</v>
@@ -3593,7 +3503,7 @@
         <v>32165.77485</v>
       </c>
       <c r="S3" t="n">
-        <v>-58.27485</v>
+        <v>-251.77485</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3606,7 +3516,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>41392.98899999999</v>
+        <v>41191.3998</v>
       </c>
     </row>
     <row r="4">
@@ -3621,7 +3531,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2892</v>
+        <v>1.2907</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3651,17 +3561,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>66.43000000000001</v>
+        <v>66</v>
       </c>
       <c r="O4" t="n">
-        <v>33215</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
         <v>65.30711724</v>
@@ -3673,7 +3583,7 @@
         <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>561.44138</v>
+        <v>346.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3686,7 +3596,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>42820.778</v>
+        <v>42593.1</v>
       </c>
     </row>
     <row r="5">
@@ -3701,7 +3611,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14498</v>
+        <v>0.14515</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3731,17 +3641,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.4</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>62800</v>
+        <v>63360</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3753,7 +3663,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-592.47719</v>
+        <v>-32.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3766,7 +3676,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9104.744000000001</v>
+        <v>9196.704</v>
       </c>
     </row>
     <row r="6">
@@ -3781,7 +3691,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1781</v>
+        <v>1.1785</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3811,17 +3721,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.408</v>
+        <v>4.403</v>
       </c>
       <c r="O6" t="n">
-        <v>17632</v>
+        <v>17612</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3833,7 +3743,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1003.313</v>
+        <v>-1023.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3846,7 +3756,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20772.2592</v>
+        <v>20755.742</v>
       </c>
     </row>
     <row r="7">
@@ -3861,7 +3771,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1781</v>
+        <v>1.1785</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3891,17 +3801,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.95</v>
+        <v>49.5</v>
       </c>
       <c r="O7" t="n">
-        <v>49950</v>
+        <v>49500</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3913,7 +3823,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6940</v>
+        <v>6490</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3926,7 +3836,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58846.09499999999</v>
+        <v>58335.75000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3941,7 +3851,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78939</v>
+        <v>0.78955</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3971,17 +3881,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.01</v>
+        <v>5.035</v>
       </c>
       <c r="O8" t="n">
-        <v>50100</v>
+        <v>50350</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3993,7 +3903,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11981.8184</v>
+        <v>12231.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4006,7 +3916,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39548.439</v>
+        <v>39753.8425</v>
       </c>
     </row>
     <row r="9">
@@ -4021,7 +3931,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78939</v>
+        <v>0.78955</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4051,17 +3961,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>586.95</v>
+        <v>599</v>
       </c>
       <c r="O9" t="n">
-        <v>29347.5</v>
+        <v>29950</v>
       </c>
       <c r="P9" t="n">
         <v>581.41476</v>
@@ -4073,7 +3983,7 @@
         <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>276.762</v>
+        <v>879.2619999999999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4086,7 +3996,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23166.623025</v>
+        <v>23647.0225</v>
       </c>
     </row>
     <row r="10">
@@ -4131,17 +4041,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>9.359999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="O10" t="n">
-        <v>2808</v>
+        <v>2673</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4153,7 +4063,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-690.5</v>
+        <v>-825.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4166,7 +4076,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2808</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="11">
@@ -4211,17 +4121,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1431</v>
+        <v>1416.6</v>
       </c>
       <c r="O11" t="n">
-        <v>28620</v>
+        <v>28332</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4233,7 +4143,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-720.5410000000001</v>
+        <v>-1008.541</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4246,7 +4156,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28620</v>
+        <v>28332</v>
       </c>
     </row>
     <row r="12">
@@ -4291,17 +4201,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>314.98</v>
+        <v>311.49</v>
       </c>
       <c r="O12" t="n">
-        <v>31498</v>
+        <v>31149</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4313,7 +4223,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-1689.755</v>
+        <v>-2038.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4326,7 +4236,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31498</v>
+        <v>31149</v>
       </c>
     </row>
     <row r="13">
@@ -4371,17 +4281,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>60.75</v>
+        <v>60.28</v>
       </c>
       <c r="O13" t="n">
-        <v>4860</v>
+        <v>4822.4</v>
       </c>
       <c r="P13" t="n">
         <v>60.13025</v>
@@ -4393,7 +4303,7 @@
         <v>4810.42</v>
       </c>
       <c r="S13" t="n">
-        <v>49.58</v>
+        <v>11.98</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4406,7 +4316,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4860</v>
+        <v>4822.4</v>
       </c>
     </row>
     <row r="14">
@@ -4451,17 +4361,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>9.140000000000001</v>
+        <v>9.1075</v>
       </c>
       <c r="O14" t="n">
-        <v>9140</v>
+        <v>9107.5</v>
       </c>
       <c r="P14" t="n">
         <v>9.405900600000001</v>
@@ -4473,7 +4383,7 @@
         <v>9405.900600000001</v>
       </c>
       <c r="S14" t="n">
-        <v>-265.9006</v>
+        <v>-298.4006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4486,7 +4396,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9140</v>
+        <v>9107.5</v>
       </c>
     </row>
     <row r="15">
@@ -4531,17 +4441,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>74.395</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1253.17</v>
+        <v>1205.08</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -4553,7 +4463,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>904.123421</v>
+        <v>856.033421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4566,7 +4476,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1253.17</v>
+        <v>1205.08</v>
       </c>
     </row>
     <row r="16">
@@ -4611,17 +4521,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>27.878</v>
+        <v>27.7493</v>
       </c>
       <c r="O16" t="n">
-        <v>10733.03</v>
+        <v>10683.48</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -4633,7 +4543,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>724.124112</v>
+        <v>674.574112</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4646,7 +4556,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10733.03</v>
+        <v>10683.48</v>
       </c>
     </row>
     <row r="17">
@@ -4691,17 +4601,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>310.79</v>
+        <v>297.67</v>
       </c>
       <c r="O17" t="n">
-        <v>31079</v>
+        <v>29767</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -4713,7 +4623,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>1277</v>
+        <v>-35</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4726,7 +4636,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>31079</v>
+        <v>29767</v>
       </c>
     </row>
     <row r="18">
@@ -4771,17 +4681,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1000</v>
       </c>
       <c r="N18" t="n">
-        <v>9.869999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="O18" t="n">
-        <v>9870</v>
+        <v>9468</v>
       </c>
       <c r="P18" t="n">
         <v>10.229112</v>
@@ -4793,7 +4703,7 @@
         <v>10229.112</v>
       </c>
       <c r="S18" t="n">
-        <v>-359.112</v>
+        <v>-761.112</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4806,7 +4716,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9870</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="19">
@@ -4851,17 +4761,17 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>176.6</v>
+        <v>175.68</v>
       </c>
       <c r="O19" t="n">
-        <v>52980</v>
+        <v>52704</v>
       </c>
       <c r="P19" t="n">
         <v>172.7421946</v>
@@ -4873,7 +4783,7 @@
         <v>51822.65838</v>
       </c>
       <c r="S19" t="n">
-        <v>1157.34162</v>
+        <v>881.34162</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4886,7 +4796,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52980</v>
+        <v>52704</v>
       </c>
     </row>
     <row r="20">
@@ -4941,17 +4851,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>28.6489</v>
+        <v>30.8432</v>
       </c>
       <c r="O20" t="n">
-        <v>5729.78</v>
+        <v>6168.64</v>
       </c>
       <c r="P20" t="n">
         <v>23.5270125</v>
@@ -4963,7 +4873,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S20" t="n">
-        <v>1024.3775</v>
+        <v>1463.2375</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -4976,7 +4886,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5729.78</v>
+        <v>6168.64</v>
       </c>
     </row>
     <row r="21">
@@ -5031,17 +4941,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>21.5359</v>
+        <v>23.395</v>
       </c>
       <c r="O21" t="n">
-        <v>4307.18</v>
+        <v>4679</v>
       </c>
       <c r="P21" t="n">
         <v>20.1350875</v>
@@ -5053,7 +4963,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S21" t="n">
-        <v>280.1625</v>
+        <v>651.9825</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5066,7 +4976,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4307.18</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="22">
@@ -5121,17 +5031,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.4091</v>
+        <v>1.815</v>
       </c>
       <c r="O22" t="n">
-        <v>-140.91</v>
+        <v>-181.5</v>
       </c>
       <c r="P22" t="n">
         <v>3.6594796</v>
@@ -5143,7 +5053,7 @@
         <v>-365.94796</v>
       </c>
       <c r="S22" t="n">
-        <v>225.03796</v>
+        <v>184.44796</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5156,7 +5066,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-140.91</v>
+        <v>-181.5</v>
       </c>
     </row>
     <row r="23">
@@ -5211,17 +5121,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.17</v>
+        <v>1.955</v>
       </c>
       <c r="O23" t="n">
-        <v>-234</v>
+        <v>-391</v>
       </c>
       <c r="P23" t="n">
         <v>1.8429546</v>
@@ -5233,7 +5143,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S23" t="n">
-        <v>134.59092</v>
+        <v>-22.40908</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5246,7 +5156,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-234</v>
+        <v>-391</v>
       </c>
     </row>
     <row r="24">
@@ -5301,17 +5211,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.075</v>
+        <v>0.02</v>
       </c>
       <c r="O24" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="P24" t="n">
         <v>1.2929546</v>
@@ -5323,7 +5233,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>243.59092</v>
+        <v>254.59092</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5336,7 +5246,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -5391,17 +5301,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2793</v>
+        <v>1.84</v>
       </c>
       <c r="O25" t="n">
-        <v>-427.93</v>
+        <v>-184</v>
       </c>
       <c r="P25" t="n">
         <v>4.5994546</v>
@@ -5413,7 +5323,7 @@
         <v>-459.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>32.01546</v>
+        <v>275.94546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5426,7 +5336,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-427.93</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="26">
@@ -5481,17 +5391,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>7.8086</v>
+        <v>8.4413</v>
       </c>
       <c r="O26" t="n">
-        <v>-1561.72</v>
+        <v>-1688.26</v>
       </c>
       <c r="P26" t="n">
         <v>6.3929546</v>
@@ -5503,7 +5413,7 @@
         <v>-1278.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-283.12908</v>
+        <v>-409.66908</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5516,7 +5426,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-1561.72</v>
+        <v>-1688.26</v>
       </c>
     </row>
     <row r="27">
@@ -5571,17 +5481,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.4511</v>
+        <v>1.2387</v>
       </c>
       <c r="O27" t="n">
-        <v>-290.22</v>
+        <v>-247.74</v>
       </c>
       <c r="P27" t="n">
         <v>4.3329546</v>
@@ -5593,7 +5503,7 @@
         <v>-866.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>576.37092</v>
+        <v>618.85092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5606,7 +5516,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-290.22</v>
+        <v>-247.74</v>
       </c>
     </row>
     <row r="28">
@@ -5661,17 +5571,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="O28" t="n">
-        <v>-352</v>
+        <v>-206</v>
       </c>
       <c r="P28" t="n">
         <v>3.5029546</v>
@@ -5683,7 +5593,7 @@
         <v>-700.59092</v>
       </c>
       <c r="S28" t="n">
-        <v>348.59092</v>
+        <v>494.59092</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5696,7 +5606,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-352</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="29">
@@ -5751,17 +5661,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-2</v>
       </c>
       <c r="N29" t="n">
-        <v>7.895</v>
+        <v>8.51</v>
       </c>
       <c r="O29" t="n">
-        <v>-1579</v>
+        <v>-1702</v>
       </c>
       <c r="P29" t="n">
         <v>7.3496796</v>
@@ -5773,7 +5683,7 @@
         <v>-1469.93592</v>
       </c>
       <c r="S29" t="n">
-        <v>-109.06408</v>
+        <v>-232.06408</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -5786,7 +5696,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-1579</v>
+        <v>-1702</v>
       </c>
     </row>
   </sheetData>
@@ -5838,17 +5748,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$327,694.69</t>
+          <t>$314,626.65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$114,463.22</t>
+          <t>$126,297.91</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$442,157.91</t>
+          <t>$440,924.56</t>
         </is>
       </c>
     </row>
@@ -5860,17 +5770,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$449,652.07</t>
+          <t>$447,100.13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$113,399.16</t>
+          <t>$113,412.48</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$563,051.23</t>
+          <t>$560,512.61</t>
         </is>
       </c>
     </row>
@@ -5888,17 +5798,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$777,346.76</t>
+          <t>$761,726.78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$227,862.38</t>
+          <t>$239,710.39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,005,209.13</t>
+          <t>$1,001,437.17</t>
         </is>
       </c>
     </row>
@@ -5951,11 +5861,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-23 23:55:28</t>
+          <t>2026-02-24 23:57:31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>28</v>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>394.7</v>
+        <v>398.55</v>
       </c>
       <c r="O2" t="n">
-        <v>15788</v>
+        <v>15942</v>
       </c>
       <c r="P2" t="n">
         <v>417.712590175</v>
@@ -612,7 +612,7 @@
         <v>16708.503607</v>
       </c>
       <c r="S2" t="n">
-        <v>-920.503607</v>
+        <v>-766.503607</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>20377.5716</v>
+        <v>20595.4698</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>7500</v>
       </c>
       <c r="N3" t="n">
-        <v>3.546</v>
+        <v>3.5565</v>
       </c>
       <c r="O3" t="n">
-        <v>26595</v>
+        <v>26673.75</v>
       </c>
       <c r="P3" t="n">
         <v>3.576800457</v>
@@ -692,7 +692,7 @@
         <v>26826.003425</v>
       </c>
       <c r="S3" t="n">
-        <v>-231.003425</v>
+        <v>-152.253425</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>34326.1665</v>
+        <v>34459.817625</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>66</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>19800</v>
+        <v>20163</v>
       </c>
       <c r="P4" t="n">
         <v>65.14093333300001</v>
@@ -772,7 +772,7 @@
         <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>257.72</v>
+        <v>620.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>25555.86</v>
+        <v>26048.5797</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14515</v>
+        <v>0.14535</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.68</v>
+        <v>31.52</v>
       </c>
       <c r="O5" t="n">
-        <v>95040</v>
+        <v>94560</v>
       </c>
       <c r="P5" t="n">
         <v>31.36596519</v>
@@ -852,7 +852,7 @@
         <v>94097.89556999999</v>
       </c>
       <c r="S5" t="n">
-        <v>942.10443</v>
+        <v>462.10443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>13795.056</v>
+        <v>13744.296</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1785</v>
+        <v>1.1773</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.403</v>
+        <v>4.385</v>
       </c>
       <c r="O6" t="n">
-        <v>17612</v>
+        <v>17540</v>
       </c>
       <c r="P6" t="n">
         <v>4.66216992</v>
@@ -932,7 +932,7 @@
         <v>18648.67968</v>
       </c>
       <c r="S6" t="n">
-        <v>-1036.67968</v>
+        <v>-1108.67968</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20755.742</v>
+        <v>20649.842</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78955</v>
+        <v>0.78936</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.035</v>
+        <v>5.01</v>
       </c>
       <c r="O7" t="n">
-        <v>40280</v>
+        <v>40080</v>
       </c>
       <c r="P7" t="n">
         <v>4.717028356</v>
@@ -1012,7 +1012,7 @@
         <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2543.77315</v>
+        <v>2343.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>31803.074</v>
+        <v>31637.5488</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78955</v>
+        <v>0.78936</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>599</v>
+        <v>603.1</v>
       </c>
       <c r="O8" t="n">
-        <v>29950</v>
+        <v>30155</v>
       </c>
       <c r="P8" t="n">
         <v>581.20939584</v>
@@ -1092,7 +1092,7 @@
         <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>889.530208</v>
+        <v>1094.530208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>23647.0225</v>
+        <v>23803.1508</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="O9" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P9" t="n">
         <v>9.705</v>
@@ -1172,7 +1172,7 @@
         <v>970.5</v>
       </c>
       <c r="S9" t="n">
-        <v>-79.5</v>
+        <v>-80.5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CELH</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CELSIUS HOLDINGS INC</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>49.22</v>
+        <v>1430</v>
       </c>
       <c r="O10" t="n">
-        <v>2461</v>
+        <v>14300</v>
       </c>
       <c r="P10" t="n">
-        <v>46.285022</v>
+        <v>1474.045</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.285022</v>
+        <v>1474.045</v>
       </c>
       <c r="R10" t="n">
-        <v>2314.2511</v>
+        <v>14740.45</v>
       </c>
       <c r="S10" t="n">
-        <v>146.7489</v>
+        <v>-440.45</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1261,11 +1261,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2461</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CHAGEE HOLDINGS LTD-ADR</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10.24</v>
+        <v>310.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1024</v>
+        <v>31090</v>
       </c>
       <c r="P11" t="n">
-        <v>12.49</v>
+        <v>301.635</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.49</v>
+        <v>301.635</v>
       </c>
       <c r="R11" t="n">
-        <v>1249</v>
+        <v>30163.5</v>
       </c>
       <c r="S11" t="n">
-        <v>-225</v>
+        <v>926.5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1024</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="12">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.6</v>
+        <v>60.9</v>
       </c>
       <c r="O12" t="n">
-        <v>14166</v>
+        <v>9744</v>
       </c>
       <c r="P12" t="n">
-        <v>1474.045</v>
+        <v>59.854125</v>
       </c>
       <c r="Q12" t="n">
-        <v>1474.045</v>
+        <v>59.854125</v>
       </c>
       <c r="R12" t="n">
-        <v>14740.45</v>
+        <v>9576.66</v>
       </c>
       <c r="S12" t="n">
-        <v>-574.45</v>
+        <v>167.34</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>14166</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="13">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N13" t="n">
-        <v>311.49</v>
+        <v>28.3177</v>
       </c>
       <c r="O13" t="n">
-        <v>31149</v>
+        <v>10902.31</v>
       </c>
       <c r="P13" t="n">
-        <v>301.635</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.635</v>
+        <v>26.012734603</v>
       </c>
       <c r="R13" t="n">
-        <v>30163.5</v>
+        <v>10014.902822</v>
       </c>
       <c r="S13" t="n">
-        <v>985.5</v>
+        <v>887.407178</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>31149</v>
+        <v>10902.31</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GRDU</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FT NSDQ CLN EDG SMRT GRID</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>60.28</v>
+        <v>146.14</v>
       </c>
       <c r="O14" t="n">
-        <v>4822.4</v>
+        <v>14614</v>
       </c>
       <c r="P14" t="n">
-        <v>59.41</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.41</v>
+        <v>205.3357044</v>
       </c>
       <c r="R14" t="n">
-        <v>4752.8</v>
+        <v>20533.57044</v>
       </c>
       <c r="S14" t="n">
-        <v>69.59999999999999</v>
+        <v>-5919.57044</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4822.4</v>
+        <v>14614</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>9.1075</v>
+        <v>107.11</v>
       </c>
       <c r="O15" t="n">
-        <v>9107.5</v>
+        <v>2142.2</v>
       </c>
       <c r="P15" t="n">
-        <v>9.424709999999999</v>
+        <v>124.315</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.424709999999999</v>
+        <v>124.315</v>
       </c>
       <c r="R15" t="n">
-        <v>9424.709999999999</v>
+        <v>2486.3</v>
       </c>
       <c r="S15" t="n">
-        <v>-317.21</v>
+        <v>-344.1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9107.5</v>
+        <v>2142.2</v>
       </c>
     </row>
     <row r="16">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>27.7493</v>
+        <v>176.48</v>
       </c>
       <c r="O16" t="n">
-        <v>10683.48</v>
+        <v>35296</v>
       </c>
       <c r="P16" t="n">
-        <v>26.012734603</v>
+        <v>171.74192805</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.012734603</v>
+        <v>171.74192805</v>
       </c>
       <c r="R16" t="n">
-        <v>10014.902822</v>
+        <v>34348.38561</v>
       </c>
       <c r="S16" t="n">
-        <v>668.577178</v>
+        <v>947.61439</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10683.48</v>
+        <v>35296</v>
       </c>
     </row>
     <row r="17">
@@ -1764,55 +1764,65 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LKNCY</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LUCKIN COFFEE INC - ADR</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>560</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>38.06</v>
+        <v>28.8393</v>
       </c>
       <c r="O17" t="n">
-        <v>3806</v>
+        <v>5767.86</v>
       </c>
       <c r="P17" t="n">
-        <v>35.26000011</v>
+        <v>23.4605</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.26000011</v>
+        <v>23.4605</v>
       </c>
       <c r="R17" t="n">
-        <v>3526.000011</v>
+        <v>4692.1</v>
       </c>
       <c r="S17" t="n">
-        <v>279.999989</v>
+        <v>1075.76</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1821,11 +1831,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>PINK</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3806</v>
+        <v>5767.86</v>
       </c>
     </row>
     <row r="18">
@@ -1844,55 +1854,65 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>620</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9.468</v>
+        <v>21.825</v>
       </c>
       <c r="O18" t="n">
-        <v>9468</v>
+        <v>4365</v>
       </c>
       <c r="P18" t="n">
-        <v>10.2267108</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.2267108</v>
+        <v>20.1374875</v>
       </c>
       <c r="R18" t="n">
-        <v>10226.7108</v>
+        <v>4027.4975</v>
       </c>
       <c r="S18" t="n">
-        <v>-758.7107999999999</v>
+        <v>337.5025</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1901,11 +1921,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9468</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="19">
@@ -1924,68 +1944,78 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>GOOGL 260306C00325000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>GOOGL 06MAR26 325 C</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>325</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="N19" t="n">
-        <v>141.31</v>
+        <v>1.925</v>
       </c>
       <c r="O19" t="n">
-        <v>14131</v>
+        <v>-192.5</v>
       </c>
       <c r="P19" t="n">
-        <v>205.3357044</v>
+        <v>3.7194546</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.3357044</v>
+        <v>3.7194546</v>
       </c>
       <c r="R19" t="n">
-        <v>20533.57044</v>
+        <v>-371.94546</v>
       </c>
       <c r="S19" t="n">
-        <v>-6402.57044</v>
+        <v>179.44546</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>14131</v>
+        <v>-192.5</v>
       </c>
     </row>
     <row r="20">
@@ -2004,68 +2034,78 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>GOOGL 260327P00300000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>GOOGL 27MAR26 300 P</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>300</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>111.24</v>
+        <v>7.1</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.8</v>
+        <v>-710</v>
       </c>
       <c r="P20" t="n">
-        <v>124.315</v>
+        <v>5.6794546</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.315</v>
+        <v>5.6794546</v>
       </c>
       <c r="R20" t="n">
-        <v>2486.3</v>
+        <v>-567.94546</v>
       </c>
       <c r="S20" t="n">
-        <v>-261.5</v>
+        <v>-142.05454</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2224.8</v>
+        <v>-710</v>
       </c>
     </row>
     <row r="21">
@@ -2084,68 +2124,78 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>257</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>-2</v>
       </c>
       <c r="N21" t="n">
-        <v>175.68</v>
+        <v>0.66</v>
       </c>
       <c r="O21" t="n">
-        <v>35136</v>
+        <v>-132</v>
       </c>
       <c r="P21" t="n">
-        <v>171.74192805</v>
+        <v>1.8129546</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.74192805</v>
+        <v>1.8129546</v>
       </c>
       <c r="R21" t="n">
-        <v>34348.38561</v>
+        <v>-362.59092</v>
       </c>
       <c r="S21" t="n">
-        <v>787.61439</v>
+        <v>230.59092</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>35136</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="22">
@@ -2169,64 +2219,64 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>560</v>
+        <v>277</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N22" t="n">
-        <v>30.8432</v>
+        <v>0.0045</v>
       </c>
       <c r="O22" t="n">
-        <v>6168.64</v>
+        <v>-0.9</v>
       </c>
       <c r="P22" t="n">
-        <v>23.4605</v>
+        <v>1.3029546</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.4605</v>
+        <v>1.3029546</v>
       </c>
       <c r="R22" t="n">
-        <v>4692.1</v>
+        <v>-260.59092</v>
       </c>
       <c r="S22" t="n">
-        <v>1476.54</v>
+        <v>259.69092</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2235,7 +2285,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>6168.64</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="23">
@@ -2264,23 +2314,23 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>NVDA  260227P00175000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>NVDA 27FEB26 175 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>620</v>
+        <v>175</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2290,33 +2340,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N23" t="n">
-        <v>23.395</v>
+        <v>1.02</v>
       </c>
       <c r="O23" t="n">
-        <v>4679</v>
+        <v>-204</v>
       </c>
       <c r="P23" t="n">
-        <v>20.1374875</v>
+        <v>4.6464796</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.1374875</v>
+        <v>4.6464796</v>
       </c>
       <c r="R23" t="n">
-        <v>4027.4975</v>
+        <v>-929.29592</v>
       </c>
       <c r="S23" t="n">
-        <v>651.5025000000001</v>
+        <v>725.29592</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2325,7 +2375,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>4679</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="24">
@@ -2354,19 +2404,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GOOGL 260306C00325000</t>
+          <t>ORCL  260306C00165000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GOOGL 06MAR26 325 C</t>
+          <t>ORCL 06MAR26 165 C</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2380,29 +2430,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5305</v>
+        <v>1.075</v>
       </c>
       <c r="O24" t="n">
-        <v>-253.05</v>
+        <v>-107.5</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7194546</v>
+        <v>1.8094796</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.7194546</v>
+        <v>1.8094796</v>
       </c>
       <c r="R24" t="n">
-        <v>-371.94546</v>
+        <v>-180.94796</v>
       </c>
       <c r="S24" t="n">
-        <v>118.89546</v>
+        <v>73.44795999999999</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2415,7 +2465,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-253.05</v>
+        <v>-107.5</v>
       </c>
     </row>
     <row r="25">
@@ -2444,23 +2494,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GOOGL 260327P00300000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GOOGL 27MAR26 300 P</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2470,29 +2520,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>7.425</v>
+        <v>7.859</v>
       </c>
       <c r="O25" t="n">
-        <v>-742.5</v>
+        <v>-1571.8</v>
       </c>
       <c r="P25" t="n">
-        <v>5.6794546</v>
+        <v>6.3644671</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.6794546</v>
+        <v>6.3644671</v>
       </c>
       <c r="R25" t="n">
-        <v>-567.94546</v>
+        <v>-1272.89342</v>
       </c>
       <c r="S25" t="n">
-        <v>-174.55454</v>
+        <v>-298.90658</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2505,7 +2555,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-742.5</v>
+        <v>-1571.8</v>
       </c>
     </row>
     <row r="26">
@@ -2534,19 +2584,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>257</v>
+        <v>377.5</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2560,29 +2610,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.955</v>
+        <v>0.6397</v>
       </c>
       <c r="O26" t="n">
-        <v>-391</v>
+        <v>-127.94</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8129546</v>
+        <v>4.3429546</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8129546</v>
+        <v>4.3429546</v>
       </c>
       <c r="R26" t="n">
-        <v>-362.59092</v>
+        <v>-868.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-28.40908</v>
+        <v>740.65092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2595,7 +2645,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-391</v>
+        <v>-127.94</v>
       </c>
     </row>
     <row r="27">
@@ -2624,19 +2674,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>277</v>
+        <v>437.5</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2650,29 +2700,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02</v>
+        <v>1.765</v>
       </c>
       <c r="O27" t="n">
-        <v>-4</v>
+        <v>-353</v>
       </c>
       <c r="P27" t="n">
-        <v>1.3029546</v>
+        <v>3.5129546</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.3029546</v>
+        <v>3.5129546</v>
       </c>
       <c r="R27" t="n">
-        <v>-260.59092</v>
+        <v>-702.59092</v>
       </c>
       <c r="S27" t="n">
-        <v>256.59092</v>
+        <v>349.59092</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2685,7 +2735,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-4</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="28">
@@ -2714,23 +2764,23 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NVDA  260227P00175000</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NVDA 27FEB26 175 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2740,29 +2790,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.22</v>
+        <v>7.97</v>
       </c>
       <c r="O28" t="n">
-        <v>-244</v>
+        <v>-1594</v>
       </c>
       <c r="P28" t="n">
-        <v>4.6464796</v>
+        <v>7.3548796</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.6464796</v>
+        <v>7.3548796</v>
       </c>
       <c r="R28" t="n">
-        <v>-929.29592</v>
+        <v>-1470.97592</v>
       </c>
       <c r="S28" t="n">
-        <v>685.29592</v>
+        <v>-123.02408</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2775,457 +2825,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-244</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>ORCL  260306C00165000</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>ORCL 06MAR26 165 C</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>165</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.7311</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-73.11</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.8094796</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.8094796</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-180.94796</v>
-      </c>
-      <c r="S29" t="n">
-        <v>107.83796</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>-73.11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>QQQ   261218P00425000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>QQQ 18DEC26 425 P</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>425</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8.4413</v>
-      </c>
-      <c r="O30" t="n">
-        <v>-1688.26</v>
-      </c>
-      <c r="P30" t="n">
-        <v>6.3644671</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>6.3644671</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-1272.89342</v>
-      </c>
-      <c r="S30" t="n">
-        <v>-415.36658</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>-1688.26</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SMH   260227P00377500</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>SMH 27FEB26 377.5 P</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>377.5</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.2387</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-247.74</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4.3429546</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4.3429546</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-868.59092</v>
-      </c>
-      <c r="S31" t="n">
-        <v>620.85092</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>-247.74</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>SMH   260227C00437500</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>SMH 27FEB26 437.5 C</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" t="n">
-        <v>437.5</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-206</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.5129546</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.5129546</v>
-      </c>
-      <c r="R32" t="n">
-        <v>-702.59092</v>
-      </c>
-      <c r="S32" t="n">
-        <v>496.59092</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>U2739721</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" t="n">
-        <v>505</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-1702</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7.3548796</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-1470.97592</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-231.02408</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>-1702</v>
+        <v>-1594</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +2839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,7 +2971,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3401,17 +3001,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>394.7</v>
+        <v>398.55</v>
       </c>
       <c r="O2" t="n">
-        <v>19735</v>
+        <v>19927.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3423,7 +3023,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1247.956235</v>
+        <v>-1055.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3436,7 +3036,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25471.9645</v>
+        <v>25744.33725</v>
       </c>
     </row>
     <row r="3">
@@ -3451,7 +3051,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3481,17 +3081,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>9000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.546</v>
+        <v>3.5565</v>
       </c>
       <c r="O3" t="n">
-        <v>31914</v>
+        <v>32008.5</v>
       </c>
       <c r="P3" t="n">
         <v>3.573974983</v>
@@ -3503,7 +3103,7 @@
         <v>32165.77485</v>
       </c>
       <c r="S3" t="n">
-        <v>-251.77485</v>
+        <v>-157.27485</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3516,7 +3116,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>41191.3998</v>
+        <v>41351.78115</v>
       </c>
     </row>
     <row r="4">
@@ -3531,7 +3131,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2907</v>
+        <v>1.2919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3561,17 +3161,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>66</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>33605</v>
       </c>
       <c r="P4" t="n">
         <v>65.30711724</v>
@@ -3583,7 +3183,7 @@
         <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>346.44138</v>
+        <v>951.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3596,7 +3196,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>42593.1</v>
+        <v>43414.2995</v>
       </c>
     </row>
     <row r="5">
@@ -3611,7 +3211,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14515</v>
+        <v>0.14535</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3641,17 +3241,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.68</v>
+        <v>31.52</v>
       </c>
       <c r="O5" t="n">
-        <v>63360</v>
+        <v>63040</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3663,7 +3263,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-32.47719</v>
+        <v>-352.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3676,7 +3276,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9196.704</v>
+        <v>9162.864</v>
       </c>
     </row>
     <row r="6">
@@ -3691,7 +3291,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1785</v>
+        <v>1.1773</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3721,17 +3321,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>4000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.403</v>
+        <v>4.385</v>
       </c>
       <c r="O6" t="n">
-        <v>17612</v>
+        <v>17540</v>
       </c>
       <c r="P6" t="n">
         <v>4.65882825</v>
@@ -3743,7 +3343,7 @@
         <v>18635.313</v>
       </c>
       <c r="S6" t="n">
-        <v>-1023.313</v>
+        <v>-1095.313</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3756,7 +3356,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20755.742</v>
+        <v>20649.842</v>
       </c>
     </row>
     <row r="7">
@@ -3771,7 +3371,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1785</v>
+        <v>1.1773</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3801,17 +3401,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.5</v>
+        <v>49.11</v>
       </c>
       <c r="O7" t="n">
-        <v>49500</v>
+        <v>49110</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3823,7 +3423,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6490</v>
+        <v>6100</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3836,7 +3436,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58335.75000000001</v>
+        <v>57817.203</v>
       </c>
     </row>
     <row r="8">
@@ -3851,7 +3451,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78955</v>
+        <v>0.78936</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3881,17 +3481,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.035</v>
+        <v>5.01</v>
       </c>
       <c r="O8" t="n">
-        <v>50350</v>
+        <v>50100</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3903,7 +3503,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12231.8184</v>
+        <v>11981.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3916,7 +3516,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39753.8425</v>
+        <v>39546.93599999999</v>
       </c>
     </row>
     <row r="9">
@@ -3931,7 +3531,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78955</v>
+        <v>0.78936</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3961,17 +3561,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>599</v>
+        <v>603.1</v>
       </c>
       <c r="O9" t="n">
-        <v>29950</v>
+        <v>30155</v>
       </c>
       <c r="P9" t="n">
         <v>581.41476</v>
@@ -3983,7 +3583,7 @@
         <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>879.2619999999999</v>
+        <v>1084.262</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3996,7 +3596,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23647.0225</v>
+        <v>23803.1508</v>
       </c>
     </row>
     <row r="10">
@@ -4041,17 +3641,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="O10" t="n">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="P10" t="n">
         <v>11.661666667</v>
@@ -4063,7 +3663,7 @@
         <v>3498.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-825.5</v>
+        <v>-828.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4076,7 +3676,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2673</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="11">
@@ -4121,17 +3721,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>1416.6</v>
+        <v>1430</v>
       </c>
       <c r="O11" t="n">
-        <v>28332</v>
+        <v>28600</v>
       </c>
       <c r="P11" t="n">
         <v>1467.02705</v>
@@ -4143,7 +3743,7 @@
         <v>29340.541</v>
       </c>
       <c r="S11" t="n">
-        <v>-1008.541</v>
+        <v>-740.5410000000001</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4156,7 +3756,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28332</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="12">
@@ -4201,17 +3801,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>311.49</v>
+        <v>310.9</v>
       </c>
       <c r="O12" t="n">
-        <v>31149</v>
+        <v>31090</v>
       </c>
       <c r="P12" t="n">
         <v>331.87755</v>
@@ -4223,7 +3823,7 @@
         <v>33187.755</v>
       </c>
       <c r="S12" t="n">
-        <v>-2038.755</v>
+        <v>-2097.755</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4236,7 +3836,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31149</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="13">
@@ -4281,29 +3881,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>60.28</v>
+        <v>60.9</v>
       </c>
       <c r="O13" t="n">
-        <v>4822.4</v>
+        <v>9744</v>
       </c>
       <c r="P13" t="n">
-        <v>60.13025</v>
+        <v>60.20275</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.13025</v>
+        <v>60.20275</v>
       </c>
       <c r="R13" t="n">
-        <v>4810.42</v>
+        <v>9632.440000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98</v>
+        <v>111.56</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4316,7 +3916,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4822.4</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="14">
@@ -4340,17 +3940,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ISHR HEALTHCARE INNOVATION</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4361,29 +3961,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>16.8448</v>
       </c>
       <c r="N14" t="n">
-        <v>9.1075</v>
+        <v>71.92</v>
       </c>
       <c r="O14" t="n">
-        <v>9107.5</v>
+        <v>1211.48</v>
       </c>
       <c r="P14" t="n">
-        <v>9.405900600000001</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.405900600000001</v>
+        <v>20.721325216</v>
       </c>
       <c r="R14" t="n">
-        <v>9405.900600000001</v>
+        <v>349.046579</v>
       </c>
       <c r="S14" t="n">
-        <v>-298.4006</v>
+        <v>862.433421</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -4392,11 +3992,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9107.5</v>
+        <v>1211.48</v>
       </c>
     </row>
     <row r="15">
@@ -4420,17 +4020,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4441,29 +4041,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>16.8448</v>
+        <v>385</v>
       </c>
       <c r="N15" t="n">
-        <v>71.54000000000001</v>
+        <v>28.3177</v>
       </c>
       <c r="O15" t="n">
-        <v>1205.08</v>
+        <v>10902.31</v>
       </c>
       <c r="P15" t="n">
-        <v>20.721325216</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.721325216</v>
+        <v>25.997158151</v>
       </c>
       <c r="R15" t="n">
-        <v>349.046579</v>
+        <v>10008.905888</v>
       </c>
       <c r="S15" t="n">
-        <v>856.033421</v>
+        <v>893.4041120000001</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4472,11 +4072,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1205.08</v>
+        <v>10902.31</v>
       </c>
     </row>
     <row r="16">
@@ -4500,17 +4100,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4521,29 +4121,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>27.7493</v>
+        <v>297.3</v>
       </c>
       <c r="O16" t="n">
-        <v>10683.48</v>
+        <v>29730</v>
       </c>
       <c r="P16" t="n">
-        <v>25.997158151</v>
+        <v>298.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.997158151</v>
+        <v>298.02</v>
       </c>
       <c r="R16" t="n">
-        <v>10008.905888</v>
+        <v>29802</v>
       </c>
       <c r="S16" t="n">
-        <v>674.574112</v>
+        <v>-72</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4552,11 +4152,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10683.48</v>
+        <v>29730</v>
       </c>
     </row>
     <row r="17">
@@ -4580,17 +4180,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4601,29 +4201,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>297.67</v>
+        <v>176.48</v>
       </c>
       <c r="O17" t="n">
-        <v>29767</v>
+        <v>52944</v>
       </c>
       <c r="P17" t="n">
-        <v>298.02</v>
+        <v>172.7421946</v>
       </c>
       <c r="Q17" t="n">
-        <v>298.02</v>
+        <v>172.7421946</v>
       </c>
       <c r="R17" t="n">
-        <v>29802</v>
+        <v>51822.65838</v>
       </c>
       <c r="S17" t="n">
-        <v>-35</v>
+        <v>1121.34162</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4632,11 +4232,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>29767</v>
+        <v>52944</v>
       </c>
     </row>
     <row r="18">
@@ -4655,55 +4255,65 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LOCK</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ISHARES DIGITAL SCRTY USD-A</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>560</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9.468</v>
+        <v>28.8393</v>
       </c>
       <c r="O18" t="n">
-        <v>9468</v>
+        <v>5767.86</v>
       </c>
       <c r="P18" t="n">
-        <v>10.229112</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.229112</v>
+        <v>23.5270125</v>
       </c>
       <c r="R18" t="n">
-        <v>10229.112</v>
+        <v>4705.4025</v>
       </c>
       <c r="S18" t="n">
-        <v>-761.112</v>
+        <v>1062.4575</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4712,11 +4322,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>9468</v>
+        <v>5767.86</v>
       </c>
     </row>
     <row r="19">
@@ -4735,55 +4345,65 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>OPT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>620</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>175.68</v>
+        <v>21.825</v>
       </c>
       <c r="O19" t="n">
-        <v>52704</v>
+        <v>4365</v>
       </c>
       <c r="P19" t="n">
-        <v>172.7421946</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q19" t="n">
-        <v>172.7421946</v>
+        <v>20.1350875</v>
       </c>
       <c r="R19" t="n">
-        <v>51822.65838</v>
+        <v>4027.0175</v>
       </c>
       <c r="S19" t="n">
-        <v>881.34162</v>
+        <v>337.9825</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4792,11 +4412,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>52704</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="20">
@@ -4825,23 +4445,23 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>GOOGL 260304P00295000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>GOOGL 04MAR26 295 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>560</v>
+        <v>295</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4851,33 +4471,33 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N20" t="n">
-        <v>30.8432</v>
+        <v>1.495</v>
       </c>
       <c r="O20" t="n">
-        <v>6168.64</v>
+        <v>-149.5</v>
       </c>
       <c r="P20" t="n">
-        <v>23.5270125</v>
+        <v>3.6594796</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.5270125</v>
+        <v>3.6594796</v>
       </c>
       <c r="R20" t="n">
-        <v>4705.4025</v>
+        <v>-365.94796</v>
       </c>
       <c r="S20" t="n">
-        <v>1463.2375</v>
+        <v>216.44796</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4886,7 +4506,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>6168.64</v>
+        <v>-149.5</v>
       </c>
     </row>
     <row r="21">
@@ -4915,23 +4535,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>IWM   260227P00257000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>IWM 27FEB26 257 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>620</v>
+        <v>257</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4941,33 +4561,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N21" t="n">
-        <v>23.395</v>
+        <v>0.66</v>
       </c>
       <c r="O21" t="n">
-        <v>4679</v>
+        <v>-132</v>
       </c>
       <c r="P21" t="n">
-        <v>20.1350875</v>
+        <v>1.8429546</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.1350875</v>
+        <v>1.8429546</v>
       </c>
       <c r="R21" t="n">
-        <v>4027.0175</v>
+        <v>-368.59092</v>
       </c>
       <c r="S21" t="n">
-        <v>651.9825</v>
+        <v>236.59092</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4976,7 +4596,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4679</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="22">
@@ -5000,60 +4620,60 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOOGL 260304P00295000</t>
+          <t>IWM   260227C00277000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GOOGL 04MAR26 295 P</t>
+          <t>IWM 27FEB26 277 C</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.815</v>
+        <v>0.0045</v>
       </c>
       <c r="O22" t="n">
-        <v>-181.5</v>
+        <v>-0.9</v>
       </c>
       <c r="P22" t="n">
-        <v>3.6594796</v>
+        <v>1.2929546</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.6594796</v>
+        <v>1.2929546</v>
       </c>
       <c r="R22" t="n">
-        <v>-365.94796</v>
+        <v>-258.59092</v>
       </c>
       <c r="S22" t="n">
-        <v>184.44796</v>
+        <v>257.69092</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5066,7 +4686,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-181.5</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="23">
@@ -5090,60 +4710,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>JPM   260327C00310000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>JPM 27MAR26 310 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.955</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>-391</v>
+        <v>-470</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8429546</v>
+        <v>4.4694546</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8429546</v>
+        <v>4.4694546</v>
       </c>
       <c r="R23" t="n">
-        <v>-368.59092</v>
+        <v>-446.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-22.40908</v>
+        <v>-23.05454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5156,7 +4776,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-391</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="24">
@@ -5180,60 +4800,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>QQQ   261218P00425000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>QQQ 18DEC26 425 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>277</v>
+        <v>425</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02</v>
+        <v>7.859</v>
       </c>
       <c r="O24" t="n">
-        <v>-4</v>
+        <v>-1571.8</v>
       </c>
       <c r="P24" t="n">
-        <v>1.2929546</v>
+        <v>6.3929546</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.2929546</v>
+        <v>6.3929546</v>
       </c>
       <c r="R24" t="n">
-        <v>-258.59092</v>
+        <v>-1278.59092</v>
       </c>
       <c r="S24" t="n">
-        <v>254.59092</v>
+        <v>-293.20908</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5246,7 +4866,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-4</v>
+        <v>-1571.8</v>
       </c>
     </row>
     <row r="25">
@@ -5270,60 +4890,60 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>JPM   260327C00325000</t>
+          <t>SMH   260227P00377500</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>JPM 27MAR26 325 C</t>
+          <t>SMH 27FEB26 377.5 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>325</v>
+        <v>377.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.84</v>
+        <v>0.6397</v>
       </c>
       <c r="O25" t="n">
-        <v>-184</v>
+        <v>-127.94</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5994546</v>
+        <v>4.3329546</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.5994546</v>
+        <v>4.3329546</v>
       </c>
       <c r="R25" t="n">
-        <v>-459.94546</v>
+        <v>-866.59092</v>
       </c>
       <c r="S25" t="n">
-        <v>275.94546</v>
+        <v>738.65092</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5336,7 +4956,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-184</v>
+        <v>-127.94</v>
       </c>
     </row>
     <row r="26">
@@ -5360,60 +4980,60 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SMH   260227C00437500</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SMH 27FEB26 437.5 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>425</v>
+        <v>437.5</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-2</v>
       </c>
       <c r="N26" t="n">
-        <v>8.4413</v>
+        <v>1.765</v>
       </c>
       <c r="O26" t="n">
-        <v>-1688.26</v>
+        <v>-353</v>
       </c>
       <c r="P26" t="n">
-        <v>6.3929546</v>
+        <v>3.5029546</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.3929546</v>
+        <v>3.5029546</v>
       </c>
       <c r="R26" t="n">
-        <v>-1278.59092</v>
+        <v>-700.59092</v>
       </c>
       <c r="S26" t="n">
-        <v>-409.66908</v>
+        <v>347.59092</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5426,7 +5046,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-1688.26</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="27">
@@ -5455,23 +5075,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>SPY   261218P00505000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>SPY 18DEC26 505 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>377.5</v>
+        <v>505</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5481,29 +5101,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.2387</v>
+        <v>7.97</v>
       </c>
       <c r="O27" t="n">
-        <v>-247.74</v>
+        <v>-1594</v>
       </c>
       <c r="P27" t="n">
-        <v>4.3329546</v>
+        <v>7.3496796</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.3329546</v>
+        <v>7.3496796</v>
       </c>
       <c r="R27" t="n">
-        <v>-866.59092</v>
+        <v>-1469.93592</v>
       </c>
       <c r="S27" t="n">
-        <v>618.85092</v>
+        <v>-124.06408</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5516,187 +5136,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-247.74</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>SMH   260227C00437500</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>SMH 27FEB26 437.5 C</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>437.5</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-206</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5029546</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.5029546</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-700.59092</v>
-      </c>
-      <c r="S28" t="n">
-        <v>494.59092</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>U6565621</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OPT</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SPY   261218P00505000</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>SPY 18DEC26 505 P</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>505</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-1702</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>7.3496796</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-1469.93592</v>
-      </c>
-      <c r="S29" t="n">
-        <v>-232.06408</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>CBOE</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>-1702</v>
+        <v>-1594</v>
       </c>
     </row>
   </sheetData>
@@ -5748,17 +5188,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$314,626.65</t>
+          <t>$295,056.43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$126,297.91</t>
+          <t>$147,272.79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$440,924.56</t>
+          <t>$442,329.22</t>
         </is>
       </c>
     </row>
@@ -5770,17 +5210,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$447,100.13</t>
+          <t>$434,115.92</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$113,412.48</t>
+          <t>$127,336.80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$560,512.61</t>
+          <t>$561,452.72</t>
         </is>
       </c>
     </row>
@@ -5798,17 +5238,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$761,726.78</t>
+          <t>$729,172.36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$239,710.39</t>
+          <t>$274,609.59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,001,437.17</t>
+          <t>$1,003,781.94</t>
         </is>
       </c>
     </row>
@@ -5861,14 +5301,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-24 23:57:31</t>
+          <t>2026-02-25 23:54:55</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>398.55</v>
+        <v>403.85</v>
       </c>
       <c r="O2" t="n">
-        <v>15942</v>
+        <v>16154</v>
       </c>
       <c r="P2" t="n">
         <v>417.712590175</v>
@@ -612,7 +612,7 @@
         <v>16708.503607</v>
       </c>
       <c r="S2" t="n">
-        <v>-766.503607</v>
+        <v>-554.503607</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>20595.4698</v>
+        <v>20906.5068</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,29 +670,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5565</v>
+        <v>3.589</v>
       </c>
       <c r="O3" t="n">
-        <v>26673.75</v>
+        <v>35890</v>
       </c>
       <c r="P3" t="n">
-        <v>3.576800457</v>
+        <v>3.576275343</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.576800457</v>
+        <v>3.576275343</v>
       </c>
       <c r="R3" t="n">
-        <v>26826.003425</v>
+        <v>35762.753425</v>
       </c>
       <c r="S3" t="n">
-        <v>-152.253425</v>
+        <v>127.246575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>34459.817625</v>
+        <v>46448.838</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>67.20999999999999</v>
+        <v>67.55</v>
       </c>
       <c r="O4" t="n">
-        <v>20163</v>
+        <v>20265</v>
       </c>
       <c r="P4" t="n">
         <v>65.14093333300001</v>
@@ -772,7 +772,7 @@
         <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>620.72</v>
+        <v>722.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>26048.5797</v>
+        <v>26226.963</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14535</v>
+        <v>0.14589</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.52</v>
+        <v>31.74</v>
       </c>
       <c r="O5" t="n">
-        <v>94560</v>
+        <v>95220</v>
       </c>
       <c r="P5" t="n">
         <v>31.36596519</v>
@@ -852,7 +852,7 @@
         <v>94097.89556999999</v>
       </c>
       <c r="S5" t="n">
-        <v>462.10443</v>
+        <v>1122.10443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>13744.296</v>
+        <v>13891.6458</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1773</v>
+        <v>1.181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,29 +910,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.385</v>
+        <v>4.376</v>
       </c>
       <c r="O6" t="n">
-        <v>17540</v>
+        <v>8752</v>
       </c>
       <c r="P6" t="n">
-        <v>4.66216992</v>
+        <v>4.66233</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.66216992</v>
+        <v>4.66233</v>
       </c>
       <c r="R6" t="n">
-        <v>18648.67968</v>
+        <v>9324.66</v>
       </c>
       <c r="S6" t="n">
-        <v>-1108.67968</v>
+        <v>-572.66</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20649.842</v>
+        <v>10336.112</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.78936</v>
+        <v>0.79136</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.01</v>
+        <v>5.015</v>
       </c>
       <c r="O7" t="n">
-        <v>40080</v>
+        <v>40120</v>
       </c>
       <c r="P7" t="n">
         <v>4.717028356</v>
@@ -1012,7 +1012,7 @@
         <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2343.77315</v>
+        <v>2383.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>31637.5488</v>
+        <v>31749.3632</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78936</v>
+        <v>0.79136</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>603.1</v>
+        <v>603.5</v>
       </c>
       <c r="O8" t="n">
-        <v>30155</v>
+        <v>30175</v>
       </c>
       <c r="P8" t="n">
         <v>581.20939584</v>
@@ -1092,7 +1092,7 @@
         <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>1094.530208</v>
+        <v>1114.530208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>23803.1508</v>
+        <v>23879.288</v>
       </c>
     </row>
     <row r="9">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>9807</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>GLOBAL X CHINA ROBOTICS</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1150,29 +1150,29 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="N9" t="n">
-        <v>8.9</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>890</v>
+        <v>6251.25</v>
       </c>
       <c r="P9" t="n">
-        <v>9.705</v>
+        <v>8.341905548</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.705</v>
+        <v>8.341905548</v>
       </c>
       <c r="R9" t="n">
-        <v>970.5</v>
+        <v>6256.429161</v>
       </c>
       <c r="S9" t="n">
-        <v>-80.5</v>
+        <v>-5.179161</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SEHK</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>890</v>
+        <v>6251.25</v>
       </c>
     </row>
     <row r="10">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1230,29 +1230,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>1430</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>14300</v>
+        <v>955</v>
       </c>
       <c r="P10" t="n">
-        <v>1474.045</v>
+        <v>9.705</v>
       </c>
       <c r="Q10" t="n">
-        <v>1474.045</v>
+        <v>9.705</v>
       </c>
       <c r="R10" t="n">
-        <v>14740.45</v>
+        <v>970.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-440.45</v>
+        <v>-15.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1261,11 +1261,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>14300</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1310,29 +1310,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>310.9</v>
+        <v>1449</v>
       </c>
       <c r="O11" t="n">
-        <v>31090</v>
+        <v>14490</v>
       </c>
       <c r="P11" t="n">
-        <v>301.635</v>
+        <v>1474.045</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.635</v>
+        <v>1474.045</v>
       </c>
       <c r="R11" t="n">
-        <v>30163.5</v>
+        <v>14740.45</v>
       </c>
       <c r="S11" t="n">
-        <v>926.5</v>
+        <v>-250.45</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>31090</v>
+        <v>14490</v>
       </c>
     </row>
     <row r="12">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GRDU</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FT NSDQ CLN EDG SMRT GRID</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1390,29 +1390,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>60.9</v>
+        <v>312.9</v>
       </c>
       <c r="O12" t="n">
-        <v>9744</v>
+        <v>31290</v>
       </c>
       <c r="P12" t="n">
-        <v>59.854125</v>
+        <v>301.635</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.854125</v>
+        <v>301.635</v>
       </c>
       <c r="R12" t="n">
-        <v>9576.66</v>
+        <v>30163.5</v>
       </c>
       <c r="S12" t="n">
-        <v>167.34</v>
+        <v>1126.5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9744</v>
+        <v>31290</v>
       </c>
     </row>
     <row r="13">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1470,29 +1470,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>385</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>28.3177</v>
+        <v>61.66</v>
       </c>
       <c r="O13" t="n">
-        <v>10902.31</v>
+        <v>9865.6</v>
       </c>
       <c r="P13" t="n">
-        <v>26.012734603</v>
+        <v>59.854125</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.012734603</v>
+        <v>59.854125</v>
       </c>
       <c r="R13" t="n">
-        <v>10014.902822</v>
+        <v>9576.66</v>
       </c>
       <c r="S13" t="n">
-        <v>887.407178</v>
+        <v>288.94</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>10902.31</v>
+        <v>9865.6</v>
       </c>
     </row>
     <row r="14">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ORACLE CORP</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1550,29 +1550,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>146.14</v>
+        <v>28.2982</v>
       </c>
       <c r="O14" t="n">
-        <v>14614</v>
+        <v>10894.81</v>
       </c>
       <c r="P14" t="n">
-        <v>205.3357044</v>
+        <v>26.012734603</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.3357044</v>
+        <v>26.012734603</v>
       </c>
       <c r="R14" t="n">
-        <v>20533.57044</v>
+        <v>10014.902822</v>
       </c>
       <c r="S14" t="n">
-        <v>-5919.57044</v>
+        <v>879.907178</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>14614</v>
+        <v>10894.81</v>
       </c>
     </row>
     <row r="15">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SEA LTD-ADR</t>
+          <t>ORACLE CORP</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1630,29 +1630,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>107.11</v>
+        <v>147.89</v>
       </c>
       <c r="O15" t="n">
-        <v>2142.2</v>
+        <v>14789</v>
       </c>
       <c r="P15" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.315</v>
+        <v>205.3357044</v>
       </c>
       <c r="R15" t="n">
-        <v>2486.3</v>
+        <v>20533.57044</v>
       </c>
       <c r="S15" t="n">
-        <v>-344.1</v>
+        <v>-5744.57044</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2142.2</v>
+        <v>14789</v>
       </c>
     </row>
     <row r="16">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>SEA LTD-ADR</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1710,29 +1710,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>176.48</v>
+        <v>104.47</v>
       </c>
       <c r="O16" t="n">
-        <v>35296</v>
+        <v>2089.4</v>
       </c>
       <c r="P16" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="Q16" t="n">
-        <v>171.74192805</v>
+        <v>124.315</v>
       </c>
       <c r="R16" t="n">
-        <v>34348.38561</v>
+        <v>2486.3</v>
       </c>
       <c r="S16" t="n">
-        <v>947.61439</v>
+        <v>-396.9</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>35296</v>
+        <v>2089.4</v>
       </c>
     </row>
     <row r="17">
@@ -1764,65 +1764,55 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>560</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>28.8393</v>
+        <v>178.04</v>
       </c>
       <c r="O17" t="n">
-        <v>5767.86</v>
+        <v>53412</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4605</v>
+        <v>173.59738865</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.4605</v>
+        <v>173.59738865</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.1</v>
+        <v>52079.216595</v>
       </c>
       <c r="S17" t="n">
-        <v>1075.76</v>
+        <v>1332.783405</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1831,11 +1821,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5767.86</v>
+        <v>53412</v>
       </c>
     </row>
     <row r="18">
@@ -1859,60 +1849,60 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>AAPL  260327C00290000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>AAPL 27MAR26 290 C</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>620</v>
+        <v>290</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>21.825</v>
+        <v>2.03</v>
       </c>
       <c r="O18" t="n">
-        <v>4365</v>
+        <v>203</v>
       </c>
       <c r="P18" t="n">
-        <v>20.1374875</v>
+        <v>2.0105125</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.1374875</v>
+        <v>2.0105125</v>
       </c>
       <c r="R18" t="n">
-        <v>4027.4975</v>
+        <v>201.05125</v>
       </c>
       <c r="S18" t="n">
-        <v>337.5025</v>
+        <v>1.94875</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1925,7 +1915,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4365</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
@@ -1954,23 +1944,23 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GOOGL 260306C00325000</t>
+          <t>MSFT  260327C00420000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>GOOGL 06MAR26 325 C</t>
+          <t>MSFT 27MAR26 420 C</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>325</v>
+        <v>420</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1980,33 +1970,33 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.925</v>
+        <v>5.375</v>
       </c>
       <c r="O19" t="n">
-        <v>-192.5</v>
+        <v>537.5</v>
       </c>
       <c r="P19" t="n">
-        <v>3.7194546</v>
+        <v>4.4905125</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.7194546</v>
+        <v>4.4905125</v>
       </c>
       <c r="R19" t="n">
-        <v>-371.94546</v>
+        <v>449.05125</v>
       </c>
       <c r="S19" t="n">
-        <v>179.44546</v>
+        <v>88.44875</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2015,7 +2005,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>-192.5</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="20">
@@ -2044,23 +2034,23 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GOOGL 260327P00300000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>GOOGL 27MAR26 300 P</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2070,33 +2060,33 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>7.1</v>
+        <v>26.4053</v>
       </c>
       <c r="O20" t="n">
-        <v>-710</v>
+        <v>5281.06</v>
       </c>
       <c r="P20" t="n">
-        <v>5.6794546</v>
+        <v>23.4605</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.6794546</v>
+        <v>23.4605</v>
       </c>
       <c r="R20" t="n">
-        <v>-567.94546</v>
+        <v>4692.1</v>
       </c>
       <c r="S20" t="n">
-        <v>-142.05454</v>
+        <v>588.96</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2105,7 +2095,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>-710</v>
+        <v>5281.06</v>
       </c>
     </row>
     <row r="21">
@@ -2134,23 +2124,23 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>257</v>
+        <v>620</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2160,33 +2150,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.66</v>
+        <v>20.305</v>
       </c>
       <c r="O21" t="n">
-        <v>-132</v>
+        <v>4061</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8129546</v>
+        <v>20.1374875</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8129546</v>
+        <v>20.1374875</v>
       </c>
       <c r="R21" t="n">
-        <v>-362.59092</v>
+        <v>4027.4975</v>
       </c>
       <c r="S21" t="n">
-        <v>230.59092</v>
+        <v>33.5025</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2195,7 +2185,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-132</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="22">
@@ -2219,60 +2209,60 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>AAPL  260327P00250000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>AAPL 27MAR26 250 P</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0045</v>
+        <v>1.6882</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.9</v>
+        <v>-168.82</v>
       </c>
       <c r="P22" t="n">
-        <v>1.3029546</v>
+        <v>1.7494546</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3029546</v>
+        <v>1.7494546</v>
       </c>
       <c r="R22" t="n">
-        <v>-260.59092</v>
+        <v>-174.94546</v>
       </c>
       <c r="S22" t="n">
-        <v>259.69092</v>
+        <v>6.12546</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2285,7 +2275,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-0.9</v>
+        <v>-168.82</v>
       </c>
     </row>
     <row r="23">
@@ -2309,60 +2299,60 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NVDA  260227P00175000</t>
+          <t>AAPL  260327C00285000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NVDA 27FEB26 175 P</t>
+          <t>AAPL 27MAR26 285 C</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02</v>
+        <v>3.375</v>
       </c>
       <c r="O23" t="n">
-        <v>-204</v>
+        <v>-337.5</v>
       </c>
       <c r="P23" t="n">
-        <v>4.6464796</v>
+        <v>3.2494546</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.6464796</v>
+        <v>3.2494546</v>
       </c>
       <c r="R23" t="n">
-        <v>-929.29592</v>
+        <v>-324.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>725.29592</v>
+        <v>-12.55454</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2375,7 +2365,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-204</v>
+        <v>-337.5</v>
       </c>
     </row>
     <row r="24">
@@ -2399,60 +2389,60 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ORCL  260306C00165000</t>
+          <t>AMD   260327P00185000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ORCL 06MAR26 165 C</t>
+          <t>AMD 27MAR26 185 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.075</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>-107.5</v>
+        <v>-460</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8094796</v>
+        <v>4.0445796</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8094796</v>
+        <v>4.0445796</v>
       </c>
       <c r="R24" t="n">
-        <v>-180.94796</v>
+        <v>-404.45796</v>
       </c>
       <c r="S24" t="n">
-        <v>73.44795999999999</v>
+        <v>-55.54204</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2465,7 +2455,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-107.5</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="25">
@@ -2489,60 +2479,60 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>AMD   260327C00255000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>AMD 27MAR26 255 C</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>425</v>
+        <v>255</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>7.859</v>
+        <v>2.095</v>
       </c>
       <c r="O25" t="n">
-        <v>-1571.8</v>
+        <v>-209.5</v>
       </c>
       <c r="P25" t="n">
-        <v>6.3644671</v>
+        <v>2.3442796</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.3644671</v>
+        <v>2.3442796</v>
       </c>
       <c r="R25" t="n">
-        <v>-1272.89342</v>
+        <v>-234.42796</v>
       </c>
       <c r="S25" t="n">
-        <v>-298.90658</v>
+        <v>24.92796</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2555,7 +2545,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-1571.8</v>
+        <v>-209.5</v>
       </c>
     </row>
     <row r="26">
@@ -2584,23 +2574,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>AMZN  260327P00190000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>AMZN 27MAR26 190 P</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>377.5</v>
+        <v>190</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2610,29 +2600,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6397</v>
+        <v>1.805</v>
       </c>
       <c r="O26" t="n">
-        <v>-127.94</v>
+        <v>-180.5</v>
       </c>
       <c r="P26" t="n">
-        <v>4.3429546</v>
+        <v>1.8142796</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.3429546</v>
+        <v>1.8142796</v>
       </c>
       <c r="R26" t="n">
-        <v>-868.59092</v>
+        <v>-181.42796</v>
       </c>
       <c r="S26" t="n">
-        <v>740.65092</v>
+        <v>0.92796</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2645,7 +2635,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-127.94</v>
+        <v>-180.5</v>
       </c>
     </row>
     <row r="27">
@@ -2674,23 +2664,23 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>AMZN  260327C00235000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>AMZN 27MAR26 235 C</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>437.5</v>
+        <v>235</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2700,29 +2690,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.765</v>
+        <v>1.015</v>
       </c>
       <c r="O27" t="n">
-        <v>-353</v>
+        <v>-101.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5129546</v>
+        <v>1.0242796</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5129546</v>
+        <v>1.0242796</v>
       </c>
       <c r="R27" t="n">
-        <v>-702.59092</v>
+        <v>-102.42796</v>
       </c>
       <c r="S27" t="n">
-        <v>349.59092</v>
+        <v>0.92796</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2735,7 +2725,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-353</v>
+        <v>-101.5</v>
       </c>
     </row>
     <row r="28">
@@ -2759,73 +2749,1153 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>GOOGL 260306C00325000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>GOOGL 06MAR26 325 C</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>100</v>
       </c>
       <c r="I28" t="n">
+        <v>325</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-213</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.7194546</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.7194546</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-371.94546</v>
+      </c>
+      <c r="S28" t="n">
+        <v>158.94546</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>GOOGL 260327P00300000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GOOGL 27MAR26 300 P</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>300</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-610</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.6794546</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5.6794546</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-567.94546</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-42.05454</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>-610</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>IWM   260227P00257000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 257 P</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>257</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-48</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.8129546</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.8129546</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-362.59092</v>
+      </c>
+      <c r="S30" t="n">
+        <v>314.59092</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>IWM   260227C00277000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 277 C</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>277</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.3029546</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.3029546</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-260.59092</v>
+      </c>
+      <c r="S31" t="n">
+        <v>260.41092</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MSFT  260327P00360000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MSFT 27MAR26 360 P</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>360</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-206</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.1194546</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.1194546</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-211.94546</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.94546</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MSFT  260327C00415000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MSFT 27MAR26 415 C</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>415</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-692.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.7894546</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5.7894546</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-578.94546</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-113.55454</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>-692.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NFLX  260327P00075000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NFLX 27MAR26 75 P</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>75</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-115.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.3294546</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.3294546</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-132.94546</v>
+      </c>
+      <c r="S34" t="n">
+        <v>17.44546</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>-115.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NVDA  260227P00175000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NVDA 27FEB26 175 P</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="n">
+        <v>175</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-126</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.6464796</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4.6464796</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-929.29592</v>
+      </c>
+      <c r="S35" t="n">
+        <v>803.29592</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ORCL  260306C00165000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ORCL 06MAR26 165 C</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" t="n">
+        <v>165</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-144.5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.8094796</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.8094796</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-180.94796</v>
+      </c>
+      <c r="S36" t="n">
+        <v>36.44796</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>-144.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>QQQ   261218P00425000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>QQQ 18DEC26 425 P</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>425</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.2253</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1445.06</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.3644671</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6.3644671</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1272.89342</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-172.16658</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>-1445.06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SMH   260227P00377500</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 377.5 P</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2494</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-49.88</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.3429546</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4.3429546</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-868.59092</v>
+      </c>
+      <c r="S38" t="n">
+        <v>818.71092</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>-49.88</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SMH   260227C00437500</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 437.5 C</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-494</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.5129546</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-702.59092</v>
+      </c>
+      <c r="S39" t="n">
+        <v>208.59092</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>-494</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U2739721</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" t="n">
         <v>505</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>2026-12-18</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>-2</v>
       </c>
-      <c r="N28" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-1594</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="N40" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1501</v>
+      </c>
+      <c r="P40" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q40" t="n">
         <v>7.3548796</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R40" t="n">
         <v>-1470.97592</v>
       </c>
-      <c r="S28" t="n">
-        <v>-123.02408</v>
-      </c>
-      <c r="T28" t="inlineStr">
+      <c r="S40" t="n">
+        <v>-30.02408</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V28" t="n">
-        <v>-1594</v>
+      <c r="V40" t="n">
+        <v>-1501</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +3909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2971,7 +4041,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3001,17 +4071,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>398.55</v>
+        <v>403.85</v>
       </c>
       <c r="O2" t="n">
-        <v>19927.5</v>
+        <v>20192.5</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -3023,7 +4093,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-1055.456235</v>
+        <v>-790.456235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3036,7 +4106,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>25744.33725</v>
+        <v>26133.1335</v>
       </c>
     </row>
     <row r="3">
@@ -3051,7 +4121,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3081,29 +4151,29 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5565</v>
+        <v>3.589</v>
       </c>
       <c r="O3" t="n">
-        <v>32008.5</v>
+        <v>43068</v>
       </c>
       <c r="P3" t="n">
-        <v>3.573974983</v>
+        <v>3.574177863</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.573974983</v>
+        <v>3.574177863</v>
       </c>
       <c r="R3" t="n">
-        <v>32165.77485</v>
+        <v>42890.13435</v>
       </c>
       <c r="S3" t="n">
-        <v>-157.27485</v>
+        <v>177.86565</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3116,7 +4186,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>41351.78115</v>
+        <v>55738.6056</v>
       </c>
     </row>
     <row r="4">
@@ -3131,7 +4201,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2919</v>
+        <v>1.2942</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3161,17 +4231,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>67.20999999999999</v>
+        <v>67.55</v>
       </c>
       <c r="O4" t="n">
-        <v>33605</v>
+        <v>33775</v>
       </c>
       <c r="P4" t="n">
         <v>65.30711724</v>
@@ -3183,7 +4253,7 @@
         <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>951.44138</v>
+        <v>1121.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -3196,7 +4266,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>43414.2995</v>
+        <v>43711.605</v>
       </c>
     </row>
     <row r="5">
@@ -3211,7 +4281,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14535</v>
+        <v>0.14589</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3241,17 +4311,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.52</v>
+        <v>31.74</v>
       </c>
       <c r="O5" t="n">
-        <v>63040</v>
+        <v>63480</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -3263,7 +4333,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>-352.47719</v>
+        <v>87.52281000000001</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -3276,7 +4346,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9162.864</v>
+        <v>9261.0972</v>
       </c>
     </row>
     <row r="6">
@@ -3291,7 +4361,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1773</v>
+        <v>1.181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3321,29 +4391,29 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.385</v>
+        <v>4.376</v>
       </c>
       <c r="O6" t="n">
-        <v>17540</v>
+        <v>13128</v>
       </c>
       <c r="P6" t="n">
-        <v>4.65882825</v>
+        <v>4.65841303</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.65882825</v>
+        <v>4.65841303</v>
       </c>
       <c r="R6" t="n">
-        <v>18635.313</v>
+        <v>13975.239091</v>
       </c>
       <c r="S6" t="n">
-        <v>-1095.313</v>
+        <v>-847.239091</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -3356,7 +4426,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>20649.842</v>
+        <v>15504.168</v>
       </c>
     </row>
     <row r="7">
@@ -3371,7 +4441,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1773</v>
+        <v>1.181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3401,17 +4471,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.11</v>
+        <v>49.44</v>
       </c>
       <c r="O7" t="n">
-        <v>49110</v>
+        <v>49440</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -3423,7 +4493,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6100</v>
+        <v>6430</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -3436,7 +4506,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>57817.203</v>
+        <v>58388.64</v>
       </c>
     </row>
     <row r="8">
@@ -3451,7 +4521,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78936</v>
+        <v>0.79136</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3481,17 +4551,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.01</v>
+        <v>5.015</v>
       </c>
       <c r="O8" t="n">
-        <v>50100</v>
+        <v>50150</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -3503,7 +4573,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>11981.8184</v>
+        <v>12031.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -3516,7 +4586,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39546.93599999999</v>
+        <v>39686.704</v>
       </c>
     </row>
     <row r="9">
@@ -3531,7 +4601,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.78936</v>
+        <v>0.79136</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3561,17 +4631,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>603.1</v>
+        <v>603.5</v>
       </c>
       <c r="O9" t="n">
-        <v>30155</v>
+        <v>30175</v>
       </c>
       <c r="P9" t="n">
         <v>581.41476</v>
@@ -3583,7 +4653,7 @@
         <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>1084.262</v>
+        <v>1104.262</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -3596,7 +4666,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23803.1508</v>
+        <v>23879.288</v>
       </c>
     </row>
     <row r="10">
@@ -3625,12 +4695,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BITO</t>
+          <t>9807</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PROSHARES BITCOIN ETF-USD</t>
+          <t>GLOBAL X CHINA ROBOTICS</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3641,29 +4711,29 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N10" t="n">
-        <v>8.9</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>2670</v>
+        <v>6668</v>
       </c>
       <c r="P10" t="n">
-        <v>11.661666667</v>
+        <v>8.34690969</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.661666667</v>
+        <v>8.34690969</v>
       </c>
       <c r="R10" t="n">
-        <v>3498.5</v>
+        <v>6677.527752</v>
       </c>
       <c r="S10" t="n">
-        <v>-828.5</v>
+        <v>-9.527752</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -3672,11 +4742,11 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>ARCA</t>
+          <t>SEHK</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2670</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="11">
@@ -3705,12 +4775,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CSNDX</t>
+          <t>BITO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ISHARES NASDAQ 100 USD ACC</t>
+          <t>PROSHARES BITCOIN ETF-USD</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3721,29 +4791,29 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>1430</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>28600</v>
+        <v>2865</v>
       </c>
       <c r="P11" t="n">
-        <v>1467.02705</v>
+        <v>11.661666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>1467.02705</v>
+        <v>11.661666667</v>
       </c>
       <c r="R11" t="n">
-        <v>29340.541</v>
+        <v>3498.5</v>
       </c>
       <c r="S11" t="n">
-        <v>-740.5410000000001</v>
+        <v>-633.5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -3752,11 +4822,11 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EBS</t>
+          <t>ARCA</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28600</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="12">
@@ -3780,17 +4850,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>CSNDX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ALPHABET INC-CL A</t>
+          <t>ISHARES NASDAQ 100 USD ACC</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3801,29 +4871,29 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>310.9</v>
+        <v>1449</v>
       </c>
       <c r="O12" t="n">
-        <v>31090</v>
+        <v>28980</v>
       </c>
       <c r="P12" t="n">
-        <v>331.87755</v>
+        <v>1467.02705</v>
       </c>
       <c r="Q12" t="n">
-        <v>331.87755</v>
+        <v>1467.02705</v>
       </c>
       <c r="R12" t="n">
-        <v>33187.755</v>
+        <v>29340.541</v>
       </c>
       <c r="S12" t="n">
-        <v>-2097.755</v>
+        <v>-360.541</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -3832,11 +4902,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31090</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="13">
@@ -3860,17 +4930,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GRDU</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FT NSDQ CLN EDG SMRT GRID</t>
+          <t>ALPHABET INC-CL A</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3881,29 +4951,29 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>60.9</v>
+        <v>312.9</v>
       </c>
       <c r="O13" t="n">
-        <v>9744</v>
+        <v>31290</v>
       </c>
       <c r="P13" t="n">
-        <v>60.20275</v>
+        <v>331.87755</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.20275</v>
+        <v>331.87755</v>
       </c>
       <c r="R13" t="n">
-        <v>9632.440000000001</v>
+        <v>33187.755</v>
       </c>
       <c r="S13" t="n">
-        <v>111.56</v>
+        <v>-1897.755</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -3912,11 +4982,11 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9744</v>
+        <v>31290</v>
       </c>
     </row>
     <row r="14">
@@ -3940,17 +5010,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>GRDU</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>INTERACTIVE BROKERS GRO-CL A</t>
+          <t>FT NSDQ CLN EDG SMRT GRID</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3961,29 +5031,29 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16.8448</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>71.92</v>
+        <v>61.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1211.48</v>
+        <v>9865.6</v>
       </c>
       <c r="P14" t="n">
-        <v>20.721325216</v>
+        <v>60.20275</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.721325216</v>
+        <v>60.20275</v>
       </c>
       <c r="R14" t="n">
-        <v>349.046579</v>
+        <v>9632.440000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>862.433421</v>
+        <v>233.16</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -3992,11 +5062,11 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1211.48</v>
+        <v>9865.6</v>
       </c>
     </row>
     <row r="15">
@@ -4020,17 +5090,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INRA</t>
+          <t>IBKR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ISHAR GL CL EN TR UCI ETF-US</t>
+          <t>INTERACTIVE BROKERS GRO-CL A</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4041,29 +5111,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>385</v>
+        <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>28.3177</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>10902.31</v>
+        <v>1240.62</v>
       </c>
       <c r="P15" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.997158151</v>
+        <v>20.721325216</v>
       </c>
       <c r="R15" t="n">
-        <v>10008.905888</v>
+        <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>893.4041120000001</v>
+        <v>891.5734210000001</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -4072,11 +5142,11 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>AEB</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>10902.31</v>
+        <v>1240.62</v>
       </c>
     </row>
     <row r="16">
@@ -4100,17 +5170,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>COMMON</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>INRA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE &amp; CO</t>
+          <t>ISHAR GL CL EN TR UCI ETF-US</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4121,29 +5191,29 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>297.3</v>
+        <v>28.2982</v>
       </c>
       <c r="O16" t="n">
-        <v>29730</v>
+        <v>10894.81</v>
       </c>
       <c r="P16" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.02</v>
+        <v>25.997158151</v>
       </c>
       <c r="R16" t="n">
-        <v>29802</v>
+        <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>-72</v>
+        <v>885.9041120000001</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -4152,11 +5222,11 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>AEB</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>29730</v>
+        <v>10894.81</v>
       </c>
     </row>
     <row r="17">
@@ -4180,17 +5250,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>COMMON</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VWRA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>VANG FTSE AW USDA</t>
+          <t>JPMORGAN CHASE &amp; CO</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4201,29 +5271,29 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>176.48</v>
+        <v>303.3</v>
       </c>
       <c r="O17" t="n">
-        <v>52944</v>
+        <v>30330</v>
       </c>
       <c r="P17" t="n">
-        <v>172.7421946</v>
+        <v>298.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.7421946</v>
+        <v>298.02</v>
       </c>
       <c r="R17" t="n">
-        <v>51822.65838</v>
+        <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>1121.34162</v>
+        <v>528</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -4232,11 +5302,11 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>LSEETF</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>52944</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="18">
@@ -4255,65 +5325,55 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OPT</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>QQQ   261218P00560000</t>
+          <t>VWRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 560 P</t>
+          <t>VANG FTSE AW USDA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>560</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2026-12-18</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
-        <v>28.8393</v>
+        <v>178.04</v>
       </c>
       <c r="O18" t="n">
-        <v>5767.86</v>
+        <v>71216</v>
       </c>
       <c r="P18" t="n">
-        <v>23.5270125</v>
+        <v>173.889176137</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.5270125</v>
+        <v>173.889176137</v>
       </c>
       <c r="R18" t="n">
-        <v>4705.4025</v>
+        <v>69555.670455</v>
       </c>
       <c r="S18" t="n">
-        <v>1062.4575</v>
+        <v>1660.329545</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -4322,11 +5382,11 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>LSEETF</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5767.86</v>
+        <v>71216</v>
       </c>
     </row>
     <row r="19">
@@ -4350,60 +5410,60 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SPY   261218P00620000</t>
+          <t>AAPL  260327C00290000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 620 P</t>
+          <t>AAPL 27MAR26 290 C</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>620</v>
+        <v>290</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>21.825</v>
+        <v>2.03</v>
       </c>
       <c r="O19" t="n">
-        <v>4365</v>
+        <v>203</v>
       </c>
       <c r="P19" t="n">
-        <v>20.1350875</v>
+        <v>2.1405125</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.1350875</v>
+        <v>2.1405125</v>
       </c>
       <c r="R19" t="n">
-        <v>4027.0175</v>
+        <v>214.05125</v>
       </c>
       <c r="S19" t="n">
-        <v>337.9825</v>
+        <v>-11.05125</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4416,7 +5476,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4365</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -4440,64 +5500,64 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GOOGL 260304P00295000</t>
+          <t>MSFT  260327C00420000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>GOOGL 04MAR26 295 P</t>
+          <t>MSFT 27MAR26 420 C</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.495</v>
+        <v>5.375</v>
       </c>
       <c r="O20" t="n">
-        <v>-149.5</v>
+        <v>537.5</v>
       </c>
       <c r="P20" t="n">
-        <v>3.6594796</v>
+        <v>4.6805125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.6594796</v>
+        <v>4.6805125</v>
       </c>
       <c r="R20" t="n">
-        <v>-365.94796</v>
+        <v>468.05125</v>
       </c>
       <c r="S20" t="n">
-        <v>216.44796</v>
+        <v>69.44875</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4506,7 +5566,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>-149.5</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="21">
@@ -4530,64 +5590,64 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IWM   260227P00257000</t>
+          <t>NFLX  260327C00085000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 257 P</t>
+          <t>NFLX 27MAR26 85 C</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.66</v>
+        <v>2.9909</v>
       </c>
       <c r="O21" t="n">
-        <v>-132</v>
+        <v>299.09</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8429546</v>
+        <v>2.5205125</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8429546</v>
+        <v>2.5205125</v>
       </c>
       <c r="R21" t="n">
-        <v>-368.59092</v>
+        <v>252.05125</v>
       </c>
       <c r="S21" t="n">
-        <v>236.59092</v>
+        <v>47.03875</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -4596,7 +5656,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>-132</v>
+        <v>299.09</v>
       </c>
     </row>
     <row r="22">
@@ -4625,23 +5685,23 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IWM   260227C00277000</t>
+          <t>NVDA  260327C00220000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>IWM 27FEB26 277 C</t>
+          <t>NVDA 27MAR26 220 C</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4651,33 +5711,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0045</v>
+        <v>2.89</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.9</v>
+        <v>289</v>
       </c>
       <c r="P22" t="n">
-        <v>1.2929546</v>
+        <v>2.6805125</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.2929546</v>
+        <v>2.6805125</v>
       </c>
       <c r="R22" t="n">
-        <v>-258.59092</v>
+        <v>268.05125</v>
       </c>
       <c r="S22" t="n">
-        <v>257.69092</v>
+        <v>20.94875</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -4686,7 +5746,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-0.9</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
@@ -4710,64 +5770,64 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JPM   260327C00310000</t>
+          <t>QQQ   261218P00560000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JPM 27MAR26 310 C</t>
+          <t>QQQ 18DEC26 560 P</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>310</v>
+        <v>560</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>26.4053</v>
       </c>
       <c r="O23" t="n">
-        <v>-470</v>
+        <v>5281.06</v>
       </c>
       <c r="P23" t="n">
-        <v>4.4694546</v>
+        <v>23.5270125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.4694546</v>
+        <v>23.5270125</v>
       </c>
       <c r="R23" t="n">
-        <v>-446.94546</v>
+        <v>4705.4025</v>
       </c>
       <c r="S23" t="n">
-        <v>-23.05454</v>
+        <v>575.6575</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4776,7 +5836,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-470</v>
+        <v>5281.06</v>
       </c>
     </row>
     <row r="24">
@@ -4805,19 +5865,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QQQ   261218P00425000</t>
+          <t>SPY   261218P00620000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>QQQ 18DEC26 425 P</t>
+          <t>SPY 18DEC26 620 P</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>425</v>
+        <v>620</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -4831,33 +5891,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>7.859</v>
+        <v>20.305</v>
       </c>
       <c r="O24" t="n">
-        <v>-1571.8</v>
+        <v>4061</v>
       </c>
       <c r="P24" t="n">
-        <v>6.3929546</v>
+        <v>20.1350875</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.3929546</v>
+        <v>20.1350875</v>
       </c>
       <c r="R24" t="n">
-        <v>-1278.59092</v>
+        <v>4027.0175</v>
       </c>
       <c r="S24" t="n">
-        <v>-293.20908</v>
+        <v>33.9825</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4866,7 +5926,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-1571.8</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="25">
@@ -4895,23 +5955,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SMH   260227P00377500</t>
+          <t>AAPL  260327P00250000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 377.5 P</t>
+          <t>AAPL 27MAR26 250 P</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>377.5</v>
+        <v>250</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4921,29 +5981,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6397</v>
+        <v>1.6882</v>
       </c>
       <c r="O25" t="n">
-        <v>-127.94</v>
+        <v>-168.82</v>
       </c>
       <c r="P25" t="n">
-        <v>4.3329546</v>
+        <v>1.7694546</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.3329546</v>
+        <v>1.7694546</v>
       </c>
       <c r="R25" t="n">
-        <v>-866.59092</v>
+        <v>-176.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>738.65092</v>
+        <v>8.12546</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -4956,7 +6016,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-127.94</v>
+        <v>-168.82</v>
       </c>
     </row>
     <row r="26">
@@ -4985,23 +6045,23 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SMH   260227C00437500</t>
+          <t>AAPL  260327C00285000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SMH 27FEB26 437.5 C</t>
+          <t>AAPL 27MAR26 285 C</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>437.5</v>
+        <v>285</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -5011,29 +6071,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.765</v>
+        <v>3.375</v>
       </c>
       <c r="O26" t="n">
-        <v>-353</v>
+        <v>-337.5</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5029546</v>
+        <v>3.4194546</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5029546</v>
+        <v>3.4194546</v>
       </c>
       <c r="R26" t="n">
-        <v>-700.59092</v>
+        <v>-341.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>347.59092</v>
+        <v>4.44546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5046,7 +6106,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-353</v>
+        <v>-337.5</v>
       </c>
     </row>
     <row r="27">
@@ -5075,68 +6135,1688 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SPY   261218P00505000</t>
+          <t>AMD   260327P00185000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SPY 18DEC26 505 P</t>
+          <t>AMD 27MAR26 185 P</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>100</v>
       </c>
       <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-460</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.1794546</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4.1794546</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-417.94546</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-42.05454</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AMD   260327C00255000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>AMD 27MAR26 255 C</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>255</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-209.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.3694546</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3694546</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-236.94546</v>
+      </c>
+      <c r="S28" t="n">
+        <v>27.44546</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>-209.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AMZN  260327P00190000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AMZN 27MAR26 190 P</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>190</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-180.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.7994546</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.7994546</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-179.94546</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.55454</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>-180.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>AMZN  260327C00235000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AMZN 27MAR26 235 C</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>235</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-101.5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.0594546</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.0594546</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-105.94546</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.44546</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>-101.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>GOOGL 260304P00295000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>GOOGL 04MAR26 295 P</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>295</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2026-03-04</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-101</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.6594796</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.6594796</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-365.94796</v>
+      </c>
+      <c r="S31" t="n">
+        <v>264.94796</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GOOGL 260327C00330000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>GOOGL 27MAR26 330 C</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>330</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.0919</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-509.19</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.6494796</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.6494796</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-464.94796</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-44.24204</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>-509.19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>IWM   260227P00257000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 257 P</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>257</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-48</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.8429546</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.8429546</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-368.59092</v>
+      </c>
+      <c r="S33" t="n">
+        <v>320.59092</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>IWM   260227C00277000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>IWM 27FEB26 277 C</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>277</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.2929546</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.2929546</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-258.59092</v>
+      </c>
+      <c r="S34" t="n">
+        <v>258.41092</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>JPM   260327C00310000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>JPM 27MAR26 310 C</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="n">
+        <v>310</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-637.5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.4694546</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4.4694546</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-446.94546</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-190.55454</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>-637.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MSFT  260327P00360000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MSFT 27MAR26 360 P</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" t="n">
+        <v>360</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-206</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.1094546</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.1094546</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-210.94546</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.94546</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MSFT  260327C00415000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MSFT 27MAR26 415 C</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>415</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.925</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-692.5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.9994546</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5.9994546</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-599.94546</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-92.55454</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>-692.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NFLX  260327P00072000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NFLX 27MAR26 72 P</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" t="n">
+        <v>72</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-69.5</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8794546</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.8794546</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-87.94546</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18.44546</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>-69.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NFLX  260327C00083000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NFLX 27MAR26 83 C</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" t="n">
+        <v>83</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.8318</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-383.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.2794546</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.2794546</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-327.94546</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-55.23454</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>-383.18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NVDA  260327P00170000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NVDA 27MAR26 170 P</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" t="n">
+        <v>170</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-269.5</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.0294546</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.0294546</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-302.94546</v>
+      </c>
+      <c r="S40" t="n">
+        <v>33.44546</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>-269.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NVDA  260327C00215000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NVDA 27MAR26 215 C</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" t="n">
+        <v>215</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-397.5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.6694546</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.6694546</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-366.94546</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-30.55454</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>-397.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>QQQ   261218P00425000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>QQQ 18DEC26 425 P</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" t="n">
+        <v>425</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.2253</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1445.06</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6.3929546</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-1278.59092</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-166.46908</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
+        <v>-1445.06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SMH   260227P00377500</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 377.5 P</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2494</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-49.88</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.3329546</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4.3329546</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-866.59092</v>
+      </c>
+      <c r="S43" t="n">
+        <v>816.71092</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
+        <v>-49.88</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SMH   260227C00437500</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SMH 27FEB26 437.5 C</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-494</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.5029546</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.5029546</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-700.59092</v>
+      </c>
+      <c r="S44" t="n">
+        <v>206.59092</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
+        <v>-494</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>U6565621</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OPT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SPY   261218P00505000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SPY 18DEC26 505 P</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" t="n">
         <v>505</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>2026-12-18</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>-2</v>
       </c>
-      <c r="N27" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-1594</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="N45" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1501</v>
+      </c>
+      <c r="P45" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q45" t="n">
         <v>7.3496796</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R45" t="n">
         <v>-1469.93592</v>
       </c>
-      <c r="S27" t="n">
-        <v>-124.06408</v>
-      </c>
-      <c r="T27" t="inlineStr">
+      <c r="S45" t="n">
+        <v>-31.06408</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>CBOE</t>
         </is>
       </c>
-      <c r="V27" t="n">
-        <v>-1594</v>
+      <c r="V45" t="n">
+        <v>-1501</v>
       </c>
     </row>
   </sheetData>
@@ -5188,17 +7868,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$295,056.43</t>
+          <t>$320,454.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$147,272.79</t>
+          <t>$123,854.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$442,329.22</t>
+          <t>$444,309.04</t>
         </is>
       </c>
     </row>
@@ -5210,17 +7890,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$434,115.92</t>
+          <t>$468,062.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$127,336.80</t>
+          <t>$97,007.54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$561,452.72</t>
+          <t>$565,069.66</t>
         </is>
       </c>
     </row>
@@ -5238,17 +7918,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$729,172.36</t>
+          <t>$788,517.01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$274,609.59</t>
+          <t>$220,861.69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1,003,781.94</t>
+          <t>$1,009,378.70</t>
         </is>
       </c>
     </row>
@@ -5301,14 +7981,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25 23:54:55</t>
+          <t>2026-02-26 23:54:47</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/projects/fetch-ibkr-positions.xlsx
+++ b/projects/fetch-ibkr-positions.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,17 +590,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>403.85</v>
+        <v>400.3</v>
       </c>
       <c r="O2" t="n">
-        <v>16154</v>
+        <v>16012</v>
       </c>
       <c r="P2" t="n">
         <v>417.712590175</v>
@@ -612,7 +612,7 @@
         <v>16708.503607</v>
       </c>
       <c r="S2" t="n">
-        <v>-554.503607</v>
+        <v>-696.503607</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>20906.5068</v>
+        <v>20685.9028</v>
       </c>
     </row>
     <row r="3">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -670,17 +670,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>10000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.589</v>
+        <v>3.5775</v>
       </c>
       <c r="O3" t="n">
-        <v>35890</v>
+        <v>35775</v>
       </c>
       <c r="P3" t="n">
         <v>3.576275343</v>
@@ -692,7 +692,7 @@
         <v>35762.753425</v>
       </c>
       <c r="S3" t="n">
-        <v>127.246575</v>
+        <v>12.246575</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>46448.838</v>
+        <v>46217.7225</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>67.55</v>
+        <v>67.19</v>
       </c>
       <c r="O4" t="n">
-        <v>20265</v>
+        <v>20157</v>
       </c>
       <c r="P4" t="n">
         <v>65.14093333300001</v>
@@ -772,7 +772,7 @@
         <v>19542.28</v>
       </c>
       <c r="S4" t="n">
-        <v>722.72</v>
+        <v>614.72</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>26226.963</v>
+        <v>26040.8283</v>
       </c>
     </row>
     <row r="5">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14589</v>
+        <v>0.14611</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -830,17 +830,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.74</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>95220</v>
+        <v>95040</v>
       </c>
       <c r="P5" t="n">
         <v>31.36596519</v>
@@ -852,7 +852,7 @@
         <v>94097.89556999999</v>
       </c>
       <c r="S5" t="n">
-        <v>1122.10443</v>
+        <v>942.10443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>13891.6458</v>
+        <v>13886.2944</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.181</v>
+        <v>1.1797</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -910,17 +910,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>2000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.376</v>
+        <v>4.3095</v>
       </c>
       <c r="O6" t="n">
-        <v>8752</v>
+        <v>8619</v>
       </c>
       <c r="P6" t="n">
         <v>4.66233</v>
@@ -932,7 +932,7 @@
         <v>9324.66</v>
       </c>
       <c r="S6" t="n">
-        <v>-572.66</v>
+        <v>-705.66</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>10336.112</v>
+        <v>10167.8343</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.79136</v>
+        <v>0.79112</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,17 +990,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>8000</v>
       </c>
       <c r="N7" t="n">
-        <v>5.015</v>
+        <v>4.965</v>
       </c>
       <c r="O7" t="n">
-        <v>40120</v>
+        <v>39720</v>
       </c>
       <c r="P7" t="n">
         <v>4.717028356</v>
@@ -1012,7 +1012,7 @@
         <v>37736.22685</v>
       </c>
       <c r="S7" t="n">
-        <v>2383.77315</v>
+        <v>1983.77315</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>31749.3632</v>
+        <v>31423.2864</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79136</v>
+        <v>0.79112</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1070,17 +1070,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>603.5</v>
+        <v>600.42</v>
       </c>
       <c r="O8" t="n">
-        <v>30175</v>
+        <v>30021</v>
       </c>
       <c r="P8" t="n">
         <v>581.20939584</v>
@@ -1092,7 +1092,7 @@
         <v>29060.469792</v>
       </c>
       <c r="S8" t="n">
-        <v>1114.530208</v>
+        <v>960.530208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>23879.288</v>
+        <v>23750.21352</v>
       </c>
     </row>
     <row r="9">
@@ -1150,17 +1150,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>750</v>
       </c>
       <c r="N9" t="n">
-        <v>8.335000000000001</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>6251.25</v>
+        <v>6258.75</v>
       </c>
       <c r="P9" t="n">
         <v>8.341905548</v>
@@ -1172,7 +1172,7 @@
         <v>6256.429161</v>
       </c>
       <c r="S9" t="n">
-        <v>-5.179161</v>
+        <v>2.320839</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6251.25</v>
+        <v>6258.75</v>
       </c>
     </row>
     <row r="10">
@@ -1230,17 +1230,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>9.550000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="O10" t="n">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="P10" t="n">
         <v>9.705</v>
@@ -1252,7 +1252,7 @@
         <v>970.5</v>
       </c>
       <c r="S10" t="n">
-        <v>-15.5</v>
+        <v>-38.5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11">
@@ -1310,17 +1310,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>1449</v>
+        <v>1434.2</v>
       </c>
       <c r="O11" t="n">
-        <v>14490</v>
+        <v>14342</v>
       </c>
       <c r="P11" t="n">
         <v>1474.045</v>
@@ -1332,7 +1332,7 @@
         <v>14740.45</v>
       </c>
       <c r="S11" t="n">
-        <v>-250.45</v>
+        <v>-398.45</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>14490</v>
+        <v>14342</v>
       </c>
     </row>
     <row r="12">
@@ -1390,17 +1390,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>312.9</v>
+        <v>307.38</v>
       </c>
       <c r="O12" t="n">
-        <v>31290</v>
+        <v>30738</v>
       </c>
       <c r="P12" t="n">
         <v>301.635</v>
@@ -1412,7 +1412,7 @@
         <v>30163.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1126.5</v>
+        <v>574.5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>31290</v>
+        <v>30738</v>
       </c>
     </row>
     <row r="13">
@@ -1470,17 +1470,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>61.66</v>
+        <v>61.33</v>
       </c>
       <c r="O13" t="n">
-        <v>9865.6</v>
+        <v>9812.799999999999</v>
       </c>
       <c r="P13" t="n">
         <v>59.854125</v>
@@ -1492,7 +1492,7 @@
         <v>9576.66</v>
       </c>
       <c r="S13" t="n">
-        <v>288.94</v>
+        <v>236.14</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9865.6</v>
+        <v>9812.799999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1550,17 +1550,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>385</v>
       </c>
       <c r="N14" t="n">
-        <v>28.2982</v>
+        <v>27.6443</v>
       </c>
       <c r="O14" t="n">
-        <v>10894.81</v>
+        <v>10643.06</v>
       </c>
       <c r="P14" t="n">
         <v>26.012734603</v>
@@ -1572,7 +1572,7 @@
         <v>10014.902822</v>
       </c>
       <c r="S14" t="n">
-        <v>879.907178</v>
+        <v>628.157178</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>10894.81</v>
+        <v>10643.06</v>
       </c>
     </row>
     <row r="15">
@@ -1630,17 +1630,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>147.89</v>
+        <v>150.31</v>
       </c>
       <c r="O15" t="n">
-        <v>14789</v>
+        <v>15031</v>
       </c>
       <c r="P15" t="n">
         <v>205.3357044</v>
@@ -1652,7 +1652,7 @@
         <v>20533.57044</v>
       </c>
       <c r="S15" t="n">
-        <v>-5744.57044</v>
+        <v>-5502.57044</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>14789</v>
+        <v>15031</v>
       </c>
     </row>
     <row r="16">
@@ -1710,17 +1710,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>104.47</v>
+        <v>110.9</v>
       </c>
       <c r="O16" t="n">
-        <v>2089.4</v>
+        <v>2218</v>
       </c>
       <c r="P16" t="n">
         <v>124.315</v>
@@ -1732,7 +1732,7 @@
         <v>2486.3</v>
       </c>
       <c r="S16" t="n">
-        <v>-396.9</v>
+        <v>-268.3</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2089.4</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="17">
@@ -1790,17 +1790,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>178.04</v>
+        <v>177.42</v>
       </c>
       <c r="O17" t="n">
-        <v>53412</v>
+        <v>53226</v>
       </c>
       <c r="P17" t="n">
         <v>173.59738865</v>
@@ -1812,7 +1812,7 @@
         <v>52079.216595</v>
       </c>
       <c r="S17" t="n">
-        <v>1332.783405</v>
+        <v>1146.783405</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>53412</v>
+        <v>53226</v>
       </c>
     </row>
     <row r="18">
@@ -1880,17 +1880,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="P18" t="n">
         <v>2.0105125</v>
@@ -1902,7 +1902,7 @@
         <v>201.05125</v>
       </c>
       <c r="S18" t="n">
-        <v>1.94875</v>
+        <v>-41.05125</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -1970,17 +1970,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>5.375</v>
+        <v>5.575</v>
       </c>
       <c r="O19" t="n">
-        <v>537.5</v>
+        <v>557.5</v>
       </c>
       <c r="P19" t="n">
         <v>4.4905125</v>
@@ -1992,7 +1992,7 @@
         <v>449.05125</v>
       </c>
       <c r="S19" t="n">
-        <v>88.44875</v>
+        <v>108.44875</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>537.5</v>
+        <v>557.5</v>
       </c>
     </row>
     <row r="20">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>26.4053</v>
+        <v>28.0102</v>
       </c>
       <c r="O20" t="n">
-        <v>5281.06</v>
+        <v>5602.04</v>
       </c>
       <c r="P20" t="n">
         <v>23.4605</v>
@@ -2082,7 +2082,7 @@
         <v>4692.1</v>
       </c>
       <c r="S20" t="n">
-        <v>588.96</v>
+        <v>909.9400000000001</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5281.06</v>
+        <v>5602.04</v>
       </c>
     </row>
     <row r="21">
@@ -2150,17 +2150,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>20.305</v>
+        <v>21.1</v>
       </c>
       <c r="O21" t="n">
-        <v>4061</v>
+        <v>4220</v>
       </c>
       <c r="P21" t="n">
         <v>20.1374875</v>
@@ -2172,7 +2172,7 @@
         <v>4027.4975</v>
       </c>
       <c r="S21" t="n">
-        <v>33.5025</v>
+        <v>192.5025</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>4061</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="22">
@@ -2240,17 +2240,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6882</v>
+        <v>1.68</v>
       </c>
       <c r="O22" t="n">
-        <v>-168.82</v>
+        <v>-168</v>
       </c>
       <c r="P22" t="n">
         <v>1.7494546</v>
@@ -2262,7 +2262,7 @@
         <v>-174.94546</v>
       </c>
       <c r="S22" t="n">
-        <v>6.12546</v>
+        <v>6.94546</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>-168.82</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="23">
@@ -2330,17 +2330,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.375</v>
+        <v>2.76</v>
       </c>
       <c r="O23" t="n">
-        <v>-337.5</v>
+        <v>-276</v>
       </c>
       <c r="P23" t="n">
         <v>3.2494546</v>
@@ -2352,7 +2352,7 @@
         <v>-324.94546</v>
       </c>
       <c r="S23" t="n">
-        <v>-12.55454</v>
+        <v>48.94546</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>-337.5</v>
+        <v>-276</v>
       </c>
     </row>
     <row r="24">
@@ -2420,17 +2420,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>-1</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>5.125</v>
       </c>
       <c r="O24" t="n">
-        <v>-460</v>
+        <v>-512.5</v>
       </c>
       <c r="P24" t="n">
         <v>4.0445796</v>
@@ -2442,7 +2442,7 @@
         <v>-404.45796</v>
       </c>
       <c r="S24" t="n">
-        <v>-55.54204</v>
+        <v>-108.04204</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>-460</v>
+        <v>-512.5</v>
       </c>
     </row>
     <row r="25">
@@ -2510,17 +2510,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.095</v>
+        <v>1.065</v>
       </c>
       <c r="O25" t="n">
-        <v>-209.5</v>
+        <v>-106.5</v>
       </c>
       <c r="P25" t="n">
         <v>2.3442796</v>
@@ -2532,7 +2532,7 @@
         <v>-234.42796</v>
       </c>
       <c r="S25" t="n">
-        <v>24.92796</v>
+        <v>127.92796</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-209.5</v>
+        <v>-106.5</v>
       </c>
     </row>
     <row r="26">
@@ -2600,17 +2600,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.805</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
-        <v>-180.5</v>
+        <v>-205</v>
       </c>
       <c r="P26" t="n">
         <v>1.8142796</v>
@@ -2622,7 +2622,7 @@
         <v>-181.42796</v>
       </c>
       <c r="S26" t="n">
-        <v>0.92796</v>
+        <v>-23.57204</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-180.5</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="27">
@@ -2690,17 +2690,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.015</v>
+        <v>0.705</v>
       </c>
       <c r="O27" t="n">
-        <v>-101.5</v>
+        <v>-70.5</v>
       </c>
       <c r="P27" t="n">
         <v>1.0242796</v>
@@ -2712,7 +2712,7 @@
         <v>-102.42796</v>
       </c>
       <c r="S27" t="n">
-        <v>0.92796</v>
+        <v>31.92796</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-101.5</v>
+        <v>-70.5</v>
       </c>
     </row>
     <row r="28">
@@ -2780,17 +2780,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.13</v>
+        <v>0.7708</v>
       </c>
       <c r="O28" t="n">
-        <v>-213</v>
+        <v>-77.08</v>
       </c>
       <c r="P28" t="n">
         <v>3.7194546</v>
@@ -2802,7 +2802,7 @@
         <v>-371.94546</v>
       </c>
       <c r="S28" t="n">
-        <v>158.94546</v>
+        <v>294.86546</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-213</v>
+        <v>-77.08</v>
       </c>
     </row>
     <row r="29">
@@ -2870,17 +2870,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>6.1</v>
+        <v>7.4016</v>
       </c>
       <c r="O29" t="n">
-        <v>-610</v>
+        <v>-740.16</v>
       </c>
       <c r="P29" t="n">
         <v>5.6794546</v>
@@ -2892,7 +2892,7 @@
         <v>-567.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>-42.05454</v>
+        <v>-172.21454</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-610</v>
+        <v>-740.16</v>
       </c>
     </row>
     <row r="30">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.24</v>
+        <v>0.045</v>
       </c>
       <c r="O30" t="n">
-        <v>-48</v>
+        <v>-9</v>
       </c>
       <c r="P30" t="n">
         <v>1.8129546</v>
@@ -2982,7 +2982,7 @@
         <v>-362.59092</v>
       </c>
       <c r="S30" t="n">
-        <v>314.59092</v>
+        <v>353.59092</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-48</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="31">
@@ -3050,17 +3050,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0009</v>
+        <v>0.002</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.18</v>
+        <v>-0.4</v>
       </c>
       <c r="P31" t="n">
         <v>1.3029546</v>
@@ -3072,7 +3072,7 @@
         <v>-260.59092</v>
       </c>
       <c r="S31" t="n">
-        <v>260.41092</v>
+        <v>260.19092</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-0.18</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="32">
@@ -3140,17 +3140,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.06</v>
+        <v>1.865</v>
       </c>
       <c r="O32" t="n">
-        <v>-206</v>
+        <v>-186.5</v>
       </c>
       <c r="P32" t="n">
         <v>2.1194546</v>
@@ -3162,7 +3162,7 @@
         <v>-211.94546</v>
       </c>
       <c r="S32" t="n">
-        <v>5.94546</v>
+        <v>25.44546</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-206</v>
+        <v>-186.5</v>
       </c>
     </row>
     <row r="33">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>6.925</v>
+        <v>7.2</v>
       </c>
       <c r="O33" t="n">
-        <v>-692.5</v>
+        <v>-720</v>
       </c>
       <c r="P33" t="n">
         <v>5.7894546</v>
@@ -3252,7 +3252,7 @@
         <v>-578.94546</v>
       </c>
       <c r="S33" t="n">
-        <v>-113.55454</v>
+        <v>-141.05454</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-692.5</v>
+        <v>-720</v>
       </c>
     </row>
     <row r="34">
@@ -3320,17 +3320,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.155</v>
+        <v>0.8</v>
       </c>
       <c r="O34" t="n">
-        <v>-115.5</v>
+        <v>-80</v>
       </c>
       <c r="P34" t="n">
         <v>1.3294546</v>
@@ -3342,7 +3342,7 @@
         <v>-132.94546</v>
       </c>
       <c r="S34" t="n">
-        <v>17.44546</v>
+        <v>52.94546</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-115.5</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="35">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="O35" t="n">
-        <v>-126</v>
+        <v>-34</v>
       </c>
       <c r="P35" t="n">
         <v>4.6464796</v>
@@ -3432,7 +3432,7 @@
         <v>-929.29592</v>
       </c>
       <c r="S35" t="n">
-        <v>803.29592</v>
+        <v>895.29592</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>-126</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="36">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>-1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.445</v>
+        <v>1.12</v>
       </c>
       <c r="O36" t="n">
-        <v>-144.5</v>
+        <v>-112</v>
       </c>
       <c r="P36" t="n">
         <v>1.8094796</v>
@@ -3522,7 +3522,7 @@
         <v>-180.94796</v>
       </c>
       <c r="S36" t="n">
-        <v>36.44796</v>
+        <v>68.94795999999999</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="V36" t="n">
-        <v>-144.5</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="37">
@@ -3590,17 +3590,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>-2</v>
       </c>
       <c r="N37" t="n">
-        <v>7.2253</v>
+        <v>7.5736</v>
       </c>
       <c r="O37" t="n">
-        <v>-1445.06</v>
+        <v>-1514.72</v>
       </c>
       <c r="P37" t="n">
         <v>6.3644671</v>
@@ -3612,7 +3612,7 @@
         <v>-1272.89342</v>
       </c>
       <c r="S37" t="n">
-        <v>-172.16658</v>
+        <v>-241.82658</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>-1445.06</v>
+        <v>-1514.72</v>
       </c>
     </row>
     <row r="38">
@@ -3680,17 +3680,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>-2</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2494</v>
+        <v>0.031</v>
       </c>
       <c r="O38" t="n">
-        <v>-49.88</v>
+        <v>-6.2</v>
       </c>
       <c r="P38" t="n">
         <v>4.3429546</v>
@@ -3702,7 +3702,7 @@
         <v>-868.59092</v>
       </c>
       <c r="S38" t="n">
-        <v>818.71092</v>
+        <v>862.3909200000001</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="V38" t="n">
-        <v>-49.88</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="39">
@@ -3770,17 +3770,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>-2</v>
       </c>
       <c r="N39" t="n">
-        <v>2.47</v>
+        <v>0.0345</v>
       </c>
       <c r="O39" t="n">
-        <v>-494</v>
+        <v>-6.9</v>
       </c>
       <c r="P39" t="n">
         <v>3.5129546</v>
@@ -3792,7 +3792,7 @@
         <v>-702.59092</v>
       </c>
       <c r="S39" t="n">
-        <v>208.59092</v>
+        <v>695.69092</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="V39" t="n">
-        <v>-494</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="40">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>-2</v>
       </c>
       <c r="N40" t="n">
-        <v>7.505</v>
+        <v>7.765</v>
       </c>
       <c r="O40" t="n">
-        <v>-1501</v>
+        <v>-1553</v>
       </c>
       <c r="P40" t="n">
         <v>7.3548796</v>
@@ -3882,7 +3882,7 @@
         <v>-1470.97592</v>
       </c>
       <c r="S40" t="n">
-        <v>-30.02408</v>
+        <v>-82.02408</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="V40" t="n">
-        <v>-1501</v>
+        <v>-1553</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -4071,17 +4071,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>403.85</v>
+        <v>400.3</v>
       </c>
       <c r="O2" t="n">
-        <v>20192.5</v>
+        <v>20015</v>
       </c>
       <c r="P2" t="n">
         <v>419.6591247</v>
@@ -4093,7 +4093,7 @@
         <v>20982.956235</v>
       </c>
       <c r="S2" t="n">
-        <v>-790.456235</v>
+        <v>-967.956235</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>26133.1335</v>
+        <v>25857.3785</v>
       </c>
     </row>
     <row r="3">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -4151,17 +4151,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>12000</v>
       </c>
       <c r="N3" t="n">
-        <v>3.589</v>
+        <v>3.5775</v>
       </c>
       <c r="O3" t="n">
-        <v>43068</v>
+        <v>42930</v>
       </c>
       <c r="P3" t="n">
         <v>3.574177863</v>
@@ -4173,7 +4173,7 @@
         <v>42890.13435</v>
       </c>
       <c r="S3" t="n">
-        <v>177.86565</v>
+        <v>39.86565</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>55738.6056</v>
+        <v>55461.267</v>
       </c>
     </row>
     <row r="4">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2942</v>
+        <v>1.2919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -4231,17 +4231,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>500</v>
       </c>
       <c r="N4" t="n">
-        <v>67.55</v>
+        <v>67.19</v>
       </c>
       <c r="O4" t="n">
-        <v>33775</v>
+        <v>33595</v>
       </c>
       <c r="P4" t="n">
         <v>65.30711724</v>
@@ -4253,7 +4253,7 @@
         <v>32653.55862</v>
       </c>
       <c r="S4" t="n">
-        <v>1121.44138</v>
+        <v>941.44138</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>43711.605</v>
+        <v>43401.3805</v>
       </c>
     </row>
     <row r="5">
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14589</v>
+        <v>0.14611</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -4311,17 +4311,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>2000</v>
       </c>
       <c r="N5" t="n">
-        <v>31.74</v>
+        <v>31.68</v>
       </c>
       <c r="O5" t="n">
-        <v>63480</v>
+        <v>63360</v>
       </c>
       <c r="P5" t="n">
         <v>31.696238595</v>
@@ -4333,7 +4333,7 @@
         <v>63392.47719</v>
       </c>
       <c r="S5" t="n">
-        <v>87.52281000000001</v>
+        <v>-32.47719</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9261.0972</v>
+        <v>9257.5296</v>
       </c>
     </row>
     <row r="6">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.181</v>
+        <v>1.1797</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -4391,17 +4391,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>3000</v>
       </c>
       <c r="N6" t="n">
-        <v>4.376</v>
+        <v>4.3095</v>
       </c>
       <c r="O6" t="n">
-        <v>13128</v>
+        <v>12928.5</v>
       </c>
       <c r="P6" t="n">
         <v>4.65841303</v>
@@ -4413,7 +4413,7 @@
         <v>13975.239091</v>
       </c>
       <c r="S6" t="n">
-        <v>-847.239091</v>
+        <v>-1046.739091</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>15504.168</v>
+        <v>15251.75145</v>
       </c>
     </row>
     <row r="7">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.181</v>
+        <v>1.1797</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4471,17 +4471,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1000</v>
       </c>
       <c r="N7" t="n">
-        <v>49.44</v>
+        <v>49.82</v>
       </c>
       <c r="O7" t="n">
-        <v>49440</v>
+        <v>49820</v>
       </c>
       <c r="P7" t="n">
         <v>43.01</v>
@@ -4493,7 +4493,7 @@
         <v>43010</v>
       </c>
       <c r="S7" t="n">
-        <v>6430</v>
+        <v>6810</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>58388.64</v>
+        <v>58772.65399999999</v>
       </c>
     </row>
     <row r="8">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.79136</v>
+        <v>0.79112</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4551,17 +4551,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>10000</v>
       </c>
       <c r="N8" t="n">
-        <v>5.015</v>
+        <v>4.965</v>
       </c>
       <c r="O8" t="n">
-        <v>50150</v>
+        <v>49650</v>
       </c>
       <c r="P8" t="n">
         <v>3.81181816</v>
@@ -4573,7 +4573,7 @@
         <v>38118.1816</v>
       </c>
       <c r="S8" t="n">
-        <v>12031.8184</v>
+        <v>11531.8184</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>39686.704</v>
+        <v>39279.108</v>
       </c>
     </row>
     <row r="9">
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79136</v>
+        <v>0.79112</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4631,17 +4631,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>603.5</v>
+        <v>600.42</v>
       </c>
       <c r="O9" t="n">
-        <v>30175</v>
+        <v>30021</v>
       </c>
       <c r="P9" t="n">
         <v>581.41476</v>
@@ -4653,7 +4653,7 @@
         <v>29070.738</v>
       </c>
       <c r="S9" t="n">
-        <v>1104.262</v>
+        <v>950.2619999999999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23879.288</v>
+        <v>23750.21352</v>
       </c>
     </row>
     <row r="10">
@@ -4711,17 +4711,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>800</v>
       </c>
       <c r="N10" t="n">
-        <v>8.335000000000001</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>6668</v>
+        <v>6676</v>
       </c>
       <c r="P10" t="n">
         <v>8.34690969</v>
@@ -4733,7 +4733,7 @@
         <v>6677.527752</v>
       </c>
       <c r="S10" t="n">
-        <v>-9.527752</v>
+        <v>-1.527752</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6668</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="11">
@@ -4791,17 +4791,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>9.550000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="O11" t="n">
-        <v>2865</v>
+        <v>2796</v>
       </c>
       <c r="P11" t="n">
         <v>11.661666667</v>
@@ -4813,7 +4813,7 @@
         <v>3498.5</v>
       </c>
       <c r="S11" t="n">
-        <v>-633.5</v>
+        <v>-702.5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2865</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="12">
@@ -4871,17 +4871,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>1449</v>
+        <v>1434.2</v>
       </c>
       <c r="O12" t="n">
-        <v>28980</v>
+        <v>28684</v>
       </c>
       <c r="P12" t="n">
         <v>1467.02705</v>
@@ -4893,7 +4893,7 @@
         <v>29340.541</v>
       </c>
       <c r="S12" t="n">
-        <v>-360.541</v>
+        <v>-656.5410000000001</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>28980</v>
+        <v>28684</v>
       </c>
     </row>
     <row r="13">
@@ -4951,17 +4951,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>312.9</v>
+        <v>307.38</v>
       </c>
       <c r="O13" t="n">
-        <v>31290</v>
+        <v>30738</v>
       </c>
       <c r="P13" t="n">
         <v>331.87755</v>
@@ -4973,7 +4973,7 @@
         <v>33187.755</v>
       </c>
       <c r="S13" t="n">
-        <v>-1897.755</v>
+        <v>-2449.755</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>31290</v>
+        <v>30738</v>
       </c>
     </row>
     <row r="14">
@@ -5031,17 +5031,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>61.66</v>
+        <v>61.33</v>
       </c>
       <c r="O14" t="n">
-        <v>9865.6</v>
+        <v>9812.799999999999</v>
       </c>
       <c r="P14" t="n">
         <v>60.20275</v>
@@ -5053,7 +5053,7 @@
         <v>9632.440000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>233.16</v>
+        <v>180.36</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9865.6</v>
+        <v>9812.799999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5111,17 +5111,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>16.8448</v>
       </c>
       <c r="N15" t="n">
-        <v>73.65000000000001</v>
+        <v>74.56</v>
       </c>
       <c r="O15" t="n">
-        <v>1240.62</v>
+        <v>1255.95</v>
       </c>
       <c r="P15" t="n">
         <v>20.721325216</v>
@@ -5133,7 +5133,7 @@
         <v>349.046579</v>
       </c>
       <c r="S15" t="n">
-        <v>891.5734210000001</v>
+        <v>906.903421</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1240.62</v>
+        <v>1255.95</v>
       </c>
     </row>
     <row r="16">
@@ -5191,17 +5191,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>385</v>
       </c>
       <c r="N16" t="n">
-        <v>28.2982</v>
+        <v>27.6443</v>
       </c>
       <c r="O16" t="n">
-        <v>10894.81</v>
+        <v>10643.06</v>
       </c>
       <c r="P16" t="n">
         <v>25.997158151</v>
@@ -5213,7 +5213,7 @@
         <v>10008.905888</v>
       </c>
       <c r="S16" t="n">
-        <v>885.9041120000001</v>
+        <v>634.1541120000001</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10894.81</v>
+        <v>10643.06</v>
       </c>
     </row>
     <row r="17">
@@ -5271,17 +5271,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>303.3</v>
+        <v>306.13</v>
       </c>
       <c r="O17" t="n">
-        <v>30330</v>
+        <v>30613</v>
       </c>
       <c r="P17" t="n">
         <v>298.02</v>
@@ -5293,7 +5293,7 @@
         <v>29802</v>
       </c>
       <c r="S17" t="n">
-        <v>528</v>
+        <v>811</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30330</v>
+        <v>30613</v>
       </c>
     </row>
     <row r="18">
@@ -5351,17 +5351,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>400</v>
       </c>
       <c r="N18" t="n">
-        <v>178.04</v>
+        <v>177.42</v>
       </c>
       <c r="O18" t="n">
-        <v>71216</v>
+        <v>70968</v>
       </c>
       <c r="P18" t="n">
         <v>173.889176137</v>
@@ -5373,7 +5373,7 @@
         <v>69555.670455</v>
       </c>
       <c r="S18" t="n">
-        <v>1660.329545</v>
+        <v>1412.329545</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>71216</v>
+        <v>70968</v>
       </c>
     </row>
     <row r="19">
@@ -5441,17 +5441,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="O19" t="n">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="P19" t="n">
         <v>2.1405125</v>
@@ -5463,7 +5463,7 @@
         <v>214.05125</v>
       </c>
       <c r="S19" t="n">
-        <v>-11.05125</v>
+        <v>-54.05125</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>5.375</v>
+        <v>5.575</v>
       </c>
       <c r="O20" t="n">
-        <v>537.5</v>
+        <v>557.5</v>
       </c>
       <c r="P20" t="n">
         <v>4.6805125</v>
@@ -5553,7 +5553,7 @@
         <v>468.05125</v>
       </c>
       <c r="S20" t="n">
-        <v>69.44875</v>
+        <v>89.44875</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>537.5</v>
+        <v>557.5</v>
       </c>
     </row>
     <row r="21">
@@ -5621,17 +5621,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9909</v>
+        <v>3.6612</v>
       </c>
       <c r="O21" t="n">
-        <v>299.09</v>
+        <v>366.12</v>
       </c>
       <c r="P21" t="n">
         <v>2.5205125</v>
@@ -5643,7 +5643,7 @@
         <v>252.05125</v>
       </c>
       <c r="S21" t="n">
-        <v>47.03875</v>
+        <v>114.06875</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>299.09</v>
+        <v>366.12</v>
       </c>
     </row>
     <row r="22">
@@ -5711,17 +5711,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.89</v>
+        <v>0.82</v>
       </c>
       <c r="O22" t="n">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="P22" t="n">
         <v>2.6805125</v>
@@ -5733,7 +5733,7 @@
         <v>268.05125</v>
       </c>
       <c r="S22" t="n">
-        <v>20.94875</v>
+        <v>-186.05125</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>289</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -5801,17 +5801,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>26.4053</v>
+        <v>28.0102</v>
       </c>
       <c r="O23" t="n">
-        <v>5281.06</v>
+        <v>5602.04</v>
       </c>
       <c r="P23" t="n">
         <v>23.5270125</v>
@@ -5823,7 +5823,7 @@
         <v>4705.4025</v>
       </c>
       <c r="S23" t="n">
-        <v>575.6575</v>
+        <v>896.6375</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>5281.06</v>
+        <v>5602.04</v>
       </c>
     </row>
     <row r="24">
@@ -5891,17 +5891,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>20.305</v>
+        <v>21.1</v>
       </c>
       <c r="O24" t="n">
-        <v>4061</v>
+        <v>4220</v>
       </c>
       <c r="P24" t="n">
         <v>20.1350875</v>
@@ -5913,7 +5913,7 @@
         <v>4027.0175</v>
       </c>
       <c r="S24" t="n">
-        <v>33.9825</v>
+        <v>192.9825</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>4061</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="25">
@@ -5981,17 +5981,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6882</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
-        <v>-168.82</v>
+        <v>-168</v>
       </c>
       <c r="P25" t="n">
         <v>1.7694546</v>
@@ -6003,7 +6003,7 @@
         <v>-176.94546</v>
       </c>
       <c r="S25" t="n">
-        <v>8.12546</v>
+        <v>8.945460000000001</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>-168.82</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="26">
@@ -6071,17 +6071,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>-1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.375</v>
+        <v>2.76</v>
       </c>
       <c r="O26" t="n">
-        <v>-337.5</v>
+        <v>-276</v>
       </c>
       <c r="P26" t="n">
         <v>3.4194546</v>
@@ -6093,7 +6093,7 @@
         <v>-341.94546</v>
       </c>
       <c r="S26" t="n">
-        <v>4.44546</v>
+        <v>65.94546</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>-337.5</v>
+        <v>-276</v>
       </c>
     </row>
     <row r="27">
@@ -6161,17 +6161,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>5.125</v>
       </c>
       <c r="O27" t="n">
-        <v>-460</v>
+        <v>-512.5</v>
       </c>
       <c r="P27" t="n">
         <v>4.1794546</v>
@@ -6183,7 +6183,7 @@
         <v>-417.94546</v>
       </c>
       <c r="S27" t="n">
-        <v>-42.05454</v>
+        <v>-94.55454</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>-460</v>
+        <v>-512.5</v>
       </c>
     </row>
     <row r="28">
@@ -6251,17 +6251,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.095</v>
+        <v>1.065</v>
       </c>
       <c r="O28" t="n">
-        <v>-209.5</v>
+        <v>-106.5</v>
       </c>
       <c r="P28" t="n">
         <v>2.3694546</v>
@@ -6273,7 +6273,7 @@
         <v>-236.94546</v>
       </c>
       <c r="S28" t="n">
-        <v>27.44546</v>
+        <v>130.44546</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>-209.5</v>
+        <v>-106.5</v>
       </c>
     </row>
     <row r="29">
@@ -6341,17 +6341,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.805</v>
+        <v>2.05</v>
       </c>
       <c r="O29" t="n">
-        <v>-180.5</v>
+        <v>-205</v>
       </c>
       <c r="P29" t="n">
         <v>1.7994546</v>
@@ -6363,7 +6363,7 @@
         <v>-179.94546</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.55454</v>
+        <v>-25.05454</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>-180.5</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="30">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.015</v>
+        <v>0.705</v>
       </c>
       <c r="O30" t="n">
-        <v>-101.5</v>
+        <v>-70.5</v>
       </c>
       <c r="P30" t="n">
         <v>1.0594546</v>
@@ -6453,7 +6453,7 @@
         <v>-105.94546</v>
       </c>
       <c r="S30" t="n">
-        <v>4.44546</v>
+        <v>35.44546</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>-101.5</v>
+        <v>-70.5</v>
       </c>
     </row>
     <row r="31">
@@ -6521,17 +6521,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="O31" t="n">
-        <v>-101</v>
+        <v>-105</v>
       </c>
       <c r="P31" t="n">
         <v>3.6594796</v>
@@ -6543,7 +6543,7 @@
         <v>-365.94796</v>
       </c>
       <c r="S31" t="n">
-        <v>264.94796</v>
+        <v>260.94796</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>-101</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="32">
@@ -6611,17 +6611,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>5.0919</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>-509.19</v>
+        <v>-320</v>
       </c>
       <c r="P32" t="n">
         <v>4.6494796</v>
@@ -6633,7 +6633,7 @@
         <v>-464.94796</v>
       </c>
       <c r="S32" t="n">
-        <v>-44.24204</v>
+        <v>144.94796</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="V32" t="n">
-        <v>-509.19</v>
+        <v>-320</v>
       </c>
     </row>
     <row r="33">
@@ -6701,17 +6701,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>0.24</v>
+        <v>0.045</v>
       </c>
       <c r="O33" t="n">
-        <v>-48</v>
+        <v>-9</v>
       </c>
       <c r="P33" t="n">
         <v>1.8429546</v>
@@ -6723,7 +6723,7 @@
         <v>-368.59092</v>
       </c>
       <c r="S33" t="n">
-        <v>320.59092</v>
+        <v>359.59092</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>-48</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="34">
@@ -6791,17 +6791,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0009</v>
+        <v>0.002</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.18</v>
+        <v>-0.4</v>
       </c>
       <c r="P34" t="n">
         <v>1.2929546</v>
@@ -6813,7 +6813,7 @@
         <v>-258.59092</v>
       </c>
       <c r="S34" t="n">
-        <v>258.41092</v>
+        <v>258.19092</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="V34" t="n">
-        <v>-0.18</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="35">
@@ -6881,17 +6881,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>-1</v>
       </c>
       <c r="N35" t="n">
-        <v>6.375</v>
+        <v>7.275</v>
       </c>
       <c r="O35" t="n">
-        <v>-637.5</v>
+        <v>-727.5</v>
       </c>
       <c r="P35" t="n">
         <v>4.4694546</v>
@@ -6903,7 +6903,7 @@
         <v>-446.94546</v>
       </c>
       <c r="S35" t="n">
-        <v>-190.55454</v>
+        <v>-280.55454</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>-637.5</v>
+        <v>-727.5</v>
       </c>
     </row>
     <row r="36">
@@ -6971,17 +6971,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>-1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.06</v>
+        <v>1.865</v>
       </c>
       <c r="O36" t="n">
-        <v>-206</v>
+        <v>-186.5</v>
       </c>
       <c r="P36" t="n">
         <v>2.1094546</v>
@@ -6993,7 +6993,7 @@
         <v>-210.94546</v>
       </c>
       <c r="S36" t="n">
-        <v>4.94546</v>
+        <v>24.44546</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="V36" t="n">
-        <v>-206</v>
+        <v>-186.5</v>
       </c>
     </row>
     <row r="37">
@@ -7061,17 +7061,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>-1</v>
       </c>
       <c r="N37" t="n">
-        <v>6.925</v>
+        <v>7.2</v>
       </c>
       <c r="O37" t="n">
-        <v>-692.5</v>
+        <v>-720</v>
       </c>
       <c r="P37" t="n">
         <v>5.9994546</v>
@@ -7083,7 +7083,7 @@
         <v>-599.94546</v>
       </c>
       <c r="S37" t="n">
-        <v>-92.55454</v>
+        <v>-120.05454</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>-692.5</v>
+        <v>-720</v>
       </c>
     </row>
     <row r="38">
@@ -7151,17 +7151,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>-1</v>
       </c>
       <c r="N38" t="n">
-        <v>0.695</v>
+        <v>0.4713</v>
       </c>
       <c r="O38" t="n">
-        <v>-69.5</v>
+        <v>-47.13</v>
       </c>
       <c r="P38" t="n">
         <v>0.8794546</v>
@@ -7173,7 +7173,7 @@
         <v>-87.94546</v>
       </c>
       <c r="S38" t="n">
-        <v>18.44546</v>
+        <v>40.81546</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="V38" t="n">
-        <v>-69.5</v>
+        <v>-47.13</v>
       </c>
     </row>
     <row r="39">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>-1</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8318</v>
+        <v>4.9059</v>
       </c>
       <c r="O39" t="n">
-        <v>-383.18</v>
+        <v>-490.59</v>
       </c>
       <c r="P39" t="n">
         <v>3.2794546</v>
@@ -7263,7 +7263,7 @@
         <v>-327.94546</v>
       </c>
       <c r="S39" t="n">
-        <v>-55.23454</v>
+        <v>-162.64454</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="V39" t="n">
-        <v>-383.18</v>
+        <v>-490.59</v>
       </c>
     </row>
     <row r="40">
@@ -7331,17 +7331,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>-1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.695</v>
+        <v>3.825</v>
       </c>
       <c r="O40" t="n">
-        <v>-269.5</v>
+        <v>-382.5</v>
       </c>
       <c r="P40" t="n">
         <v>3.0294546</v>
@@ -7353,7 +7353,7 @@
         <v>-302.94546</v>
       </c>
       <c r="S40" t="n">
-        <v>33.44546</